--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -4,64 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="1815" yWindow="405" windowWidth="16110" windowHeight="7815" activeTab="3"/>
+    <workbookView xWindow="1815" yWindow="405" windowWidth="16110" windowHeight="7815"/>
   </bookViews>
   <sheets>
-    <sheet name="命令フォーマット" sheetId="5" r:id="rId1"/>
-    <sheet name="CC" sheetId="6" r:id="rId2"/>
-    <sheet name="AFE" sheetId="7" r:id="rId3"/>
-    <sheet name="命令一覧" sheetId="1" r:id="rId4"/>
+    <sheet name="命令一覧" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="924" uniqueCount="560">
-  <si>
-    <t>オペコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>予約</t>
-    <rPh sb="0" eb="2">
-      <t>ヨヤク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="409">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>拡張</t>
-    <rPh sb="0" eb="2">
-      <t>カクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>4…0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>9…5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>即値の使用未使用</t>
-    <rPh sb="0" eb="2">
-      <t>ソクチ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="5" eb="8">
-      <t>ミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>add</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -122,18 +80,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>15…10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immidiaite16フォーマット(I16)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2Operandフォーマット(O2)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>O2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -178,38 +124,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>30…21</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Operand2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Operand1(Destination)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20…10</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate[15...5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate[4...0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immidiateフォーマット(I5)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1Operandフォーマット(O1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>O2</t>
   </si>
   <si>
@@ -218,22 +132,6 @@
   </si>
   <si>
     <t>set bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19…16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate[10...5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediaiteフォーマット(I11)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15…0</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -321,14 +219,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AFE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Program Counter Push</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -358,40 +248,6 @@
   </si>
   <si>
     <t>nor</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate[4…0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate[9…5]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate[15…10]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Operand1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>即値の仕様未使用</t>
-    <rPh sb="0" eb="2">
-      <t>ソクチ</t>
-    </rPh>
-    <rPh sb="3" eb="8">
-      <t>シヨウミシヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jump Operand1フォーマット(JO1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Jump Immediaite16フォーマット(JI16)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -721,86 +577,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>命令フォーマット</t>
-    <rPh sb="0" eb="2">
-      <t>メイレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>各命令フォーマットに対するRd,Rsの対応</t>
-    <rPh sb="0" eb="3">
-      <t>カクメイレイ</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>タイ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>タイオウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I11</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>I16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>JI16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>JO1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Operand1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Operand1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = Rd + Rs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -838,26 +618,6 @@
   </si>
   <si>
     <t>FLAGR = flags(Rd, Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※アセンブラはRdを使用しない命令はRdをゼロとする</t>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>メイレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>※アセンブラはRsを使用しない命令はRsをゼロとする</t>
-    <rPh sb="10" eb="12">
-      <t>シヨウ</t>
-    </rPh>
-    <rPh sb="15" eb="17">
-      <t>メイレイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -960,16 +720,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>←廃止予定</t>
-    <rPh sb="1" eb="3">
-      <t>ハイシ</t>
-    </rPh>
-    <rPh sb="3" eb="5">
-      <t>ヨテイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I11</t>
   </si>
   <si>
@@ -1061,235 +811,6 @@
   </si>
   <si>
     <t>Word Addressing</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Code(DEX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Code(HEX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Always</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Equal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Not Equal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Minus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Plus</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Even Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Odd Number</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Overflow</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Condition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Cary Set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Not Cary Set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unsigned higher or same</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unsigned higher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Signed higher or same</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Signed higher</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unsigned lower</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Unsigned lower or same</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Signed lower</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Signed lower or same</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CC1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CC2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NEQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Operate1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Operate2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>-</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>+</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!%2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NZ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MI</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ON</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EN</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PL</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OVF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>C</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Flag Condition</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!ZF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!SF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!PS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>OF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!CF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CF and !ZF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>!CF or ZF</t>
-  </si>
-  <si>
-    <t>(SF and OF) or (!SF and !OF)</t>
-  </si>
-  <si>
-    <t>(SF and !OF) or (!SF and OF)</t>
-  </si>
-  <si>
-    <t>!ZF and SF==OF</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1374,50 +895,6 @@
   </si>
   <si>
     <t>Rd = Rs(Signed) + PC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CC3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EQ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>NE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GEU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LTU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GTU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LEU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>GT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>LE</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1866,66 +1343,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UEO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UEU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>UU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SU</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SO</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ZF or !SF==OF</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U&lt;=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U&gt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U&lt;</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>U&gt;=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&lt;=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>&gt;=</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>alithmetic shift right</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2371,10 +1788,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Operate1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Type</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2399,72 +1812,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Flag Information</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>none</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AFE1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AFE2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AFE3</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADV※</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ADV : ディスプレイスメント付きLoad/Store命令においてのディスプレイスメント値。それ以外の命令では将来のためのReserveで0とする。</t>
-    <rPh sb="16" eb="17">
-      <t>ツ</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="45" eb="46">
-      <t>アタイ</t>
-    </rPh>
-    <rPh sb="49" eb="51">
-      <t>イガイ</t>
-    </rPh>
-    <rPh sb="52" eb="54">
-      <t>メイレイ</t>
-    </rPh>
-    <rPh sb="56" eb="58">
-      <t>ショウライ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = EX</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = SignExtension8to32(EX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = SignExtension16to32(EX)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEXT8-32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SEXT16-32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Memory Access</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2477,10 +1824,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MA(Memory Access)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2502,45 +1845,6 @@
   </si>
   <si>
     <t>Format1(Operand/Disp)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オペコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>オペコード</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>拡張</t>
-    <rPh sb="0" eb="2">
-      <t>カクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>19…16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>15…0</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate[4...0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate[15...0]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Controlフォーマット(C)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Control Immediate16フォーマット(CI16)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2616,6 +1920,25 @@
   <si>
     <t>Addr[Dec]</t>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CI16</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Flag</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tas gr[src0], mem[src1]</t>
   </si>
 </sst>
 </file>
@@ -2695,7 +2018,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="27">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -2927,143 +2250,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thick">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thick">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -3154,67 +2347,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="46" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1">
@@ -3245,15 +2384,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
@@ -3572,1413 +2702,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="D1:M38"/>
-  <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="5" max="5" width="10.625" customWidth="1"/>
-    <col min="6" max="6" width="18.125" customWidth="1"/>
-    <col min="7" max="7" width="20.375" customWidth="1"/>
-    <col min="8" max="8" width="16.25" customWidth="1"/>
-    <col min="9" max="9" width="22.375" customWidth="1"/>
-    <col min="10" max="10" width="15.125" customWidth="1"/>
-    <col min="12" max="12" width="34" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="4:13" ht="14.25" thickBot="1"/>
-    <row r="2" spans="4:13" ht="15" thickTop="1" thickBot="1">
-      <c r="D2" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="35"/>
-    </row>
-    <row r="3" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D3" s="30">
-        <v>31</v>
-      </c>
-      <c r="E3" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="31">
-        <v>20</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I3" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J3" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" s="31"/>
-      <c r="L3" s="32"/>
-    </row>
-    <row r="4" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D4" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="12" t="s">
-        <v>534</v>
-      </c>
-      <c r="F4" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J4" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="M4" s="47" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="5" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D5" s="30">
-        <v>31</v>
-      </c>
-      <c r="E5" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F5" s="31">
-        <v>20</v>
-      </c>
-      <c r="G5" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I5" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J5" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K5" s="31"/>
-      <c r="L5" s="32"/>
-    </row>
-    <row r="6" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D6" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F6" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H6" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="I6" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J6" s="12" t="s">
-        <v>41</v>
-      </c>
-      <c r="K6" s="12"/>
-      <c r="L6" s="13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D7" s="30">
-        <v>31</v>
-      </c>
-      <c r="E7" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="31" t="s">
-        <v>39</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="I7" s="31"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="31"/>
-      <c r="L7" s="32"/>
-    </row>
-    <row r="8" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D8" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E8" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F8" s="12" t="s">
-        <v>40</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="12" t="s">
-        <v>539</v>
-      </c>
-      <c r="I8" s="12"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
-      <c r="L8" s="13" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D9" s="30">
-        <v>31</v>
-      </c>
-      <c r="E9" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="31">
-        <v>20</v>
-      </c>
-      <c r="G9" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J9" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K9" s="31"/>
-      <c r="L9" s="32"/>
-    </row>
-    <row r="10" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D10" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F10" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H10" s="12" t="s">
-        <v>517</v>
-      </c>
-      <c r="I10" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J10" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="K10" s="12"/>
-      <c r="L10" s="13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="11" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D11" s="30">
-        <v>31</v>
-      </c>
-      <c r="E11" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F11" s="31">
-        <v>20</v>
-      </c>
-      <c r="G11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H11" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I11" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J11" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="32"/>
-    </row>
-    <row r="12" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D12" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E12" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="G12" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I12" s="12" t="s">
-        <v>38</v>
-      </c>
-      <c r="J12" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K12" s="12"/>
-      <c r="L12" s="13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D13" s="30">
-        <v>31</v>
-      </c>
-      <c r="E13" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="31">
-        <v>20</v>
-      </c>
-      <c r="G13" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H13" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="I13" s="31"/>
-      <c r="J13" s="31"/>
-      <c r="K13" s="31"/>
-      <c r="L13" s="32"/>
-    </row>
-    <row r="14" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D14" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F14" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G14" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H14" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="13" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="15" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D15" s="30">
-        <v>31</v>
-      </c>
-      <c r="E15" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F15" s="31">
-        <v>20</v>
-      </c>
-      <c r="G15" s="31" t="s">
-        <v>537</v>
-      </c>
-      <c r="H15" s="31" t="s">
-        <v>538</v>
-      </c>
-      <c r="I15" s="31"/>
-      <c r="J15" s="31"/>
-      <c r="K15" s="31"/>
-      <c r="L15" s="32"/>
-    </row>
-    <row r="16" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D16" s="11" t="s">
-        <v>536</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>535</v>
-      </c>
-      <c r="F16" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="H16" s="12" t="s">
-        <v>540</v>
-      </c>
-      <c r="I16" s="12"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
-      <c r="L16" s="13" t="s">
-        <v>542</v>
-      </c>
-    </row>
-    <row r="17" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D17" s="30">
-        <v>31</v>
-      </c>
-      <c r="E17" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="F17" s="31">
-        <v>20</v>
-      </c>
-      <c r="G17" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="H17" s="37" t="s">
-        <v>22</v>
-      </c>
-      <c r="I17" s="38" t="s">
-        <v>5</v>
-      </c>
-      <c r="J17" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="32"/>
-    </row>
-    <row r="18" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D18" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E18" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F18" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="G18" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H18" s="42" t="s">
-        <v>78</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="J18" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="K18" s="12"/>
-      <c r="L18" s="13" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D19" s="14">
-        <v>31</v>
-      </c>
-      <c r="E19" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="15">
-        <v>20</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>47</v>
-      </c>
-      <c r="H19" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="39" t="s">
-        <v>5</v>
-      </c>
-      <c r="J19" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="16"/>
-    </row>
-    <row r="20" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D20" s="11" t="s">
-        <v>3</v>
-      </c>
-      <c r="E20" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="F20" s="12" t="s">
-        <v>80</v>
-      </c>
-      <c r="G20" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="H20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="I20" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="J20" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="K20" s="12"/>
-      <c r="L20" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="21" spans="4:13" ht="14.25" thickTop="1">
-      <c r="H21" s="20"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="4:13" ht="14.25" thickBot="1"/>
-    <row r="23" spans="4:13" ht="14.25" thickTop="1">
-      <c r="D23" s="30" t="s">
-        <v>151</v>
-      </c>
-      <c r="E23" s="31"/>
-      <c r="F23" s="32"/>
-      <c r="H23" s="3" t="s">
-        <v>518</v>
-      </c>
-      <c r="I23" s="2"/>
-    </row>
-    <row r="24" spans="4:13">
-      <c r="D24" s="5"/>
-      <c r="E24" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="2"/>
-    </row>
-    <row r="25" spans="4:13">
-      <c r="D25" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="E25" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="26" spans="4:13">
-      <c r="D26" s="5" t="s">
-        <v>153</v>
-      </c>
-      <c r="E26" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="I26" s="21"/>
-      <c r="J26" s="21"/>
-      <c r="K26" s="21"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="21"/>
-    </row>
-    <row r="27" spans="4:13">
-      <c r="D27" s="5" t="s">
-        <v>154</v>
-      </c>
-      <c r="E27" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="2"/>
-    </row>
-    <row r="28" spans="4:13">
-      <c r="D28" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="E28" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="29" spans="4:13">
-      <c r="D29" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="E29" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="I29" s="21"/>
-      <c r="J29" s="21"/>
-      <c r="K29" s="21"/>
-      <c r="L29" s="21"/>
-    </row>
-    <row r="30" spans="4:13">
-      <c r="D30" s="5" t="s">
-        <v>157</v>
-      </c>
-      <c r="E30" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="H30" s="20"/>
-      <c r="I30" s="20"/>
-      <c r="J30" s="20"/>
-    </row>
-    <row r="31" spans="4:13">
-      <c r="D31" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E31" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="H31" s="20"/>
-      <c r="I31" s="20"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="4:13" ht="14.25" thickBot="1">
-      <c r="D32" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="E32" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="F32" s="13" t="s">
-        <v>165</v>
-      </c>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="4:10" ht="14.25" thickTop="1">
-      <c r="H33" s="46"/>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="4:10">
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="4:10">
-      <c r="D35" t="s">
-        <v>177</v>
-      </c>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-    </row>
-    <row r="36" spans="4:10">
-      <c r="D36" t="s">
-        <v>178</v>
-      </c>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-    </row>
-    <row r="37" spans="4:10">
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="4:10">
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:J20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C39" sqref="C39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="2" max="2" width="11.375" customWidth="1"/>
-    <col min="3" max="3" width="10.625" customWidth="1"/>
-    <col min="4" max="4" width="17.625" customWidth="1"/>
-    <col min="5" max="5" width="25.375" customWidth="1"/>
-    <col min="6" max="6" width="10.25" customWidth="1"/>
-    <col min="10" max="10" width="27.625" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:10" ht="14.25" thickBot="1"/>
-    <row r="3" spans="2:10" ht="15" thickTop="1" thickBot="1">
-      <c r="B3" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>249</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="H3" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="I3" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="J3" s="19" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" ht="14.25" thickTop="1">
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="str">
-        <f>"0x" &amp; DEC2HEX(B4, 1)</f>
-        <v>0x0</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>224</v>
-      </c>
-      <c r="E4" s="15"/>
-      <c r="F4" s="15"/>
-      <c r="G4" s="15" t="s">
-        <v>245</v>
-      </c>
-      <c r="H4" s="15"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="16"/>
-    </row>
-    <row r="5" spans="2:10">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="str">
-        <f t="shared" ref="C5:C19" si="0">"0x" &amp; DEC2HEX(B5, 1)</f>
-        <v>0x1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6" t="str">
-        <f>"=="</f>
-        <v>==</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="I5" s="24" t="s">
-        <v>296</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10">
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="G6" s="6" t="s">
-        <v>247</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>257</v>
-      </c>
-      <c r="I6" s="24" t="s">
-        <v>297</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10">
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x3</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6" t="s">
-        <v>251</v>
-      </c>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="I7" s="24"/>
-      <c r="J7" s="7" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10">
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x4</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="I8" s="24"/>
-      <c r="J8" s="7" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10">
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x5</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>229</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="49" t="str">
-        <f>"2%"</f>
-        <v>2%</v>
-      </c>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6" t="s">
-        <v>260</v>
-      </c>
-      <c r="I9" s="24"/>
-      <c r="J9" s="7" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="5">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x6</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6" t="s">
-        <v>253</v>
-      </c>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="I10" s="24"/>
-      <c r="J10" s="7" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="5">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x7</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6" t="s">
-        <v>262</v>
-      </c>
-      <c r="I11" s="24"/>
-      <c r="J11" s="7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10">
-      <c r="B12" s="5">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x8</v>
-      </c>
-      <c r="D12" s="6" t="s">
-        <v>233</v>
-      </c>
-      <c r="E12" s="6" t="s">
-        <v>235</v>
-      </c>
-      <c r="F12" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="G12" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>263</v>
-      </c>
-      <c r="I12" s="24" t="s">
-        <v>298</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10">
-      <c r="B13" s="5">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x9</v>
-      </c>
-      <c r="D13" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="E13" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="F13" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="G13" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="I13" s="24" t="s">
-        <v>299</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10">
-      <c r="B14" s="5">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xA</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="F14" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="H14" s="6"/>
-      <c r="I14" s="24" t="s">
-        <v>300</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10">
-      <c r="B15" s="5">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xB</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="F15" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="G15" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="H15" s="6"/>
-      <c r="I15" s="24" t="s">
-        <v>301</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
-      <c r="B16" s="5">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xC</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6" t="s">
-        <v>237</v>
-      </c>
-      <c r="F16" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="G16" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="H16" s="6"/>
-      <c r="I16" s="24" t="s">
-        <v>302</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="17" spans="2:10">
-      <c r="B17" s="5">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xD</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="F17" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="G17" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="24" t="s">
-        <v>303</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="18" spans="2:10">
-      <c r="B18" s="5">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xE</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>255</v>
-      </c>
-      <c r="G18" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="H18" s="6"/>
-      <c r="I18" s="24" t="s">
-        <v>304</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="19" spans="2:10" ht="14.25" thickBot="1">
-      <c r="B19" s="11">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0xF</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="F19" s="12" t="s">
-        <v>417</v>
-      </c>
-      <c r="G19" s="12" t="s">
-        <v>408</v>
-      </c>
-      <c r="H19" s="12"/>
-      <c r="I19" s="25" t="s">
-        <v>305</v>
-      </c>
-      <c r="J19" s="13" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="20" spans="2:10" ht="14.25" thickTop="1"/>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:G20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <cols>
-    <col min="4" max="4" width="27.375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:7" ht="14.25" thickBot="1"/>
-    <row r="2" spans="2:7" ht="15" thickTop="1" thickBot="1">
-      <c r="B2" s="62" t="s">
-        <v>506</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>527</v>
-      </c>
-      <c r="D2" s="61"/>
-      <c r="E2" s="61"/>
-      <c r="F2" s="61"/>
-      <c r="G2" s="63"/>
-    </row>
-    <row r="3" spans="2:7" ht="15" thickTop="1" thickBot="1">
-      <c r="B3" s="17" t="s">
-        <v>222</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>223</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>505</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>514</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>515</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7" ht="14.25" thickTop="1">
-      <c r="B4" s="14">
-        <v>0</v>
-      </c>
-      <c r="C4" s="15" t="str">
-        <f>"0x" &amp; DEC2HEX(B4, 1)</f>
-        <v>0x0</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>519</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>513</v>
-      </c>
-      <c r="F4" s="15"/>
-      <c r="G4" s="16"/>
-    </row>
-    <row r="5" spans="2:7">
-      <c r="B5" s="5">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6" t="str">
-        <f t="shared" ref="C5:C19" si="0">"0x" &amp; DEC2HEX(B5, 1)</f>
-        <v>0x1</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>522</v>
-      </c>
-      <c r="F5" s="6"/>
-      <c r="G5" s="7"/>
-    </row>
-    <row r="6" spans="2:7">
-      <c r="B6" s="5">
-        <v>2</v>
-      </c>
-      <c r="C6" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x2</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>521</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="F6" s="6"/>
-      <c r="G6" s="7"/>
-    </row>
-    <row r="7" spans="2:7">
-      <c r="B7" s="5">
-        <v>3</v>
-      </c>
-      <c r="C7" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x3</v>
-      </c>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="7"/>
-    </row>
-    <row r="8" spans="2:7">
-      <c r="B8" s="5">
-        <v>4</v>
-      </c>
-      <c r="C8" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x4</v>
-      </c>
-      <c r="D8" s="6"/>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="7"/>
-    </row>
-    <row r="9" spans="2:7">
-      <c r="B9" s="5">
-        <v>5</v>
-      </c>
-      <c r="C9" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x5</v>
-      </c>
-      <c r="D9" s="6"/>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="7"/>
-    </row>
-    <row r="10" spans="2:7">
-      <c r="B10" s="5">
-        <v>6</v>
-      </c>
-      <c r="C10" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x6</v>
-      </c>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="7"/>
-    </row>
-    <row r="11" spans="2:7">
-      <c r="B11" s="5">
-        <v>7</v>
-      </c>
-      <c r="C11" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x7</v>
-      </c>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="7"/>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="B12" s="5">
-        <v>8</v>
-      </c>
-      <c r="C12" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x8</v>
-      </c>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="7"/>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" s="5">
-        <v>9</v>
-      </c>
-      <c r="C13" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0x9</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="7"/>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="B14" s="5">
-        <v>10</v>
-      </c>
-      <c r="C14" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xA</v>
-      </c>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="7"/>
-    </row>
-    <row r="15" spans="2:7">
-      <c r="B15" s="5">
-        <v>11</v>
-      </c>
-      <c r="C15" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xB</v>
-      </c>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="7"/>
-    </row>
-    <row r="16" spans="2:7">
-      <c r="B16" s="5">
-        <v>12</v>
-      </c>
-      <c r="C16" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xC</v>
-      </c>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="7"/>
-    </row>
-    <row r="17" spans="2:7">
-      <c r="B17" s="5">
-        <v>13</v>
-      </c>
-      <c r="C17" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xD</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="7"/>
-    </row>
-    <row r="18" spans="2:7">
-      <c r="B18" s="5">
-        <v>14</v>
-      </c>
-      <c r="C18" s="6" t="str">
-        <f t="shared" si="0"/>
-        <v>0xE</v>
-      </c>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="7"/>
-    </row>
-    <row r="19" spans="2:7" ht="14.25" thickBot="1">
-      <c r="B19" s="11">
-        <v>15</v>
-      </c>
-      <c r="C19" s="12" t="str">
-        <f t="shared" si="0"/>
-        <v>0xF</v>
-      </c>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="12"/>
-      <c r="G19" s="13"/>
-    </row>
-    <row r="20" spans="2:7" ht="14.25" thickTop="1"/>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
   <dimension ref="A2:AK1031"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -5012,73 +2739,73 @@
   <sheetData>
     <row r="2" spans="1:19">
       <c r="C2" t="s">
-        <v>54</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:19">
       <c r="C3" t="s">
-        <v>185</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" thickBot="1">
-      <c r="M5" s="65"/>
+      <c r="M5" s="44"/>
       <c r="N5" s="4" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1">
       <c r="A6" s="17" t="s">
-        <v>558</v>
+        <v>402</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>559</v>
+        <v>403</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>506</v>
+        <v>372</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>507</v>
+        <v>373</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>508</v>
+        <v>374</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>509</v>
+        <v>375</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>510</v>
+        <v>376</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>533</v>
+        <v>386</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>532</v>
+        <v>385</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>511</v>
+        <v>377</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>512</v>
+        <v>405</v>
       </c>
       <c r="L6" s="29" t="s">
-        <v>525</v>
-      </c>
-      <c r="M6" s="64" t="s">
-        <v>526</v>
+        <v>379</v>
+      </c>
+      <c r="M6" s="43" t="s">
+        <v>380</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>106</v>
-      </c>
-      <c r="O6" s="51" t="s">
-        <v>318</v>
-      </c>
-      <c r="P6" s="51" t="s">
-        <v>184</v>
+        <v>76</v>
+      </c>
+      <c r="O6" s="33" t="s">
+        <v>200</v>
+      </c>
+      <c r="P6" s="33" t="s">
+        <v>136</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" thickTop="1">
@@ -5090,29 +2817,29 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="E7" s="56" t="s">
-        <v>401</v>
+        <v>1</v>
+      </c>
+      <c r="E7" s="38" t="s">
+        <v>283</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G7" s="15" t="str">
         <f t="shared" ref="G7:G9" si="0">DEC2BIN(B7, 10)</f>
         <v>0000000000</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>167</v>
+        <v>121</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -5132,26 +2859,26 @@
       </c>
       <c r="C8" s="6"/>
       <c r="D8" s="6" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G8" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0000000001</v>
       </c>
       <c r="H8" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>199</v>
+        <v>150</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>168</v>
+        <v>122</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -5171,26 +2898,26 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
         <v>0000000010</v>
       </c>
       <c r="H9" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>169</v>
+        <v>123</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -5210,26 +2937,26 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" ref="G10:G70" si="2">DEC2BIN(B10, 10)</f>
         <v>0000000011</v>
       </c>
       <c r="H10" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>170</v>
+        <v>124</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -5249,24 +2976,24 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>334</v>
+        <v>216</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000000100</v>
       </c>
       <c r="H11" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -5276,7 +3003,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q11" s="7"/>
     </row>
@@ -5290,24 +3017,24 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="22" t="s">
-        <v>191</v>
+        <v>143</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>335</v>
+        <v>217</v>
       </c>
       <c r="G12" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000000101</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -5317,7 +3044,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
@@ -5331,26 +3058,26 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="22" t="s">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="G13" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000000110</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -5359,7 +3086,7 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="7" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -5372,26 +3099,26 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="22" t="s">
-        <v>193</v>
+        <v>145</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>336</v>
+        <v>218</v>
       </c>
       <c r="G14" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000000111</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>171</v>
+        <v>125</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -5401,7 +3128,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q14" s="7"/>
     </row>
@@ -5415,26 +3142,26 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="22" t="s">
-        <v>194</v>
+        <v>146</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>337</v>
+        <v>219</v>
       </c>
       <c r="G15" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000001000</v>
       </c>
       <c r="H15" s="15" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>172</v>
+        <v>126</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -5444,12 +3171,12 @@
         <v>4</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>111</v>
+        <v>81</v>
       </c>
       <c r="Q15" s="7"/>
     </row>
     <row r="16" spans="1:19">
-      <c r="A16" s="55" t="str">
+      <c r="A16" s="37" t="str">
         <f t="shared" si="1"/>
         <v>009</v>
       </c>
@@ -5458,111 +3185,111 @@
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>204</v>
+        <v>155</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>338</v>
+        <v>220</v>
       </c>
       <c r="G16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000001001</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22" t="s">
-        <v>491</v>
+        <v>358</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
-      <c r="N16" s="44"/>
-      <c r="O16" s="44"/>
-      <c r="P16" s="44"/>
-      <c r="Q16" s="66"/>
+      <c r="N16" s="30"/>
+      <c r="O16" s="30"/>
+      <c r="P16" s="30"/>
+      <c r="Q16" s="45"/>
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
     </row>
     <row r="17" spans="1:19">
-      <c r="A17" s="60" t="str">
+      <c r="A17" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00A</v>
       </c>
-      <c r="B17" s="53">
+      <c r="B17" s="35">
         <v>10</v>
       </c>
-      <c r="C17" s="53"/>
-      <c r="D17" s="53" t="s">
-        <v>543</v>
-      </c>
-      <c r="E17" s="53"/>
-      <c r="F17" s="53" t="s">
-        <v>545</v>
-      </c>
-      <c r="G17" s="53" t="str">
+      <c r="C17" s="35"/>
+      <c r="D17" s="35" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="35"/>
+      <c r="F17" s="35" t="s">
+        <v>389</v>
+      </c>
+      <c r="G17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001010</v>
       </c>
-      <c r="H17" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="I17" s="53" t="s">
-        <v>556</v>
-      </c>
-      <c r="J17" s="53"/>
-      <c r="K17" s="53"/>
+      <c r="H17" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="I17" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="J17" s="35"/>
+      <c r="K17" s="35"/>
       <c r="L17" s="22"/>
       <c r="M17" s="22"/>
-      <c r="N17" s="44"/>
-      <c r="O17" s="44"/>
-      <c r="P17" s="44"/>
-      <c r="Q17" s="66"/>
+      <c r="N17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="30"/>
+      <c r="Q17" s="45"/>
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
     </row>
     <row r="18" spans="1:19">
-      <c r="A18" s="60" t="str">
+      <c r="A18" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00B</v>
       </c>
-      <c r="B18" s="53">
+      <c r="B18" s="35">
         <v>11</v>
       </c>
-      <c r="C18" s="53"/>
-      <c r="D18" s="53" t="s">
-        <v>544</v>
-      </c>
-      <c r="E18" s="53"/>
-      <c r="F18" s="53" t="s">
-        <v>546</v>
-      </c>
-      <c r="G18" s="53" t="str">
+      <c r="C18" s="35"/>
+      <c r="D18" s="35" t="s">
+        <v>388</v>
+      </c>
+      <c r="E18" s="35"/>
+      <c r="F18" s="35" t="s">
+        <v>390</v>
+      </c>
+      <c r="G18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001011</v>
       </c>
-      <c r="H18" s="53" t="s">
-        <v>555</v>
-      </c>
-      <c r="I18" s="53" t="s">
-        <v>556</v>
-      </c>
-      <c r="J18" s="53"/>
-      <c r="K18" s="53"/>
+      <c r="H18" s="35" t="s">
+        <v>399</v>
+      </c>
+      <c r="I18" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="J18" s="35"/>
+      <c r="K18" s="35"/>
       <c r="L18" s="22"/>
       <c r="M18" s="22"/>
-      <c r="N18" s="44"/>
-      <c r="O18" s="44"/>
-      <c r="P18" s="44"/>
-      <c r="Q18" s="66"/>
+      <c r="N18" s="30"/>
+      <c r="O18" s="30"/>
+      <c r="P18" s="30"/>
+      <c r="Q18" s="45"/>
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
     </row>
     <row r="19" spans="1:19">
-      <c r="A19" s="55" t="str">
+      <c r="A19" s="37" t="str">
         <f t="shared" si="1"/>
         <v>00C</v>
       </c>
@@ -5583,10 +3310,10 @@
       <c r="K19" s="22"/>
       <c r="L19" s="22"/>
       <c r="M19" s="22"/>
-      <c r="N19" s="44"/>
-      <c r="O19" s="44"/>
-      <c r="P19" s="44"/>
-      <c r="Q19" s="66"/>
+      <c r="N19" s="30"/>
+      <c r="O19" s="30"/>
+      <c r="P19" s="30"/>
+      <c r="Q19" s="45"/>
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
     </row>
@@ -5600,22 +3327,22 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>459</v>
+        <v>326</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="6" t="s">
-        <v>557</v>
+        <v>401</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001101</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>460</v>
+        <v>327</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>461</v>
+        <v>328</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -5635,26 +3362,26 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>284</v>
+        <v>177</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>285</v>
+        <v>178</v>
       </c>
       <c r="G21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001110</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>286</v>
+        <v>179</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>287</v>
+        <v>180</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>288</v>
+        <v>181</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -5701,22 +3428,22 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>307</v>
+        <v>189</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="6" t="s">
-        <v>309</v>
+        <v>191</v>
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010000</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>312</v>
+        <v>194</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -5736,22 +3463,22 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>308</v>
+        <v>190</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="6" t="s">
-        <v>310</v>
+        <v>192</v>
       </c>
       <c r="G24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010001</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>311</v>
+        <v>193</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>313</v>
+        <v>195</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -5798,27 +3525,27 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>478</v>
+        <v>345</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>485</v>
+        <v>352</v>
       </c>
       <c r="G26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010011</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>481</v>
+        <v>348</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>482</v>
+        <v>349</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>484</v>
+        <v>351</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -5837,27 +3564,27 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>479</v>
+        <v>346</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>486</v>
+        <v>353</v>
       </c>
       <c r="G27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010100</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>481</v>
+        <v>348</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>484</v>
+        <v>351</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -5876,27 +3603,27 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>476</v>
+        <v>343</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>487</v>
+        <v>354</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>DEC2BIN(B28, 10)</f>
         <v>0000010101</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>481</v>
+        <v>348</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>482</v>
+        <v>349</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>484</v>
+        <v>351</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -5915,27 +3642,27 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>477</v>
+        <v>344</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>488</v>
+        <v>355</v>
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010110</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>481</v>
+        <v>348</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>483</v>
+        <v>350</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>484</v>
+        <v>351</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -6089,27 +3816,27 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>207</v>
+        <v>158</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="22" t="s">
-        <v>205</v>
+        <v>156</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011100</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>339</v>
-      </c>
-      <c r="K35" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L35" s="53"/>
+        <v>221</v>
+      </c>
+      <c r="K35" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L35" s="35"/>
       <c r="M35" s="6"/>
       <c r="N35" s="24"/>
       <c r="O35" s="24"/>
@@ -6126,27 +3853,27 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>208</v>
+        <v>159</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="22" t="s">
-        <v>206</v>
+        <v>157</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011101</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>210</v>
-      </c>
-      <c r="K36" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L36" s="53"/>
+        <v>161</v>
+      </c>
+      <c r="K36" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L36" s="35"/>
       <c r="M36" s="6"/>
       <c r="N36" s="24"/>
       <c r="O36" s="24"/>
@@ -6216,7 +3943,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>547</v>
+        <v>391</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -7092,39 +4819,39 @@
         <v>64</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D71" s="6" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>95</v>
+        <v>65</v>
       </c>
       <c r="G71" s="6" t="str">
         <f t="shared" ref="G71:G82" si="3">DEC2BIN(B71, 10)</f>
         <v>0001000000</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="K71" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="L71" s="48"/>
+        <v>97</v>
+      </c>
+      <c r="K71" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L71" s="32"/>
       <c r="M71" s="6"/>
       <c r="N71" s="24"/>
       <c r="O71" s="24">
         <v>1</v>
       </c>
       <c r="P71" s="24" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="Q71" s="7"/>
     </row>
@@ -7138,36 +4865,36 @@
       </c>
       <c r="C72" s="6"/>
       <c r="D72" s="6" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>94</v>
+        <v>64</v>
       </c>
       <c r="G72" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0001000001</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="K72" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="L72" s="48"/>
+        <v>98</v>
+      </c>
+      <c r="K72" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L72" s="32"/>
       <c r="M72" s="6"/>
       <c r="N72" s="24"/>
       <c r="O72" s="24">
         <v>1</v>
       </c>
       <c r="P72" s="24" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="Q72" s="7"/>
     </row>
@@ -7262,36 +4989,36 @@
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22" t="s">
-        <v>418</v>
+        <v>285</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22" t="s">
-        <v>96</v>
+        <v>66</v>
       </c>
       <c r="G76" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001000101</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="K76" s="48" t="s">
-        <v>419</v>
-      </c>
-      <c r="L76" s="48"/>
+        <v>99</v>
+      </c>
+      <c r="K76" s="32" t="s">
+        <v>286</v>
+      </c>
+      <c r="L76" s="32"/>
       <c r="M76" s="6"/>
       <c r="N76" s="24"/>
       <c r="O76" s="24">
         <v>1</v>
       </c>
       <c r="P76" s="24" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="Q76" s="7"/>
     </row>
@@ -7359,36 +5086,36 @@
       </c>
       <c r="C79" s="22"/>
       <c r="D79" s="22" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22" t="s">
-        <v>97</v>
+        <v>67</v>
       </c>
       <c r="G79" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001001000</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>173</v>
-      </c>
-      <c r="K79" s="48" t="s">
-        <v>420</v>
-      </c>
-      <c r="L79" s="48"/>
+        <v>127</v>
+      </c>
+      <c r="K79" s="32" t="s">
+        <v>287</v>
+      </c>
+      <c r="L79" s="32"/>
       <c r="M79" s="6"/>
       <c r="N79" s="24"/>
       <c r="O79" s="24">
         <v>1</v>
       </c>
       <c r="P79" s="24" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Q79" s="7"/>
     </row>
@@ -7402,36 +5129,36 @@
       </c>
       <c r="C80" s="22"/>
       <c r="D80" s="22" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
       <c r="G80" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001001001</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="K80" s="48" t="s">
-        <v>421</v>
-      </c>
-      <c r="L80" s="48"/>
+        <v>100</v>
+      </c>
+      <c r="K80" s="32" t="s">
+        <v>288</v>
+      </c>
+      <c r="L80" s="32"/>
       <c r="M80" s="6"/>
       <c r="N80" s="24"/>
       <c r="O80" s="24">
         <v>1</v>
       </c>
       <c r="P80" s="24" t="s">
-        <v>108</v>
+        <v>78</v>
       </c>
       <c r="Q80" s="7"/>
     </row>
@@ -8041,25 +5768,25 @@
         <v>96</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D103" s="6" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="E103" s="6"/>
       <c r="F103" s="6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="G103" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100000</v>
       </c>
       <c r="H103" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -8079,22 +5806,22 @@
       </c>
       <c r="C104" s="6"/>
       <c r="D104" s="6" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="E104" s="6"/>
       <c r="F104" s="6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="G104" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100001</v>
       </c>
       <c r="H104" s="22" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I104" s="22"/>
       <c r="J104" s="6" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
@@ -8117,22 +5844,22 @@
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>84</v>
+        <v>54</v>
       </c>
       <c r="G105" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100010</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>85</v>
+        <v>55</v>
       </c>
       <c r="I105" s="22"/>
       <c r="J105" s="6" t="s">
-        <v>133</v>
+        <v>103</v>
       </c>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -8143,7 +5870,7 @@
       <c r="Q105" s="7"/>
     </row>
     <row r="106" spans="1:26">
-      <c r="A106" s="55" t="str">
+      <c r="A106" s="37" t="str">
         <f t="shared" si="4"/>
         <v>063</v>
       </c>
@@ -8152,22 +5879,22 @@
       </c>
       <c r="C106" s="22"/>
       <c r="D106" s="22" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E106" s="22"/>
       <c r="F106" s="22" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="G106" s="22" t="str">
         <f t="shared" ref="G106:G109" si="8">DEC2BIN(B106, 10)</f>
         <v>0001100011</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="I106" s="22"/>
       <c r="J106" s="22" t="s">
-        <v>490</v>
+        <v>357</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -8187,22 +5914,22 @@
       </c>
       <c r="C107" s="6"/>
       <c r="D107" s="6" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="E107" s="6"/>
       <c r="F107" s="6" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="G107" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0001100100</v>
       </c>
       <c r="H107" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6" t="s">
-        <v>134</v>
+        <v>104</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -8223,22 +5950,22 @@
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="G108" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0001100101</v>
       </c>
       <c r="H108" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6" t="s">
-        <v>135</v>
+        <v>105</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -8259,22 +5986,22 @@
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="G109" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0001100110</v>
       </c>
       <c r="H109" s="6" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6" t="s">
-        <v>136</v>
+        <v>106</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
@@ -8294,22 +6021,22 @@
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>114</v>
+        <v>84</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="G110" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100111</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6" t="s">
-        <v>176</v>
+        <v>130</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
@@ -8383,25 +6110,25 @@
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="22" t="s">
-        <v>364</v>
+        <v>246</v>
       </c>
       <c r="G113" s="8" t="str">
         <f t="shared" si="6"/>
         <v>0001101010</v>
       </c>
       <c r="H113" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6" t="s">
-        <v>137</v>
+        <v>107</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="6"/>
@@ -8420,25 +6147,25 @@
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="22" t="s">
-        <v>365</v>
+        <v>247</v>
       </c>
       <c r="G114" s="8" t="str">
         <f t="shared" si="6"/>
         <v>0001101011</v>
       </c>
       <c r="H114" s="6" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6" t="s">
-        <v>138</v>
+        <v>108</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="6"/>
@@ -8457,11 +6184,11 @@
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>422</v>
+        <v>289</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="22" t="s">
-        <v>366</v>
+        <v>248</v>
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="6"/>
@@ -8469,13 +6196,13 @@
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>174</v>
+        <v>128</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="6"/>
@@ -8494,11 +6221,11 @@
       </c>
       <c r="C116" s="6"/>
       <c r="D116" s="6" t="s">
-        <v>46</v>
+        <v>29</v>
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="22" t="s">
-        <v>367</v>
+        <v>249</v>
       </c>
       <c r="G116" s="6" t="str">
         <f t="shared" si="6"/>
@@ -8506,13 +6233,13 @@
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>175</v>
+        <v>129</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L116" s="10"/>
       <c r="M116" s="6"/>
@@ -8534,25 +6261,25 @@
       </c>
       <c r="C117" s="6"/>
       <c r="D117" s="6" t="s">
-        <v>55</v>
+        <v>34</v>
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="22" t="s">
-        <v>368</v>
+        <v>250</v>
       </c>
       <c r="G117" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001101110</v>
       </c>
       <c r="H117" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6" t="s">
-        <v>139</v>
+        <v>109</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="6"/>
@@ -8571,25 +6298,25 @@
       </c>
       <c r="C118" s="6"/>
       <c r="D118" s="6" t="s">
-        <v>56</v>
+        <v>35</v>
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="22" t="s">
-        <v>369</v>
+        <v>251</v>
       </c>
       <c r="G118" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001101111</v>
       </c>
       <c r="H118" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L118" s="10"/>
       <c r="M118" s="6"/>
@@ -8599,7 +6326,7 @@
       <c r="Q118" s="7"/>
     </row>
     <row r="119" spans="1:26">
-      <c r="A119" s="55" t="str">
+      <c r="A119" s="37" t="str">
         <f t="shared" si="4"/>
         <v>070</v>
       </c>
@@ -8608,25 +6335,25 @@
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22" t="s">
-        <v>109</v>
+        <v>79</v>
       </c>
       <c r="E119" s="22"/>
       <c r="F119" s="22" t="s">
-        <v>370</v>
+        <v>252</v>
       </c>
       <c r="G119" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110000</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="I119" s="22"/>
       <c r="J119" s="22" t="s">
-        <v>492</v>
+        <v>359</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="6"/>
@@ -8636,7 +6363,7 @@
       <c r="Q119" s="7"/>
     </row>
     <row r="120" spans="1:26">
-      <c r="A120" s="55" t="str">
+      <c r="A120" s="37" t="str">
         <f t="shared" si="4"/>
         <v>071</v>
       </c>
@@ -8645,25 +6372,25 @@
       </c>
       <c r="C120" s="22"/>
       <c r="D120" s="22" t="s">
-        <v>110</v>
+        <v>80</v>
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="22" t="s">
-        <v>371</v>
+        <v>253</v>
       </c>
       <c r="G120" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110001</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>489</v>
+        <v>356</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22" t="s">
-        <v>493</v>
+        <v>360</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="6"/>
@@ -8682,27 +6409,27 @@
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
-        <v>112</v>
+        <v>82</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="22" t="s">
-        <v>372</v>
+        <v>254</v>
       </c>
       <c r="G121" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110010</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>195</v>
+        <v>147</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="6"/>
@@ -8721,27 +6448,27 @@
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>113</v>
+        <v>83</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="22" t="s">
-        <v>373</v>
+        <v>255</v>
       </c>
       <c r="G122" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110011</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>201</v>
+        <v>152</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>458</v>
+        <v>325</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L122" s="10"/>
       <c r="M122" s="6"/>
@@ -8817,11 +6544,11 @@
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
-        <v>215</v>
+        <v>166</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="22" t="s">
-        <v>374</v>
+        <v>256</v>
       </c>
       <c r="G125" s="6" t="str">
         <f t="shared" si="6"/>
@@ -8829,13 +6556,13 @@
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6" t="s">
-        <v>203</v>
+        <v>154</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>340</v>
+        <v>222</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="6"/>
@@ -8854,11 +6581,11 @@
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>216</v>
+        <v>167</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="22" t="s">
-        <v>211</v>
+        <v>162</v>
       </c>
       <c r="G126" s="6" t="str">
         <f t="shared" si="6"/>
@@ -8866,13 +6593,13 @@
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>397</v>
+        <v>279</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="6"/>
@@ -8945,11 +6672,11 @@
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>213</v>
+        <v>164</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="22" t="s">
-        <v>214</v>
+        <v>165</v>
       </c>
       <c r="G129" s="6" t="str">
         <f t="shared" si="6"/>
@@ -8957,10 +6684,10 @@
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6" t="s">
-        <v>212</v>
+        <v>163</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>217</v>
+        <v>168</v>
       </c>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
@@ -8993,7 +6720,7 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="10" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="6"/>
@@ -9119,43 +6846,43 @@
         <v>128</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>524</v>
+        <v>378</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="22" t="s">
-        <v>354</v>
+        <v>236</v>
       </c>
       <c r="G135" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0010000000</v>
       </c>
       <c r="H135" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>289</v>
+        <v>182</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L135" s="53" t="s">
-        <v>528</v>
-      </c>
-      <c r="M135" s="53" t="s">
-        <v>529</v>
+        <v>282</v>
+      </c>
+      <c r="L135" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="M135" s="35" t="s">
+        <v>382</v>
       </c>
       <c r="N135" s="24"/>
       <c r="O135" s="24">
         <v>2</v>
       </c>
       <c r="P135" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q135" s="7"/>
     </row>
@@ -9170,39 +6897,39 @@
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>398</v>
+        <v>280</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>355</v>
+        <v>237</v>
       </c>
       <c r="G136" s="6" t="str">
         <f t="shared" ref="G136:G199" si="10">DEC2BIN(B136, 10)</f>
         <v>0010000001</v>
       </c>
       <c r="H136" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J136" s="22" t="s">
-        <v>290</v>
+        <v>183</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L136" s="53" t="s">
-        <v>528</v>
-      </c>
-      <c r="M136" s="53" t="s">
-        <v>529</v>
+        <v>282</v>
+      </c>
+      <c r="L136" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="M136" s="35" t="s">
+        <v>382</v>
       </c>
       <c r="N136" s="24"/>
       <c r="O136" s="24">
         <v>2</v>
       </c>
       <c r="P136" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q136" s="7"/>
     </row>
@@ -9217,39 +6944,39 @@
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>356</v>
+        <v>238</v>
       </c>
       <c r="G137" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010000010</v>
       </c>
       <c r="H137" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J137" s="22" t="s">
-        <v>291</v>
+        <v>184</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="L137" s="53" t="s">
-        <v>528</v>
-      </c>
-      <c r="M137" s="53" t="s">
-        <v>529</v>
+        <v>282</v>
+      </c>
+      <c r="L137" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="M137" s="35" t="s">
+        <v>382</v>
       </c>
       <c r="N137" s="24"/>
       <c r="O137" s="24">
         <v>2</v>
       </c>
       <c r="P137" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q137" s="7"/>
     </row>
@@ -9263,27 +6990,27 @@
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="22" t="s">
-        <v>357</v>
+        <v>239</v>
       </c>
       <c r="G138" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010000011</v>
       </c>
       <c r="H138" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J138" s="22" t="s">
-        <v>283</v>
+        <v>176</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
@@ -9292,7 +7019,7 @@
         <v>2</v>
       </c>
       <c r="P138" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q138" s="7"/>
     </row>
@@ -9307,26 +7034,26 @@
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>398</v>
+        <v>280</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>358</v>
+        <v>240</v>
       </c>
       <c r="G139" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010000100</v>
       </c>
       <c r="H139" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J139" s="22" t="s">
-        <v>292</v>
+        <v>185</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
@@ -9335,7 +7062,7 @@
         <v>2</v>
       </c>
       <c r="P139" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q139" s="7"/>
     </row>
@@ -9350,26 +7077,26 @@
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>359</v>
+        <v>241</v>
       </c>
       <c r="G140" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010000101</v>
       </c>
       <c r="H140" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J140" s="22" t="s">
-        <v>293</v>
+        <v>186</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
@@ -9378,7 +7105,7 @@
         <v>2</v>
       </c>
       <c r="P140" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q140" s="7"/>
     </row>
@@ -9446,25 +7173,27 @@
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6" t="s">
-        <v>57</v>
+        <v>36</v>
       </c>
       <c r="E143" s="6"/>
       <c r="F143" s="22" t="s">
-        <v>51</v>
+        <v>30</v>
       </c>
       <c r="G143" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001000</v>
       </c>
       <c r="H143" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="I143" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="I143" s="35" t="s">
+        <v>404</v>
+      </c>
       <c r="J143" s="6" t="s">
-        <v>141</v>
+        <v>111</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
@@ -9473,7 +7202,7 @@
         <v>2</v>
       </c>
       <c r="P143" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q143" s="7"/>
     </row>
@@ -9487,25 +7216,25 @@
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="22" t="s">
-        <v>353</v>
+        <v>235</v>
       </c>
       <c r="G144" s="6" t="str">
         <f t="shared" ref="G144" si="11">DEC2BIN(B144, 10)</f>
         <v>0010001001</v>
       </c>
       <c r="H144" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6" t="s">
-        <v>196</v>
+        <v>148</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
@@ -9514,7 +7243,7 @@
         <v>2</v>
       </c>
       <c r="P144" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q144" s="7"/>
     </row>
@@ -9690,36 +7419,36 @@
       </c>
       <c r="C151" s="6"/>
       <c r="D151" s="6" t="s">
-        <v>53</v>
+        <v>32</v>
       </c>
       <c r="E151" s="6"/>
       <c r="F151" s="6" t="s">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="G151" s="6" t="str">
         <f t="shared" ref="G151:G152" si="13">DEC2BIN(B151, 10)</f>
         <v>0010010000</v>
       </c>
       <c r="H151" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6" t="s">
-        <v>142</v>
+        <v>112</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L151" s="6"/>
-      <c r="M151" s="53" t="s">
-        <v>531</v>
+      <c r="M151" s="35" t="s">
+        <v>384</v>
       </c>
       <c r="N151" s="24"/>
       <c r="O151" s="24">
         <v>2</v>
       </c>
       <c r="P151" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q151" s="7"/>
     </row>
@@ -9805,17 +7534,17 @@
       <c r="Q154" s="7"/>
     </row>
     <row r="155" spans="1:17">
-      <c r="A155" s="5" t="str">
+      <c r="A155" s="46" t="str">
         <f t="shared" si="9"/>
         <v>094</v>
       </c>
-      <c r="B155" s="6">
+      <c r="B155" s="27">
         <v>148</v>
       </c>
-      <c r="C155" s="6"/>
-      <c r="D155" s="6"/>
-      <c r="E155" s="6"/>
-      <c r="F155" s="22"/>
+      <c r="C155" s="27"/>
+      <c r="D155" s="27"/>
+      <c r="E155" s="27"/>
+      <c r="F155" s="27"/>
       <c r="G155" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010010100</v>
@@ -9832,17 +7561,17 @@
       <c r="Q155" s="7"/>
     </row>
     <row r="156" spans="1:17">
-      <c r="A156" s="5" t="str">
+      <c r="A156" s="46" t="str">
         <f t="shared" si="9"/>
         <v>095</v>
       </c>
-      <c r="B156" s="6">
+      <c r="B156" s="27">
         <v>149</v>
       </c>
-      <c r="C156" s="6"/>
-      <c r="D156" s="6"/>
-      <c r="E156" s="6"/>
-      <c r="F156" s="22"/>
+      <c r="C156" s="27"/>
+      <c r="D156" s="27"/>
+      <c r="E156" s="27"/>
+      <c r="F156" s="27"/>
       <c r="G156" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010010101</v>
@@ -9859,17 +7588,17 @@
       <c r="Q156" s="7"/>
     </row>
     <row r="157" spans="1:17">
-      <c r="A157" s="5" t="str">
+      <c r="A157" s="46" t="str">
         <f t="shared" si="9"/>
         <v>096</v>
       </c>
-      <c r="B157" s="6">
+      <c r="B157" s="27">
         <v>150</v>
       </c>
-      <c r="C157" s="6"/>
-      <c r="D157" s="6"/>
-      <c r="E157" s="6"/>
-      <c r="F157" s="22"/>
+      <c r="C157" s="27"/>
+      <c r="D157" s="27"/>
+      <c r="E157" s="27"/>
+      <c r="F157" s="27"/>
       <c r="G157" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010010110</v>
@@ -9886,17 +7615,17 @@
       <c r="Q157" s="7"/>
     </row>
     <row r="158" spans="1:17">
-      <c r="A158" s="5" t="str">
+      <c r="A158" s="46" t="str">
         <f t="shared" si="9"/>
         <v>097</v>
       </c>
-      <c r="B158" s="6">
+      <c r="B158" s="27">
         <v>151</v>
       </c>
-      <c r="C158" s="6"/>
-      <c r="D158" s="6"/>
-      <c r="E158" s="6"/>
-      <c r="F158" s="22"/>
+      <c r="C158" s="27"/>
+      <c r="D158" s="27"/>
+      <c r="E158" s="27"/>
+      <c r="F158" s="27"/>
       <c r="G158" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010010111</v>
@@ -9913,17 +7642,17 @@
       <c r="Q158" s="7"/>
     </row>
     <row r="159" spans="1:17">
-      <c r="A159" s="5" t="str">
+      <c r="A159" s="46" t="str">
         <f t="shared" si="9"/>
         <v>098</v>
       </c>
-      <c r="B159" s="6">
+      <c r="B159" s="27">
         <v>152</v>
       </c>
-      <c r="C159" s="6"/>
-      <c r="D159" s="6"/>
-      <c r="E159" s="6"/>
-      <c r="F159" s="22"/>
+      <c r="C159" s="27"/>
+      <c r="D159" s="27"/>
+      <c r="E159" s="27"/>
+      <c r="F159" s="27"/>
       <c r="G159" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010011000</v>
@@ -9940,17 +7669,17 @@
       <c r="Q159" s="7"/>
     </row>
     <row r="160" spans="1:17">
-      <c r="A160" s="5" t="str">
+      <c r="A160" s="46" t="str">
         <f t="shared" si="9"/>
         <v>099</v>
       </c>
-      <c r="B160" s="6">
+      <c r="B160" s="27">
         <v>153</v>
       </c>
-      <c r="C160" s="6"/>
-      <c r="D160" s="6"/>
-      <c r="E160" s="6"/>
-      <c r="F160" s="6"/>
+      <c r="C160" s="27"/>
+      <c r="D160" s="27"/>
+      <c r="E160" s="27"/>
+      <c r="F160" s="27"/>
       <c r="G160" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010011001</v>
@@ -9967,7 +7696,7 @@
       <c r="Q160" s="7"/>
     </row>
     <row r="161" spans="1:17">
-      <c r="A161" s="67" t="str">
+      <c r="A161" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09A</v>
       </c>
@@ -9976,41 +7705,41 @@
       </c>
       <c r="C161" s="27"/>
       <c r="D161" s="27" t="s">
-        <v>504</v>
+        <v>371</v>
       </c>
       <c r="E161" s="27"/>
       <c r="F161" s="28" t="s">
-        <v>494</v>
+        <v>361</v>
       </c>
       <c r="G161" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011010</v>
       </c>
       <c r="H161" s="27" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I161" s="27"/>
       <c r="J161" s="22" t="s">
-        <v>501</v>
+        <v>368</v>
       </c>
       <c r="K161" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>528</v>
+        <v>381</v>
       </c>
       <c r="M161" s="22"/>
-      <c r="N161" s="44"/>
-      <c r="O161" s="44">
+      <c r="N161" s="30"/>
+      <c r="O161" s="30">
         <v>2</v>
       </c>
-      <c r="P161" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q161" s="66"/>
+      <c r="P161" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q161" s="45"/>
     </row>
     <row r="162" spans="1:17">
-      <c r="A162" s="67" t="str">
+      <c r="A162" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09B</v>
       </c>
@@ -10019,43 +7748,43 @@
       </c>
       <c r="C162" s="27"/>
       <c r="D162" s="27" t="s">
-        <v>504</v>
+        <v>371</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>398</v>
+        <v>280</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>495</v>
+        <v>362</v>
       </c>
       <c r="G162" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011011</v>
       </c>
       <c r="H162" s="27" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I162" s="27"/>
       <c r="J162" s="22" t="s">
-        <v>502</v>
+        <v>369</v>
       </c>
       <c r="K162" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>529</v>
+        <v>382</v>
       </c>
       <c r="M162" s="22"/>
-      <c r="N162" s="44"/>
-      <c r="O162" s="44">
+      <c r="N162" s="30"/>
+      <c r="O162" s="30">
         <v>2</v>
       </c>
-      <c r="P162" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q162" s="66"/>
+      <c r="P162" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q162" s="45"/>
     </row>
     <row r="163" spans="1:17">
-      <c r="A163" s="67" t="str">
+      <c r="A163" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09C</v>
       </c>
@@ -10064,43 +7793,43 @@
       </c>
       <c r="C163" s="27"/>
       <c r="D163" s="27" t="s">
-        <v>504</v>
+        <v>371</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>496</v>
+        <v>363</v>
       </c>
       <c r="G163" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011100</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I163" s="27"/>
       <c r="J163" s="22" t="s">
-        <v>502</v>
+        <v>369</v>
       </c>
       <c r="K163" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>530</v>
+        <v>383</v>
       </c>
       <c r="M163" s="22"/>
-      <c r="N163" s="44"/>
-      <c r="O163" s="44">
+      <c r="N163" s="30"/>
+      <c r="O163" s="30">
         <v>2</v>
       </c>
-      <c r="P163" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q163" s="66"/>
+      <c r="P163" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q163" s="45"/>
     </row>
     <row r="164" spans="1:17">
-      <c r="A164" s="67" t="str">
+      <c r="A164" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09D</v>
       </c>
@@ -10109,39 +7838,39 @@
       </c>
       <c r="C164" s="27"/>
       <c r="D164" s="27" t="s">
-        <v>504</v>
+        <v>371</v>
       </c>
       <c r="E164" s="27"/>
       <c r="F164" s="28" t="s">
-        <v>497</v>
+        <v>364</v>
       </c>
       <c r="G164" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011101</v>
       </c>
       <c r="H164" s="27" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I164" s="27"/>
       <c r="J164" s="22" t="s">
-        <v>500</v>
+        <v>367</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
-      <c r="N164" s="44"/>
-      <c r="O164" s="44">
+      <c r="N164" s="30"/>
+      <c r="O164" s="30">
         <v>2</v>
       </c>
-      <c r="P164" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q164" s="66"/>
+      <c r="P164" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q164" s="45"/>
     </row>
     <row r="165" spans="1:17">
-      <c r="A165" s="67" t="str">
+      <c r="A165" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09E</v>
       </c>
@@ -10150,41 +7879,41 @@
       </c>
       <c r="C165" s="27"/>
       <c r="D165" s="27" t="s">
-        <v>504</v>
+        <v>371</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>398</v>
+        <v>280</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>498</v>
+        <v>365</v>
       </c>
       <c r="G165" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011110</v>
       </c>
       <c r="H165" s="27" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I165" s="27"/>
       <c r="J165" s="22" t="s">
-        <v>503</v>
+        <v>370</v>
       </c>
       <c r="K165" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
-      <c r="N165" s="44"/>
-      <c r="O165" s="44">
+      <c r="N165" s="30"/>
+      <c r="O165" s="30">
         <v>2</v>
       </c>
-      <c r="P165" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q165" s="66"/>
+      <c r="P165" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q165" s="45"/>
     </row>
     <row r="166" spans="1:17">
-      <c r="A166" s="67" t="str">
+      <c r="A166" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09F</v>
       </c>
@@ -10193,38 +7922,38 @@
       </c>
       <c r="C166" s="27"/>
       <c r="D166" s="27" t="s">
-        <v>504</v>
+        <v>371</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>499</v>
+        <v>366</v>
       </c>
       <c r="G166" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011111</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>480</v>
+        <v>347</v>
       </c>
       <c r="I166" s="27"/>
       <c r="J166" s="22" t="s">
-        <v>503</v>
+        <v>370</v>
       </c>
       <c r="K166" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
-      <c r="N166" s="44"/>
-      <c r="O166" s="44">
+      <c r="N166" s="30"/>
+      <c r="O166" s="30">
         <v>2</v>
       </c>
-      <c r="P166" s="44" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q166" s="66"/>
+      <c r="P166" s="30" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q166" s="45"/>
     </row>
     <row r="167" spans="1:17">
       <c r="A167" s="5" t="str">
@@ -10235,32 +7964,32 @@
         <v>160</v>
       </c>
       <c r="C167" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="D167" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="D167" s="6" t="s">
-        <v>103</v>
-      </c>
       <c r="E167" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>347</v>
+        <v>229</v>
       </c>
       <c r="G167" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100000</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
@@ -10269,10 +7998,10 @@
         <v>2</v>
       </c>
       <c r="P167" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q167" s="7" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
     <row r="168" spans="1:17">
@@ -10285,29 +8014,29 @@
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>348</v>
+        <v>230</v>
       </c>
       <c r="G168" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100001</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
@@ -10316,10 +8045,10 @@
         <v>2</v>
       </c>
       <c r="P168" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q168" s="7" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
     <row r="169" spans="1:17">
@@ -10332,29 +8061,29 @@
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>349</v>
+        <v>231</v>
       </c>
       <c r="G169" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100010</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
@@ -10363,10 +8092,10 @@
         <v>2</v>
       </c>
       <c r="P169" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q169" s="7" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
     <row r="170" spans="1:17">
@@ -10379,27 +8108,27 @@
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6" t="s">
-        <v>392</v>
+        <v>274</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>363</v>
+        <v>245</v>
       </c>
       <c r="G170" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100011</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>442</v>
+        <v>309</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="6" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
@@ -10408,10 +8137,10 @@
         <v>2</v>
       </c>
       <c r="P170" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q170" s="7" t="s">
-        <v>393</v>
+        <v>275</v>
       </c>
     </row>
     <row r="171" spans="1:17">
@@ -10748,29 +8477,29 @@
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6" t="s">
-        <v>103</v>
+        <v>73</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>350</v>
+        <v>232</v>
       </c>
       <c r="G183" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110000</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>143</v>
+        <v>113</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
@@ -10779,10 +8508,10 @@
         <v>2</v>
       </c>
       <c r="P183" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q183" s="7" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
     <row r="184" spans="1:17">
@@ -10795,29 +8524,29 @@
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6" t="s">
-        <v>104</v>
+        <v>74</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>351</v>
+        <v>233</v>
       </c>
       <c r="G184" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110001</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -10826,10 +8555,10 @@
         <v>2</v>
       </c>
       <c r="P184" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q184" s="7" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
     <row r="185" spans="1:17">
@@ -10842,29 +8571,29 @@
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6" t="s">
-        <v>105</v>
+        <v>75</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>399</v>
+        <v>281</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>352</v>
+        <v>234</v>
       </c>
       <c r="G185" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110010</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>159</v>
+        <v>120</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>202</v>
+        <v>153</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>145</v>
+        <v>115</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
@@ -10873,10 +8602,10 @@
         <v>2</v>
       </c>
       <c r="P185" s="24" t="s">
-        <v>124</v>
+        <v>94</v>
       </c>
       <c r="Q185" s="7" t="s">
-        <v>221</v>
+        <v>172</v>
       </c>
     </row>
     <row r="186" spans="1:17">
@@ -11239,33 +8968,33 @@
         <v>192</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="22" t="s">
-        <v>322</v>
+        <v>204</v>
       </c>
       <c r="G199" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0011000000</v>
       </c>
       <c r="H199" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6" t="s">
-        <v>146</v>
+        <v>116</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L199" s="6"/>
       <c r="M199" s="22"/>
       <c r="N199" s="22"/>
-      <c r="O199" s="44"/>
+      <c r="O199" s="30"/>
       <c r="P199" s="24"/>
       <c r="Q199" s="7"/>
     </row>
@@ -11279,30 +9008,30 @@
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6" t="s">
-        <v>122</v>
+        <v>92</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="22" t="s">
-        <v>323</v>
+        <v>205</v>
       </c>
       <c r="G200" s="6" t="str">
         <f t="shared" ref="G200:G201" si="15">DEC2BIN(B200, 10)</f>
         <v>0011000001</v>
       </c>
       <c r="H200" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="6" t="s">
-        <v>147</v>
+        <v>117</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L200" s="6"/>
       <c r="M200" s="10"/>
       <c r="N200" s="10"/>
-      <c r="O200" s="45"/>
+      <c r="O200" s="31"/>
       <c r="P200" s="24"/>
       <c r="Q200" s="7"/>
     </row>
@@ -11316,25 +9045,25 @@
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="6" t="s">
-        <v>88</v>
+        <v>58</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="22" t="s">
-        <v>324</v>
+        <v>206</v>
       </c>
       <c r="G201" s="6" t="str">
         <f t="shared" si="15"/>
         <v>0011000010</v>
       </c>
       <c r="H201" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="6" t="s">
-        <v>333</v>
+        <v>215</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
@@ -11353,30 +9082,30 @@
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="22" t="s">
-        <v>306</v>
+        <v>188</v>
       </c>
       <c r="E202" s="22"/>
       <c r="F202" s="22" t="s">
-        <v>321</v>
+        <v>203</v>
       </c>
       <c r="G202" s="6" t="str">
         <f t="shared" ref="G202:G208" si="16">DEC2BIN(B202, 10)</f>
         <v>0011000011</v>
       </c>
       <c r="H202" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="K202" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L202" s="53"/>
+        <v>214</v>
+      </c>
+      <c r="K202" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L202" s="35"/>
       <c r="M202" s="10"/>
       <c r="N202" s="10"/>
-      <c r="O202" s="45"/>
+      <c r="O202" s="31"/>
       <c r="P202" s="24"/>
       <c r="Q202" s="7"/>
     </row>
@@ -11390,25 +9119,25 @@
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6" t="s">
-        <v>187</v>
+        <v>139</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="22" t="s">
-        <v>325</v>
+        <v>207</v>
       </c>
       <c r="G203" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011000100</v>
       </c>
       <c r="H203" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="6" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
@@ -11427,25 +9156,25 @@
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="22" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="E204" s="22"/>
       <c r="F204" s="22" t="s">
-        <v>326</v>
+        <v>208</v>
       </c>
       <c r="G204" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011000101</v>
       </c>
       <c r="H204" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6" t="s">
-        <v>440</v>
+        <v>307</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
@@ -11453,7 +9182,7 @@
       <c r="O204" s="24"/>
       <c r="P204" s="24"/>
       <c r="Q204" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="205" spans="1:17">
@@ -11506,7 +9235,7 @@
       <c r="L206" s="6"/>
       <c r="M206" s="22"/>
       <c r="N206" s="22"/>
-      <c r="O206" s="44"/>
+      <c r="O206" s="30"/>
       <c r="P206" s="24"/>
       <c r="Q206" s="7"/>
     </row>
@@ -11520,36 +9249,36 @@
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="6" t="s">
-        <v>320</v>
+        <v>202</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="22" t="s">
-        <v>327</v>
+        <v>209</v>
       </c>
       <c r="G207" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011001000</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6" t="s">
-        <v>331</v>
+        <v>213</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L207" s="6"/>
       <c r="M207" s="10"/>
       <c r="N207" s="24" t="s">
-        <v>471</v>
+        <v>338</v>
       </c>
       <c r="O207" s="24">
         <v>3</v>
       </c>
       <c r="P207" s="24" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q207" s="7"/>
     </row>
@@ -11563,36 +9292,36 @@
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="22" t="s">
-        <v>328</v>
+        <v>210</v>
       </c>
       <c r="G208" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011001001</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6" t="s">
-        <v>148</v>
+        <v>118</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
       <c r="N208" s="24" t="s">
-        <v>471</v>
+        <v>338</v>
       </c>
       <c r="O208" s="24">
         <v>3</v>
       </c>
       <c r="P208" s="24" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q208" s="7"/>
     </row>
@@ -11606,25 +9335,25 @@
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6" t="s">
-        <v>186</v>
+        <v>138</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="22" t="s">
-        <v>329</v>
+        <v>211</v>
       </c>
       <c r="G209" s="6" t="str">
         <f t="shared" ref="G209:G262" si="17">DEC2BIN(B209, 10)</f>
         <v>0011001010</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>189</v>
+        <v>141</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="6" t="s">
-        <v>330</v>
+        <v>212</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
@@ -11632,7 +9361,7 @@
       <c r="O209" s="24"/>
       <c r="P209" s="24"/>
       <c r="Q209" s="7" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="210" spans="1:17">
@@ -11645,25 +9374,25 @@
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="6" t="s">
-        <v>280</v>
+        <v>173</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="22" t="s">
-        <v>281</v>
+        <v>174</v>
       </c>
       <c r="G210" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001011</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>282</v>
+        <v>175</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6" t="s">
-        <v>439</v>
+        <v>306</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
@@ -11682,25 +9411,25 @@
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6" t="s">
-        <v>360</v>
+        <v>242</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="G211" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001100</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>362</v>
+        <v>244</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6" t="s">
-        <v>379</v>
+        <v>261</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
@@ -11718,26 +9447,26 @@
         <v>205</v>
       </c>
       <c r="C212" s="6"/>
-      <c r="D212" s="52" t="s">
-        <v>378</v>
-      </c>
-      <c r="E212" s="52"/>
+      <c r="D212" s="34" t="s">
+        <v>260</v>
+      </c>
+      <c r="E212" s="34"/>
       <c r="F212" s="6" t="s">
-        <v>384</v>
+        <v>266</v>
       </c>
       <c r="G212" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001101</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
-      <c r="K212" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L212" s="53"/>
+      <c r="K212" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L212" s="35"/>
       <c r="M212" s="6"/>
       <c r="N212" s="24"/>
       <c r="O212" s="24"/>
@@ -11754,25 +9483,25 @@
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6" t="s">
-        <v>375</v>
+        <v>257</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6" t="s">
-        <v>385</v>
+        <v>267</v>
       </c>
       <c r="G213" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001110</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
-      <c r="K213" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L213" s="53"/>
+      <c r="K213" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L213" s="35"/>
       <c r="M213" s="6"/>
       <c r="N213" s="24"/>
       <c r="O213" s="24"/>
@@ -11780,7 +9509,7 @@
       <c r="Q213" s="7"/>
     </row>
     <row r="214" spans="1:17">
-      <c r="A214" s="55" t="str">
+      <c r="A214" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0CF</v>
       </c>
@@ -11796,12 +9525,12 @@
         <v>0011001111</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
-      <c r="K214" s="53"/>
-      <c r="L214" s="53"/>
+      <c r="K214" s="35"/>
+      <c r="L214" s="35"/>
       <c r="M214" s="6"/>
       <c r="N214" s="24"/>
       <c r="O214" s="24"/>
@@ -11818,25 +9547,25 @@
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6" t="s">
-        <v>376</v>
+        <v>258</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6" t="s">
-        <v>386</v>
+        <v>268</v>
       </c>
       <c r="G215" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011010000</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
-      <c r="K215" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L215" s="53"/>
+      <c r="K215" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L215" s="35"/>
       <c r="M215" s="6"/>
       <c r="N215" s="24"/>
       <c r="O215" s="24"/>
@@ -11853,25 +9582,25 @@
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6" t="s">
-        <v>377</v>
+        <v>259</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6" t="s">
-        <v>387</v>
+        <v>269</v>
       </c>
       <c r="G216" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011010001</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
-      <c r="K216" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L216" s="53"/>
+      <c r="K216" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L216" s="35"/>
       <c r="M216" s="6"/>
       <c r="N216" s="24"/>
       <c r="O216" s="24"/>
@@ -11906,7 +9635,7 @@
       <c r="Q217" s="7"/>
     </row>
     <row r="218" spans="1:17">
-      <c r="A218" s="55" t="str">
+      <c r="A218" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0D3</v>
       </c>
@@ -11915,23 +9644,23 @@
       </c>
       <c r="C218" s="22"/>
       <c r="D218" s="22" t="s">
-        <v>433</v>
+        <v>300</v>
       </c>
       <c r="E218" s="22"/>
       <c r="F218" s="22" t="s">
-        <v>432</v>
+        <v>299</v>
       </c>
       <c r="G218" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010011</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>434</v>
+        <v>301</v>
       </c>
       <c r="I218" s="22"/>
       <c r="J218" s="22"/>
       <c r="K218" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L218" s="22"/>
       <c r="M218" s="6"/>
@@ -11941,7 +9670,7 @@
       <c r="Q218" s="7"/>
     </row>
     <row r="219" spans="1:17">
-      <c r="A219" s="55" t="str">
+      <c r="A219" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0D4</v>
       </c>
@@ -11950,23 +9679,23 @@
       </c>
       <c r="C219" s="22"/>
       <c r="D219" s="22" t="s">
-        <v>444</v>
+        <v>311</v>
       </c>
       <c r="E219" s="22"/>
       <c r="F219" s="22" t="s">
-        <v>455</v>
+        <v>322</v>
       </c>
       <c r="G219" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010100</v>
       </c>
       <c r="H219" s="22" t="s">
-        <v>449</v>
+        <v>316</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
       <c r="K219" s="22" t="s">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="L219" s="22"/>
       <c r="M219" s="6"/>
@@ -11976,7 +9705,7 @@
       <c r="Q219" s="7"/>
     </row>
     <row r="220" spans="1:17">
-      <c r="A220" s="55" t="str">
+      <c r="A220" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0D5</v>
       </c>
@@ -11985,23 +9714,23 @@
       </c>
       <c r="C220" s="22"/>
       <c r="D220" s="22" t="s">
-        <v>443</v>
+        <v>310</v>
       </c>
       <c r="E220" s="22"/>
       <c r="F220" s="22" t="s">
-        <v>453</v>
+        <v>320</v>
       </c>
       <c r="G220" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010101</v>
       </c>
       <c r="H220" s="22" t="s">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="I220" s="22"/>
       <c r="J220" s="22"/>
       <c r="K220" s="22" t="s">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="L220" s="22"/>
       <c r="M220" s="6"/>
@@ -12011,7 +9740,7 @@
       <c r="Q220" s="7"/>
     </row>
     <row r="221" spans="1:17">
-      <c r="A221" s="55" t="str">
+      <c r="A221" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0D6</v>
       </c>
@@ -12020,23 +9749,23 @@
       </c>
       <c r="C221" s="22"/>
       <c r="D221" s="22" t="s">
-        <v>445</v>
+        <v>312</v>
       </c>
       <c r="E221" s="22"/>
       <c r="F221" s="22" t="s">
-        <v>454</v>
+        <v>321</v>
       </c>
       <c r="G221" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010110</v>
       </c>
       <c r="H221" s="22" t="s">
-        <v>450</v>
+        <v>317</v>
       </c>
       <c r="I221" s="22"/>
       <c r="J221" s="22"/>
       <c r="K221" s="22" t="s">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="L221" s="22"/>
       <c r="M221" s="6"/>
@@ -12046,36 +9775,36 @@
       <c r="Q221" s="7"/>
     </row>
     <row r="222" spans="1:17">
-      <c r="A222" s="54" t="str">
+      <c r="A222" s="36" t="str">
         <f t="shared" si="14"/>
         <v>0D7</v>
       </c>
-      <c r="B222" s="48">
+      <c r="B222" s="32">
         <v>215</v>
       </c>
-      <c r="C222" s="48"/>
-      <c r="D222" s="48" t="s">
-        <v>466</v>
-      </c>
-      <c r="E222" s="48"/>
-      <c r="F222" s="48" t="s">
-        <v>467</v>
-      </c>
-      <c r="G222" s="48" t="str">
+      <c r="C222" s="32"/>
+      <c r="D222" s="32" t="s">
+        <v>333</v>
+      </c>
+      <c r="E222" s="32"/>
+      <c r="F222" s="32" t="s">
+        <v>334</v>
+      </c>
+      <c r="G222" s="32" t="str">
         <f t="shared" si="17"/>
         <v>0011010111</v>
       </c>
-      <c r="H222" s="48" t="s">
-        <v>468</v>
-      </c>
-      <c r="I222" s="48"/>
-      <c r="J222" s="48" t="s">
-        <v>469</v>
-      </c>
-      <c r="K222" s="48" t="s">
-        <v>470</v>
-      </c>
-      <c r="L222" s="48"/>
+      <c r="H222" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="I222" s="32"/>
+      <c r="J222" s="32" t="s">
+        <v>336</v>
+      </c>
+      <c r="K222" s="32" t="s">
+        <v>337</v>
+      </c>
+      <c r="L222" s="32"/>
       <c r="M222" s="6"/>
       <c r="N222" s="24"/>
       <c r="O222" s="24"/>
@@ -12307,28 +10036,28 @@
         <v>224</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>102</v>
+        <v>72</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="22" t="s">
-        <v>472</v>
+        <v>339</v>
       </c>
       <c r="G231" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011100000</v>
       </c>
       <c r="H231" s="6" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6" t="s">
-        <v>149</v>
+        <v>119</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
@@ -12338,41 +10067,41 @@
       <c r="Q231" s="7"/>
     </row>
     <row r="232" spans="1:17">
-      <c r="A232" s="54" t="str">
+      <c r="A232" s="36" t="str">
         <f t="shared" si="14"/>
         <v>0E1</v>
       </c>
-      <c r="B232" s="48">
+      <c r="B232" s="32">
         <v>225</v>
       </c>
-      <c r="C232" s="48"/>
-      <c r="D232" s="48" t="s">
-        <v>473</v>
-      </c>
-      <c r="E232" s="48"/>
-      <c r="F232" s="48" t="s">
-        <v>475</v>
-      </c>
-      <c r="G232" s="48" t="str">
+      <c r="C232" s="32"/>
+      <c r="D232" s="32" t="s">
+        <v>340</v>
+      </c>
+      <c r="E232" s="32"/>
+      <c r="F232" s="32" t="s">
+        <v>342</v>
+      </c>
+      <c r="G232" s="32" t="str">
         <f t="shared" si="17"/>
         <v>0011100001</v>
       </c>
-      <c r="H232" s="48" t="s">
-        <v>31</v>
-      </c>
-      <c r="I232" s="48"/>
-      <c r="J232" s="48"/>
-      <c r="K232" s="48" t="s">
-        <v>400</v>
-      </c>
-      <c r="L232" s="48"/>
+      <c r="H232" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="I232" s="32"/>
+      <c r="J232" s="32"/>
+      <c r="K232" s="32" t="s">
+        <v>282</v>
+      </c>
+      <c r="L232" s="32"/>
       <c r="M232" s="6"/>
       <c r="N232" s="24" t="s">
-        <v>474</v>
+        <v>341</v>
       </c>
       <c r="O232" s="24"/>
       <c r="P232" s="24" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q232" s="7"/>
     </row>
@@ -12396,7 +10125,7 @@
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L233" s="22"/>
       <c r="M233" s="6"/>
@@ -12469,41 +10198,41 @@
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="22" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="E236" s="22"/>
       <c r="F236" s="22" t="s">
-        <v>343</v>
+        <v>225</v>
       </c>
       <c r="G236" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011100101</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>441</v>
+        <v>308</v>
       </c>
       <c r="K236" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L236" s="22"/>
       <c r="M236" s="6"/>
       <c r="N236" s="24" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O236" s="24">
         <v>3</v>
       </c>
       <c r="P236" s="24" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q236" s="7" t="s">
-        <v>126</v>
+        <v>96</v>
       </c>
     </row>
     <row r="237" spans="1:17">
@@ -12570,36 +10299,36 @@
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="6" t="s">
-        <v>319</v>
+        <v>201</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="22" t="s">
-        <v>344</v>
+        <v>226</v>
       </c>
       <c r="G239" s="6" t="str">
         <f>DEC2BIN(B239, 10)</f>
         <v>0011101000</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="s">
-        <v>179</v>
+        <v>131</v>
       </c>
       <c r="K239" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L239" s="22"/>
       <c r="M239" s="6"/>
       <c r="N239" s="24" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O239" s="24">
         <v>3</v>
       </c>
       <c r="P239" s="24" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q239" s="7"/>
     </row>
@@ -12613,36 +10342,36 @@
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="6" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="22" t="s">
-        <v>345</v>
+        <v>227</v>
       </c>
       <c r="G240" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101001</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="6" t="s">
-        <v>180</v>
+        <v>132</v>
       </c>
       <c r="K240" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L240" s="22"/>
       <c r="M240" s="6"/>
       <c r="N240" s="24" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O240" s="24">
         <v>3</v>
       </c>
       <c r="P240" s="24" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q240" s="7"/>
     </row>
@@ -12656,41 +10385,41 @@
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6" t="s">
-        <v>188</v>
+        <v>140</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="22" t="s">
-        <v>346</v>
+        <v>228</v>
       </c>
       <c r="G241" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101010</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>431</v>
+        <v>298</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>200</v>
+        <v>151</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>438</v>
+        <v>305</v>
       </c>
       <c r="K241" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L241" s="22"/>
       <c r="M241" s="6"/>
       <c r="N241" s="24" t="s">
-        <v>107</v>
+        <v>77</v>
       </c>
       <c r="O241" s="24">
         <v>3</v>
       </c>
       <c r="P241" s="24" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q241" s="7" t="s">
-        <v>190</v>
+        <v>142</v>
       </c>
     </row>
     <row r="242" spans="1:17">
@@ -12702,8 +10431,8 @@
         <v>235</v>
       </c>
       <c r="C242" s="6"/>
-      <c r="D242" s="52"/>
-      <c r="E242" s="52"/>
+      <c r="D242" s="34"/>
+      <c r="E242" s="34"/>
       <c r="F242" s="22"/>
       <c r="G242" s="6" t="str">
         <f t="shared" si="17"/>
@@ -12756,24 +10485,24 @@
         <v>237</v>
       </c>
       <c r="C244" s="6"/>
-      <c r="D244" s="52" t="s">
-        <v>380</v>
-      </c>
-      <c r="E244" s="52"/>
+      <c r="D244" s="34" t="s">
+        <v>262</v>
+      </c>
+      <c r="E244" s="34"/>
       <c r="F244" s="6" t="s">
-        <v>388</v>
+        <v>270</v>
       </c>
       <c r="G244" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101101</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L244" s="22"/>
       <c r="M244" s="6"/>
@@ -12792,23 +10521,23 @@
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="6" t="s">
-        <v>381</v>
+        <v>263</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6" t="s">
-        <v>389</v>
+        <v>271</v>
       </c>
       <c r="G245" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101110</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L245" s="22"/>
       <c r="M245" s="6"/>
@@ -12818,7 +10547,7 @@
       <c r="Q245" s="7"/>
     </row>
     <row r="246" spans="1:17">
-      <c r="A246" s="55" t="str">
+      <c r="A246" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0EF</v>
       </c>
@@ -12834,7 +10563,7 @@
         <v>0011101111</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -12847,7 +10576,7 @@
       <c r="Q246" s="7"/>
     </row>
     <row r="247" spans="1:17">
-      <c r="A247" s="55" t="str">
+      <c r="A247" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F0</v>
       </c>
@@ -12856,23 +10585,23 @@
       </c>
       <c r="C247" s="22"/>
       <c r="D247" s="22" t="s">
-        <v>382</v>
+        <v>264</v>
       </c>
       <c r="E247" s="22"/>
       <c r="F247" s="22" t="s">
-        <v>390</v>
+        <v>272</v>
       </c>
       <c r="G247" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110000</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L247" s="22"/>
       <c r="M247" s="6"/>
@@ -12882,7 +10611,7 @@
       <c r="Q247" s="7"/>
     </row>
     <row r="248" spans="1:17">
-      <c r="A248" s="55" t="str">
+      <c r="A248" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F1</v>
       </c>
@@ -12891,23 +10620,23 @@
       </c>
       <c r="C248" s="22"/>
       <c r="D248" s="22" t="s">
-        <v>383</v>
+        <v>265</v>
       </c>
       <c r="E248" s="22"/>
       <c r="F248" s="22" t="s">
-        <v>391</v>
+        <v>273</v>
       </c>
       <c r="G248" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110001</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L248" s="22"/>
       <c r="M248" s="6"/>
@@ -12917,7 +10646,7 @@
       <c r="Q248" s="7"/>
     </row>
     <row r="249" spans="1:17">
-      <c r="A249" s="55" t="str">
+      <c r="A249" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F2</v>
       </c>
@@ -12926,23 +10655,23 @@
       </c>
       <c r="C249" s="22"/>
       <c r="D249" s="22" t="s">
-        <v>394</v>
+        <v>276</v>
       </c>
       <c r="E249" s="22"/>
       <c r="F249" s="22" t="s">
-        <v>395</v>
+        <v>277</v>
       </c>
       <c r="G249" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110010</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="22" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L249" s="22"/>
       <c r="M249" s="6"/>
@@ -12952,7 +10681,7 @@
       <c r="Q249" s="7"/>
     </row>
     <row r="250" spans="1:17">
-      <c r="A250" s="55" t="str">
+      <c r="A250" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F3</v>
       </c>
@@ -12961,23 +10690,23 @@
       </c>
       <c r="C250" s="22"/>
       <c r="D250" s="22" t="s">
-        <v>435</v>
+        <v>302</v>
       </c>
       <c r="E250" s="22"/>
       <c r="F250" s="22" t="s">
-        <v>436</v>
+        <v>303</v>
       </c>
       <c r="G250" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110011</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>434</v>
+        <v>301</v>
       </c>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="22" t="s">
-        <v>437</v>
+        <v>304</v>
       </c>
       <c r="L250" s="22"/>
       <c r="M250" s="6"/>
@@ -12987,7 +10716,7 @@
       <c r="Q250" s="7"/>
     </row>
     <row r="251" spans="1:17">
-      <c r="A251" s="55" t="str">
+      <c r="A251" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F4</v>
       </c>
@@ -12996,23 +10725,23 @@
       </c>
       <c r="C251" s="22"/>
       <c r="D251" s="22" t="s">
-        <v>446</v>
+        <v>313</v>
       </c>
       <c r="E251" s="22"/>
       <c r="F251" s="22" t="s">
-        <v>457</v>
+        <v>324</v>
       </c>
       <c r="G251" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110100</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>451</v>
+        <v>318</v>
       </c>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="22" t="s">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="L251" s="22"/>
       <c r="M251" s="6"/>
@@ -13022,7 +10751,7 @@
       <c r="Q251" s="7"/>
     </row>
     <row r="252" spans="1:17">
-      <c r="A252" s="55" t="str">
+      <c r="A252" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F5</v>
       </c>
@@ -13031,23 +10760,23 @@
       </c>
       <c r="C252" s="22"/>
       <c r="D252" s="22" t="s">
-        <v>548</v>
+        <v>392</v>
       </c>
       <c r="E252" s="22"/>
       <c r="F252" s="22" t="s">
-        <v>448</v>
+        <v>315</v>
       </c>
       <c r="G252" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110101</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>452</v>
+        <v>319</v>
       </c>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="22" t="s">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="L252" s="22"/>
       <c r="M252" s="6"/>
@@ -13057,7 +10786,7 @@
       <c r="Q252" s="7"/>
     </row>
     <row r="253" spans="1:17">
-      <c r="A253" s="55" t="str">
+      <c r="A253" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F6</v>
       </c>
@@ -13066,23 +10795,23 @@
       </c>
       <c r="C253" s="22"/>
       <c r="D253" s="22" t="s">
-        <v>549</v>
+        <v>393</v>
       </c>
       <c r="E253" s="22"/>
       <c r="F253" s="22" t="s">
-        <v>447</v>
+        <v>314</v>
       </c>
       <c r="G253" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110110</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>452</v>
+        <v>319</v>
       </c>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="22" t="s">
-        <v>456</v>
+        <v>323</v>
       </c>
       <c r="L253" s="22"/>
       <c r="M253" s="6"/>
@@ -13308,36 +11037,36 @@
       <c r="Q261" s="7"/>
     </row>
     <row r="262" spans="1:17">
-      <c r="A262" s="60" t="str">
+      <c r="A262" s="42" t="str">
         <f t="shared" si="14"/>
         <v>0FF</v>
       </c>
-      <c r="B262" s="53">
+      <c r="B262" s="35">
         <v>255</v>
       </c>
-      <c r="C262" s="53"/>
-      <c r="D262" s="53" t="s">
-        <v>550</v>
-      </c>
-      <c r="E262" s="53" t="s">
-        <v>402</v>
-      </c>
-      <c r="F262" s="53" t="s">
-        <v>551</v>
-      </c>
-      <c r="G262" s="53" t="str">
+      <c r="C262" s="35"/>
+      <c r="D262" s="35" t="s">
+        <v>394</v>
+      </c>
+      <c r="E262" s="35" t="s">
+        <v>284</v>
+      </c>
+      <c r="F262" s="35" t="s">
+        <v>395</v>
+      </c>
+      <c r="G262" s="35" t="str">
         <f t="shared" si="17"/>
         <v>0011111111</v>
       </c>
-      <c r="H262" s="53"/>
-      <c r="I262" s="53" t="s">
-        <v>554</v>
+      <c r="H262" s="35"/>
+      <c r="I262" s="35" t="s">
+        <v>398</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>553</v>
+        <v>397</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -13355,28 +11084,28 @@
         <v>256</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="E263" s="6"/>
       <c r="F263" s="6" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="G263" s="6" t="str">
         <f t="shared" ref="G263:G265" si="18">DEC2BIN(B263, 10)</f>
         <v>0100000000</v>
       </c>
       <c r="H263" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6" t="s">
-        <v>181</v>
+        <v>133</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -13395,36 +11124,36 @@
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="6" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E264" s="6"/>
       <c r="F264" s="6" t="s">
-        <v>35</v>
+        <v>26</v>
       </c>
       <c r="G264" s="6" t="str">
         <f t="shared" si="18"/>
         <v>0100000001</v>
       </c>
       <c r="H264" s="6" t="s">
-        <v>45</v>
+        <v>28</v>
       </c>
       <c r="I264" s="6"/>
       <c r="J264" s="6" t="s">
-        <v>182</v>
+        <v>134</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
       <c r="N264" s="24" t="s">
-        <v>552</v>
+        <v>396</v>
       </c>
       <c r="O264" s="24">
         <v>3</v>
       </c>
       <c r="P264" s="24" t="s">
-        <v>125</v>
+        <v>95</v>
       </c>
       <c r="Q264" s="7"/>
     </row>
@@ -13438,27 +11167,27 @@
       </c>
       <c r="C265" s="6"/>
       <c r="D265" s="6" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E265" s="6"/>
       <c r="F265" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="G265" s="6" t="str">
         <f t="shared" si="18"/>
         <v>0100000010</v>
       </c>
       <c r="H265" s="6" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="I265" s="6"/>
       <c r="J265" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="K265" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L265" s="53"/>
+        <v>135</v>
+      </c>
+      <c r="K265" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L265" s="35"/>
       <c r="M265" s="6"/>
       <c r="N265" s="24"/>
       <c r="O265" s="24"/>
@@ -13475,29 +11204,29 @@
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="6" t="s">
-        <v>220</v>
+        <v>171</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>218</v>
+        <v>169</v>
       </c>
       <c r="G266" s="6" t="str">
         <f t="shared" ref="G266:G327" si="20">DEC2BIN(B266, 10)</f>
         <v>0100000011</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>209</v>
+        <v>160</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>294</v>
+        <v>187</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -14271,14 +12000,14 @@
         <v>288</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>423</v>
+        <v>290</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>314</v>
+        <v>196</v>
       </c>
       <c r="E295" s="6"/>
       <c r="F295" s="6" t="s">
-        <v>315</v>
+        <v>197</v>
       </c>
       <c r="G295" s="6" t="str">
         <f t="shared" si="20"/>
@@ -14286,15 +12015,15 @@
       </c>
       <c r="H295" s="6"/>
       <c r="I295" s="6" t="s">
-        <v>341</v>
+        <v>223</v>
       </c>
       <c r="J295" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="K295" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L295" s="53"/>
+        <v>224</v>
+      </c>
+      <c r="K295" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L295" s="35"/>
       <c r="M295" s="6"/>
       <c r="N295" s="24"/>
       <c r="O295" s="24"/>
@@ -14311,23 +12040,29 @@
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6" t="s">
-        <v>316</v>
+        <v>198</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6" t="s">
-        <v>317</v>
+        <v>199</v>
       </c>
       <c r="G296" s="6" t="str">
         <f t="shared" si="20"/>
         <v>0100100001</v>
       </c>
-      <c r="H296" s="6"/>
-      <c r="I296" s="6"/>
-      <c r="J296" s="6"/>
-      <c r="K296" s="53" t="s">
-        <v>400</v>
-      </c>
-      <c r="L296" s="53"/>
+      <c r="H296" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="I296" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="J296" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="K296" s="35" t="s">
+        <v>282</v>
+      </c>
+      <c r="L296" s="35"/>
       <c r="M296" s="6"/>
       <c r="N296" s="24"/>
       <c r="O296" s="24"/>
@@ -14344,39 +12079,39 @@
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="27" t="s">
-        <v>430</v>
+        <v>297</v>
       </c>
       <c r="E297" s="28"/>
       <c r="F297" s="28" t="s">
-        <v>429</v>
+        <v>296</v>
       </c>
       <c r="G297" s="28" t="str">
         <f t="shared" si="20"/>
         <v>0100100010</v>
       </c>
       <c r="H297" s="28" t="s">
-        <v>424</v>
+        <v>291</v>
       </c>
       <c r="I297" s="28"/>
       <c r="J297" s="28" t="s">
-        <v>425</v>
+        <v>292</v>
       </c>
       <c r="K297" s="28" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="L297" s="28"/>
       <c r="M297" s="28"/>
-      <c r="N297" s="57" t="s">
-        <v>426</v>
-      </c>
-      <c r="O297" s="57"/>
-      <c r="P297" s="57" t="s">
-        <v>427</v>
-      </c>
-      <c r="Q297" s="58" t="s">
-        <v>428</v>
-      </c>
-      <c r="R297" s="59"/>
+      <c r="N297" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="O297" s="39"/>
+      <c r="P297" s="39" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q297" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="R297" s="41"/>
     </row>
     <row r="298" spans="1:18">
       <c r="A298" s="5" t="str">
@@ -14388,11 +12123,11 @@
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="6" t="s">
-        <v>462</v>
+        <v>329</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6" t="s">
-        <v>465</v>
+        <v>332</v>
       </c>
       <c r="G298" s="6" t="str">
         <f t="shared" si="20"/>
@@ -14419,11 +12154,11 @@
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="6" t="s">
-        <v>463</v>
+        <v>330</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
-        <v>464</v>
+        <v>331</v>
       </c>
       <c r="G299" s="6" t="str">
         <f t="shared" si="20"/>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="692" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="410">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -1940,12 +1940,19 @@
   <si>
     <t>tas gr[src0], mem[src1]</t>
   </si>
+  <si>
+    <t>符号拡張</t>
+    <rPh sb="0" eb="4">
+      <t>フゴウカクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2704,11 +2711,11 @@
   </sheetPr>
   <dimension ref="A2:AK1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E143" sqref="E143"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="4.875" customWidth="1"/>
     <col min="2" max="2" width="6.125" customWidth="1"/>
@@ -2737,17 +2744,17 @@
     <col min="26" max="26" width="26.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="14.25" thickBot="1">
+    <row r="5" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M5" s="44"/>
       <c r="N5" s="4" t="s">
         <v>70</v>
@@ -2755,7 +2762,7 @@
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
-    <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1">
+    <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
         <v>402</v>
       </c>
@@ -2808,7 +2815,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="14.25" thickTop="1">
+    <row r="7" spans="1:19" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A7" s="14" t="str">
         <f>DEC2HEX(B7, 3)</f>
         <v>000</v>
@@ -2849,7 +2856,7 @@
       <c r="P7" s="23"/>
       <c r="Q7" s="16"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A8" s="5" t="str">
         <f t="shared" ref="A8:A70" si="1">DEC2HEX(B8, 3)</f>
         <v>001</v>
@@ -2888,7 +2895,7 @@
       <c r="P8" s="24"/>
       <c r="Q8" s="7"/>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A9" s="5" t="str">
         <f t="shared" si="1"/>
         <v>002</v>
@@ -2927,7 +2934,7 @@
       <c r="P9" s="24"/>
       <c r="Q9" s="7"/>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A10" s="5" t="str">
         <f t="shared" si="1"/>
         <v>003</v>
@@ -2966,7 +2973,7 @@
       <c r="P10" s="24"/>
       <c r="Q10" s="7"/>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A11" s="5" t="str">
         <f t="shared" si="1"/>
         <v>004</v>
@@ -3007,7 +3014,7 @@
       </c>
       <c r="Q11" s="7"/>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A12" s="5" t="str">
         <f t="shared" si="1"/>
         <v>005</v>
@@ -3048,7 +3055,7 @@
       </c>
       <c r="Q12" s="7"/>
     </row>
-    <row r="13" spans="1:19">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="str">
         <f t="shared" si="1"/>
         <v>006</v>
@@ -3089,7 +3096,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="str">
         <f t="shared" si="1"/>
         <v>007</v>
@@ -3132,7 +3139,7 @@
       </c>
       <c r="Q14" s="7"/>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A15" s="5" t="str">
         <f t="shared" si="1"/>
         <v>008</v>
@@ -3175,7 +3182,7 @@
       </c>
       <c r="Q15" s="7"/>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A16" s="37" t="str">
         <f t="shared" si="1"/>
         <v>009</v>
@@ -3214,7 +3221,7 @@
       <c r="R16" s="21"/>
       <c r="S16" s="21"/>
     </row>
-    <row r="17" spans="1:19">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A17" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00A</v>
@@ -3251,7 +3258,7 @@
       <c r="R17" s="21"/>
       <c r="S17" s="21"/>
     </row>
-    <row r="18" spans="1:19">
+    <row r="18" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A18" s="42" t="str">
         <f t="shared" si="1"/>
         <v>00B</v>
@@ -3288,7 +3295,7 @@
       <c r="R18" s="21"/>
       <c r="S18" s="21"/>
     </row>
-    <row r="19" spans="1:19">
+    <row r="19" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A19" s="37" t="str">
         <f t="shared" si="1"/>
         <v>00C</v>
@@ -3317,7 +3324,7 @@
       <c r="R19" s="21"/>
       <c r="S19" s="21"/>
     </row>
-    <row r="20" spans="1:19">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A20" s="5" t="str">
         <f t="shared" si="1"/>
         <v>00D</v>
@@ -3352,7 +3359,7 @@
       <c r="P20" s="24"/>
       <c r="Q20" s="7"/>
     </row>
-    <row r="21" spans="1:19">
+    <row r="21" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A21" s="5" t="str">
         <f t="shared" si="1"/>
         <v>00E</v>
@@ -3391,7 +3398,7 @@
       <c r="P21" s="24"/>
       <c r="Q21" s="7"/>
     </row>
-    <row r="22" spans="1:19">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A22" s="5" t="str">
         <f t="shared" si="1"/>
         <v>00F</v>
@@ -3418,7 +3425,7 @@
       <c r="P22" s="24"/>
       <c r="Q22" s="7"/>
     </row>
-    <row r="23" spans="1:19">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A23" s="5" t="str">
         <f t="shared" si="1"/>
         <v>010</v>
@@ -3453,7 +3460,7 @@
       <c r="P23" s="24"/>
       <c r="Q23" s="7"/>
     </row>
-    <row r="24" spans="1:19">
+    <row r="24" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A24" s="5" t="str">
         <f t="shared" si="1"/>
         <v>011</v>
@@ -3488,7 +3495,7 @@
       <c r="P24" s="24"/>
       <c r="Q24" s="7"/>
     </row>
-    <row r="25" spans="1:19">
+    <row r="25" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A25" s="5" t="str">
         <f t="shared" si="1"/>
         <v>012</v>
@@ -3515,7 +3522,7 @@
       <c r="P25" s="24"/>
       <c r="Q25" s="7"/>
     </row>
-    <row r="26" spans="1:19">
+    <row r="26" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A26" s="5" t="str">
         <f t="shared" si="1"/>
         <v>013</v>
@@ -3554,7 +3561,7 @@
       <c r="P26" s="24"/>
       <c r="Q26" s="7"/>
     </row>
-    <row r="27" spans="1:19">
+    <row r="27" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A27" s="5" t="str">
         <f t="shared" si="1"/>
         <v>014</v>
@@ -3593,7 +3600,7 @@
       <c r="P27" s="24"/>
       <c r="Q27" s="7"/>
     </row>
-    <row r="28" spans="1:19">
+    <row r="28" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A28" s="5" t="str">
         <f t="shared" si="1"/>
         <v>015</v>
@@ -3632,7 +3639,7 @@
       <c r="P28" s="24"/>
       <c r="Q28" s="7"/>
     </row>
-    <row r="29" spans="1:19">
+    <row r="29" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A29" s="5" t="str">
         <f t="shared" si="1"/>
         <v>016</v>
@@ -3671,7 +3678,7 @@
       <c r="P29" s="24"/>
       <c r="Q29" s="7"/>
     </row>
-    <row r="30" spans="1:19">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A30" s="5" t="str">
         <f t="shared" si="1"/>
         <v>017</v>
@@ -3698,7 +3705,7 @@
       <c r="P30" s="24"/>
       <c r="Q30" s="7"/>
     </row>
-    <row r="31" spans="1:19">
+    <row r="31" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A31" s="5" t="str">
         <f t="shared" si="1"/>
         <v>018</v>
@@ -3725,7 +3732,7 @@
       <c r="P31" s="24"/>
       <c r="Q31" s="7"/>
     </row>
-    <row r="32" spans="1:19">
+    <row r="32" spans="1:19" x14ac:dyDescent="0.15">
       <c r="A32" s="5" t="str">
         <f t="shared" si="1"/>
         <v>019</v>
@@ -3752,7 +3759,7 @@
       <c r="P32" s="24"/>
       <c r="Q32" s="7"/>
     </row>
-    <row r="33" spans="1:37">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A33" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01A</v>
@@ -3779,7 +3786,7 @@
       <c r="P33" s="24"/>
       <c r="Q33" s="7"/>
     </row>
-    <row r="34" spans="1:37">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A34" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01B</v>
@@ -3806,7 +3813,7 @@
       <c r="P34" s="24"/>
       <c r="Q34" s="7"/>
     </row>
-    <row r="35" spans="1:37">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A35" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01C</v>
@@ -3843,7 +3850,7 @@
       <c r="P35" s="24"/>
       <c r="Q35" s="7"/>
     </row>
-    <row r="36" spans="1:37">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A36" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01D</v>
@@ -3880,7 +3887,7 @@
       <c r="P36" s="24"/>
       <c r="Q36" s="7"/>
     </row>
-    <row r="37" spans="1:37">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A37" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01E</v>
@@ -3907,7 +3914,7 @@
       <c r="P37" s="24"/>
       <c r="Q37" s="7"/>
     </row>
-    <row r="38" spans="1:37">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A38" s="5" t="str">
         <f t="shared" si="1"/>
         <v>01F</v>
@@ -3934,7 +3941,7 @@
       <c r="P38" s="24"/>
       <c r="Q38" s="7"/>
     </row>
-    <row r="39" spans="1:37">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A39" s="5" t="str">
         <f t="shared" si="1"/>
         <v>020</v>
@@ -3963,7 +3970,7 @@
       <c r="P39" s="24"/>
       <c r="Q39" s="7"/>
     </row>
-    <row r="40" spans="1:37">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A40" s="5" t="str">
         <f t="shared" si="1"/>
         <v>021</v>
@@ -3993,7 +4000,7 @@
       <c r="AJ40" s="20"/>
       <c r="AK40" s="20"/>
     </row>
-    <row r="41" spans="1:37">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A41" s="5" t="str">
         <f t="shared" si="1"/>
         <v>022</v>
@@ -4020,7 +4027,7 @@
       <c r="P41" s="24"/>
       <c r="Q41" s="7"/>
     </row>
-    <row r="42" spans="1:37">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A42" s="5" t="str">
         <f t="shared" si="1"/>
         <v>023</v>
@@ -4048,7 +4055,7 @@
       <c r="Q42" s="7"/>
       <c r="AA42" s="20"/>
     </row>
-    <row r="43" spans="1:37">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A43" s="5" t="str">
         <f t="shared" si="1"/>
         <v>024</v>
@@ -4076,7 +4083,7 @@
       <c r="Q43" s="7"/>
       <c r="AA43" s="20"/>
     </row>
-    <row r="44" spans="1:37">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A44" s="5" t="str">
         <f t="shared" si="1"/>
         <v>025</v>
@@ -4104,7 +4111,7 @@
       <c r="Q44" s="7"/>
       <c r="AA44" s="20"/>
     </row>
-    <row r="45" spans="1:37">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A45" s="5" t="str">
         <f t="shared" si="1"/>
         <v>026</v>
@@ -4132,7 +4139,7 @@
       <c r="Q45" s="7"/>
       <c r="AA45" s="20"/>
     </row>
-    <row r="46" spans="1:37">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A46" s="5" t="str">
         <f t="shared" si="1"/>
         <v>027</v>
@@ -4160,7 +4167,7 @@
       <c r="Q46" s="7"/>
       <c r="AA46" s="20"/>
     </row>
-    <row r="47" spans="1:37">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A47" s="5" t="str">
         <f t="shared" si="1"/>
         <v>028</v>
@@ -4188,7 +4195,7 @@
       <c r="Q47" s="7"/>
       <c r="AA47" s="20"/>
     </row>
-    <row r="48" spans="1:37">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.15">
       <c r="A48" s="5" t="str">
         <f t="shared" si="1"/>
         <v>029</v>
@@ -4216,7 +4223,7 @@
       <c r="Q48" s="7"/>
       <c r="AA48" s="20"/>
     </row>
-    <row r="49" spans="1:17">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="5" t="str">
         <f t="shared" si="1"/>
         <v>02A</v>
@@ -4243,7 +4250,7 @@
       <c r="P49" s="24"/>
       <c r="Q49" s="7"/>
     </row>
-    <row r="50" spans="1:17">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="5" t="str">
         <f t="shared" si="1"/>
         <v>02B</v>
@@ -4270,7 +4277,7 @@
       <c r="P50" s="24"/>
       <c r="Q50" s="7"/>
     </row>
-    <row r="51" spans="1:17">
+    <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="5" t="str">
         <f t="shared" si="1"/>
         <v>02C</v>
@@ -4297,7 +4304,7 @@
       <c r="P51" s="24"/>
       <c r="Q51" s="7"/>
     </row>
-    <row r="52" spans="1:17">
+    <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="5" t="str">
         <f t="shared" si="1"/>
         <v>02D</v>
@@ -4324,7 +4331,7 @@
       <c r="P52" s="24"/>
       <c r="Q52" s="7"/>
     </row>
-    <row r="53" spans="1:17">
+    <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="5" t="str">
         <f t="shared" si="1"/>
         <v>02E</v>
@@ -4351,7 +4358,7 @@
       <c r="P53" s="24"/>
       <c r="Q53" s="7"/>
     </row>
-    <row r="54" spans="1:17">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="5" t="str">
         <f t="shared" si="1"/>
         <v>02F</v>
@@ -4378,7 +4385,7 @@
       <c r="P54" s="24"/>
       <c r="Q54" s="7"/>
     </row>
-    <row r="55" spans="1:17">
+    <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="5" t="str">
         <f t="shared" si="1"/>
         <v>030</v>
@@ -4405,7 +4412,7 @@
       <c r="P55" s="24"/>
       <c r="Q55" s="7"/>
     </row>
-    <row r="56" spans="1:17">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="5" t="str">
         <f t="shared" si="1"/>
         <v>031</v>
@@ -4432,7 +4439,7 @@
       <c r="P56" s="24"/>
       <c r="Q56" s="7"/>
     </row>
-    <row r="57" spans="1:17">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="5" t="str">
         <f t="shared" si="1"/>
         <v>032</v>
@@ -4459,7 +4466,7 @@
       <c r="P57" s="24"/>
       <c r="Q57" s="7"/>
     </row>
-    <row r="58" spans="1:17">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="5" t="str">
         <f t="shared" si="1"/>
         <v>033</v>
@@ -4486,7 +4493,7 @@
       <c r="P58" s="24"/>
       <c r="Q58" s="7"/>
     </row>
-    <row r="59" spans="1:17">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="5" t="str">
         <f t="shared" si="1"/>
         <v>034</v>
@@ -4513,7 +4520,7 @@
       <c r="P59" s="24"/>
       <c r="Q59" s="7"/>
     </row>
-    <row r="60" spans="1:17">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="5" t="str">
         <f t="shared" si="1"/>
         <v>035</v>
@@ -4540,7 +4547,7 @@
       <c r="P60" s="24"/>
       <c r="Q60" s="7"/>
     </row>
-    <row r="61" spans="1:17">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="5" t="str">
         <f t="shared" si="1"/>
         <v>036</v>
@@ -4567,7 +4574,7 @@
       <c r="P61" s="24"/>
       <c r="Q61" s="7"/>
     </row>
-    <row r="62" spans="1:17">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="5" t="str">
         <f t="shared" si="1"/>
         <v>037</v>
@@ -4594,7 +4601,7 @@
       <c r="P62" s="24"/>
       <c r="Q62" s="7"/>
     </row>
-    <row r="63" spans="1:17">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="5" t="str">
         <f t="shared" si="1"/>
         <v>038</v>
@@ -4621,7 +4628,7 @@
       <c r="P63" s="24"/>
       <c r="Q63" s="7"/>
     </row>
-    <row r="64" spans="1:17">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A64" s="5" t="str">
         <f t="shared" si="1"/>
         <v>039</v>
@@ -4648,7 +4655,7 @@
       <c r="P64" s="24"/>
       <c r="Q64" s="7"/>
     </row>
-    <row r="65" spans="1:17">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A65" s="5" t="str">
         <f t="shared" si="1"/>
         <v>03A</v>
@@ -4675,7 +4682,7 @@
       <c r="P65" s="24"/>
       <c r="Q65" s="7"/>
     </row>
-    <row r="66" spans="1:17">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A66" s="5" t="str">
         <f t="shared" si="1"/>
         <v>03B</v>
@@ -4702,7 +4709,7 @@
       <c r="P66" s="24"/>
       <c r="Q66" s="7"/>
     </row>
-    <row r="67" spans="1:17">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A67" s="5" t="str">
         <f t="shared" si="1"/>
         <v>03C</v>
@@ -4729,7 +4736,7 @@
       <c r="P67" s="24"/>
       <c r="Q67" s="7"/>
     </row>
-    <row r="68" spans="1:17">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A68" s="5" t="str">
         <f t="shared" si="1"/>
         <v>03D</v>
@@ -4756,7 +4763,7 @@
       <c r="P68" s="24"/>
       <c r="Q68" s="7"/>
     </row>
-    <row r="69" spans="1:17">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A69" s="5" t="str">
         <f t="shared" si="1"/>
         <v>03E</v>
@@ -4783,7 +4790,7 @@
       <c r="P69" s="24"/>
       <c r="Q69" s="7"/>
     </row>
-    <row r="70" spans="1:17">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A70" s="5" t="str">
         <f t="shared" si="1"/>
         <v>03F</v>
@@ -4810,7 +4817,7 @@
       <c r="P70" s="24"/>
       <c r="Q70" s="7"/>
     </row>
-    <row r="71" spans="1:17">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A71" s="5" t="str">
         <f>DEC2HEX(B71, 3)</f>
         <v>040</v>
@@ -4855,7 +4862,7 @@
       </c>
       <c r="Q71" s="7"/>
     </row>
-    <row r="72" spans="1:17">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A72" s="5" t="str">
         <f t="shared" ref="A72:A135" si="4">DEC2HEX(B72, 3)</f>
         <v>041</v>
@@ -4898,7 +4905,7 @@
       </c>
       <c r="Q72" s="7"/>
     </row>
-    <row r="73" spans="1:17">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A73" s="5" t="str">
         <f t="shared" si="4"/>
         <v>042</v>
@@ -4925,7 +4932,7 @@
       <c r="P73" s="24"/>
       <c r="Q73" s="7"/>
     </row>
-    <row r="74" spans="1:17">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A74" s="5" t="str">
         <f t="shared" si="4"/>
         <v>043</v>
@@ -4952,7 +4959,7 @@
       <c r="P74" s="24"/>
       <c r="Q74" s="7"/>
     </row>
-    <row r="75" spans="1:17">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A75" s="5" t="str">
         <f t="shared" si="4"/>
         <v>044</v>
@@ -4979,7 +4986,7 @@
       <c r="P75" s="24"/>
       <c r="Q75" s="7"/>
     </row>
-    <row r="76" spans="1:17">
+    <row r="76" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A76" s="5" t="str">
         <f t="shared" si="4"/>
         <v>045</v>
@@ -5022,7 +5029,7 @@
       </c>
       <c r="Q76" s="7"/>
     </row>
-    <row r="77" spans="1:17">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A77" s="5" t="str">
         <f t="shared" si="4"/>
         <v>046</v>
@@ -5049,7 +5056,7 @@
       <c r="P77" s="24"/>
       <c r="Q77" s="7"/>
     </row>
-    <row r="78" spans="1:17">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A78" s="5" t="str">
         <f t="shared" si="4"/>
         <v>047</v>
@@ -5076,7 +5083,7 @@
       <c r="P78" s="24"/>
       <c r="Q78" s="7"/>
     </row>
-    <row r="79" spans="1:17">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A79" s="5" t="str">
         <f t="shared" si="4"/>
         <v>048</v>
@@ -5119,7 +5126,7 @@
       </c>
       <c r="Q79" s="7"/>
     </row>
-    <row r="80" spans="1:17">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A80" s="5" t="str">
         <f t="shared" si="4"/>
         <v>049</v>
@@ -5162,7 +5169,7 @@
       </c>
       <c r="Q80" s="7"/>
     </row>
-    <row r="81" spans="1:17">
+    <row r="81" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A81" s="5" t="str">
         <f t="shared" si="4"/>
         <v>04A</v>
@@ -5189,7 +5196,7 @@
       <c r="P81" s="24"/>
       <c r="Q81" s="7"/>
     </row>
-    <row r="82" spans="1:17">
+    <row r="82" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A82" s="5" t="str">
         <f t="shared" si="4"/>
         <v>04B</v>
@@ -5216,7 +5223,7 @@
       <c r="P82" s="24"/>
       <c r="Q82" s="7"/>
     </row>
-    <row r="83" spans="1:17">
+    <row r="83" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A83" s="5" t="str">
         <f t="shared" si="4"/>
         <v>04C</v>
@@ -5243,7 +5250,7 @@
       <c r="P83" s="24"/>
       <c r="Q83" s="7"/>
     </row>
-    <row r="84" spans="1:17">
+    <row r="84" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A84" s="5" t="str">
         <f t="shared" si="4"/>
         <v>04D</v>
@@ -5270,7 +5277,7 @@
       <c r="P84" s="24"/>
       <c r="Q84" s="7"/>
     </row>
-    <row r="85" spans="1:17">
+    <row r="85" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A85" s="5" t="str">
         <f t="shared" si="4"/>
         <v>04E</v>
@@ -5297,7 +5304,7 @@
       <c r="P85" s="24"/>
       <c r="Q85" s="7"/>
     </row>
-    <row r="86" spans="1:17">
+    <row r="86" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A86" s="5" t="str">
         <f t="shared" si="4"/>
         <v>04F</v>
@@ -5324,7 +5331,7 @@
       <c r="P86" s="24"/>
       <c r="Q86" s="7"/>
     </row>
-    <row r="87" spans="1:17">
+    <row r="87" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A87" s="5" t="str">
         <f t="shared" si="4"/>
         <v>050</v>
@@ -5351,7 +5358,7 @@
       <c r="P87" s="24"/>
       <c r="Q87" s="7"/>
     </row>
-    <row r="88" spans="1:17">
+    <row r="88" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A88" s="5" t="str">
         <f t="shared" si="4"/>
         <v>051</v>
@@ -5378,7 +5385,7 @@
       <c r="P88" s="24"/>
       <c r="Q88" s="7"/>
     </row>
-    <row r="89" spans="1:17">
+    <row r="89" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A89" s="5" t="str">
         <f t="shared" si="4"/>
         <v>052</v>
@@ -5405,7 +5412,7 @@
       <c r="P89" s="24"/>
       <c r="Q89" s="7"/>
     </row>
-    <row r="90" spans="1:17">
+    <row r="90" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A90" s="5" t="str">
         <f t="shared" si="4"/>
         <v>053</v>
@@ -5432,7 +5439,7 @@
       <c r="P90" s="24"/>
       <c r="Q90" s="7"/>
     </row>
-    <row r="91" spans="1:17">
+    <row r="91" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A91" s="5" t="str">
         <f t="shared" si="4"/>
         <v>054</v>
@@ -5459,7 +5466,7 @@
       <c r="P91" s="24"/>
       <c r="Q91" s="7"/>
     </row>
-    <row r="92" spans="1:17">
+    <row r="92" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A92" s="5" t="str">
         <f t="shared" si="4"/>
         <v>055</v>
@@ -5486,7 +5493,7 @@
       <c r="P92" s="24"/>
       <c r="Q92" s="7"/>
     </row>
-    <row r="93" spans="1:17">
+    <row r="93" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A93" s="5" t="str">
         <f t="shared" si="4"/>
         <v>056</v>
@@ -5513,7 +5520,7 @@
       <c r="P93" s="24"/>
       <c r="Q93" s="7"/>
     </row>
-    <row r="94" spans="1:17">
+    <row r="94" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A94" s="5" t="str">
         <f t="shared" si="4"/>
         <v>057</v>
@@ -5540,7 +5547,7 @@
       <c r="P94" s="24"/>
       <c r="Q94" s="7"/>
     </row>
-    <row r="95" spans="1:17">
+    <row r="95" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A95" s="5" t="str">
         <f t="shared" si="4"/>
         <v>058</v>
@@ -5567,7 +5574,7 @@
       <c r="P95" s="24"/>
       <c r="Q95" s="7"/>
     </row>
-    <row r="96" spans="1:17">
+    <row r="96" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A96" s="5" t="str">
         <f t="shared" si="4"/>
         <v>059</v>
@@ -5594,7 +5601,7 @@
       <c r="P96" s="24"/>
       <c r="Q96" s="7"/>
     </row>
-    <row r="97" spans="1:26">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A97" s="5" t="str">
         <f t="shared" si="4"/>
         <v>05A</v>
@@ -5624,7 +5631,7 @@
       <c r="Y97" s="3"/>
       <c r="Z97" s="2"/>
     </row>
-    <row r="98" spans="1:26">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A98" s="5" t="str">
         <f t="shared" si="4"/>
         <v>05B</v>
@@ -5651,7 +5658,7 @@
       <c r="P98" s="24"/>
       <c r="Q98" s="7"/>
     </row>
-    <row r="99" spans="1:26">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A99" s="5" t="str">
         <f t="shared" si="4"/>
         <v>05C</v>
@@ -5678,7 +5685,7 @@
       <c r="P99" s="24"/>
       <c r="Q99" s="7"/>
     </row>
-    <row r="100" spans="1:26">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A100" s="5" t="str">
         <f t="shared" si="4"/>
         <v>05D</v>
@@ -5705,7 +5712,7 @@
       <c r="P100" s="24"/>
       <c r="Q100" s="7"/>
     </row>
-    <row r="101" spans="1:26">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A101" s="5" t="str">
         <f t="shared" si="4"/>
         <v>05E</v>
@@ -5732,7 +5739,7 @@
       <c r="P101" s="24"/>
       <c r="Q101" s="7"/>
     </row>
-    <row r="102" spans="1:26">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A102" s="5" t="str">
         <f t="shared" si="4"/>
         <v>05F</v>
@@ -5759,7 +5766,7 @@
       <c r="P102" s="24"/>
       <c r="Q102" s="7"/>
     </row>
-    <row r="103" spans="1:26">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A103" s="5" t="str">
         <f t="shared" si="4"/>
         <v>060</v>
@@ -5796,7 +5803,7 @@
       <c r="P103" s="24"/>
       <c r="Q103" s="7"/>
     </row>
-    <row r="104" spans="1:26">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A104" s="5" t="str">
         <f t="shared" si="4"/>
         <v>061</v>
@@ -5834,7 +5841,7 @@
       <c r="Y104" s="3"/>
       <c r="Z104" s="2"/>
     </row>
-    <row r="105" spans="1:26">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A105" s="5" t="str">
         <f t="shared" si="4"/>
         <v>062</v>
@@ -5869,7 +5876,7 @@
       <c r="P105" s="24"/>
       <c r="Q105" s="7"/>
     </row>
-    <row r="106" spans="1:26">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A106" s="37" t="str">
         <f t="shared" si="4"/>
         <v>063</v>
@@ -5904,7 +5911,7 @@
       <c r="P106" s="24"/>
       <c r="Q106" s="7"/>
     </row>
-    <row r="107" spans="1:26">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A107" s="5" t="str">
         <f t="shared" si="4"/>
         <v>064</v>
@@ -5940,7 +5947,7 @@
       <c r="Q107" s="7"/>
       <c r="W107" s="2"/>
     </row>
-    <row r="108" spans="1:26">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A108" s="5" t="str">
         <f t="shared" si="4"/>
         <v>065</v>
@@ -5976,7 +5983,7 @@
       <c r="Q108" s="7"/>
       <c r="Y108" s="2"/>
     </row>
-    <row r="109" spans="1:26">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A109" s="5" t="str">
         <f t="shared" si="4"/>
         <v>066</v>
@@ -6011,7 +6018,7 @@
       <c r="P109" s="24"/>
       <c r="Q109" s="7"/>
     </row>
-    <row r="110" spans="1:26">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A110" s="5" t="str">
         <f t="shared" si="4"/>
         <v>067</v>
@@ -6046,7 +6053,7 @@
       <c r="P110" s="24"/>
       <c r="Q110" s="7"/>
     </row>
-    <row r="111" spans="1:26">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A111" s="5" t="str">
         <f t="shared" si="4"/>
         <v>068</v>
@@ -6073,7 +6080,7 @@
       <c r="P111" s="24"/>
       <c r="Q111" s="7"/>
     </row>
-    <row r="112" spans="1:26">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A112" s="5" t="str">
         <f t="shared" si="4"/>
         <v>069</v>
@@ -6100,7 +6107,7 @@
       <c r="P112" s="24"/>
       <c r="Q112" s="7"/>
     </row>
-    <row r="113" spans="1:26">
+    <row r="113" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A113" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06A</v>
@@ -6137,7 +6144,7 @@
       <c r="P113" s="24"/>
       <c r="Q113" s="7"/>
     </row>
-    <row r="114" spans="1:26">
+    <row r="114" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A114" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06B</v>
@@ -6174,7 +6181,7 @@
       <c r="P114" s="24"/>
       <c r="Q114" s="7"/>
     </row>
-    <row r="115" spans="1:26">
+    <row r="115" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A115" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06C</v>
@@ -6211,7 +6218,7 @@
       <c r="P115" s="24"/>
       <c r="Q115" s="7"/>
     </row>
-    <row r="116" spans="1:26">
+    <row r="116" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A116" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06D</v>
@@ -6251,7 +6258,7 @@
       <c r="Y116" s="3"/>
       <c r="Z116" s="2"/>
     </row>
-    <row r="117" spans="1:26">
+    <row r="117" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A117" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06E</v>
@@ -6288,7 +6295,7 @@
       <c r="P117" s="24"/>
       <c r="Q117" s="7"/>
     </row>
-    <row r="118" spans="1:26">
+    <row r="118" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A118" s="5" t="str">
         <f t="shared" si="4"/>
         <v>06F</v>
@@ -6325,7 +6332,7 @@
       <c r="P118" s="24"/>
       <c r="Q118" s="7"/>
     </row>
-    <row r="119" spans="1:26">
+    <row r="119" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A119" s="37" t="str">
         <f t="shared" si="4"/>
         <v>070</v>
@@ -6362,7 +6369,7 @@
       <c r="P119" s="24"/>
       <c r="Q119" s="7"/>
     </row>
-    <row r="120" spans="1:26">
+    <row r="120" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A120" s="37" t="str">
         <f t="shared" si="4"/>
         <v>071</v>
@@ -6399,7 +6406,7 @@
       <c r="P120" s="24"/>
       <c r="Q120" s="7"/>
     </row>
-    <row r="121" spans="1:26">
+    <row r="121" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A121" s="5" t="str">
         <f t="shared" si="4"/>
         <v>072</v>
@@ -6438,7 +6445,7 @@
       <c r="P121" s="24"/>
       <c r="Q121" s="7"/>
     </row>
-    <row r="122" spans="1:26">
+    <row r="122" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A122" s="5" t="str">
         <f t="shared" si="4"/>
         <v>073</v>
@@ -6477,7 +6484,7 @@
       <c r="P122" s="24"/>
       <c r="Q122" s="7"/>
     </row>
-    <row r="123" spans="1:26">
+    <row r="123" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A123" s="5" t="str">
         <f t="shared" si="4"/>
         <v>074</v>
@@ -6507,7 +6514,7 @@
       <c r="Y123" s="3"/>
       <c r="Z123" s="2"/>
     </row>
-    <row r="124" spans="1:26">
+    <row r="124" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A124" s="5" t="str">
         <f t="shared" si="4"/>
         <v>075</v>
@@ -6534,7 +6541,7 @@
       <c r="P124" s="24"/>
       <c r="Q124" s="7"/>
     </row>
-    <row r="125" spans="1:26">
+    <row r="125" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A125" s="5" t="str">
         <f t="shared" si="4"/>
         <v>076</v>
@@ -6571,7 +6578,7 @@
       <c r="P125" s="24"/>
       <c r="Q125" s="7"/>
     </row>
-    <row r="126" spans="1:26">
+    <row r="126" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A126" s="5" t="str">
         <f t="shared" si="4"/>
         <v>077</v>
@@ -6608,7 +6615,7 @@
       <c r="P126" s="24"/>
       <c r="Q126" s="7"/>
     </row>
-    <row r="127" spans="1:26">
+    <row r="127" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A127" s="5" t="str">
         <f t="shared" si="4"/>
         <v>078</v>
@@ -6635,7 +6642,7 @@
       <c r="P127" s="24"/>
       <c r="Q127" s="7"/>
     </row>
-    <row r="128" spans="1:26">
+    <row r="128" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A128" s="5" t="str">
         <f t="shared" si="4"/>
         <v>079</v>
@@ -6662,7 +6669,7 @@
       <c r="P128" s="24"/>
       <c r="Q128" s="7"/>
     </row>
-    <row r="129" spans="1:26">
+    <row r="129" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A129" s="5" t="str">
         <f t="shared" si="4"/>
         <v>07A</v>
@@ -6700,7 +6707,7 @@
       <c r="Y129" s="3"/>
       <c r="Z129" s="2"/>
     </row>
-    <row r="130" spans="1:26">
+    <row r="130" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A130" s="5" t="str">
         <f t="shared" si="4"/>
         <v>07B</v>
@@ -6729,7 +6736,7 @@
       <c r="P130" s="24"/>
       <c r="Q130" s="7"/>
     </row>
-    <row r="131" spans="1:26">
+    <row r="131" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A131" s="5" t="str">
         <f t="shared" si="4"/>
         <v>07C</v>
@@ -6756,7 +6763,7 @@
       <c r="P131" s="24"/>
       <c r="Q131" s="7"/>
     </row>
-    <row r="132" spans="1:26">
+    <row r="132" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A132" s="5" t="str">
         <f t="shared" si="4"/>
         <v>07D</v>
@@ -6783,7 +6790,7 @@
       <c r="P132" s="24"/>
       <c r="Q132" s="7"/>
     </row>
-    <row r="133" spans="1:26">
+    <row r="133" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A133" s="5" t="str">
         <f t="shared" si="4"/>
         <v>07E</v>
@@ -6810,7 +6817,7 @@
       <c r="P133" s="24"/>
       <c r="Q133" s="7"/>
     </row>
-    <row r="134" spans="1:26">
+    <row r="134" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A134" s="5" t="str">
         <f t="shared" si="4"/>
         <v>07F</v>
@@ -6837,7 +6844,7 @@
       <c r="P134" s="24"/>
       <c r="Q134" s="7"/>
     </row>
-    <row r="135" spans="1:26">
+    <row r="135" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A135" s="5" t="str">
         <f t="shared" si="4"/>
         <v>080</v>
@@ -6886,7 +6893,7 @@
       </c>
       <c r="Q135" s="7"/>
     </row>
-    <row r="136" spans="1:26">
+    <row r="136" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A136" s="5" t="str">
         <f t="shared" ref="A136:A199" si="9">DEC2HEX(B136, 3)</f>
         <v>081</v>
@@ -6933,7 +6940,7 @@
       </c>
       <c r="Q136" s="7"/>
     </row>
-    <row r="137" spans="1:26">
+    <row r="137" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A137" s="5" t="str">
         <f t="shared" si="9"/>
         <v>082</v>
@@ -6980,7 +6987,7 @@
       </c>
       <c r="Q137" s="7"/>
     </row>
-    <row r="138" spans="1:26">
+    <row r="138" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A138" s="5" t="str">
         <f t="shared" si="9"/>
         <v>083</v>
@@ -7023,7 +7030,7 @@
       </c>
       <c r="Q138" s="7"/>
     </row>
-    <row r="139" spans="1:26">
+    <row r="139" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A139" s="5" t="str">
         <f t="shared" si="9"/>
         <v>084</v>
@@ -7066,7 +7073,7 @@
       </c>
       <c r="Q139" s="7"/>
     </row>
-    <row r="140" spans="1:26">
+    <row r="140" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A140" s="5" t="str">
         <f t="shared" si="9"/>
         <v>085</v>
@@ -7109,7 +7116,7 @@
       </c>
       <c r="Q140" s="7"/>
     </row>
-    <row r="141" spans="1:26">
+    <row r="141" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A141" s="5" t="str">
         <f t="shared" si="9"/>
         <v>086</v>
@@ -7136,7 +7143,7 @@
       <c r="P141" s="24"/>
       <c r="Q141" s="7"/>
     </row>
-    <row r="142" spans="1:26">
+    <row r="142" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A142" s="5" t="str">
         <f t="shared" si="9"/>
         <v>087</v>
@@ -7163,7 +7170,7 @@
       <c r="P142" s="24"/>
       <c r="Q142" s="7"/>
     </row>
-    <row r="143" spans="1:26">
+    <row r="143" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A143" s="5" t="str">
         <f t="shared" si="9"/>
         <v>088</v>
@@ -7175,7 +7182,9 @@
       <c r="D143" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="E143" s="6"/>
+      <c r="E143" s="6" t="s">
+        <v>409</v>
+      </c>
       <c r="F143" s="22" t="s">
         <v>30</v>
       </c>
@@ -7206,7 +7215,7 @@
       </c>
       <c r="Q143" s="7"/>
     </row>
-    <row r="144" spans="1:26">
+    <row r="144" spans="1:26" x14ac:dyDescent="0.15">
       <c r="A144" s="5" t="str">
         <f t="shared" si="9"/>
         <v>089</v>
@@ -7247,7 +7256,7 @@
       </c>
       <c r="Q144" s="7"/>
     </row>
-    <row r="145" spans="1:17">
+    <row r="145" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A145" s="5" t="str">
         <f t="shared" si="9"/>
         <v>08A</v>
@@ -7274,7 +7283,7 @@
       <c r="P145" s="24"/>
       <c r="Q145" s="7"/>
     </row>
-    <row r="146" spans="1:17">
+    <row r="146" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A146" s="5" t="str">
         <f t="shared" si="9"/>
         <v>08B</v>
@@ -7301,7 +7310,7 @@
       <c r="P146" s="24"/>
       <c r="Q146" s="7"/>
     </row>
-    <row r="147" spans="1:17">
+    <row r="147" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A147" s="5" t="str">
         <f t="shared" si="9"/>
         <v>08C</v>
@@ -7328,7 +7337,7 @@
       <c r="P147" s="24"/>
       <c r="Q147" s="7"/>
     </row>
-    <row r="148" spans="1:17">
+    <row r="148" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A148" s="5" t="str">
         <f t="shared" si="9"/>
         <v>08D</v>
@@ -7355,7 +7364,7 @@
       <c r="P148" s="24"/>
       <c r="Q148" s="7"/>
     </row>
-    <row r="149" spans="1:17">
+    <row r="149" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A149" s="5" t="str">
         <f t="shared" si="9"/>
         <v>08E</v>
@@ -7382,7 +7391,7 @@
       <c r="P149" s="24"/>
       <c r="Q149" s="7"/>
     </row>
-    <row r="150" spans="1:17">
+    <row r="150" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A150" s="5" t="str">
         <f t="shared" si="9"/>
         <v>08F</v>
@@ -7409,7 +7418,7 @@
       <c r="P150" s="24"/>
       <c r="Q150" s="7"/>
     </row>
-    <row r="151" spans="1:17">
+    <row r="151" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A151" s="5" t="str">
         <f t="shared" si="9"/>
         <v>090</v>
@@ -7452,7 +7461,7 @@
       </c>
       <c r="Q151" s="7"/>
     </row>
-    <row r="152" spans="1:17">
+    <row r="152" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A152" s="5" t="str">
         <f t="shared" si="9"/>
         <v>091</v>
@@ -7479,7 +7488,7 @@
       <c r="P152" s="24"/>
       <c r="Q152" s="7"/>
     </row>
-    <row r="153" spans="1:17">
+    <row r="153" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A153" s="5" t="str">
         <f t="shared" si="9"/>
         <v>092</v>
@@ -7506,7 +7515,7 @@
       <c r="P153" s="24"/>
       <c r="Q153" s="7"/>
     </row>
-    <row r="154" spans="1:17">
+    <row r="154" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A154" s="5" t="str">
         <f t="shared" si="9"/>
         <v>093</v>
@@ -7533,7 +7542,7 @@
       <c r="P154" s="24"/>
       <c r="Q154" s="7"/>
     </row>
-    <row r="155" spans="1:17">
+    <row r="155" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A155" s="46" t="str">
         <f t="shared" si="9"/>
         <v>094</v>
@@ -7560,7 +7569,7 @@
       <c r="P155" s="24"/>
       <c r="Q155" s="7"/>
     </row>
-    <row r="156" spans="1:17">
+    <row r="156" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A156" s="46" t="str">
         <f t="shared" si="9"/>
         <v>095</v>
@@ -7587,7 +7596,7 @@
       <c r="P156" s="24"/>
       <c r="Q156" s="7"/>
     </row>
-    <row r="157" spans="1:17">
+    <row r="157" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A157" s="46" t="str">
         <f t="shared" si="9"/>
         <v>096</v>
@@ -7614,7 +7623,7 @@
       <c r="P157" s="24"/>
       <c r="Q157" s="7"/>
     </row>
-    <row r="158" spans="1:17">
+    <row r="158" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A158" s="46" t="str">
         <f t="shared" si="9"/>
         <v>097</v>
@@ -7641,7 +7650,7 @@
       <c r="P158" s="24"/>
       <c r="Q158" s="7"/>
     </row>
-    <row r="159" spans="1:17">
+    <row r="159" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A159" s="46" t="str">
         <f t="shared" si="9"/>
         <v>098</v>
@@ -7668,7 +7677,7 @@
       <c r="P159" s="24"/>
       <c r="Q159" s="7"/>
     </row>
-    <row r="160" spans="1:17">
+    <row r="160" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A160" s="46" t="str">
         <f t="shared" si="9"/>
         <v>099</v>
@@ -7695,7 +7704,7 @@
       <c r="P160" s="24"/>
       <c r="Q160" s="7"/>
     </row>
-    <row r="161" spans="1:17">
+    <row r="161" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A161" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09A</v>
@@ -7738,7 +7747,7 @@
       </c>
       <c r="Q161" s="45"/>
     </row>
-    <row r="162" spans="1:17">
+    <row r="162" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A162" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09B</v>
@@ -7783,7 +7792,7 @@
       </c>
       <c r="Q162" s="45"/>
     </row>
-    <row r="163" spans="1:17">
+    <row r="163" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A163" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09C</v>
@@ -7828,7 +7837,7 @@
       </c>
       <c r="Q163" s="45"/>
     </row>
-    <row r="164" spans="1:17">
+    <row r="164" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A164" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09D</v>
@@ -7869,7 +7878,7 @@
       </c>
       <c r="Q164" s="45"/>
     </row>
-    <row r="165" spans="1:17">
+    <row r="165" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A165" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09E</v>
@@ -7912,7 +7921,7 @@
       </c>
       <c r="Q165" s="45"/>
     </row>
-    <row r="166" spans="1:17">
+    <row r="166" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A166" s="46" t="str">
         <f t="shared" si="9"/>
         <v>09F</v>
@@ -7955,7 +7964,7 @@
       </c>
       <c r="Q166" s="45"/>
     </row>
-    <row r="167" spans="1:17">
+    <row r="167" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="str">
         <f>DEC2HEX(B167, 3)</f>
         <v>0A0</v>
@@ -8004,7 +8013,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="168" spans="1:17">
+    <row r="168" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A168" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A1</v>
@@ -8051,7 +8060,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="169" spans="1:17">
+    <row r="169" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A169" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A2</v>
@@ -8098,7 +8107,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:17">
+    <row r="170" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A170" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A3</v>
@@ -8143,7 +8152,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="171" spans="1:17">
+    <row r="171" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A171" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A4</v>
@@ -8170,7 +8179,7 @@
       <c r="P171" s="24"/>
       <c r="Q171" s="7"/>
     </row>
-    <row r="172" spans="1:17">
+    <row r="172" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A172" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A5</v>
@@ -8197,7 +8206,7 @@
       <c r="P172" s="24"/>
       <c r="Q172" s="7"/>
     </row>
-    <row r="173" spans="1:17">
+    <row r="173" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A173" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A6</v>
@@ -8224,7 +8233,7 @@
       <c r="P173" s="24"/>
       <c r="Q173" s="7"/>
     </row>
-    <row r="174" spans="1:17">
+    <row r="174" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A174" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A7</v>
@@ -8251,7 +8260,7 @@
       <c r="P174" s="24"/>
       <c r="Q174" s="7"/>
     </row>
-    <row r="175" spans="1:17">
+    <row r="175" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A175" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A8</v>
@@ -8278,7 +8287,7 @@
       <c r="P175" s="24"/>
       <c r="Q175" s="7"/>
     </row>
-    <row r="176" spans="1:17">
+    <row r="176" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A176" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0A9</v>
@@ -8305,7 +8314,7 @@
       <c r="P176" s="24"/>
       <c r="Q176" s="7"/>
     </row>
-    <row r="177" spans="1:17">
+    <row r="177" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A177" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0AA</v>
@@ -8332,7 +8341,7 @@
       <c r="P177" s="24"/>
       <c r="Q177" s="7"/>
     </row>
-    <row r="178" spans="1:17">
+    <row r="178" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A178" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0AB</v>
@@ -8359,7 +8368,7 @@
       <c r="P178" s="24"/>
       <c r="Q178" s="7"/>
     </row>
-    <row r="179" spans="1:17">
+    <row r="179" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A179" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0AC</v>
@@ -8386,7 +8395,7 @@
       <c r="P179" s="24"/>
       <c r="Q179" s="7"/>
     </row>
-    <row r="180" spans="1:17">
+    <row r="180" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A180" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0AD</v>
@@ -8413,7 +8422,7 @@
       <c r="P180" s="24"/>
       <c r="Q180" s="7"/>
     </row>
-    <row r="181" spans="1:17">
+    <row r="181" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A181" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0AE</v>
@@ -8440,7 +8449,7 @@
       <c r="P181" s="24"/>
       <c r="Q181" s="7"/>
     </row>
-    <row r="182" spans="1:17">
+    <row r="182" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A182" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0AF</v>
@@ -8467,7 +8476,7 @@
       <c r="P182" s="24"/>
       <c r="Q182" s="7"/>
     </row>
-    <row r="183" spans="1:17">
+    <row r="183" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A183" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B0</v>
@@ -8514,7 +8523,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="184" spans="1:17">
+    <row r="184" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A184" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B1</v>
@@ -8561,7 +8570,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="185" spans="1:17">
+    <row r="185" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A185" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B2</v>
@@ -8608,7 +8617,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="186" spans="1:17">
+    <row r="186" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A186" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B3</v>
@@ -8635,7 +8644,7 @@
       <c r="P186" s="24"/>
       <c r="Q186" s="7"/>
     </row>
-    <row r="187" spans="1:17">
+    <row r="187" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A187" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B4</v>
@@ -8662,7 +8671,7 @@
       <c r="P187" s="24"/>
       <c r="Q187" s="7"/>
     </row>
-    <row r="188" spans="1:17">
+    <row r="188" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A188" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B5</v>
@@ -8689,7 +8698,7 @@
       <c r="P188" s="24"/>
       <c r="Q188" s="7"/>
     </row>
-    <row r="189" spans="1:17">
+    <row r="189" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A189" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B6</v>
@@ -8716,7 +8725,7 @@
       <c r="P189" s="24"/>
       <c r="Q189" s="7"/>
     </row>
-    <row r="190" spans="1:17">
+    <row r="190" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A190" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B7</v>
@@ -8743,7 +8752,7 @@
       <c r="P190" s="24"/>
       <c r="Q190" s="7"/>
     </row>
-    <row r="191" spans="1:17">
+    <row r="191" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A191" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B8</v>
@@ -8770,7 +8779,7 @@
       <c r="P191" s="24"/>
       <c r="Q191" s="7"/>
     </row>
-    <row r="192" spans="1:17">
+    <row r="192" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A192" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0B9</v>
@@ -8797,7 +8806,7 @@
       <c r="P192" s="24"/>
       <c r="Q192" s="7"/>
     </row>
-    <row r="193" spans="1:17">
+    <row r="193" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A193" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0BA</v>
@@ -8824,7 +8833,7 @@
       <c r="P193" s="24"/>
       <c r="Q193" s="7"/>
     </row>
-    <row r="194" spans="1:17">
+    <row r="194" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A194" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0BB</v>
@@ -8851,7 +8860,7 @@
       <c r="P194" s="24"/>
       <c r="Q194" s="7"/>
     </row>
-    <row r="195" spans="1:17">
+    <row r="195" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A195" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0BC</v>
@@ -8878,7 +8887,7 @@
       <c r="P195" s="24"/>
       <c r="Q195" s="7"/>
     </row>
-    <row r="196" spans="1:17">
+    <row r="196" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A196" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0BD</v>
@@ -8905,7 +8914,7 @@
       <c r="P196" s="24"/>
       <c r="Q196" s="7"/>
     </row>
-    <row r="197" spans="1:17">
+    <row r="197" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A197" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0BE</v>
@@ -8932,7 +8941,7 @@
       <c r="P197" s="24"/>
       <c r="Q197" s="7"/>
     </row>
-    <row r="198" spans="1:17">
+    <row r="198" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A198" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0BF</v>
@@ -8959,7 +8968,7 @@
       <c r="P198" s="24"/>
       <c r="Q198" s="7"/>
     </row>
-    <row r="199" spans="1:17">
+    <row r="199" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A199" s="5" t="str">
         <f t="shared" si="9"/>
         <v>0C0</v>
@@ -8998,7 +9007,7 @@
       <c r="P199" s="24"/>
       <c r="Q199" s="7"/>
     </row>
-    <row r="200" spans="1:17">
+    <row r="200" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A200" s="5" t="str">
         <f t="shared" ref="A200:A263" si="14">DEC2HEX(B200, 3)</f>
         <v>0C1</v>
@@ -9035,7 +9044,7 @@
       <c r="P200" s="24"/>
       <c r="Q200" s="7"/>
     </row>
-    <row r="201" spans="1:17">
+    <row r="201" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A201" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0C2</v>
@@ -9072,7 +9081,7 @@
       <c r="P201" s="24"/>
       <c r="Q201" s="7"/>
     </row>
-    <row r="202" spans="1:17">
+    <row r="202" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A202" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0C3</v>
@@ -9109,7 +9118,7 @@
       <c r="P202" s="24"/>
       <c r="Q202" s="7"/>
     </row>
-    <row r="203" spans="1:17">
+    <row r="203" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A203" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0C4</v>
@@ -9146,7 +9155,7 @@
       <c r="P203" s="24"/>
       <c r="Q203" s="7"/>
     </row>
-    <row r="204" spans="1:17">
+    <row r="204" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A204" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0C5</v>
@@ -9185,7 +9194,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="205" spans="1:17">
+    <row r="205" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A205" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0C6</v>
@@ -9212,7 +9221,7 @@
       <c r="P205" s="24"/>
       <c r="Q205" s="7"/>
     </row>
-    <row r="206" spans="1:17">
+    <row r="206" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A206" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0C7</v>
@@ -9239,7 +9248,7 @@
       <c r="P206" s="24"/>
       <c r="Q206" s="7"/>
     </row>
-    <row r="207" spans="1:17">
+    <row r="207" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A207" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0C8</v>
@@ -9282,7 +9291,7 @@
       </c>
       <c r="Q207" s="7"/>
     </row>
-    <row r="208" spans="1:17">
+    <row r="208" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A208" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0C9</v>
@@ -9325,7 +9334,7 @@
       </c>
       <c r="Q208" s="7"/>
     </row>
-    <row r="209" spans="1:17">
+    <row r="209" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A209" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0CA</v>
@@ -9364,7 +9373,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="210" spans="1:17">
+    <row r="210" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A210" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0CB</v>
@@ -9401,7 +9410,7 @@
       <c r="P210" s="24"/>
       <c r="Q210" s="7"/>
     </row>
-    <row r="211" spans="1:17">
+    <row r="211" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A211" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0CC</v>
@@ -9438,7 +9447,7 @@
       <c r="P211" s="24"/>
       <c r="Q211" s="7"/>
     </row>
-    <row r="212" spans="1:17">
+    <row r="212" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A212" s="5" t="str">
         <f>DEC2HEX(B212, 3)</f>
         <v>0CD</v>
@@ -9473,7 +9482,7 @@
       <c r="P212" s="24"/>
       <c r="Q212" s="7"/>
     </row>
-    <row r="213" spans="1:17">
+    <row r="213" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A213" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0CE</v>
@@ -9508,7 +9517,7 @@
       <c r="P213" s="24"/>
       <c r="Q213" s="7"/>
     </row>
-    <row r="214" spans="1:17">
+    <row r="214" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A214" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0CF</v>
@@ -9537,7 +9546,7 @@
       <c r="P214" s="24"/>
       <c r="Q214" s="7"/>
     </row>
-    <row r="215" spans="1:17">
+    <row r="215" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A215" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0D0</v>
@@ -9572,7 +9581,7 @@
       <c r="P215" s="24"/>
       <c r="Q215" s="7"/>
     </row>
-    <row r="216" spans="1:17">
+    <row r="216" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A216" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0D1</v>
@@ -9607,7 +9616,7 @@
       <c r="P216" s="24"/>
       <c r="Q216" s="7"/>
     </row>
-    <row r="217" spans="1:17">
+    <row r="217" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A217" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0D2</v>
@@ -9634,7 +9643,7 @@
       <c r="P217" s="24"/>
       <c r="Q217" s="7"/>
     </row>
-    <row r="218" spans="1:17">
+    <row r="218" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A218" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0D3</v>
@@ -9669,7 +9678,7 @@
       <c r="P218" s="24"/>
       <c r="Q218" s="7"/>
     </row>
-    <row r="219" spans="1:17">
+    <row r="219" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A219" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0D4</v>
@@ -9704,7 +9713,7 @@
       <c r="P219" s="24"/>
       <c r="Q219" s="7"/>
     </row>
-    <row r="220" spans="1:17">
+    <row r="220" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A220" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0D5</v>
@@ -9739,7 +9748,7 @@
       <c r="P220" s="24"/>
       <c r="Q220" s="7"/>
     </row>
-    <row r="221" spans="1:17">
+    <row r="221" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A221" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0D6</v>
@@ -9774,7 +9783,7 @@
       <c r="P221" s="24"/>
       <c r="Q221" s="7"/>
     </row>
-    <row r="222" spans="1:17">
+    <row r="222" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A222" s="36" t="str">
         <f t="shared" si="14"/>
         <v>0D7</v>
@@ -9811,7 +9820,7 @@
       <c r="P222" s="24"/>
       <c r="Q222" s="7"/>
     </row>
-    <row r="223" spans="1:17">
+    <row r="223" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A223" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0D8</v>
@@ -9838,7 +9847,7 @@
       <c r="P223" s="24"/>
       <c r="Q223" s="7"/>
     </row>
-    <row r="224" spans="1:17">
+    <row r="224" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A224" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0D9</v>
@@ -9865,7 +9874,7 @@
       <c r="P224" s="24"/>
       <c r="Q224" s="7"/>
     </row>
-    <row r="225" spans="1:17">
+    <row r="225" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A225" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0DA</v>
@@ -9892,7 +9901,7 @@
       <c r="P225" s="24"/>
       <c r="Q225" s="7"/>
     </row>
-    <row r="226" spans="1:17">
+    <row r="226" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A226" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0DB</v>
@@ -9919,7 +9928,7 @@
       <c r="P226" s="24"/>
       <c r="Q226" s="7"/>
     </row>
-    <row r="227" spans="1:17">
+    <row r="227" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A227" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0DC</v>
@@ -9946,7 +9955,7 @@
       <c r="P227" s="24"/>
       <c r="Q227" s="7"/>
     </row>
-    <row r="228" spans="1:17">
+    <row r="228" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A228" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0DD</v>
@@ -9973,7 +9982,7 @@
       <c r="P228" s="24"/>
       <c r="Q228" s="7"/>
     </row>
-    <row r="229" spans="1:17">
+    <row r="229" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A229" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0DE</v>
@@ -10000,7 +10009,7 @@
       <c r="P229" s="24"/>
       <c r="Q229" s="7"/>
     </row>
-    <row r="230" spans="1:17">
+    <row r="230" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A230" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0DF</v>
@@ -10027,7 +10036,7 @@
       <c r="P230" s="24"/>
       <c r="Q230" s="7"/>
     </row>
-    <row r="231" spans="1:17">
+    <row r="231" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A231" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E0</v>
@@ -10066,7 +10075,7 @@
       <c r="P231" s="24"/>
       <c r="Q231" s="7"/>
     </row>
-    <row r="232" spans="1:17">
+    <row r="232" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A232" s="36" t="str">
         <f t="shared" si="14"/>
         <v>0E1</v>
@@ -10105,7 +10114,7 @@
       </c>
       <c r="Q232" s="7"/>
     </row>
-    <row r="233" spans="1:17">
+    <row r="233" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A233" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E2</v>
@@ -10134,7 +10143,7 @@
       <c r="P233" s="24"/>
       <c r="Q233" s="7"/>
     </row>
-    <row r="234" spans="1:17">
+    <row r="234" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A234" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E3</v>
@@ -10161,7 +10170,7 @@
       <c r="P234" s="24"/>
       <c r="Q234" s="7"/>
     </row>
-    <row r="235" spans="1:17">
+    <row r="235" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A235" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E4</v>
@@ -10188,7 +10197,7 @@
       <c r="P235" s="24"/>
       <c r="Q235" s="7"/>
     </row>
-    <row r="236" spans="1:17">
+    <row r="236" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A236" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E5</v>
@@ -10235,7 +10244,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="237" spans="1:17">
+    <row r="237" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A237" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E6</v>
@@ -10262,7 +10271,7 @@
       <c r="P237" s="24"/>
       <c r="Q237" s="7"/>
     </row>
-    <row r="238" spans="1:17">
+    <row r="238" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A238" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E7</v>
@@ -10289,7 +10298,7 @@
       <c r="P238" s="24"/>
       <c r="Q238" s="7"/>
     </row>
-    <row r="239" spans="1:17">
+    <row r="239" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A239" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E8</v>
@@ -10332,7 +10341,7 @@
       </c>
       <c r="Q239" s="7"/>
     </row>
-    <row r="240" spans="1:17">
+    <row r="240" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A240" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0E9</v>
@@ -10375,7 +10384,7 @@
       </c>
       <c r="Q240" s="7"/>
     </row>
-    <row r="241" spans="1:17">
+    <row r="241" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A241" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0EA</v>
@@ -10422,7 +10431,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="242" spans="1:17">
+    <row r="242" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A242" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0EB</v>
@@ -10449,7 +10458,7 @@
       <c r="P242" s="24"/>
       <c r="Q242" s="7"/>
     </row>
-    <row r="243" spans="1:17">
+    <row r="243" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A243" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0EC</v>
@@ -10476,7 +10485,7 @@
       <c r="P243" s="24"/>
       <c r="Q243" s="7"/>
     </row>
-    <row r="244" spans="1:17">
+    <row r="244" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A244" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0ED</v>
@@ -10511,7 +10520,7 @@
       <c r="P244" s="24"/>
       <c r="Q244" s="7"/>
     </row>
-    <row r="245" spans="1:17">
+    <row r="245" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A245" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0EE</v>
@@ -10546,7 +10555,7 @@
       <c r="P245" s="24"/>
       <c r="Q245" s="7"/>
     </row>
-    <row r="246" spans="1:17">
+    <row r="246" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A246" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0EF</v>
@@ -10575,7 +10584,7 @@
       <c r="P246" s="24"/>
       <c r="Q246" s="7"/>
     </row>
-    <row r="247" spans="1:17">
+    <row r="247" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A247" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F0</v>
@@ -10610,7 +10619,7 @@
       <c r="P247" s="24"/>
       <c r="Q247" s="7"/>
     </row>
-    <row r="248" spans="1:17">
+    <row r="248" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A248" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F1</v>
@@ -10645,7 +10654,7 @@
       <c r="P248" s="24"/>
       <c r="Q248" s="7"/>
     </row>
-    <row r="249" spans="1:17">
+    <row r="249" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A249" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F2</v>
@@ -10680,7 +10689,7 @@
       <c r="P249" s="24"/>
       <c r="Q249" s="7"/>
     </row>
-    <row r="250" spans="1:17">
+    <row r="250" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A250" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F3</v>
@@ -10715,7 +10724,7 @@
       <c r="P250" s="24"/>
       <c r="Q250" s="7"/>
     </row>
-    <row r="251" spans="1:17">
+    <row r="251" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A251" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F4</v>
@@ -10750,7 +10759,7 @@
       <c r="P251" s="24"/>
       <c r="Q251" s="7"/>
     </row>
-    <row r="252" spans="1:17">
+    <row r="252" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A252" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F5</v>
@@ -10785,7 +10794,7 @@
       <c r="P252" s="24"/>
       <c r="Q252" s="7"/>
     </row>
-    <row r="253" spans="1:17">
+    <row r="253" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A253" s="37" t="str">
         <f t="shared" si="14"/>
         <v>0F6</v>
@@ -10820,7 +10829,7 @@
       <c r="P253" s="24"/>
       <c r="Q253" s="7"/>
     </row>
-    <row r="254" spans="1:17">
+    <row r="254" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A254" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0F7</v>
@@ -10847,7 +10856,7 @@
       <c r="P254" s="24"/>
       <c r="Q254" s="7"/>
     </row>
-    <row r="255" spans="1:17">
+    <row r="255" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A255" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0F8</v>
@@ -10874,7 +10883,7 @@
       <c r="P255" s="24"/>
       <c r="Q255" s="7"/>
     </row>
-    <row r="256" spans="1:17">
+    <row r="256" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A256" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0F9</v>
@@ -10901,7 +10910,7 @@
       <c r="P256" s="24"/>
       <c r="Q256" s="7"/>
     </row>
-    <row r="257" spans="1:17">
+    <row r="257" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A257" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0FA</v>
@@ -10928,7 +10937,7 @@
       <c r="P257" s="24"/>
       <c r="Q257" s="7"/>
     </row>
-    <row r="258" spans="1:17">
+    <row r="258" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A258" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0FB</v>
@@ -10955,7 +10964,7 @@
       <c r="P258" s="24"/>
       <c r="Q258" s="7"/>
     </row>
-    <row r="259" spans="1:17">
+    <row r="259" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A259" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0FC</v>
@@ -10982,7 +10991,7 @@
       <c r="P259" s="24"/>
       <c r="Q259" s="7"/>
     </row>
-    <row r="260" spans="1:17">
+    <row r="260" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A260" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0FD</v>
@@ -11009,7 +11018,7 @@
       <c r="P260" s="24"/>
       <c r="Q260" s="7"/>
     </row>
-    <row r="261" spans="1:17">
+    <row r="261" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A261" s="5" t="str">
         <f t="shared" si="14"/>
         <v>0FE</v>
@@ -11036,7 +11045,7 @@
       <c r="P261" s="24"/>
       <c r="Q261" s="7"/>
     </row>
-    <row r="262" spans="1:17">
+    <row r="262" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A262" s="42" t="str">
         <f t="shared" si="14"/>
         <v>0FF</v>
@@ -11075,7 +11084,7 @@
       <c r="P262" s="24"/>
       <c r="Q262" s="7"/>
     </row>
-    <row r="263" spans="1:17">
+    <row r="263" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A263" s="5" t="str">
         <f t="shared" si="14"/>
         <v>100</v>
@@ -11114,7 +11123,7 @@
       <c r="P263" s="24"/>
       <c r="Q263" s="7"/>
     </row>
-    <row r="264" spans="1:17">
+    <row r="264" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A264" s="5" t="str">
         <f t="shared" ref="A264:A327" si="19">DEC2HEX(B264, 3)</f>
         <v>101</v>
@@ -11157,7 +11166,7 @@
       </c>
       <c r="Q264" s="7"/>
     </row>
-    <row r="265" spans="1:17">
+    <row r="265" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A265" s="5" t="str">
         <f t="shared" si="19"/>
         <v>102</v>
@@ -11194,7 +11203,7 @@
       <c r="P265" s="24"/>
       <c r="Q265" s="7"/>
     </row>
-    <row r="266" spans="1:17">
+    <row r="266" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A266" s="5" t="str">
         <f t="shared" si="19"/>
         <v>103</v>
@@ -11235,7 +11244,7 @@
       <c r="P266" s="24"/>
       <c r="Q266" s="7"/>
     </row>
-    <row r="267" spans="1:17">
+    <row r="267" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A267" s="5" t="str">
         <f t="shared" si="19"/>
         <v>104</v>
@@ -11262,7 +11271,7 @@
       <c r="P267" s="24"/>
       <c r="Q267" s="7"/>
     </row>
-    <row r="268" spans="1:17">
+    <row r="268" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A268" s="5" t="str">
         <f t="shared" si="19"/>
         <v>105</v>
@@ -11289,7 +11298,7 @@
       <c r="P268" s="24"/>
       <c r="Q268" s="7"/>
     </row>
-    <row r="269" spans="1:17">
+    <row r="269" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A269" s="5" t="str">
         <f t="shared" si="19"/>
         <v>106</v>
@@ -11316,7 +11325,7 @@
       <c r="P269" s="24"/>
       <c r="Q269" s="7"/>
     </row>
-    <row r="270" spans="1:17">
+    <row r="270" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A270" s="5" t="str">
         <f t="shared" si="19"/>
         <v>107</v>
@@ -11343,7 +11352,7 @@
       <c r="P270" s="24"/>
       <c r="Q270" s="7"/>
     </row>
-    <row r="271" spans="1:17">
+    <row r="271" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A271" s="5" t="str">
         <f t="shared" si="19"/>
         <v>108</v>
@@ -11370,7 +11379,7 @@
       <c r="P271" s="24"/>
       <c r="Q271" s="7"/>
     </row>
-    <row r="272" spans="1:17">
+    <row r="272" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A272" s="5" t="str">
         <f t="shared" si="19"/>
         <v>109</v>
@@ -11397,7 +11406,7 @@
       <c r="P272" s="24"/>
       <c r="Q272" s="7"/>
     </row>
-    <row r="273" spans="1:17">
+    <row r="273" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A273" s="5" t="str">
         <f t="shared" si="19"/>
         <v>10A</v>
@@ -11424,7 +11433,7 @@
       <c r="P273" s="24"/>
       <c r="Q273" s="7"/>
     </row>
-    <row r="274" spans="1:17">
+    <row r="274" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A274" s="5" t="str">
         <f t="shared" si="19"/>
         <v>10B</v>
@@ -11451,7 +11460,7 @@
       <c r="P274" s="24"/>
       <c r="Q274" s="7"/>
     </row>
-    <row r="275" spans="1:17">
+    <row r="275" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A275" s="5" t="str">
         <f t="shared" si="19"/>
         <v>10C</v>
@@ -11478,7 +11487,7 @@
       <c r="P275" s="24"/>
       <c r="Q275" s="7"/>
     </row>
-    <row r="276" spans="1:17">
+    <row r="276" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A276" s="5" t="str">
         <f t="shared" si="19"/>
         <v>10D</v>
@@ -11505,7 +11514,7 @@
       <c r="P276" s="24"/>
       <c r="Q276" s="7"/>
     </row>
-    <row r="277" spans="1:17">
+    <row r="277" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A277" s="5" t="str">
         <f t="shared" si="19"/>
         <v>10E</v>
@@ -11532,7 +11541,7 @@
       <c r="P277" s="24"/>
       <c r="Q277" s="7"/>
     </row>
-    <row r="278" spans="1:17">
+    <row r="278" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A278" s="5" t="str">
         <f t="shared" si="19"/>
         <v>10F</v>
@@ -11559,7 +11568,7 @@
       <c r="P278" s="24"/>
       <c r="Q278" s="7"/>
     </row>
-    <row r="279" spans="1:17">
+    <row r="279" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A279" s="5" t="str">
         <f t="shared" si="19"/>
         <v>110</v>
@@ -11586,7 +11595,7 @@
       <c r="P279" s="24"/>
       <c r="Q279" s="7"/>
     </row>
-    <row r="280" spans="1:17">
+    <row r="280" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A280" s="5" t="str">
         <f t="shared" si="19"/>
         <v>111</v>
@@ -11613,7 +11622,7 @@
       <c r="P280" s="24"/>
       <c r="Q280" s="7"/>
     </row>
-    <row r="281" spans="1:17">
+    <row r="281" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A281" s="5" t="str">
         <f t="shared" si="19"/>
         <v>112</v>
@@ -11640,7 +11649,7 @@
       <c r="P281" s="24"/>
       <c r="Q281" s="7"/>
     </row>
-    <row r="282" spans="1:17">
+    <row r="282" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A282" s="5" t="str">
         <f t="shared" si="19"/>
         <v>113</v>
@@ -11667,7 +11676,7 @@
       <c r="P282" s="24"/>
       <c r="Q282" s="7"/>
     </row>
-    <row r="283" spans="1:17">
+    <row r="283" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A283" s="5" t="str">
         <f t="shared" si="19"/>
         <v>114</v>
@@ -11694,7 +11703,7 @@
       <c r="P283" s="24"/>
       <c r="Q283" s="7"/>
     </row>
-    <row r="284" spans="1:17">
+    <row r="284" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A284" s="5" t="str">
         <f t="shared" si="19"/>
         <v>115</v>
@@ -11721,7 +11730,7 @@
       <c r="P284" s="24"/>
       <c r="Q284" s="7"/>
     </row>
-    <row r="285" spans="1:17">
+    <row r="285" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A285" s="5" t="str">
         <f t="shared" si="19"/>
         <v>116</v>
@@ -11748,7 +11757,7 @@
       <c r="P285" s="24"/>
       <c r="Q285" s="7"/>
     </row>
-    <row r="286" spans="1:17">
+    <row r="286" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A286" s="5" t="str">
         <f t="shared" si="19"/>
         <v>117</v>
@@ -11775,7 +11784,7 @@
       <c r="P286" s="24"/>
       <c r="Q286" s="7"/>
     </row>
-    <row r="287" spans="1:17">
+    <row r="287" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A287" s="5" t="str">
         <f t="shared" si="19"/>
         <v>118</v>
@@ -11802,7 +11811,7 @@
       <c r="P287" s="24"/>
       <c r="Q287" s="7"/>
     </row>
-    <row r="288" spans="1:17">
+    <row r="288" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A288" s="5" t="str">
         <f t="shared" si="19"/>
         <v>119</v>
@@ -11829,7 +11838,7 @@
       <c r="P288" s="24"/>
       <c r="Q288" s="7"/>
     </row>
-    <row r="289" spans="1:18">
+    <row r="289" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A289" s="5" t="str">
         <f t="shared" si="19"/>
         <v>11A</v>
@@ -11856,7 +11865,7 @@
       <c r="P289" s="24"/>
       <c r="Q289" s="7"/>
     </row>
-    <row r="290" spans="1:18">
+    <row r="290" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A290" s="5" t="str">
         <f t="shared" si="19"/>
         <v>11B</v>
@@ -11883,7 +11892,7 @@
       <c r="P290" s="24"/>
       <c r="Q290" s="7"/>
     </row>
-    <row r="291" spans="1:18">
+    <row r="291" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A291" s="5" t="str">
         <f t="shared" si="19"/>
         <v>11C</v>
@@ -11910,7 +11919,7 @@
       <c r="P291" s="24"/>
       <c r="Q291" s="7"/>
     </row>
-    <row r="292" spans="1:18">
+    <row r="292" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A292" s="5" t="str">
         <f t="shared" si="19"/>
         <v>11D</v>
@@ -11937,7 +11946,7 @@
       <c r="P292" s="24"/>
       <c r="Q292" s="7"/>
     </row>
-    <row r="293" spans="1:18">
+    <row r="293" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A293" s="5" t="str">
         <f t="shared" si="19"/>
         <v>11E</v>
@@ -11964,7 +11973,7 @@
       <c r="P293" s="24"/>
       <c r="Q293" s="7"/>
     </row>
-    <row r="294" spans="1:18">
+    <row r="294" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A294" s="5" t="str">
         <f t="shared" si="19"/>
         <v>11F</v>
@@ -11991,7 +12000,7 @@
       <c r="P294" s="24"/>
       <c r="Q294" s="7"/>
     </row>
-    <row r="295" spans="1:18">
+    <row r="295" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A295" s="5" t="str">
         <f t="shared" si="19"/>
         <v>120</v>
@@ -12030,7 +12039,7 @@
       <c r="P295" s="24"/>
       <c r="Q295" s="7"/>
     </row>
-    <row r="296" spans="1:18">
+    <row r="296" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A296" s="5" t="str">
         <f t="shared" si="19"/>
         <v>121</v>
@@ -12069,7 +12078,7 @@
       <c r="P296" s="24"/>
       <c r="Q296" s="7"/>
     </row>
-    <row r="297" spans="1:18">
+    <row r="297" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A297" s="5" t="str">
         <f t="shared" si="19"/>
         <v>122</v>
@@ -12113,7 +12122,7 @@
       </c>
       <c r="R297" s="41"/>
     </row>
-    <row r="298" spans="1:18">
+    <row r="298" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A298" s="5" t="str">
         <f t="shared" si="19"/>
         <v>123</v>
@@ -12144,7 +12153,7 @@
       <c r="P298" s="24"/>
       <c r="Q298" s="7"/>
     </row>
-    <row r="299" spans="1:18">
+    <row r="299" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A299" s="5" t="str">
         <f t="shared" si="19"/>
         <v>124</v>
@@ -12175,7 +12184,7 @@
       <c r="P299" s="24"/>
       <c r="Q299" s="7"/>
     </row>
-    <row r="300" spans="1:18">
+    <row r="300" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A300" s="5" t="str">
         <f t="shared" si="19"/>
         <v>125</v>
@@ -12202,7 +12211,7 @@
       <c r="P300" s="24"/>
       <c r="Q300" s="7"/>
     </row>
-    <row r="301" spans="1:18">
+    <row r="301" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A301" s="5" t="str">
         <f t="shared" si="19"/>
         <v>126</v>
@@ -12229,7 +12238,7 @@
       <c r="P301" s="24"/>
       <c r="Q301" s="7"/>
     </row>
-    <row r="302" spans="1:18">
+    <row r="302" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A302" s="5" t="str">
         <f t="shared" si="19"/>
         <v>127</v>
@@ -12256,7 +12265,7 @@
       <c r="P302" s="24"/>
       <c r="Q302" s="7"/>
     </row>
-    <row r="303" spans="1:18">
+    <row r="303" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A303" s="5" t="str">
         <f t="shared" si="19"/>
         <v>128</v>
@@ -12283,7 +12292,7 @@
       <c r="P303" s="24"/>
       <c r="Q303" s="7"/>
     </row>
-    <row r="304" spans="1:18">
+    <row r="304" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A304" s="5" t="str">
         <f t="shared" si="19"/>
         <v>129</v>
@@ -12310,7 +12319,7 @@
       <c r="P304" s="24"/>
       <c r="Q304" s="7"/>
     </row>
-    <row r="305" spans="1:17">
+    <row r="305" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A305" s="5" t="str">
         <f t="shared" si="19"/>
         <v>12A</v>
@@ -12337,7 +12346,7 @@
       <c r="P305" s="24"/>
       <c r="Q305" s="7"/>
     </row>
-    <row r="306" spans="1:17">
+    <row r="306" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A306" s="5" t="str">
         <f t="shared" si="19"/>
         <v>12B</v>
@@ -12364,7 +12373,7 @@
       <c r="P306" s="24"/>
       <c r="Q306" s="7"/>
     </row>
-    <row r="307" spans="1:17">
+    <row r="307" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A307" s="5" t="str">
         <f t="shared" si="19"/>
         <v>12C</v>
@@ -12391,7 +12400,7 @@
       <c r="P307" s="24"/>
       <c r="Q307" s="7"/>
     </row>
-    <row r="308" spans="1:17">
+    <row r="308" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A308" s="5" t="str">
         <f t="shared" si="19"/>
         <v>12D</v>
@@ -12418,7 +12427,7 @@
       <c r="P308" s="24"/>
       <c r="Q308" s="7"/>
     </row>
-    <row r="309" spans="1:17">
+    <row r="309" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A309" s="5" t="str">
         <f t="shared" si="19"/>
         <v>12E</v>
@@ -12445,7 +12454,7 @@
       <c r="P309" s="24"/>
       <c r="Q309" s="7"/>
     </row>
-    <row r="310" spans="1:17">
+    <row r="310" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A310" s="5" t="str">
         <f t="shared" si="19"/>
         <v>12F</v>
@@ -12472,7 +12481,7 @@
       <c r="P310" s="24"/>
       <c r="Q310" s="7"/>
     </row>
-    <row r="311" spans="1:17">
+    <row r="311" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A311" s="5" t="str">
         <f t="shared" si="19"/>
         <v>130</v>
@@ -12499,7 +12508,7 @@
       <c r="P311" s="24"/>
       <c r="Q311" s="7"/>
     </row>
-    <row r="312" spans="1:17">
+    <row r="312" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A312" s="5" t="str">
         <f t="shared" si="19"/>
         <v>131</v>
@@ -12526,7 +12535,7 @@
       <c r="P312" s="24"/>
       <c r="Q312" s="7"/>
     </row>
-    <row r="313" spans="1:17">
+    <row r="313" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A313" s="5" t="str">
         <f t="shared" si="19"/>
         <v>132</v>
@@ -12553,7 +12562,7 @@
       <c r="P313" s="24"/>
       <c r="Q313" s="7"/>
     </row>
-    <row r="314" spans="1:17">
+    <row r="314" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A314" s="5" t="str">
         <f t="shared" si="19"/>
         <v>133</v>
@@ -12580,7 +12589,7 @@
       <c r="P314" s="24"/>
       <c r="Q314" s="7"/>
     </row>
-    <row r="315" spans="1:17">
+    <row r="315" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A315" s="5" t="str">
         <f t="shared" si="19"/>
         <v>134</v>
@@ -12607,7 +12616,7 @@
       <c r="P315" s="24"/>
       <c r="Q315" s="7"/>
     </row>
-    <row r="316" spans="1:17">
+    <row r="316" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A316" s="5" t="str">
         <f t="shared" si="19"/>
         <v>135</v>
@@ -12634,7 +12643,7 @@
       <c r="P316" s="24"/>
       <c r="Q316" s="7"/>
     </row>
-    <row r="317" spans="1:17">
+    <row r="317" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A317" s="5" t="str">
         <f t="shared" si="19"/>
         <v>136</v>
@@ -12661,7 +12670,7 @@
       <c r="P317" s="24"/>
       <c r="Q317" s="7"/>
     </row>
-    <row r="318" spans="1:17">
+    <row r="318" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A318" s="5" t="str">
         <f t="shared" si="19"/>
         <v>137</v>
@@ -12688,7 +12697,7 @@
       <c r="P318" s="24"/>
       <c r="Q318" s="7"/>
     </row>
-    <row r="319" spans="1:17">
+    <row r="319" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A319" s="5" t="str">
         <f t="shared" si="19"/>
         <v>138</v>
@@ -12715,7 +12724,7 @@
       <c r="P319" s="24"/>
       <c r="Q319" s="7"/>
     </row>
-    <row r="320" spans="1:17">
+    <row r="320" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A320" s="5" t="str">
         <f t="shared" si="19"/>
         <v>139</v>
@@ -12742,7 +12751,7 @@
       <c r="P320" s="24"/>
       <c r="Q320" s="7"/>
     </row>
-    <row r="321" spans="1:17">
+    <row r="321" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A321" s="5" t="str">
         <f t="shared" si="19"/>
         <v>13A</v>
@@ -12769,7 +12778,7 @@
       <c r="P321" s="24"/>
       <c r="Q321" s="7"/>
     </row>
-    <row r="322" spans="1:17">
+    <row r="322" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A322" s="5" t="str">
         <f t="shared" si="19"/>
         <v>13B</v>
@@ -12796,7 +12805,7 @@
       <c r="P322" s="24"/>
       <c r="Q322" s="7"/>
     </row>
-    <row r="323" spans="1:17">
+    <row r="323" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A323" s="5" t="str">
         <f t="shared" si="19"/>
         <v>13C</v>
@@ -12823,7 +12832,7 @@
       <c r="P323" s="24"/>
       <c r="Q323" s="7"/>
     </row>
-    <row r="324" spans="1:17">
+    <row r="324" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A324" s="5" t="str">
         <f t="shared" si="19"/>
         <v>13D</v>
@@ -12850,7 +12859,7 @@
       <c r="P324" s="24"/>
       <c r="Q324" s="7"/>
     </row>
-    <row r="325" spans="1:17">
+    <row r="325" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A325" s="5" t="str">
         <f t="shared" si="19"/>
         <v>13E</v>
@@ -12877,7 +12886,7 @@
       <c r="P325" s="24"/>
       <c r="Q325" s="7"/>
     </row>
-    <row r="326" spans="1:17">
+    <row r="326" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A326" s="5" t="str">
         <f t="shared" si="19"/>
         <v>13F</v>
@@ -12904,7 +12913,7 @@
       <c r="P326" s="24"/>
       <c r="Q326" s="7"/>
     </row>
-    <row r="327" spans="1:17">
+    <row r="327" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A327" s="5" t="str">
         <f t="shared" si="19"/>
         <v>140</v>
@@ -12931,7 +12940,7 @@
       <c r="P327" s="24"/>
       <c r="Q327" s="7"/>
     </row>
-    <row r="328" spans="1:17">
+    <row r="328" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A328" s="5" t="str">
         <f t="shared" ref="A328:A391" si="21">DEC2HEX(B328, 3)</f>
         <v>141</v>
@@ -12958,7 +12967,7 @@
       <c r="P328" s="24"/>
       <c r="Q328" s="7"/>
     </row>
-    <row r="329" spans="1:17">
+    <row r="329" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A329" s="5" t="str">
         <f t="shared" si="21"/>
         <v>142</v>
@@ -12985,7 +12994,7 @@
       <c r="P329" s="24"/>
       <c r="Q329" s="7"/>
     </row>
-    <row r="330" spans="1:17">
+    <row r="330" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A330" s="5" t="str">
         <f t="shared" si="21"/>
         <v>143</v>
@@ -13012,7 +13021,7 @@
       <c r="P330" s="24"/>
       <c r="Q330" s="7"/>
     </row>
-    <row r="331" spans="1:17">
+    <row r="331" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A331" s="5" t="str">
         <f t="shared" si="21"/>
         <v>144</v>
@@ -13039,7 +13048,7 @@
       <c r="P331" s="24"/>
       <c r="Q331" s="7"/>
     </row>
-    <row r="332" spans="1:17">
+    <row r="332" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A332" s="5" t="str">
         <f t="shared" si="21"/>
         <v>145</v>
@@ -13066,7 +13075,7 @@
       <c r="P332" s="24"/>
       <c r="Q332" s="7"/>
     </row>
-    <row r="333" spans="1:17">
+    <row r="333" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A333" s="5" t="str">
         <f t="shared" si="21"/>
         <v>146</v>
@@ -13093,7 +13102,7 @@
       <c r="P333" s="24"/>
       <c r="Q333" s="7"/>
     </row>
-    <row r="334" spans="1:17">
+    <row r="334" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A334" s="5" t="str">
         <f t="shared" si="21"/>
         <v>147</v>
@@ -13120,7 +13129,7 @@
       <c r="P334" s="24"/>
       <c r="Q334" s="7"/>
     </row>
-    <row r="335" spans="1:17">
+    <row r="335" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A335" s="5" t="str">
         <f t="shared" si="21"/>
         <v>148</v>
@@ -13147,7 +13156,7 @@
       <c r="P335" s="24"/>
       <c r="Q335" s="7"/>
     </row>
-    <row r="336" spans="1:17">
+    <row r="336" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A336" s="5" t="str">
         <f t="shared" si="21"/>
         <v>149</v>
@@ -13174,7 +13183,7 @@
       <c r="P336" s="24"/>
       <c r="Q336" s="7"/>
     </row>
-    <row r="337" spans="1:17">
+    <row r="337" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A337" s="5" t="str">
         <f t="shared" si="21"/>
         <v>14A</v>
@@ -13201,7 +13210,7 @@
       <c r="P337" s="24"/>
       <c r="Q337" s="7"/>
     </row>
-    <row r="338" spans="1:17">
+    <row r="338" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A338" s="5" t="str">
         <f t="shared" si="21"/>
         <v>14B</v>
@@ -13228,7 +13237,7 @@
       <c r="P338" s="24"/>
       <c r="Q338" s="7"/>
     </row>
-    <row r="339" spans="1:17">
+    <row r="339" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A339" s="5" t="str">
         <f t="shared" si="21"/>
         <v>14C</v>
@@ -13255,7 +13264,7 @@
       <c r="P339" s="24"/>
       <c r="Q339" s="7"/>
     </row>
-    <row r="340" spans="1:17">
+    <row r="340" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A340" s="5" t="str">
         <f t="shared" si="21"/>
         <v>14D</v>
@@ -13282,7 +13291,7 @@
       <c r="P340" s="24"/>
       <c r="Q340" s="7"/>
     </row>
-    <row r="341" spans="1:17">
+    <row r="341" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A341" s="5" t="str">
         <f t="shared" si="21"/>
         <v>14E</v>
@@ -13309,7 +13318,7 @@
       <c r="P341" s="24"/>
       <c r="Q341" s="7"/>
     </row>
-    <row r="342" spans="1:17">
+    <row r="342" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A342" s="5" t="str">
         <f t="shared" si="21"/>
         <v>14F</v>
@@ -13336,7 +13345,7 @@
       <c r="P342" s="24"/>
       <c r="Q342" s="7"/>
     </row>
-    <row r="343" spans="1:17">
+    <row r="343" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A343" s="5" t="str">
         <f t="shared" si="21"/>
         <v>150</v>
@@ -13363,7 +13372,7 @@
       <c r="P343" s="24"/>
       <c r="Q343" s="7"/>
     </row>
-    <row r="344" spans="1:17">
+    <row r="344" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A344" s="5" t="str">
         <f t="shared" si="21"/>
         <v>151</v>
@@ -13390,7 +13399,7 @@
       <c r="P344" s="24"/>
       <c r="Q344" s="7"/>
     </row>
-    <row r="345" spans="1:17">
+    <row r="345" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A345" s="5" t="str">
         <f t="shared" si="21"/>
         <v>152</v>
@@ -13417,7 +13426,7 @@
       <c r="P345" s="24"/>
       <c r="Q345" s="7"/>
     </row>
-    <row r="346" spans="1:17">
+    <row r="346" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A346" s="5" t="str">
         <f t="shared" si="21"/>
         <v>153</v>
@@ -13444,7 +13453,7 @@
       <c r="P346" s="24"/>
       <c r="Q346" s="7"/>
     </row>
-    <row r="347" spans="1:17">
+    <row r="347" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A347" s="5" t="str">
         <f t="shared" si="21"/>
         <v>154</v>
@@ -13471,7 +13480,7 @@
       <c r="P347" s="24"/>
       <c r="Q347" s="7"/>
     </row>
-    <row r="348" spans="1:17">
+    <row r="348" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A348" s="5" t="str">
         <f t="shared" si="21"/>
         <v>155</v>
@@ -13498,7 +13507,7 @@
       <c r="P348" s="24"/>
       <c r="Q348" s="7"/>
     </row>
-    <row r="349" spans="1:17">
+    <row r="349" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A349" s="5" t="str">
         <f t="shared" si="21"/>
         <v>156</v>
@@ -13525,7 +13534,7 @@
       <c r="P349" s="24"/>
       <c r="Q349" s="7"/>
     </row>
-    <row r="350" spans="1:17">
+    <row r="350" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A350" s="5" t="str">
         <f t="shared" si="21"/>
         <v>157</v>
@@ -13552,7 +13561,7 @@
       <c r="P350" s="24"/>
       <c r="Q350" s="7"/>
     </row>
-    <row r="351" spans="1:17">
+    <row r="351" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A351" s="5" t="str">
         <f t="shared" si="21"/>
         <v>158</v>
@@ -13579,7 +13588,7 @@
       <c r="P351" s="24"/>
       <c r="Q351" s="7"/>
     </row>
-    <row r="352" spans="1:17">
+    <row r="352" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A352" s="5" t="str">
         <f t="shared" si="21"/>
         <v>159</v>
@@ -13606,7 +13615,7 @@
       <c r="P352" s="24"/>
       <c r="Q352" s="7"/>
     </row>
-    <row r="353" spans="1:17">
+    <row r="353" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A353" s="5" t="str">
         <f t="shared" si="21"/>
         <v>15A</v>
@@ -13633,7 +13642,7 @@
       <c r="P353" s="24"/>
       <c r="Q353" s="7"/>
     </row>
-    <row r="354" spans="1:17">
+    <row r="354" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A354" s="5" t="str">
         <f t="shared" si="21"/>
         <v>15B</v>
@@ -13660,7 +13669,7 @@
       <c r="P354" s="24"/>
       <c r="Q354" s="7"/>
     </row>
-    <row r="355" spans="1:17">
+    <row r="355" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A355" s="5" t="str">
         <f t="shared" si="21"/>
         <v>15C</v>
@@ -13687,7 +13696,7 @@
       <c r="P355" s="24"/>
       <c r="Q355" s="7"/>
     </row>
-    <row r="356" spans="1:17">
+    <row r="356" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A356" s="5" t="str">
         <f t="shared" si="21"/>
         <v>15D</v>
@@ -13714,7 +13723,7 @@
       <c r="P356" s="24"/>
       <c r="Q356" s="7"/>
     </row>
-    <row r="357" spans="1:17">
+    <row r="357" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A357" s="5" t="str">
         <f t="shared" si="21"/>
         <v>15E</v>
@@ -13741,7 +13750,7 @@
       <c r="P357" s="24"/>
       <c r="Q357" s="7"/>
     </row>
-    <row r="358" spans="1:17">
+    <row r="358" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A358" s="5" t="str">
         <f t="shared" si="21"/>
         <v>15F</v>
@@ -13768,7 +13777,7 @@
       <c r="P358" s="24"/>
       <c r="Q358" s="7"/>
     </row>
-    <row r="359" spans="1:17">
+    <row r="359" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A359" s="5" t="str">
         <f t="shared" si="21"/>
         <v>160</v>
@@ -13795,7 +13804,7 @@
       <c r="P359" s="24"/>
       <c r="Q359" s="7"/>
     </row>
-    <row r="360" spans="1:17">
+    <row r="360" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A360" s="5" t="str">
         <f t="shared" si="21"/>
         <v>161</v>
@@ -13822,7 +13831,7 @@
       <c r="P360" s="24"/>
       <c r="Q360" s="7"/>
     </row>
-    <row r="361" spans="1:17">
+    <row r="361" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A361" s="5" t="str">
         <f t="shared" si="21"/>
         <v>162</v>
@@ -13849,7 +13858,7 @@
       <c r="P361" s="24"/>
       <c r="Q361" s="7"/>
     </row>
-    <row r="362" spans="1:17">
+    <row r="362" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A362" s="5" t="str">
         <f t="shared" si="21"/>
         <v>163</v>
@@ -13876,7 +13885,7 @@
       <c r="P362" s="24"/>
       <c r="Q362" s="7"/>
     </row>
-    <row r="363" spans="1:17">
+    <row r="363" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A363" s="5" t="str">
         <f t="shared" si="21"/>
         <v>164</v>
@@ -13903,7 +13912,7 @@
       <c r="P363" s="24"/>
       <c r="Q363" s="7"/>
     </row>
-    <row r="364" spans="1:17">
+    <row r="364" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A364" s="5" t="str">
         <f t="shared" si="21"/>
         <v>165</v>
@@ -13930,7 +13939,7 @@
       <c r="P364" s="24"/>
       <c r="Q364" s="7"/>
     </row>
-    <row r="365" spans="1:17">
+    <row r="365" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A365" s="5" t="str">
         <f t="shared" si="21"/>
         <v>166</v>
@@ -13957,7 +13966,7 @@
       <c r="P365" s="24"/>
       <c r="Q365" s="7"/>
     </row>
-    <row r="366" spans="1:17">
+    <row r="366" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A366" s="5" t="str">
         <f t="shared" si="21"/>
         <v>167</v>
@@ -13984,7 +13993,7 @@
       <c r="P366" s="24"/>
       <c r="Q366" s="7"/>
     </row>
-    <row r="367" spans="1:17">
+    <row r="367" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A367" s="5" t="str">
         <f t="shared" si="21"/>
         <v>168</v>
@@ -14011,7 +14020,7 @@
       <c r="P367" s="24"/>
       <c r="Q367" s="7"/>
     </row>
-    <row r="368" spans="1:17">
+    <row r="368" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A368" s="5" t="str">
         <f t="shared" si="21"/>
         <v>169</v>
@@ -14038,7 +14047,7 @@
       <c r="P368" s="24"/>
       <c r="Q368" s="7"/>
     </row>
-    <row r="369" spans="1:17">
+    <row r="369" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A369" s="5" t="str">
         <f t="shared" si="21"/>
         <v>16A</v>
@@ -14065,7 +14074,7 @@
       <c r="P369" s="24"/>
       <c r="Q369" s="7"/>
     </row>
-    <row r="370" spans="1:17">
+    <row r="370" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A370" s="5" t="str">
         <f t="shared" si="21"/>
         <v>16B</v>
@@ -14092,7 +14101,7 @@
       <c r="P370" s="24"/>
       <c r="Q370" s="7"/>
     </row>
-    <row r="371" spans="1:17">
+    <row r="371" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A371" s="5" t="str">
         <f t="shared" si="21"/>
         <v>16C</v>
@@ -14119,7 +14128,7 @@
       <c r="P371" s="24"/>
       <c r="Q371" s="7"/>
     </row>
-    <row r="372" spans="1:17">
+    <row r="372" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A372" s="5" t="str">
         <f t="shared" si="21"/>
         <v>16D</v>
@@ -14146,7 +14155,7 @@
       <c r="P372" s="24"/>
       <c r="Q372" s="7"/>
     </row>
-    <row r="373" spans="1:17">
+    <row r="373" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A373" s="5" t="str">
         <f t="shared" si="21"/>
         <v>16E</v>
@@ -14173,7 +14182,7 @@
       <c r="P373" s="24"/>
       <c r="Q373" s="7"/>
     </row>
-    <row r="374" spans="1:17">
+    <row r="374" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A374" s="5" t="str">
         <f t="shared" si="21"/>
         <v>16F</v>
@@ -14200,7 +14209,7 @@
       <c r="P374" s="24"/>
       <c r="Q374" s="7"/>
     </row>
-    <row r="375" spans="1:17">
+    <row r="375" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A375" s="5" t="str">
         <f t="shared" si="21"/>
         <v>170</v>
@@ -14227,7 +14236,7 @@
       <c r="P375" s="24"/>
       <c r="Q375" s="7"/>
     </row>
-    <row r="376" spans="1:17">
+    <row r="376" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A376" s="5" t="str">
         <f t="shared" si="21"/>
         <v>171</v>
@@ -14254,7 +14263,7 @@
       <c r="P376" s="24"/>
       <c r="Q376" s="7"/>
     </row>
-    <row r="377" spans="1:17">
+    <row r="377" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A377" s="5" t="str">
         <f t="shared" si="21"/>
         <v>172</v>
@@ -14281,7 +14290,7 @@
       <c r="P377" s="24"/>
       <c r="Q377" s="7"/>
     </row>
-    <row r="378" spans="1:17">
+    <row r="378" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A378" s="5" t="str">
         <f t="shared" si="21"/>
         <v>173</v>
@@ -14308,7 +14317,7 @@
       <c r="P378" s="24"/>
       <c r="Q378" s="7"/>
     </row>
-    <row r="379" spans="1:17">
+    <row r="379" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A379" s="5" t="str">
         <f t="shared" si="21"/>
         <v>174</v>
@@ -14335,7 +14344,7 @@
       <c r="P379" s="24"/>
       <c r="Q379" s="7"/>
     </row>
-    <row r="380" spans="1:17">
+    <row r="380" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A380" s="5" t="str">
         <f t="shared" si="21"/>
         <v>175</v>
@@ -14362,7 +14371,7 @@
       <c r="P380" s="24"/>
       <c r="Q380" s="7"/>
     </row>
-    <row r="381" spans="1:17">
+    <row r="381" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A381" s="5" t="str">
         <f t="shared" si="21"/>
         <v>176</v>
@@ -14389,7 +14398,7 @@
       <c r="P381" s="24"/>
       <c r="Q381" s="7"/>
     </row>
-    <row r="382" spans="1:17">
+    <row r="382" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A382" s="5" t="str">
         <f t="shared" si="21"/>
         <v>177</v>
@@ -14416,7 +14425,7 @@
       <c r="P382" s="24"/>
       <c r="Q382" s="7"/>
     </row>
-    <row r="383" spans="1:17">
+    <row r="383" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A383" s="5" t="str">
         <f t="shared" si="21"/>
         <v>178</v>
@@ -14443,7 +14452,7 @@
       <c r="P383" s="24"/>
       <c r="Q383" s="7"/>
     </row>
-    <row r="384" spans="1:17">
+    <row r="384" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A384" s="5" t="str">
         <f t="shared" si="21"/>
         <v>179</v>
@@ -14470,7 +14479,7 @@
       <c r="P384" s="24"/>
       <c r="Q384" s="7"/>
     </row>
-    <row r="385" spans="1:17">
+    <row r="385" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A385" s="5" t="str">
         <f t="shared" si="21"/>
         <v>17A</v>
@@ -14497,7 +14506,7 @@
       <c r="P385" s="24"/>
       <c r="Q385" s="7"/>
     </row>
-    <row r="386" spans="1:17">
+    <row r="386" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A386" s="5" t="str">
         <f t="shared" si="21"/>
         <v>17B</v>
@@ -14524,7 +14533,7 @@
       <c r="P386" s="24"/>
       <c r="Q386" s="7"/>
     </row>
-    <row r="387" spans="1:17">
+    <row r="387" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A387" s="5" t="str">
         <f t="shared" si="21"/>
         <v>17C</v>
@@ -14551,7 +14560,7 @@
       <c r="P387" s="24"/>
       <c r="Q387" s="7"/>
     </row>
-    <row r="388" spans="1:17">
+    <row r="388" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A388" s="5" t="str">
         <f t="shared" si="21"/>
         <v>17D</v>
@@ -14578,7 +14587,7 @@
       <c r="P388" s="24"/>
       <c r="Q388" s="7"/>
     </row>
-    <row r="389" spans="1:17">
+    <row r="389" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A389" s="5" t="str">
         <f t="shared" si="21"/>
         <v>17E</v>
@@ -14605,7 +14614,7 @@
       <c r="P389" s="24"/>
       <c r="Q389" s="7"/>
     </row>
-    <row r="390" spans="1:17">
+    <row r="390" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A390" s="5" t="str">
         <f t="shared" si="21"/>
         <v>17F</v>
@@ -14632,7 +14641,7 @@
       <c r="P390" s="24"/>
       <c r="Q390" s="7"/>
     </row>
-    <row r="391" spans="1:17">
+    <row r="391" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A391" s="5" t="str">
         <f t="shared" si="21"/>
         <v>180</v>
@@ -14659,7 +14668,7 @@
       <c r="P391" s="24"/>
       <c r="Q391" s="7"/>
     </row>
-    <row r="392" spans="1:17">
+    <row r="392" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A392" s="5" t="str">
         <f t="shared" ref="A392:A455" si="23">DEC2HEX(B392, 3)</f>
         <v>181</v>
@@ -14686,7 +14695,7 @@
       <c r="P392" s="24"/>
       <c r="Q392" s="7"/>
     </row>
-    <row r="393" spans="1:17">
+    <row r="393" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A393" s="5" t="str">
         <f t="shared" si="23"/>
         <v>182</v>
@@ -14713,7 +14722,7 @@
       <c r="P393" s="24"/>
       <c r="Q393" s="7"/>
     </row>
-    <row r="394" spans="1:17">
+    <row r="394" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A394" s="5" t="str">
         <f t="shared" si="23"/>
         <v>183</v>
@@ -14740,7 +14749,7 @@
       <c r="P394" s="24"/>
       <c r="Q394" s="7"/>
     </row>
-    <row r="395" spans="1:17">
+    <row r="395" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A395" s="5" t="str">
         <f t="shared" si="23"/>
         <v>184</v>
@@ -14767,7 +14776,7 @@
       <c r="P395" s="24"/>
       <c r="Q395" s="7"/>
     </row>
-    <row r="396" spans="1:17">
+    <row r="396" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A396" s="5" t="str">
         <f t="shared" si="23"/>
         <v>185</v>
@@ -14794,7 +14803,7 @@
       <c r="P396" s="24"/>
       <c r="Q396" s="7"/>
     </row>
-    <row r="397" spans="1:17">
+    <row r="397" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A397" s="5" t="str">
         <f t="shared" si="23"/>
         <v>186</v>
@@ -14821,7 +14830,7 @@
       <c r="P397" s="24"/>
       <c r="Q397" s="7"/>
     </row>
-    <row r="398" spans="1:17">
+    <row r="398" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A398" s="5" t="str">
         <f t="shared" si="23"/>
         <v>187</v>
@@ -14848,7 +14857,7 @@
       <c r="P398" s="24"/>
       <c r="Q398" s="7"/>
     </row>
-    <row r="399" spans="1:17">
+    <row r="399" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A399" s="5" t="str">
         <f t="shared" si="23"/>
         <v>188</v>
@@ -14875,7 +14884,7 @@
       <c r="P399" s="24"/>
       <c r="Q399" s="7"/>
     </row>
-    <row r="400" spans="1:17">
+    <row r="400" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A400" s="5" t="str">
         <f t="shared" si="23"/>
         <v>189</v>
@@ -14902,7 +14911,7 @@
       <c r="P400" s="24"/>
       <c r="Q400" s="7"/>
     </row>
-    <row r="401" spans="1:17">
+    <row r="401" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A401" s="5" t="str">
         <f t="shared" si="23"/>
         <v>18A</v>
@@ -14929,7 +14938,7 @@
       <c r="P401" s="24"/>
       <c r="Q401" s="7"/>
     </row>
-    <row r="402" spans="1:17">
+    <row r="402" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A402" s="5" t="str">
         <f t="shared" si="23"/>
         <v>18B</v>
@@ -14956,7 +14965,7 @@
       <c r="P402" s="24"/>
       <c r="Q402" s="7"/>
     </row>
-    <row r="403" spans="1:17">
+    <row r="403" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A403" s="5" t="str">
         <f t="shared" si="23"/>
         <v>18C</v>
@@ -14983,7 +14992,7 @@
       <c r="P403" s="24"/>
       <c r="Q403" s="7"/>
     </row>
-    <row r="404" spans="1:17">
+    <row r="404" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A404" s="5" t="str">
         <f t="shared" si="23"/>
         <v>18D</v>
@@ -15010,7 +15019,7 @@
       <c r="P404" s="24"/>
       <c r="Q404" s="7"/>
     </row>
-    <row r="405" spans="1:17">
+    <row r="405" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A405" s="5" t="str">
         <f t="shared" si="23"/>
         <v>18E</v>
@@ -15037,7 +15046,7 @@
       <c r="P405" s="24"/>
       <c r="Q405" s="7"/>
     </row>
-    <row r="406" spans="1:17">
+    <row r="406" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A406" s="5" t="str">
         <f t="shared" si="23"/>
         <v>18F</v>
@@ -15064,7 +15073,7 @@
       <c r="P406" s="24"/>
       <c r="Q406" s="7"/>
     </row>
-    <row r="407" spans="1:17">
+    <row r="407" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A407" s="5" t="str">
         <f t="shared" si="23"/>
         <v>190</v>
@@ -15091,7 +15100,7 @@
       <c r="P407" s="24"/>
       <c r="Q407" s="7"/>
     </row>
-    <row r="408" spans="1:17">
+    <row r="408" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A408" s="5" t="str">
         <f t="shared" si="23"/>
         <v>191</v>
@@ -15118,7 +15127,7 @@
       <c r="P408" s="24"/>
       <c r="Q408" s="7"/>
     </row>
-    <row r="409" spans="1:17">
+    <row r="409" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A409" s="5" t="str">
         <f t="shared" si="23"/>
         <v>192</v>
@@ -15145,7 +15154,7 @@
       <c r="P409" s="24"/>
       <c r="Q409" s="7"/>
     </row>
-    <row r="410" spans="1:17">
+    <row r="410" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A410" s="5" t="str">
         <f t="shared" si="23"/>
         <v>193</v>
@@ -15172,7 +15181,7 @@
       <c r="P410" s="24"/>
       <c r="Q410" s="7"/>
     </row>
-    <row r="411" spans="1:17">
+    <row r="411" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A411" s="5" t="str">
         <f t="shared" si="23"/>
         <v>194</v>
@@ -15199,7 +15208,7 @@
       <c r="P411" s="24"/>
       <c r="Q411" s="7"/>
     </row>
-    <row r="412" spans="1:17">
+    <row r="412" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A412" s="5" t="str">
         <f t="shared" si="23"/>
         <v>195</v>
@@ -15226,7 +15235,7 @@
       <c r="P412" s="24"/>
       <c r="Q412" s="7"/>
     </row>
-    <row r="413" spans="1:17">
+    <row r="413" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A413" s="5" t="str">
         <f t="shared" si="23"/>
         <v>196</v>
@@ -15253,7 +15262,7 @@
       <c r="P413" s="24"/>
       <c r="Q413" s="7"/>
     </row>
-    <row r="414" spans="1:17">
+    <row r="414" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A414" s="5" t="str">
         <f t="shared" si="23"/>
         <v>197</v>
@@ -15280,7 +15289,7 @@
       <c r="P414" s="24"/>
       <c r="Q414" s="7"/>
     </row>
-    <row r="415" spans="1:17">
+    <row r="415" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A415" s="5" t="str">
         <f t="shared" si="23"/>
         <v>198</v>
@@ -15307,7 +15316,7 @@
       <c r="P415" s="24"/>
       <c r="Q415" s="7"/>
     </row>
-    <row r="416" spans="1:17">
+    <row r="416" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A416" s="5" t="str">
         <f t="shared" si="23"/>
         <v>199</v>
@@ -15334,7 +15343,7 @@
       <c r="P416" s="24"/>
       <c r="Q416" s="7"/>
     </row>
-    <row r="417" spans="1:17">
+    <row r="417" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A417" s="5" t="str">
         <f t="shared" si="23"/>
         <v>19A</v>
@@ -15361,7 +15370,7 @@
       <c r="P417" s="24"/>
       <c r="Q417" s="7"/>
     </row>
-    <row r="418" spans="1:17">
+    <row r="418" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A418" s="5" t="str">
         <f t="shared" si="23"/>
         <v>19B</v>
@@ -15388,7 +15397,7 @@
       <c r="P418" s="24"/>
       <c r="Q418" s="7"/>
     </row>
-    <row r="419" spans="1:17">
+    <row r="419" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A419" s="5" t="str">
         <f t="shared" si="23"/>
         <v>19C</v>
@@ -15415,7 +15424,7 @@
       <c r="P419" s="24"/>
       <c r="Q419" s="7"/>
     </row>
-    <row r="420" spans="1:17">
+    <row r="420" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A420" s="5" t="str">
         <f t="shared" si="23"/>
         <v>19D</v>
@@ -15442,7 +15451,7 @@
       <c r="P420" s="24"/>
       <c r="Q420" s="7"/>
     </row>
-    <row r="421" spans="1:17">
+    <row r="421" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A421" s="5" t="str">
         <f t="shared" si="23"/>
         <v>19E</v>
@@ -15469,7 +15478,7 @@
       <c r="P421" s="24"/>
       <c r="Q421" s="7"/>
     </row>
-    <row r="422" spans="1:17">
+    <row r="422" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A422" s="5" t="str">
         <f t="shared" si="23"/>
         <v>19F</v>
@@ -15496,7 +15505,7 @@
       <c r="P422" s="24"/>
       <c r="Q422" s="7"/>
     </row>
-    <row r="423" spans="1:17">
+    <row r="423" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A423" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A0</v>
@@ -15523,7 +15532,7 @@
       <c r="P423" s="24"/>
       <c r="Q423" s="7"/>
     </row>
-    <row r="424" spans="1:17">
+    <row r="424" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A424" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A1</v>
@@ -15550,7 +15559,7 @@
       <c r="P424" s="24"/>
       <c r="Q424" s="7"/>
     </row>
-    <row r="425" spans="1:17">
+    <row r="425" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A425" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A2</v>
@@ -15577,7 +15586,7 @@
       <c r="P425" s="24"/>
       <c r="Q425" s="7"/>
     </row>
-    <row r="426" spans="1:17">
+    <row r="426" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A426" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A3</v>
@@ -15604,7 +15613,7 @@
       <c r="P426" s="24"/>
       <c r="Q426" s="7"/>
     </row>
-    <row r="427" spans="1:17">
+    <row r="427" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A427" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A4</v>
@@ -15631,7 +15640,7 @@
       <c r="P427" s="24"/>
       <c r="Q427" s="7"/>
     </row>
-    <row r="428" spans="1:17">
+    <row r="428" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A428" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A5</v>
@@ -15658,7 +15667,7 @@
       <c r="P428" s="24"/>
       <c r="Q428" s="7"/>
     </row>
-    <row r="429" spans="1:17">
+    <row r="429" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A429" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A6</v>
@@ -15685,7 +15694,7 @@
       <c r="P429" s="24"/>
       <c r="Q429" s="7"/>
     </row>
-    <row r="430" spans="1:17">
+    <row r="430" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A430" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A7</v>
@@ -15712,7 +15721,7 @@
       <c r="P430" s="24"/>
       <c r="Q430" s="7"/>
     </row>
-    <row r="431" spans="1:17">
+    <row r="431" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A431" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A8</v>
@@ -15739,7 +15748,7 @@
       <c r="P431" s="24"/>
       <c r="Q431" s="7"/>
     </row>
-    <row r="432" spans="1:17">
+    <row r="432" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A432" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1A9</v>
@@ -15766,7 +15775,7 @@
       <c r="P432" s="24"/>
       <c r="Q432" s="7"/>
     </row>
-    <row r="433" spans="1:17">
+    <row r="433" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A433" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1AA</v>
@@ -15793,7 +15802,7 @@
       <c r="P433" s="24"/>
       <c r="Q433" s="7"/>
     </row>
-    <row r="434" spans="1:17">
+    <row r="434" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A434" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1AB</v>
@@ -15820,7 +15829,7 @@
       <c r="P434" s="24"/>
       <c r="Q434" s="7"/>
     </row>
-    <row r="435" spans="1:17">
+    <row r="435" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A435" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1AC</v>
@@ -15847,7 +15856,7 @@
       <c r="P435" s="24"/>
       <c r="Q435" s="7"/>
     </row>
-    <row r="436" spans="1:17">
+    <row r="436" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A436" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1AD</v>
@@ -15874,7 +15883,7 @@
       <c r="P436" s="24"/>
       <c r="Q436" s="7"/>
     </row>
-    <row r="437" spans="1:17">
+    <row r="437" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A437" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1AE</v>
@@ -15901,7 +15910,7 @@
       <c r="P437" s="24"/>
       <c r="Q437" s="7"/>
     </row>
-    <row r="438" spans="1:17">
+    <row r="438" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A438" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1AF</v>
@@ -15928,7 +15937,7 @@
       <c r="P438" s="24"/>
       <c r="Q438" s="7"/>
     </row>
-    <row r="439" spans="1:17">
+    <row r="439" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A439" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B0</v>
@@ -15955,7 +15964,7 @@
       <c r="P439" s="24"/>
       <c r="Q439" s="7"/>
     </row>
-    <row r="440" spans="1:17">
+    <row r="440" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A440" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B1</v>
@@ -15982,7 +15991,7 @@
       <c r="P440" s="24"/>
       <c r="Q440" s="7"/>
     </row>
-    <row r="441" spans="1:17">
+    <row r="441" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A441" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B2</v>
@@ -16009,7 +16018,7 @@
       <c r="P441" s="24"/>
       <c r="Q441" s="7"/>
     </row>
-    <row r="442" spans="1:17">
+    <row r="442" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A442" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B3</v>
@@ -16036,7 +16045,7 @@
       <c r="P442" s="24"/>
       <c r="Q442" s="7"/>
     </row>
-    <row r="443" spans="1:17">
+    <row r="443" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A443" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B4</v>
@@ -16063,7 +16072,7 @@
       <c r="P443" s="24"/>
       <c r="Q443" s="7"/>
     </row>
-    <row r="444" spans="1:17">
+    <row r="444" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A444" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B5</v>
@@ -16090,7 +16099,7 @@
       <c r="P444" s="24"/>
       <c r="Q444" s="7"/>
     </row>
-    <row r="445" spans="1:17">
+    <row r="445" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A445" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B6</v>
@@ -16117,7 +16126,7 @@
       <c r="P445" s="24"/>
       <c r="Q445" s="7"/>
     </row>
-    <row r="446" spans="1:17">
+    <row r="446" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A446" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B7</v>
@@ -16144,7 +16153,7 @@
       <c r="P446" s="24"/>
       <c r="Q446" s="7"/>
     </row>
-    <row r="447" spans="1:17">
+    <row r="447" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A447" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B8</v>
@@ -16171,7 +16180,7 @@
       <c r="P447" s="24"/>
       <c r="Q447" s="7"/>
     </row>
-    <row r="448" spans="1:17">
+    <row r="448" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A448" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1B9</v>
@@ -16198,7 +16207,7 @@
       <c r="P448" s="24"/>
       <c r="Q448" s="7"/>
     </row>
-    <row r="449" spans="1:17">
+    <row r="449" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A449" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1BA</v>
@@ -16225,7 +16234,7 @@
       <c r="P449" s="24"/>
       <c r="Q449" s="7"/>
     </row>
-    <row r="450" spans="1:17">
+    <row r="450" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A450" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1BB</v>
@@ -16252,7 +16261,7 @@
       <c r="P450" s="24"/>
       <c r="Q450" s="7"/>
     </row>
-    <row r="451" spans="1:17">
+    <row r="451" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A451" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1BC</v>
@@ -16279,7 +16288,7 @@
       <c r="P451" s="24"/>
       <c r="Q451" s="7"/>
     </row>
-    <row r="452" spans="1:17">
+    <row r="452" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A452" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1BD</v>
@@ -16306,7 +16315,7 @@
       <c r="P452" s="24"/>
       <c r="Q452" s="7"/>
     </row>
-    <row r="453" spans="1:17">
+    <row r="453" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A453" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1BE</v>
@@ -16333,7 +16342,7 @@
       <c r="P453" s="24"/>
       <c r="Q453" s="7"/>
     </row>
-    <row r="454" spans="1:17">
+    <row r="454" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A454" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1BF</v>
@@ -16360,7 +16369,7 @@
       <c r="P454" s="24"/>
       <c r="Q454" s="7"/>
     </row>
-    <row r="455" spans="1:17">
+    <row r="455" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A455" s="5" t="str">
         <f t="shared" si="23"/>
         <v>1C0</v>
@@ -16387,7 +16396,7 @@
       <c r="P455" s="24"/>
       <c r="Q455" s="7"/>
     </row>
-    <row r="456" spans="1:17">
+    <row r="456" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A456" s="5" t="str">
         <f t="shared" ref="A456:A519" si="25">DEC2HEX(B456, 3)</f>
         <v>1C1</v>
@@ -16414,7 +16423,7 @@
       <c r="P456" s="24"/>
       <c r="Q456" s="7"/>
     </row>
-    <row r="457" spans="1:17">
+    <row r="457" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A457" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1C2</v>
@@ -16441,7 +16450,7 @@
       <c r="P457" s="24"/>
       <c r="Q457" s="7"/>
     </row>
-    <row r="458" spans="1:17">
+    <row r="458" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A458" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1C3</v>
@@ -16468,7 +16477,7 @@
       <c r="P458" s="24"/>
       <c r="Q458" s="7"/>
     </row>
-    <row r="459" spans="1:17">
+    <row r="459" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A459" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1C4</v>
@@ -16495,7 +16504,7 @@
       <c r="P459" s="24"/>
       <c r="Q459" s="7"/>
     </row>
-    <row r="460" spans="1:17">
+    <row r="460" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A460" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1C5</v>
@@ -16522,7 +16531,7 @@
       <c r="P460" s="24"/>
       <c r="Q460" s="7"/>
     </row>
-    <row r="461" spans="1:17">
+    <row r="461" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A461" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1C6</v>
@@ -16549,7 +16558,7 @@
       <c r="P461" s="24"/>
       <c r="Q461" s="7"/>
     </row>
-    <row r="462" spans="1:17">
+    <row r="462" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A462" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1C7</v>
@@ -16576,7 +16585,7 @@
       <c r="P462" s="24"/>
       <c r="Q462" s="7"/>
     </row>
-    <row r="463" spans="1:17">
+    <row r="463" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A463" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1C8</v>
@@ -16603,7 +16612,7 @@
       <c r="P463" s="24"/>
       <c r="Q463" s="7"/>
     </row>
-    <row r="464" spans="1:17">
+    <row r="464" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A464" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1C9</v>
@@ -16630,7 +16639,7 @@
       <c r="P464" s="24"/>
       <c r="Q464" s="7"/>
     </row>
-    <row r="465" spans="1:17">
+    <row r="465" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A465" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1CA</v>
@@ -16657,7 +16666,7 @@
       <c r="P465" s="24"/>
       <c r="Q465" s="7"/>
     </row>
-    <row r="466" spans="1:17">
+    <row r="466" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A466" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1CB</v>
@@ -16684,7 +16693,7 @@
       <c r="P466" s="24"/>
       <c r="Q466" s="7"/>
     </row>
-    <row r="467" spans="1:17">
+    <row r="467" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A467" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1CC</v>
@@ -16711,7 +16720,7 @@
       <c r="P467" s="24"/>
       <c r="Q467" s="7"/>
     </row>
-    <row r="468" spans="1:17">
+    <row r="468" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A468" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1CD</v>
@@ -16738,7 +16747,7 @@
       <c r="P468" s="24"/>
       <c r="Q468" s="7"/>
     </row>
-    <row r="469" spans="1:17">
+    <row r="469" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A469" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1CE</v>
@@ -16765,7 +16774,7 @@
       <c r="P469" s="24"/>
       <c r="Q469" s="7"/>
     </row>
-    <row r="470" spans="1:17">
+    <row r="470" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A470" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1CF</v>
@@ -16792,7 +16801,7 @@
       <c r="P470" s="24"/>
       <c r="Q470" s="7"/>
     </row>
-    <row r="471" spans="1:17">
+    <row r="471" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A471" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D0</v>
@@ -16819,7 +16828,7 @@
       <c r="P471" s="24"/>
       <c r="Q471" s="7"/>
     </row>
-    <row r="472" spans="1:17">
+    <row r="472" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A472" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D1</v>
@@ -16846,7 +16855,7 @@
       <c r="P472" s="24"/>
       <c r="Q472" s="7"/>
     </row>
-    <row r="473" spans="1:17">
+    <row r="473" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A473" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D2</v>
@@ -16873,7 +16882,7 @@
       <c r="P473" s="24"/>
       <c r="Q473" s="7"/>
     </row>
-    <row r="474" spans="1:17">
+    <row r="474" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A474" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D3</v>
@@ -16900,7 +16909,7 @@
       <c r="P474" s="24"/>
       <c r="Q474" s="7"/>
     </row>
-    <row r="475" spans="1:17">
+    <row r="475" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A475" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D4</v>
@@ -16927,7 +16936,7 @@
       <c r="P475" s="24"/>
       <c r="Q475" s="7"/>
     </row>
-    <row r="476" spans="1:17">
+    <row r="476" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A476" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D5</v>
@@ -16954,7 +16963,7 @@
       <c r="P476" s="24"/>
       <c r="Q476" s="7"/>
     </row>
-    <row r="477" spans="1:17">
+    <row r="477" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A477" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D6</v>
@@ -16981,7 +16990,7 @@
       <c r="P477" s="24"/>
       <c r="Q477" s="7"/>
     </row>
-    <row r="478" spans="1:17">
+    <row r="478" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A478" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D7</v>
@@ -17008,7 +17017,7 @@
       <c r="P478" s="24"/>
       <c r="Q478" s="7"/>
     </row>
-    <row r="479" spans="1:17">
+    <row r="479" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A479" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D8</v>
@@ -17035,7 +17044,7 @@
       <c r="P479" s="24"/>
       <c r="Q479" s="7"/>
     </row>
-    <row r="480" spans="1:17">
+    <row r="480" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A480" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1D9</v>
@@ -17062,7 +17071,7 @@
       <c r="P480" s="24"/>
       <c r="Q480" s="7"/>
     </row>
-    <row r="481" spans="1:17">
+    <row r="481" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A481" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1DA</v>
@@ -17089,7 +17098,7 @@
       <c r="P481" s="24"/>
       <c r="Q481" s="7"/>
     </row>
-    <row r="482" spans="1:17">
+    <row r="482" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A482" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1DB</v>
@@ -17116,7 +17125,7 @@
       <c r="P482" s="24"/>
       <c r="Q482" s="7"/>
     </row>
-    <row r="483" spans="1:17">
+    <row r="483" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A483" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1DC</v>
@@ -17143,7 +17152,7 @@
       <c r="P483" s="24"/>
       <c r="Q483" s="7"/>
     </row>
-    <row r="484" spans="1:17">
+    <row r="484" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A484" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1DD</v>
@@ -17170,7 +17179,7 @@
       <c r="P484" s="24"/>
       <c r="Q484" s="7"/>
     </row>
-    <row r="485" spans="1:17">
+    <row r="485" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A485" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1DE</v>
@@ -17197,7 +17206,7 @@
       <c r="P485" s="24"/>
       <c r="Q485" s="7"/>
     </row>
-    <row r="486" spans="1:17">
+    <row r="486" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A486" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1DF</v>
@@ -17224,7 +17233,7 @@
       <c r="P486" s="24"/>
       <c r="Q486" s="7"/>
     </row>
-    <row r="487" spans="1:17">
+    <row r="487" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A487" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E0</v>
@@ -17251,7 +17260,7 @@
       <c r="P487" s="24"/>
       <c r="Q487" s="7"/>
     </row>
-    <row r="488" spans="1:17">
+    <row r="488" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A488" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E1</v>
@@ -17278,7 +17287,7 @@
       <c r="P488" s="24"/>
       <c r="Q488" s="7"/>
     </row>
-    <row r="489" spans="1:17">
+    <row r="489" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A489" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E2</v>
@@ -17305,7 +17314,7 @@
       <c r="P489" s="24"/>
       <c r="Q489" s="7"/>
     </row>
-    <row r="490" spans="1:17">
+    <row r="490" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A490" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E3</v>
@@ -17332,7 +17341,7 @@
       <c r="P490" s="24"/>
       <c r="Q490" s="7"/>
     </row>
-    <row r="491" spans="1:17">
+    <row r="491" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A491" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E4</v>
@@ -17359,7 +17368,7 @@
       <c r="P491" s="24"/>
       <c r="Q491" s="7"/>
     </row>
-    <row r="492" spans="1:17">
+    <row r="492" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A492" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E5</v>
@@ -17386,7 +17395,7 @@
       <c r="P492" s="24"/>
       <c r="Q492" s="7"/>
     </row>
-    <row r="493" spans="1:17">
+    <row r="493" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A493" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E6</v>
@@ -17413,7 +17422,7 @@
       <c r="P493" s="24"/>
       <c r="Q493" s="7"/>
     </row>
-    <row r="494" spans="1:17">
+    <row r="494" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A494" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E7</v>
@@ -17440,7 +17449,7 @@
       <c r="P494" s="24"/>
       <c r="Q494" s="7"/>
     </row>
-    <row r="495" spans="1:17">
+    <row r="495" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A495" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E8</v>
@@ -17467,7 +17476,7 @@
       <c r="P495" s="24"/>
       <c r="Q495" s="7"/>
     </row>
-    <row r="496" spans="1:17">
+    <row r="496" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A496" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1E9</v>
@@ -17494,7 +17503,7 @@
       <c r="P496" s="24"/>
       <c r="Q496" s="7"/>
     </row>
-    <row r="497" spans="1:17">
+    <row r="497" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A497" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1EA</v>
@@ -17521,7 +17530,7 @@
       <c r="P497" s="24"/>
       <c r="Q497" s="7"/>
     </row>
-    <row r="498" spans="1:17">
+    <row r="498" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A498" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1EB</v>
@@ -17548,7 +17557,7 @@
       <c r="P498" s="24"/>
       <c r="Q498" s="7"/>
     </row>
-    <row r="499" spans="1:17">
+    <row r="499" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A499" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1EC</v>
@@ -17575,7 +17584,7 @@
       <c r="P499" s="24"/>
       <c r="Q499" s="7"/>
     </row>
-    <row r="500" spans="1:17">
+    <row r="500" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A500" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1ED</v>
@@ -17602,7 +17611,7 @@
       <c r="P500" s="24"/>
       <c r="Q500" s="7"/>
     </row>
-    <row r="501" spans="1:17">
+    <row r="501" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A501" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1EE</v>
@@ -17629,7 +17638,7 @@
       <c r="P501" s="24"/>
       <c r="Q501" s="7"/>
     </row>
-    <row r="502" spans="1:17">
+    <row r="502" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A502" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1EF</v>
@@ -17656,7 +17665,7 @@
       <c r="P502" s="24"/>
       <c r="Q502" s="7"/>
     </row>
-    <row r="503" spans="1:17">
+    <row r="503" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A503" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F0</v>
@@ -17683,7 +17692,7 @@
       <c r="P503" s="24"/>
       <c r="Q503" s="7"/>
     </row>
-    <row r="504" spans="1:17">
+    <row r="504" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A504" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F1</v>
@@ -17710,7 +17719,7 @@
       <c r="P504" s="24"/>
       <c r="Q504" s="7"/>
     </row>
-    <row r="505" spans="1:17">
+    <row r="505" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A505" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F2</v>
@@ -17737,7 +17746,7 @@
       <c r="P505" s="24"/>
       <c r="Q505" s="7"/>
     </row>
-    <row r="506" spans="1:17">
+    <row r="506" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A506" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F3</v>
@@ -17764,7 +17773,7 @@
       <c r="P506" s="24"/>
       <c r="Q506" s="7"/>
     </row>
-    <row r="507" spans="1:17">
+    <row r="507" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A507" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F4</v>
@@ -17791,7 +17800,7 @@
       <c r="P507" s="24"/>
       <c r="Q507" s="7"/>
     </row>
-    <row r="508" spans="1:17">
+    <row r="508" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A508" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F5</v>
@@ -17818,7 +17827,7 @@
       <c r="P508" s="24"/>
       <c r="Q508" s="7"/>
     </row>
-    <row r="509" spans="1:17">
+    <row r="509" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A509" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F6</v>
@@ -17845,7 +17854,7 @@
       <c r="P509" s="24"/>
       <c r="Q509" s="7"/>
     </row>
-    <row r="510" spans="1:17">
+    <row r="510" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A510" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F7</v>
@@ -17872,7 +17881,7 @@
       <c r="P510" s="24"/>
       <c r="Q510" s="7"/>
     </row>
-    <row r="511" spans="1:17">
+    <row r="511" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A511" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F8</v>
@@ -17899,7 +17908,7 @@
       <c r="P511" s="24"/>
       <c r="Q511" s="7"/>
     </row>
-    <row r="512" spans="1:17">
+    <row r="512" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A512" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1F9</v>
@@ -17926,7 +17935,7 @@
       <c r="P512" s="24"/>
       <c r="Q512" s="7"/>
     </row>
-    <row r="513" spans="1:17">
+    <row r="513" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A513" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1FA</v>
@@ -17953,7 +17962,7 @@
       <c r="P513" s="24"/>
       <c r="Q513" s="7"/>
     </row>
-    <row r="514" spans="1:17">
+    <row r="514" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A514" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1FB</v>
@@ -17980,7 +17989,7 @@
       <c r="P514" s="24"/>
       <c r="Q514" s="7"/>
     </row>
-    <row r="515" spans="1:17">
+    <row r="515" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A515" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1FC</v>
@@ -18007,7 +18016,7 @@
       <c r="P515" s="24"/>
       <c r="Q515" s="7"/>
     </row>
-    <row r="516" spans="1:17">
+    <row r="516" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A516" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1FD</v>
@@ -18034,7 +18043,7 @@
       <c r="P516" s="24"/>
       <c r="Q516" s="7"/>
     </row>
-    <row r="517" spans="1:17">
+    <row r="517" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A517" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1FE</v>
@@ -18061,7 +18070,7 @@
       <c r="P517" s="24"/>
       <c r="Q517" s="7"/>
     </row>
-    <row r="518" spans="1:17">
+    <row r="518" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A518" s="5" t="str">
         <f t="shared" si="25"/>
         <v>1FF</v>
@@ -18088,7 +18097,7 @@
       <c r="P518" s="24"/>
       <c r="Q518" s="7"/>
     </row>
-    <row r="519" spans="1:17">
+    <row r="519" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A519" s="5" t="str">
         <f t="shared" si="25"/>
         <v>200</v>
@@ -18112,7 +18121,7 @@
       <c r="P519" s="24"/>
       <c r="Q519" s="7"/>
     </row>
-    <row r="520" spans="1:17">
+    <row r="520" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A520" s="5" t="str">
         <f t="shared" ref="A520:A583" si="27">DEC2HEX(B520, 3)</f>
         <v>201</v>
@@ -18136,7 +18145,7 @@
       <c r="P520" s="24"/>
       <c r="Q520" s="7"/>
     </row>
-    <row r="521" spans="1:17">
+    <row r="521" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A521" s="5" t="str">
         <f t="shared" si="27"/>
         <v>202</v>
@@ -18160,7 +18169,7 @@
       <c r="P521" s="24"/>
       <c r="Q521" s="7"/>
     </row>
-    <row r="522" spans="1:17">
+    <row r="522" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A522" s="5" t="str">
         <f t="shared" si="27"/>
         <v>203</v>
@@ -18184,7 +18193,7 @@
       <c r="P522" s="24"/>
       <c r="Q522" s="7"/>
     </row>
-    <row r="523" spans="1:17">
+    <row r="523" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A523" s="5" t="str">
         <f t="shared" si="27"/>
         <v>204</v>
@@ -18208,7 +18217,7 @@
       <c r="P523" s="24"/>
       <c r="Q523" s="7"/>
     </row>
-    <row r="524" spans="1:17">
+    <row r="524" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A524" s="5" t="str">
         <f t="shared" si="27"/>
         <v>205</v>
@@ -18232,7 +18241,7 @@
       <c r="P524" s="24"/>
       <c r="Q524" s="7"/>
     </row>
-    <row r="525" spans="1:17">
+    <row r="525" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A525" s="5" t="str">
         <f t="shared" si="27"/>
         <v>206</v>
@@ -18256,7 +18265,7 @@
       <c r="P525" s="24"/>
       <c r="Q525" s="7"/>
     </row>
-    <row r="526" spans="1:17">
+    <row r="526" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A526" s="5" t="str">
         <f t="shared" si="27"/>
         <v>207</v>
@@ -18280,7 +18289,7 @@
       <c r="P526" s="24"/>
       <c r="Q526" s="7"/>
     </row>
-    <row r="527" spans="1:17">
+    <row r="527" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A527" s="5" t="str">
         <f t="shared" si="27"/>
         <v>208</v>
@@ -18304,7 +18313,7 @@
       <c r="P527" s="24"/>
       <c r="Q527" s="7"/>
     </row>
-    <row r="528" spans="1:17">
+    <row r="528" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A528" s="5" t="str">
         <f t="shared" si="27"/>
         <v>209</v>
@@ -18328,7 +18337,7 @@
       <c r="P528" s="24"/>
       <c r="Q528" s="7"/>
     </row>
-    <row r="529" spans="1:17">
+    <row r="529" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A529" s="5" t="str">
         <f t="shared" si="27"/>
         <v>20A</v>
@@ -18352,7 +18361,7 @@
       <c r="P529" s="24"/>
       <c r="Q529" s="7"/>
     </row>
-    <row r="530" spans="1:17">
+    <row r="530" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A530" s="5" t="str">
         <f t="shared" si="27"/>
         <v>20B</v>
@@ -18376,7 +18385,7 @@
       <c r="P530" s="24"/>
       <c r="Q530" s="7"/>
     </row>
-    <row r="531" spans="1:17">
+    <row r="531" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A531" s="5" t="str">
         <f t="shared" si="27"/>
         <v>20C</v>
@@ -18400,7 +18409,7 @@
       <c r="P531" s="24"/>
       <c r="Q531" s="7"/>
     </row>
-    <row r="532" spans="1:17">
+    <row r="532" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A532" s="5" t="str">
         <f t="shared" si="27"/>
         <v>20D</v>
@@ -18424,7 +18433,7 @@
       <c r="P532" s="24"/>
       <c r="Q532" s="7"/>
     </row>
-    <row r="533" spans="1:17">
+    <row r="533" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A533" s="5" t="str">
         <f t="shared" si="27"/>
         <v>20E</v>
@@ -18448,7 +18457,7 @@
       <c r="P533" s="24"/>
       <c r="Q533" s="7"/>
     </row>
-    <row r="534" spans="1:17">
+    <row r="534" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A534" s="5" t="str">
         <f t="shared" si="27"/>
         <v>20F</v>
@@ -18472,7 +18481,7 @@
       <c r="P534" s="24"/>
       <c r="Q534" s="7"/>
     </row>
-    <row r="535" spans="1:17">
+    <row r="535" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A535" s="5" t="str">
         <f t="shared" si="27"/>
         <v>210</v>
@@ -18496,7 +18505,7 @@
       <c r="P535" s="24"/>
       <c r="Q535" s="7"/>
     </row>
-    <row r="536" spans="1:17">
+    <row r="536" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A536" s="5" t="str">
         <f t="shared" si="27"/>
         <v>211</v>
@@ -18520,7 +18529,7 @@
       <c r="P536" s="24"/>
       <c r="Q536" s="7"/>
     </row>
-    <row r="537" spans="1:17">
+    <row r="537" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A537" s="5" t="str">
         <f t="shared" si="27"/>
         <v>212</v>
@@ -18544,7 +18553,7 @@
       <c r="P537" s="24"/>
       <c r="Q537" s="7"/>
     </row>
-    <row r="538" spans="1:17">
+    <row r="538" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A538" s="5" t="str">
         <f t="shared" si="27"/>
         <v>213</v>
@@ -18568,7 +18577,7 @@
       <c r="P538" s="24"/>
       <c r="Q538" s="7"/>
     </row>
-    <row r="539" spans="1:17">
+    <row r="539" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A539" s="5" t="str">
         <f t="shared" si="27"/>
         <v>214</v>
@@ -18592,7 +18601,7 @@
       <c r="P539" s="24"/>
       <c r="Q539" s="7"/>
     </row>
-    <row r="540" spans="1:17">
+    <row r="540" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A540" s="5" t="str">
         <f t="shared" si="27"/>
         <v>215</v>
@@ -18616,7 +18625,7 @@
       <c r="P540" s="24"/>
       <c r="Q540" s="7"/>
     </row>
-    <row r="541" spans="1:17">
+    <row r="541" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A541" s="5" t="str">
         <f t="shared" si="27"/>
         <v>216</v>
@@ -18640,7 +18649,7 @@
       <c r="P541" s="24"/>
       <c r="Q541" s="7"/>
     </row>
-    <row r="542" spans="1:17">
+    <row r="542" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A542" s="5" t="str">
         <f t="shared" si="27"/>
         <v>217</v>
@@ -18664,7 +18673,7 @@
       <c r="P542" s="24"/>
       <c r="Q542" s="7"/>
     </row>
-    <row r="543" spans="1:17">
+    <row r="543" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A543" s="5" t="str">
         <f t="shared" si="27"/>
         <v>218</v>
@@ -18688,7 +18697,7 @@
       <c r="P543" s="24"/>
       <c r="Q543" s="7"/>
     </row>
-    <row r="544" spans="1:17">
+    <row r="544" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A544" s="5" t="str">
         <f t="shared" si="27"/>
         <v>219</v>
@@ -18712,7 +18721,7 @@
       <c r="P544" s="24"/>
       <c r="Q544" s="7"/>
     </row>
-    <row r="545" spans="1:17">
+    <row r="545" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A545" s="5" t="str">
         <f t="shared" si="27"/>
         <v>21A</v>
@@ -18736,7 +18745,7 @@
       <c r="P545" s="24"/>
       <c r="Q545" s="7"/>
     </row>
-    <row r="546" spans="1:17">
+    <row r="546" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A546" s="5" t="str">
         <f t="shared" si="27"/>
         <v>21B</v>
@@ -18760,7 +18769,7 @@
       <c r="P546" s="24"/>
       <c r="Q546" s="7"/>
     </row>
-    <row r="547" spans="1:17">
+    <row r="547" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A547" s="5" t="str">
         <f t="shared" si="27"/>
         <v>21C</v>
@@ -18784,7 +18793,7 @@
       <c r="P547" s="24"/>
       <c r="Q547" s="7"/>
     </row>
-    <row r="548" spans="1:17">
+    <row r="548" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A548" s="5" t="str">
         <f t="shared" si="27"/>
         <v>21D</v>
@@ -18808,7 +18817,7 @@
       <c r="P548" s="24"/>
       <c r="Q548" s="7"/>
     </row>
-    <row r="549" spans="1:17">
+    <row r="549" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A549" s="5" t="str">
         <f t="shared" si="27"/>
         <v>21E</v>
@@ -18832,7 +18841,7 @@
       <c r="P549" s="24"/>
       <c r="Q549" s="7"/>
     </row>
-    <row r="550" spans="1:17">
+    <row r="550" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A550" s="5" t="str">
         <f t="shared" si="27"/>
         <v>21F</v>
@@ -18856,7 +18865,7 @@
       <c r="P550" s="24"/>
       <c r="Q550" s="7"/>
     </row>
-    <row r="551" spans="1:17">
+    <row r="551" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A551" s="5" t="str">
         <f t="shared" si="27"/>
         <v>220</v>
@@ -18880,7 +18889,7 @@
       <c r="P551" s="24"/>
       <c r="Q551" s="7"/>
     </row>
-    <row r="552" spans="1:17">
+    <row r="552" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A552" s="5" t="str">
         <f t="shared" si="27"/>
         <v>221</v>
@@ -18904,7 +18913,7 @@
       <c r="P552" s="24"/>
       <c r="Q552" s="7"/>
     </row>
-    <row r="553" spans="1:17">
+    <row r="553" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A553" s="5" t="str">
         <f t="shared" si="27"/>
         <v>222</v>
@@ -18928,7 +18937,7 @@
       <c r="P553" s="24"/>
       <c r="Q553" s="7"/>
     </row>
-    <row r="554" spans="1:17">
+    <row r="554" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A554" s="5" t="str">
         <f t="shared" si="27"/>
         <v>223</v>
@@ -18952,7 +18961,7 @@
       <c r="P554" s="24"/>
       <c r="Q554" s="7"/>
     </row>
-    <row r="555" spans="1:17">
+    <row r="555" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A555" s="5" t="str">
         <f t="shared" si="27"/>
         <v>224</v>
@@ -18976,7 +18985,7 @@
       <c r="P555" s="24"/>
       <c r="Q555" s="7"/>
     </row>
-    <row r="556" spans="1:17">
+    <row r="556" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A556" s="5" t="str">
         <f t="shared" si="27"/>
         <v>225</v>
@@ -19000,7 +19009,7 @@
       <c r="P556" s="24"/>
       <c r="Q556" s="7"/>
     </row>
-    <row r="557" spans="1:17">
+    <row r="557" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A557" s="5" t="str">
         <f t="shared" si="27"/>
         <v>226</v>
@@ -19024,7 +19033,7 @@
       <c r="P557" s="24"/>
       <c r="Q557" s="7"/>
     </row>
-    <row r="558" spans="1:17">
+    <row r="558" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A558" s="5" t="str">
         <f t="shared" si="27"/>
         <v>227</v>
@@ -19048,7 +19057,7 @@
       <c r="P558" s="24"/>
       <c r="Q558" s="7"/>
     </row>
-    <row r="559" spans="1:17">
+    <row r="559" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A559" s="5" t="str">
         <f t="shared" si="27"/>
         <v>228</v>
@@ -19072,7 +19081,7 @@
       <c r="P559" s="24"/>
       <c r="Q559" s="7"/>
     </row>
-    <row r="560" spans="1:17">
+    <row r="560" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A560" s="5" t="str">
         <f t="shared" si="27"/>
         <v>229</v>
@@ -19096,7 +19105,7 @@
       <c r="P560" s="24"/>
       <c r="Q560" s="7"/>
     </row>
-    <row r="561" spans="1:17">
+    <row r="561" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A561" s="5" t="str">
         <f t="shared" si="27"/>
         <v>22A</v>
@@ -19120,7 +19129,7 @@
       <c r="P561" s="24"/>
       <c r="Q561" s="7"/>
     </row>
-    <row r="562" spans="1:17">
+    <row r="562" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A562" s="5" t="str">
         <f t="shared" si="27"/>
         <v>22B</v>
@@ -19144,7 +19153,7 @@
       <c r="P562" s="24"/>
       <c r="Q562" s="7"/>
     </row>
-    <row r="563" spans="1:17">
+    <row r="563" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A563" s="5" t="str">
         <f t="shared" si="27"/>
         <v>22C</v>
@@ -19168,7 +19177,7 @@
       <c r="P563" s="24"/>
       <c r="Q563" s="7"/>
     </row>
-    <row r="564" spans="1:17">
+    <row r="564" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A564" s="5" t="str">
         <f t="shared" si="27"/>
         <v>22D</v>
@@ -19192,7 +19201,7 @@
       <c r="P564" s="24"/>
       <c r="Q564" s="7"/>
     </row>
-    <row r="565" spans="1:17">
+    <row r="565" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A565" s="5" t="str">
         <f t="shared" si="27"/>
         <v>22E</v>
@@ -19216,7 +19225,7 @@
       <c r="P565" s="24"/>
       <c r="Q565" s="7"/>
     </row>
-    <row r="566" spans="1:17">
+    <row r="566" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A566" s="5" t="str">
         <f t="shared" si="27"/>
         <v>22F</v>
@@ -19240,7 +19249,7 @@
       <c r="P566" s="24"/>
       <c r="Q566" s="7"/>
     </row>
-    <row r="567" spans="1:17">
+    <row r="567" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A567" s="5" t="str">
         <f t="shared" si="27"/>
         <v>230</v>
@@ -19264,7 +19273,7 @@
       <c r="P567" s="24"/>
       <c r="Q567" s="7"/>
     </row>
-    <row r="568" spans="1:17">
+    <row r="568" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A568" s="5" t="str">
         <f t="shared" si="27"/>
         <v>231</v>
@@ -19288,7 +19297,7 @@
       <c r="P568" s="24"/>
       <c r="Q568" s="7"/>
     </row>
-    <row r="569" spans="1:17">
+    <row r="569" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A569" s="5" t="str">
         <f t="shared" si="27"/>
         <v>232</v>
@@ -19312,7 +19321,7 @@
       <c r="P569" s="24"/>
       <c r="Q569" s="7"/>
     </row>
-    <row r="570" spans="1:17">
+    <row r="570" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A570" s="5" t="str">
         <f t="shared" si="27"/>
         <v>233</v>
@@ -19336,7 +19345,7 @@
       <c r="P570" s="24"/>
       <c r="Q570" s="7"/>
     </row>
-    <row r="571" spans="1:17">
+    <row r="571" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A571" s="5" t="str">
         <f t="shared" si="27"/>
         <v>234</v>
@@ -19360,7 +19369,7 @@
       <c r="P571" s="24"/>
       <c r="Q571" s="7"/>
     </row>
-    <row r="572" spans="1:17">
+    <row r="572" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A572" s="5" t="str">
         <f t="shared" si="27"/>
         <v>235</v>
@@ -19384,7 +19393,7 @@
       <c r="P572" s="24"/>
       <c r="Q572" s="7"/>
     </row>
-    <row r="573" spans="1:17">
+    <row r="573" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A573" s="5" t="str">
         <f t="shared" si="27"/>
         <v>236</v>
@@ -19408,7 +19417,7 @@
       <c r="P573" s="24"/>
       <c r="Q573" s="7"/>
     </row>
-    <row r="574" spans="1:17">
+    <row r="574" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A574" s="5" t="str">
         <f t="shared" si="27"/>
         <v>237</v>
@@ -19432,7 +19441,7 @@
       <c r="P574" s="24"/>
       <c r="Q574" s="7"/>
     </row>
-    <row r="575" spans="1:17">
+    <row r="575" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A575" s="5" t="str">
         <f t="shared" si="27"/>
         <v>238</v>
@@ -19456,7 +19465,7 @@
       <c r="P575" s="24"/>
       <c r="Q575" s="7"/>
     </row>
-    <row r="576" spans="1:17">
+    <row r="576" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A576" s="5" t="str">
         <f t="shared" si="27"/>
         <v>239</v>
@@ -19480,7 +19489,7 @@
       <c r="P576" s="24"/>
       <c r="Q576" s="7"/>
     </row>
-    <row r="577" spans="1:17">
+    <row r="577" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A577" s="5" t="str">
         <f t="shared" si="27"/>
         <v>23A</v>
@@ -19504,7 +19513,7 @@
       <c r="P577" s="24"/>
       <c r="Q577" s="7"/>
     </row>
-    <row r="578" spans="1:17">
+    <row r="578" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A578" s="5" t="str">
         <f t="shared" si="27"/>
         <v>23B</v>
@@ -19528,7 +19537,7 @@
       <c r="P578" s="24"/>
       <c r="Q578" s="7"/>
     </row>
-    <row r="579" spans="1:17">
+    <row r="579" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A579" s="5" t="str">
         <f t="shared" si="27"/>
         <v>23C</v>
@@ -19552,7 +19561,7 @@
       <c r="P579" s="24"/>
       <c r="Q579" s="7"/>
     </row>
-    <row r="580" spans="1:17">
+    <row r="580" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A580" s="5" t="str">
         <f t="shared" si="27"/>
         <v>23D</v>
@@ -19576,7 +19585,7 @@
       <c r="P580" s="24"/>
       <c r="Q580" s="7"/>
     </row>
-    <row r="581" spans="1:17">
+    <row r="581" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A581" s="5" t="str">
         <f t="shared" si="27"/>
         <v>23E</v>
@@ -19600,7 +19609,7 @@
       <c r="P581" s="24"/>
       <c r="Q581" s="7"/>
     </row>
-    <row r="582" spans="1:17">
+    <row r="582" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A582" s="5" t="str">
         <f t="shared" si="27"/>
         <v>23F</v>
@@ -19624,7 +19633,7 @@
       <c r="P582" s="24"/>
       <c r="Q582" s="7"/>
     </row>
-    <row r="583" spans="1:17">
+    <row r="583" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A583" s="5" t="str">
         <f t="shared" si="27"/>
         <v>240</v>
@@ -19648,7 +19657,7 @@
       <c r="P583" s="24"/>
       <c r="Q583" s="7"/>
     </row>
-    <row r="584" spans="1:17">
+    <row r="584" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A584" s="5" t="str">
         <f t="shared" ref="A584:A647" si="28">DEC2HEX(B584, 3)</f>
         <v>241</v>
@@ -19672,7 +19681,7 @@
       <c r="P584" s="24"/>
       <c r="Q584" s="7"/>
     </row>
-    <row r="585" spans="1:17">
+    <row r="585" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A585" s="5" t="str">
         <f t="shared" si="28"/>
         <v>242</v>
@@ -19696,7 +19705,7 @@
       <c r="P585" s="24"/>
       <c r="Q585" s="7"/>
     </row>
-    <row r="586" spans="1:17">
+    <row r="586" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A586" s="5" t="str">
         <f t="shared" si="28"/>
         <v>243</v>
@@ -19720,7 +19729,7 @@
       <c r="P586" s="24"/>
       <c r="Q586" s="7"/>
     </row>
-    <row r="587" spans="1:17">
+    <row r="587" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A587" s="5" t="str">
         <f t="shared" si="28"/>
         <v>244</v>
@@ -19744,7 +19753,7 @@
       <c r="P587" s="24"/>
       <c r="Q587" s="7"/>
     </row>
-    <row r="588" spans="1:17">
+    <row r="588" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A588" s="5" t="str">
         <f t="shared" si="28"/>
         <v>245</v>
@@ -19768,7 +19777,7 @@
       <c r="P588" s="24"/>
       <c r="Q588" s="7"/>
     </row>
-    <row r="589" spans="1:17">
+    <row r="589" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A589" s="5" t="str">
         <f t="shared" si="28"/>
         <v>246</v>
@@ -19792,7 +19801,7 @@
       <c r="P589" s="24"/>
       <c r="Q589" s="7"/>
     </row>
-    <row r="590" spans="1:17">
+    <row r="590" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A590" s="5" t="str">
         <f t="shared" si="28"/>
         <v>247</v>
@@ -19816,7 +19825,7 @@
       <c r="P590" s="24"/>
       <c r="Q590" s="7"/>
     </row>
-    <row r="591" spans="1:17">
+    <row r="591" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A591" s="5" t="str">
         <f t="shared" si="28"/>
         <v>248</v>
@@ -19840,7 +19849,7 @@
       <c r="P591" s="24"/>
       <c r="Q591" s="7"/>
     </row>
-    <row r="592" spans="1:17">
+    <row r="592" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A592" s="5" t="str">
         <f t="shared" si="28"/>
         <v>249</v>
@@ -19864,7 +19873,7 @@
       <c r="P592" s="24"/>
       <c r="Q592" s="7"/>
     </row>
-    <row r="593" spans="1:17">
+    <row r="593" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A593" s="5" t="str">
         <f t="shared" si="28"/>
         <v>24A</v>
@@ -19888,7 +19897,7 @@
       <c r="P593" s="24"/>
       <c r="Q593" s="7"/>
     </row>
-    <row r="594" spans="1:17">
+    <row r="594" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A594" s="5" t="str">
         <f t="shared" si="28"/>
         <v>24B</v>
@@ -19912,7 +19921,7 @@
       <c r="P594" s="24"/>
       <c r="Q594" s="7"/>
     </row>
-    <row r="595" spans="1:17">
+    <row r="595" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A595" s="5" t="str">
         <f t="shared" si="28"/>
         <v>24C</v>
@@ -19936,7 +19945,7 @@
       <c r="P595" s="24"/>
       <c r="Q595" s="7"/>
     </row>
-    <row r="596" spans="1:17">
+    <row r="596" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A596" s="5" t="str">
         <f t="shared" si="28"/>
         <v>24D</v>
@@ -19960,7 +19969,7 @@
       <c r="P596" s="24"/>
       <c r="Q596" s="7"/>
     </row>
-    <row r="597" spans="1:17">
+    <row r="597" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A597" s="5" t="str">
         <f t="shared" si="28"/>
         <v>24E</v>
@@ -19984,7 +19993,7 @@
       <c r="P597" s="24"/>
       <c r="Q597" s="7"/>
     </row>
-    <row r="598" spans="1:17">
+    <row r="598" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A598" s="5" t="str">
         <f t="shared" si="28"/>
         <v>24F</v>
@@ -20008,7 +20017,7 @@
       <c r="P598" s="24"/>
       <c r="Q598" s="7"/>
     </row>
-    <row r="599" spans="1:17">
+    <row r="599" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A599" s="5" t="str">
         <f t="shared" si="28"/>
         <v>250</v>
@@ -20032,7 +20041,7 @@
       <c r="P599" s="24"/>
       <c r="Q599" s="7"/>
     </row>
-    <row r="600" spans="1:17">
+    <row r="600" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A600" s="5" t="str">
         <f t="shared" si="28"/>
         <v>251</v>
@@ -20056,7 +20065,7 @@
       <c r="P600" s="24"/>
       <c r="Q600" s="7"/>
     </row>
-    <row r="601" spans="1:17">
+    <row r="601" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A601" s="5" t="str">
         <f t="shared" si="28"/>
         <v>252</v>
@@ -20080,7 +20089,7 @@
       <c r="P601" s="24"/>
       <c r="Q601" s="7"/>
     </row>
-    <row r="602" spans="1:17">
+    <row r="602" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A602" s="5" t="str">
         <f t="shared" si="28"/>
         <v>253</v>
@@ -20104,7 +20113,7 @@
       <c r="P602" s="24"/>
       <c r="Q602" s="7"/>
     </row>
-    <row r="603" spans="1:17">
+    <row r="603" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A603" s="5" t="str">
         <f t="shared" si="28"/>
         <v>254</v>
@@ -20128,7 +20137,7 @@
       <c r="P603" s="24"/>
       <c r="Q603" s="7"/>
     </row>
-    <row r="604" spans="1:17">
+    <row r="604" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A604" s="5" t="str">
         <f t="shared" si="28"/>
         <v>255</v>
@@ -20152,7 +20161,7 @@
       <c r="P604" s="24"/>
       <c r="Q604" s="7"/>
     </row>
-    <row r="605" spans="1:17">
+    <row r="605" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A605" s="5" t="str">
         <f t="shared" si="28"/>
         <v>256</v>
@@ -20176,7 +20185,7 @@
       <c r="P605" s="24"/>
       <c r="Q605" s="7"/>
     </row>
-    <row r="606" spans="1:17">
+    <row r="606" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A606" s="5" t="str">
         <f t="shared" si="28"/>
         <v>257</v>
@@ -20200,7 +20209,7 @@
       <c r="P606" s="24"/>
       <c r="Q606" s="7"/>
     </row>
-    <row r="607" spans="1:17">
+    <row r="607" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A607" s="5" t="str">
         <f t="shared" si="28"/>
         <v>258</v>
@@ -20224,7 +20233,7 @@
       <c r="P607" s="24"/>
       <c r="Q607" s="7"/>
     </row>
-    <row r="608" spans="1:17">
+    <row r="608" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A608" s="5" t="str">
         <f t="shared" si="28"/>
         <v>259</v>
@@ -20248,7 +20257,7 @@
       <c r="P608" s="24"/>
       <c r="Q608" s="7"/>
     </row>
-    <row r="609" spans="1:17">
+    <row r="609" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A609" s="5" t="str">
         <f t="shared" si="28"/>
         <v>25A</v>
@@ -20272,7 +20281,7 @@
       <c r="P609" s="24"/>
       <c r="Q609" s="7"/>
     </row>
-    <row r="610" spans="1:17">
+    <row r="610" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A610" s="5" t="str">
         <f t="shared" si="28"/>
         <v>25B</v>
@@ -20296,7 +20305,7 @@
       <c r="P610" s="24"/>
       <c r="Q610" s="7"/>
     </row>
-    <row r="611" spans="1:17">
+    <row r="611" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A611" s="5" t="str">
         <f t="shared" si="28"/>
         <v>25C</v>
@@ -20320,7 +20329,7 @@
       <c r="P611" s="24"/>
       <c r="Q611" s="7"/>
     </row>
-    <row r="612" spans="1:17">
+    <row r="612" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A612" s="5" t="str">
         <f t="shared" si="28"/>
         <v>25D</v>
@@ -20344,7 +20353,7 @@
       <c r="P612" s="24"/>
       <c r="Q612" s="7"/>
     </row>
-    <row r="613" spans="1:17">
+    <row r="613" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A613" s="5" t="str">
         <f t="shared" si="28"/>
         <v>25E</v>
@@ -20368,7 +20377,7 @@
       <c r="P613" s="24"/>
       <c r="Q613" s="7"/>
     </row>
-    <row r="614" spans="1:17">
+    <row r="614" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A614" s="5" t="str">
         <f t="shared" si="28"/>
         <v>25F</v>
@@ -20392,7 +20401,7 @@
       <c r="P614" s="24"/>
       <c r="Q614" s="7"/>
     </row>
-    <row r="615" spans="1:17">
+    <row r="615" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A615" s="5" t="str">
         <f t="shared" si="28"/>
         <v>260</v>
@@ -20416,7 +20425,7 @@
       <c r="P615" s="24"/>
       <c r="Q615" s="7"/>
     </row>
-    <row r="616" spans="1:17">
+    <row r="616" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A616" s="5" t="str">
         <f t="shared" si="28"/>
         <v>261</v>
@@ -20440,7 +20449,7 @@
       <c r="P616" s="24"/>
       <c r="Q616" s="7"/>
     </row>
-    <row r="617" spans="1:17">
+    <row r="617" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A617" s="5" t="str">
         <f t="shared" si="28"/>
         <v>262</v>
@@ -20464,7 +20473,7 @@
       <c r="P617" s="24"/>
       <c r="Q617" s="7"/>
     </row>
-    <row r="618" spans="1:17">
+    <row r="618" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A618" s="5" t="str">
         <f t="shared" si="28"/>
         <v>263</v>
@@ -20488,7 +20497,7 @@
       <c r="P618" s="24"/>
       <c r="Q618" s="7"/>
     </row>
-    <row r="619" spans="1:17">
+    <row r="619" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A619" s="5" t="str">
         <f t="shared" si="28"/>
         <v>264</v>
@@ -20512,7 +20521,7 @@
       <c r="P619" s="24"/>
       <c r="Q619" s="7"/>
     </row>
-    <row r="620" spans="1:17">
+    <row r="620" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A620" s="5" t="str">
         <f t="shared" si="28"/>
         <v>265</v>
@@ -20536,7 +20545,7 @@
       <c r="P620" s="24"/>
       <c r="Q620" s="7"/>
     </row>
-    <row r="621" spans="1:17">
+    <row r="621" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A621" s="5" t="str">
         <f t="shared" si="28"/>
         <v>266</v>
@@ -20560,7 +20569,7 @@
       <c r="P621" s="24"/>
       <c r="Q621" s="7"/>
     </row>
-    <row r="622" spans="1:17">
+    <row r="622" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A622" s="5" t="str">
         <f t="shared" si="28"/>
         <v>267</v>
@@ -20584,7 +20593,7 @@
       <c r="P622" s="24"/>
       <c r="Q622" s="7"/>
     </row>
-    <row r="623" spans="1:17">
+    <row r="623" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A623" s="5" t="str">
         <f t="shared" si="28"/>
         <v>268</v>
@@ -20608,7 +20617,7 @@
       <c r="P623" s="24"/>
       <c r="Q623" s="7"/>
     </row>
-    <row r="624" spans="1:17">
+    <row r="624" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A624" s="5" t="str">
         <f t="shared" si="28"/>
         <v>269</v>
@@ -20632,7 +20641,7 @@
       <c r="P624" s="24"/>
       <c r="Q624" s="7"/>
     </row>
-    <row r="625" spans="1:17">
+    <row r="625" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A625" s="5" t="str">
         <f t="shared" si="28"/>
         <v>26A</v>
@@ -20656,7 +20665,7 @@
       <c r="P625" s="24"/>
       <c r="Q625" s="7"/>
     </row>
-    <row r="626" spans="1:17">
+    <row r="626" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A626" s="5" t="str">
         <f t="shared" si="28"/>
         <v>26B</v>
@@ -20680,7 +20689,7 @@
       <c r="P626" s="24"/>
       <c r="Q626" s="7"/>
     </row>
-    <row r="627" spans="1:17">
+    <row r="627" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A627" s="5" t="str">
         <f t="shared" si="28"/>
         <v>26C</v>
@@ -20704,7 +20713,7 @@
       <c r="P627" s="24"/>
       <c r="Q627" s="7"/>
     </row>
-    <row r="628" spans="1:17">
+    <row r="628" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A628" s="5" t="str">
         <f t="shared" si="28"/>
         <v>26D</v>
@@ -20728,7 +20737,7 @@
       <c r="P628" s="24"/>
       <c r="Q628" s="7"/>
     </row>
-    <row r="629" spans="1:17">
+    <row r="629" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A629" s="5" t="str">
         <f t="shared" si="28"/>
         <v>26E</v>
@@ -20752,7 +20761,7 @@
       <c r="P629" s="24"/>
       <c r="Q629" s="7"/>
     </row>
-    <row r="630" spans="1:17">
+    <row r="630" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A630" s="5" t="str">
         <f t="shared" si="28"/>
         <v>26F</v>
@@ -20776,7 +20785,7 @@
       <c r="P630" s="24"/>
       <c r="Q630" s="7"/>
     </row>
-    <row r="631" spans="1:17">
+    <row r="631" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A631" s="5" t="str">
         <f t="shared" si="28"/>
         <v>270</v>
@@ -20800,7 +20809,7 @@
       <c r="P631" s="24"/>
       <c r="Q631" s="7"/>
     </row>
-    <row r="632" spans="1:17">
+    <row r="632" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A632" s="5" t="str">
         <f t="shared" si="28"/>
         <v>271</v>
@@ -20824,7 +20833,7 @@
       <c r="P632" s="24"/>
       <c r="Q632" s="7"/>
     </row>
-    <row r="633" spans="1:17">
+    <row r="633" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A633" s="5" t="str">
         <f t="shared" si="28"/>
         <v>272</v>
@@ -20848,7 +20857,7 @@
       <c r="P633" s="24"/>
       <c r="Q633" s="7"/>
     </row>
-    <row r="634" spans="1:17">
+    <row r="634" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A634" s="5" t="str">
         <f t="shared" si="28"/>
         <v>273</v>
@@ -20872,7 +20881,7 @@
       <c r="P634" s="24"/>
       <c r="Q634" s="7"/>
     </row>
-    <row r="635" spans="1:17">
+    <row r="635" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A635" s="5" t="str">
         <f t="shared" si="28"/>
         <v>274</v>
@@ -20896,7 +20905,7 @@
       <c r="P635" s="24"/>
       <c r="Q635" s="7"/>
     </row>
-    <row r="636" spans="1:17">
+    <row r="636" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A636" s="5" t="str">
         <f t="shared" si="28"/>
         <v>275</v>
@@ -20920,7 +20929,7 @@
       <c r="P636" s="24"/>
       <c r="Q636" s="7"/>
     </row>
-    <row r="637" spans="1:17">
+    <row r="637" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A637" s="5" t="str">
         <f t="shared" si="28"/>
         <v>276</v>
@@ -20944,7 +20953,7 @@
       <c r="P637" s="24"/>
       <c r="Q637" s="7"/>
     </row>
-    <row r="638" spans="1:17">
+    <row r="638" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A638" s="5" t="str">
         <f t="shared" si="28"/>
         <v>277</v>
@@ -20968,7 +20977,7 @@
       <c r="P638" s="24"/>
       <c r="Q638" s="7"/>
     </row>
-    <row r="639" spans="1:17">
+    <row r="639" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A639" s="5" t="str">
         <f t="shared" si="28"/>
         <v>278</v>
@@ -20992,7 +21001,7 @@
       <c r="P639" s="24"/>
       <c r="Q639" s="7"/>
     </row>
-    <row r="640" spans="1:17">
+    <row r="640" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A640" s="5" t="str">
         <f t="shared" si="28"/>
         <v>279</v>
@@ -21016,7 +21025,7 @@
       <c r="P640" s="24"/>
       <c r="Q640" s="7"/>
     </row>
-    <row r="641" spans="1:17">
+    <row r="641" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A641" s="5" t="str">
         <f t="shared" si="28"/>
         <v>27A</v>
@@ -21040,7 +21049,7 @@
       <c r="P641" s="24"/>
       <c r="Q641" s="7"/>
     </row>
-    <row r="642" spans="1:17">
+    <row r="642" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A642" s="5" t="str">
         <f t="shared" si="28"/>
         <v>27B</v>
@@ -21064,7 +21073,7 @@
       <c r="P642" s="24"/>
       <c r="Q642" s="7"/>
     </row>
-    <row r="643" spans="1:17">
+    <row r="643" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A643" s="5" t="str">
         <f t="shared" si="28"/>
         <v>27C</v>
@@ -21088,7 +21097,7 @@
       <c r="P643" s="24"/>
       <c r="Q643" s="7"/>
     </row>
-    <row r="644" spans="1:17">
+    <row r="644" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A644" s="5" t="str">
         <f t="shared" si="28"/>
         <v>27D</v>
@@ -21112,7 +21121,7 @@
       <c r="P644" s="24"/>
       <c r="Q644" s="7"/>
     </row>
-    <row r="645" spans="1:17">
+    <row r="645" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A645" s="5" t="str">
         <f t="shared" si="28"/>
         <v>27E</v>
@@ -21136,7 +21145,7 @@
       <c r="P645" s="24"/>
       <c r="Q645" s="7"/>
     </row>
-    <row r="646" spans="1:17">
+    <row r="646" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A646" s="5" t="str">
         <f t="shared" si="28"/>
         <v>27F</v>
@@ -21160,7 +21169,7 @@
       <c r="P646" s="24"/>
       <c r="Q646" s="7"/>
     </row>
-    <row r="647" spans="1:17">
+    <row r="647" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A647" s="5" t="str">
         <f t="shared" si="28"/>
         <v>280</v>
@@ -21184,7 +21193,7 @@
       <c r="P647" s="24"/>
       <c r="Q647" s="7"/>
     </row>
-    <row r="648" spans="1:17">
+    <row r="648" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A648" s="5" t="str">
         <f t="shared" ref="A648:A711" si="29">DEC2HEX(B648, 3)</f>
         <v>281</v>
@@ -21208,7 +21217,7 @@
       <c r="P648" s="24"/>
       <c r="Q648" s="7"/>
     </row>
-    <row r="649" spans="1:17">
+    <row r="649" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A649" s="5" t="str">
         <f t="shared" si="29"/>
         <v>282</v>
@@ -21232,7 +21241,7 @@
       <c r="P649" s="24"/>
       <c r="Q649" s="7"/>
     </row>
-    <row r="650" spans="1:17">
+    <row r="650" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A650" s="5" t="str">
         <f t="shared" si="29"/>
         <v>283</v>
@@ -21256,7 +21265,7 @@
       <c r="P650" s="24"/>
       <c r="Q650" s="7"/>
     </row>
-    <row r="651" spans="1:17">
+    <row r="651" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A651" s="5" t="str">
         <f t="shared" si="29"/>
         <v>284</v>
@@ -21280,7 +21289,7 @@
       <c r="P651" s="24"/>
       <c r="Q651" s="7"/>
     </row>
-    <row r="652" spans="1:17">
+    <row r="652" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A652" s="5" t="str">
         <f t="shared" si="29"/>
         <v>285</v>
@@ -21304,7 +21313,7 @@
       <c r="P652" s="24"/>
       <c r="Q652" s="7"/>
     </row>
-    <row r="653" spans="1:17">
+    <row r="653" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A653" s="5" t="str">
         <f t="shared" si="29"/>
         <v>286</v>
@@ -21328,7 +21337,7 @@
       <c r="P653" s="24"/>
       <c r="Q653" s="7"/>
     </row>
-    <row r="654" spans="1:17">
+    <row r="654" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A654" s="5" t="str">
         <f t="shared" si="29"/>
         <v>287</v>
@@ -21352,7 +21361,7 @@
       <c r="P654" s="24"/>
       <c r="Q654" s="7"/>
     </row>
-    <row r="655" spans="1:17">
+    <row r="655" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A655" s="5" t="str">
         <f t="shared" si="29"/>
         <v>288</v>
@@ -21376,7 +21385,7 @@
       <c r="P655" s="24"/>
       <c r="Q655" s="7"/>
     </row>
-    <row r="656" spans="1:17">
+    <row r="656" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A656" s="5" t="str">
         <f t="shared" si="29"/>
         <v>289</v>
@@ -21400,7 +21409,7 @@
       <c r="P656" s="24"/>
       <c r="Q656" s="7"/>
     </row>
-    <row r="657" spans="1:17">
+    <row r="657" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A657" s="5" t="str">
         <f t="shared" si="29"/>
         <v>28A</v>
@@ -21424,7 +21433,7 @@
       <c r="P657" s="24"/>
       <c r="Q657" s="7"/>
     </row>
-    <row r="658" spans="1:17">
+    <row r="658" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A658" s="5" t="str">
         <f t="shared" si="29"/>
         <v>28B</v>
@@ -21448,7 +21457,7 @@
       <c r="P658" s="24"/>
       <c r="Q658" s="7"/>
     </row>
-    <row r="659" spans="1:17">
+    <row r="659" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A659" s="5" t="str">
         <f t="shared" si="29"/>
         <v>28C</v>
@@ -21472,7 +21481,7 @@
       <c r="P659" s="24"/>
       <c r="Q659" s="7"/>
     </row>
-    <row r="660" spans="1:17">
+    <row r="660" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A660" s="5" t="str">
         <f t="shared" si="29"/>
         <v>28D</v>
@@ -21496,7 +21505,7 @@
       <c r="P660" s="24"/>
       <c r="Q660" s="7"/>
     </row>
-    <row r="661" spans="1:17">
+    <row r="661" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A661" s="5" t="str">
         <f t="shared" si="29"/>
         <v>28E</v>
@@ -21520,7 +21529,7 @@
       <c r="P661" s="24"/>
       <c r="Q661" s="7"/>
     </row>
-    <row r="662" spans="1:17">
+    <row r="662" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A662" s="5" t="str">
         <f t="shared" si="29"/>
         <v>28F</v>
@@ -21544,7 +21553,7 @@
       <c r="P662" s="24"/>
       <c r="Q662" s="7"/>
     </row>
-    <row r="663" spans="1:17">
+    <row r="663" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A663" s="5" t="str">
         <f t="shared" si="29"/>
         <v>290</v>
@@ -21568,7 +21577,7 @@
       <c r="P663" s="24"/>
       <c r="Q663" s="7"/>
     </row>
-    <row r="664" spans="1:17">
+    <row r="664" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A664" s="5" t="str">
         <f t="shared" si="29"/>
         <v>291</v>
@@ -21592,7 +21601,7 @@
       <c r="P664" s="24"/>
       <c r="Q664" s="7"/>
     </row>
-    <row r="665" spans="1:17">
+    <row r="665" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A665" s="5" t="str">
         <f t="shared" si="29"/>
         <v>292</v>
@@ -21616,7 +21625,7 @@
       <c r="P665" s="24"/>
       <c r="Q665" s="7"/>
     </row>
-    <row r="666" spans="1:17">
+    <row r="666" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A666" s="5" t="str">
         <f t="shared" si="29"/>
         <v>293</v>
@@ -21640,7 +21649,7 @@
       <c r="P666" s="24"/>
       <c r="Q666" s="7"/>
     </row>
-    <row r="667" spans="1:17">
+    <row r="667" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A667" s="5" t="str">
         <f t="shared" si="29"/>
         <v>294</v>
@@ -21664,7 +21673,7 @@
       <c r="P667" s="24"/>
       <c r="Q667" s="7"/>
     </row>
-    <row r="668" spans="1:17">
+    <row r="668" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A668" s="5" t="str">
         <f t="shared" si="29"/>
         <v>295</v>
@@ -21688,7 +21697,7 @@
       <c r="P668" s="24"/>
       <c r="Q668" s="7"/>
     </row>
-    <row r="669" spans="1:17">
+    <row r="669" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A669" s="5" t="str">
         <f t="shared" si="29"/>
         <v>296</v>
@@ -21712,7 +21721,7 @@
       <c r="P669" s="24"/>
       <c r="Q669" s="7"/>
     </row>
-    <row r="670" spans="1:17">
+    <row r="670" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A670" s="5" t="str">
         <f t="shared" si="29"/>
         <v>297</v>
@@ -21736,7 +21745,7 @@
       <c r="P670" s="24"/>
       <c r="Q670" s="7"/>
     </row>
-    <row r="671" spans="1:17">
+    <row r="671" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A671" s="5" t="str">
         <f t="shared" si="29"/>
         <v>298</v>
@@ -21760,7 +21769,7 @@
       <c r="P671" s="24"/>
       <c r="Q671" s="7"/>
     </row>
-    <row r="672" spans="1:17">
+    <row r="672" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A672" s="5" t="str">
         <f t="shared" si="29"/>
         <v>299</v>
@@ -21784,7 +21793,7 @@
       <c r="P672" s="24"/>
       <c r="Q672" s="7"/>
     </row>
-    <row r="673" spans="1:17">
+    <row r="673" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A673" s="5" t="str">
         <f t="shared" si="29"/>
         <v>29A</v>
@@ -21808,7 +21817,7 @@
       <c r="P673" s="24"/>
       <c r="Q673" s="7"/>
     </row>
-    <row r="674" spans="1:17">
+    <row r="674" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A674" s="5" t="str">
         <f t="shared" si="29"/>
         <v>29B</v>
@@ -21832,7 +21841,7 @@
       <c r="P674" s="24"/>
       <c r="Q674" s="7"/>
     </row>
-    <row r="675" spans="1:17">
+    <row r="675" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A675" s="5" t="str">
         <f t="shared" si="29"/>
         <v>29C</v>
@@ -21856,7 +21865,7 @@
       <c r="P675" s="24"/>
       <c r="Q675" s="7"/>
     </row>
-    <row r="676" spans="1:17">
+    <row r="676" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A676" s="5" t="str">
         <f t="shared" si="29"/>
         <v>29D</v>
@@ -21880,7 +21889,7 @@
       <c r="P676" s="24"/>
       <c r="Q676" s="7"/>
     </row>
-    <row r="677" spans="1:17">
+    <row r="677" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A677" s="5" t="str">
         <f t="shared" si="29"/>
         <v>29E</v>
@@ -21904,7 +21913,7 @@
       <c r="P677" s="24"/>
       <c r="Q677" s="7"/>
     </row>
-    <row r="678" spans="1:17">
+    <row r="678" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A678" s="5" t="str">
         <f t="shared" si="29"/>
         <v>29F</v>
@@ -21928,7 +21937,7 @@
       <c r="P678" s="24"/>
       <c r="Q678" s="7"/>
     </row>
-    <row r="679" spans="1:17">
+    <row r="679" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A679" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A0</v>
@@ -21952,7 +21961,7 @@
       <c r="P679" s="24"/>
       <c r="Q679" s="7"/>
     </row>
-    <row r="680" spans="1:17">
+    <row r="680" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A680" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A1</v>
@@ -21976,7 +21985,7 @@
       <c r="P680" s="24"/>
       <c r="Q680" s="7"/>
     </row>
-    <row r="681" spans="1:17">
+    <row r="681" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A681" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A2</v>
@@ -22000,7 +22009,7 @@
       <c r="P681" s="24"/>
       <c r="Q681" s="7"/>
     </row>
-    <row r="682" spans="1:17">
+    <row r="682" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A682" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A3</v>
@@ -22024,7 +22033,7 @@
       <c r="P682" s="24"/>
       <c r="Q682" s="7"/>
     </row>
-    <row r="683" spans="1:17">
+    <row r="683" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A683" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A4</v>
@@ -22048,7 +22057,7 @@
       <c r="P683" s="24"/>
       <c r="Q683" s="7"/>
     </row>
-    <row r="684" spans="1:17">
+    <row r="684" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A684" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A5</v>
@@ -22072,7 +22081,7 @@
       <c r="P684" s="24"/>
       <c r="Q684" s="7"/>
     </row>
-    <row r="685" spans="1:17">
+    <row r="685" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A685" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A6</v>
@@ -22096,7 +22105,7 @@
       <c r="P685" s="24"/>
       <c r="Q685" s="7"/>
     </row>
-    <row r="686" spans="1:17">
+    <row r="686" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A686" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A7</v>
@@ -22120,7 +22129,7 @@
       <c r="P686" s="24"/>
       <c r="Q686" s="7"/>
     </row>
-    <row r="687" spans="1:17">
+    <row r="687" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A687" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A8</v>
@@ -22144,7 +22153,7 @@
       <c r="P687" s="24"/>
       <c r="Q687" s="7"/>
     </row>
-    <row r="688" spans="1:17">
+    <row r="688" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A688" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2A9</v>
@@ -22168,7 +22177,7 @@
       <c r="P688" s="24"/>
       <c r="Q688" s="7"/>
     </row>
-    <row r="689" spans="1:17">
+    <row r="689" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A689" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2AA</v>
@@ -22192,7 +22201,7 @@
       <c r="P689" s="24"/>
       <c r="Q689" s="7"/>
     </row>
-    <row r="690" spans="1:17">
+    <row r="690" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A690" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2AB</v>
@@ -22216,7 +22225,7 @@
       <c r="P690" s="24"/>
       <c r="Q690" s="7"/>
     </row>
-    <row r="691" spans="1:17">
+    <row r="691" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A691" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2AC</v>
@@ -22240,7 +22249,7 @@
       <c r="P691" s="24"/>
       <c r="Q691" s="7"/>
     </row>
-    <row r="692" spans="1:17">
+    <row r="692" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A692" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2AD</v>
@@ -22264,7 +22273,7 @@
       <c r="P692" s="24"/>
       <c r="Q692" s="7"/>
     </row>
-    <row r="693" spans="1:17">
+    <row r="693" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A693" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2AE</v>
@@ -22288,7 +22297,7 @@
       <c r="P693" s="24"/>
       <c r="Q693" s="7"/>
     </row>
-    <row r="694" spans="1:17">
+    <row r="694" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A694" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2AF</v>
@@ -22312,7 +22321,7 @@
       <c r="P694" s="24"/>
       <c r="Q694" s="7"/>
     </row>
-    <row r="695" spans="1:17">
+    <row r="695" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A695" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B0</v>
@@ -22336,7 +22345,7 @@
       <c r="P695" s="24"/>
       <c r="Q695" s="7"/>
     </row>
-    <row r="696" spans="1:17">
+    <row r="696" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A696" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B1</v>
@@ -22360,7 +22369,7 @@
       <c r="P696" s="24"/>
       <c r="Q696" s="7"/>
     </row>
-    <row r="697" spans="1:17">
+    <row r="697" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A697" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B2</v>
@@ -22384,7 +22393,7 @@
       <c r="P697" s="24"/>
       <c r="Q697" s="7"/>
     </row>
-    <row r="698" spans="1:17">
+    <row r="698" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A698" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B3</v>
@@ -22408,7 +22417,7 @@
       <c r="P698" s="24"/>
       <c r="Q698" s="7"/>
     </row>
-    <row r="699" spans="1:17">
+    <row r="699" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A699" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B4</v>
@@ -22432,7 +22441,7 @@
       <c r="P699" s="24"/>
       <c r="Q699" s="7"/>
     </row>
-    <row r="700" spans="1:17">
+    <row r="700" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A700" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B5</v>
@@ -22456,7 +22465,7 @@
       <c r="P700" s="24"/>
       <c r="Q700" s="7"/>
     </row>
-    <row r="701" spans="1:17">
+    <row r="701" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A701" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B6</v>
@@ -22480,7 +22489,7 @@
       <c r="P701" s="24"/>
       <c r="Q701" s="7"/>
     </row>
-    <row r="702" spans="1:17">
+    <row r="702" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A702" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B7</v>
@@ -22504,7 +22513,7 @@
       <c r="P702" s="24"/>
       <c r="Q702" s="7"/>
     </row>
-    <row r="703" spans="1:17">
+    <row r="703" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A703" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B8</v>
@@ -22528,7 +22537,7 @@
       <c r="P703" s="24"/>
       <c r="Q703" s="7"/>
     </row>
-    <row r="704" spans="1:17">
+    <row r="704" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A704" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2B9</v>
@@ -22552,7 +22561,7 @@
       <c r="P704" s="24"/>
       <c r="Q704" s="7"/>
     </row>
-    <row r="705" spans="1:17">
+    <row r="705" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A705" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2BA</v>
@@ -22576,7 +22585,7 @@
       <c r="P705" s="24"/>
       <c r="Q705" s="7"/>
     </row>
-    <row r="706" spans="1:17">
+    <row r="706" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A706" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2BB</v>
@@ -22600,7 +22609,7 @@
       <c r="P706" s="24"/>
       <c r="Q706" s="7"/>
     </row>
-    <row r="707" spans="1:17">
+    <row r="707" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A707" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2BC</v>
@@ -22624,7 +22633,7 @@
       <c r="P707" s="24"/>
       <c r="Q707" s="7"/>
     </row>
-    <row r="708" spans="1:17">
+    <row r="708" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A708" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2BD</v>
@@ -22648,7 +22657,7 @@
       <c r="P708" s="24"/>
       <c r="Q708" s="7"/>
     </row>
-    <row r="709" spans="1:17">
+    <row r="709" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A709" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2BE</v>
@@ -22672,7 +22681,7 @@
       <c r="P709" s="24"/>
       <c r="Q709" s="7"/>
     </row>
-    <row r="710" spans="1:17">
+    <row r="710" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A710" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2BF</v>
@@ -22696,7 +22705,7 @@
       <c r="P710" s="24"/>
       <c r="Q710" s="7"/>
     </row>
-    <row r="711" spans="1:17">
+    <row r="711" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A711" s="5" t="str">
         <f t="shared" si="29"/>
         <v>2C0</v>
@@ -22720,7 +22729,7 @@
       <c r="P711" s="24"/>
       <c r="Q711" s="7"/>
     </row>
-    <row r="712" spans="1:17">
+    <row r="712" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A712" s="5" t="str">
         <f t="shared" ref="A712:A775" si="30">DEC2HEX(B712, 3)</f>
         <v>2C1</v>
@@ -22744,7 +22753,7 @@
       <c r="P712" s="24"/>
       <c r="Q712" s="7"/>
     </row>
-    <row r="713" spans="1:17">
+    <row r="713" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A713" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2C2</v>
@@ -22768,7 +22777,7 @@
       <c r="P713" s="24"/>
       <c r="Q713" s="7"/>
     </row>
-    <row r="714" spans="1:17">
+    <row r="714" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A714" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2C3</v>
@@ -22792,7 +22801,7 @@
       <c r="P714" s="24"/>
       <c r="Q714" s="7"/>
     </row>
-    <row r="715" spans="1:17">
+    <row r="715" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A715" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2C4</v>
@@ -22816,7 +22825,7 @@
       <c r="P715" s="24"/>
       <c r="Q715" s="7"/>
     </row>
-    <row r="716" spans="1:17">
+    <row r="716" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A716" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2C5</v>
@@ -22840,7 +22849,7 @@
       <c r="P716" s="24"/>
       <c r="Q716" s="7"/>
     </row>
-    <row r="717" spans="1:17">
+    <row r="717" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A717" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2C6</v>
@@ -22864,7 +22873,7 @@
       <c r="P717" s="24"/>
       <c r="Q717" s="7"/>
     </row>
-    <row r="718" spans="1:17">
+    <row r="718" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A718" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2C7</v>
@@ -22888,7 +22897,7 @@
       <c r="P718" s="24"/>
       <c r="Q718" s="7"/>
     </row>
-    <row r="719" spans="1:17">
+    <row r="719" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A719" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2C8</v>
@@ -22912,7 +22921,7 @@
       <c r="P719" s="24"/>
       <c r="Q719" s="7"/>
     </row>
-    <row r="720" spans="1:17">
+    <row r="720" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A720" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2C9</v>
@@ -22936,7 +22945,7 @@
       <c r="P720" s="24"/>
       <c r="Q720" s="7"/>
     </row>
-    <row r="721" spans="1:17">
+    <row r="721" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A721" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2CA</v>
@@ -22960,7 +22969,7 @@
       <c r="P721" s="24"/>
       <c r="Q721" s="7"/>
     </row>
-    <row r="722" spans="1:17">
+    <row r="722" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A722" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2CB</v>
@@ -22984,7 +22993,7 @@
       <c r="P722" s="24"/>
       <c r="Q722" s="7"/>
     </row>
-    <row r="723" spans="1:17">
+    <row r="723" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A723" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2CC</v>
@@ -23008,7 +23017,7 @@
       <c r="P723" s="24"/>
       <c r="Q723" s="7"/>
     </row>
-    <row r="724" spans="1:17">
+    <row r="724" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A724" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2CD</v>
@@ -23032,7 +23041,7 @@
       <c r="P724" s="24"/>
       <c r="Q724" s="7"/>
     </row>
-    <row r="725" spans="1:17">
+    <row r="725" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A725" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2CE</v>
@@ -23056,7 +23065,7 @@
       <c r="P725" s="24"/>
       <c r="Q725" s="7"/>
     </row>
-    <row r="726" spans="1:17">
+    <row r="726" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A726" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2CF</v>
@@ -23080,7 +23089,7 @@
       <c r="P726" s="24"/>
       <c r="Q726" s="7"/>
     </row>
-    <row r="727" spans="1:17">
+    <row r="727" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A727" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D0</v>
@@ -23104,7 +23113,7 @@
       <c r="P727" s="24"/>
       <c r="Q727" s="7"/>
     </row>
-    <row r="728" spans="1:17">
+    <row r="728" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A728" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D1</v>
@@ -23128,7 +23137,7 @@
       <c r="P728" s="24"/>
       <c r="Q728" s="7"/>
     </row>
-    <row r="729" spans="1:17">
+    <row r="729" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A729" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D2</v>
@@ -23152,7 +23161,7 @@
       <c r="P729" s="24"/>
       <c r="Q729" s="7"/>
     </row>
-    <row r="730" spans="1:17">
+    <row r="730" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A730" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D3</v>
@@ -23176,7 +23185,7 @@
       <c r="P730" s="24"/>
       <c r="Q730" s="7"/>
     </row>
-    <row r="731" spans="1:17">
+    <row r="731" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A731" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D4</v>
@@ -23200,7 +23209,7 @@
       <c r="P731" s="24"/>
       <c r="Q731" s="7"/>
     </row>
-    <row r="732" spans="1:17">
+    <row r="732" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A732" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D5</v>
@@ -23224,7 +23233,7 @@
       <c r="P732" s="24"/>
       <c r="Q732" s="7"/>
     </row>
-    <row r="733" spans="1:17">
+    <row r="733" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A733" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D6</v>
@@ -23248,7 +23257,7 @@
       <c r="P733" s="24"/>
       <c r="Q733" s="7"/>
     </row>
-    <row r="734" spans="1:17">
+    <row r="734" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A734" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D7</v>
@@ -23272,7 +23281,7 @@
       <c r="P734" s="24"/>
       <c r="Q734" s="7"/>
     </row>
-    <row r="735" spans="1:17">
+    <row r="735" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A735" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D8</v>
@@ -23296,7 +23305,7 @@
       <c r="P735" s="24"/>
       <c r="Q735" s="7"/>
     </row>
-    <row r="736" spans="1:17">
+    <row r="736" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A736" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2D9</v>
@@ -23320,7 +23329,7 @@
       <c r="P736" s="24"/>
       <c r="Q736" s="7"/>
     </row>
-    <row r="737" spans="1:17">
+    <row r="737" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A737" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2DA</v>
@@ -23344,7 +23353,7 @@
       <c r="P737" s="24"/>
       <c r="Q737" s="7"/>
     </row>
-    <row r="738" spans="1:17">
+    <row r="738" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A738" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2DB</v>
@@ -23368,7 +23377,7 @@
       <c r="P738" s="24"/>
       <c r="Q738" s="7"/>
     </row>
-    <row r="739" spans="1:17">
+    <row r="739" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A739" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2DC</v>
@@ -23392,7 +23401,7 @@
       <c r="P739" s="24"/>
       <c r="Q739" s="7"/>
     </row>
-    <row r="740" spans="1:17">
+    <row r="740" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A740" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2DD</v>
@@ -23416,7 +23425,7 @@
       <c r="P740" s="24"/>
       <c r="Q740" s="7"/>
     </row>
-    <row r="741" spans="1:17">
+    <row r="741" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A741" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2DE</v>
@@ -23440,7 +23449,7 @@
       <c r="P741" s="24"/>
       <c r="Q741" s="7"/>
     </row>
-    <row r="742" spans="1:17">
+    <row r="742" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A742" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2DF</v>
@@ -23464,7 +23473,7 @@
       <c r="P742" s="24"/>
       <c r="Q742" s="7"/>
     </row>
-    <row r="743" spans="1:17">
+    <row r="743" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A743" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E0</v>
@@ -23488,7 +23497,7 @@
       <c r="P743" s="24"/>
       <c r="Q743" s="7"/>
     </row>
-    <row r="744" spans="1:17">
+    <row r="744" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A744" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E1</v>
@@ -23512,7 +23521,7 @@
       <c r="P744" s="24"/>
       <c r="Q744" s="7"/>
     </row>
-    <row r="745" spans="1:17">
+    <row r="745" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A745" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E2</v>
@@ -23536,7 +23545,7 @@
       <c r="P745" s="24"/>
       <c r="Q745" s="7"/>
     </row>
-    <row r="746" spans="1:17">
+    <row r="746" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A746" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E3</v>
@@ -23560,7 +23569,7 @@
       <c r="P746" s="24"/>
       <c r="Q746" s="7"/>
     </row>
-    <row r="747" spans="1:17">
+    <row r="747" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A747" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E4</v>
@@ -23584,7 +23593,7 @@
       <c r="P747" s="24"/>
       <c r="Q747" s="7"/>
     </row>
-    <row r="748" spans="1:17">
+    <row r="748" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A748" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E5</v>
@@ -23608,7 +23617,7 @@
       <c r="P748" s="24"/>
       <c r="Q748" s="7"/>
     </row>
-    <row r="749" spans="1:17">
+    <row r="749" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A749" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E6</v>
@@ -23632,7 +23641,7 @@
       <c r="P749" s="24"/>
       <c r="Q749" s="7"/>
     </row>
-    <row r="750" spans="1:17">
+    <row r="750" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A750" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E7</v>
@@ -23656,7 +23665,7 @@
       <c r="P750" s="24"/>
       <c r="Q750" s="7"/>
     </row>
-    <row r="751" spans="1:17">
+    <row r="751" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A751" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E8</v>
@@ -23680,7 +23689,7 @@
       <c r="P751" s="24"/>
       <c r="Q751" s="7"/>
     </row>
-    <row r="752" spans="1:17">
+    <row r="752" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A752" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2E9</v>
@@ -23704,7 +23713,7 @@
       <c r="P752" s="24"/>
       <c r="Q752" s="7"/>
     </row>
-    <row r="753" spans="1:17">
+    <row r="753" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A753" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2EA</v>
@@ -23728,7 +23737,7 @@
       <c r="P753" s="24"/>
       <c r="Q753" s="7"/>
     </row>
-    <row r="754" spans="1:17">
+    <row r="754" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A754" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2EB</v>
@@ -23752,7 +23761,7 @@
       <c r="P754" s="24"/>
       <c r="Q754" s="7"/>
     </row>
-    <row r="755" spans="1:17">
+    <row r="755" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A755" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2EC</v>
@@ -23776,7 +23785,7 @@
       <c r="P755" s="24"/>
       <c r="Q755" s="7"/>
     </row>
-    <row r="756" spans="1:17">
+    <row r="756" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A756" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2ED</v>
@@ -23800,7 +23809,7 @@
       <c r="P756" s="24"/>
       <c r="Q756" s="7"/>
     </row>
-    <row r="757" spans="1:17">
+    <row r="757" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A757" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2EE</v>
@@ -23824,7 +23833,7 @@
       <c r="P757" s="24"/>
       <c r="Q757" s="7"/>
     </row>
-    <row r="758" spans="1:17">
+    <row r="758" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A758" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2EF</v>
@@ -23848,7 +23857,7 @@
       <c r="P758" s="24"/>
       <c r="Q758" s="7"/>
     </row>
-    <row r="759" spans="1:17">
+    <row r="759" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A759" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F0</v>
@@ -23872,7 +23881,7 @@
       <c r="P759" s="24"/>
       <c r="Q759" s="7"/>
     </row>
-    <row r="760" spans="1:17">
+    <row r="760" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A760" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F1</v>
@@ -23896,7 +23905,7 @@
       <c r="P760" s="24"/>
       <c r="Q760" s="7"/>
     </row>
-    <row r="761" spans="1:17">
+    <row r="761" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A761" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F2</v>
@@ -23920,7 +23929,7 @@
       <c r="P761" s="24"/>
       <c r="Q761" s="7"/>
     </row>
-    <row r="762" spans="1:17">
+    <row r="762" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A762" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F3</v>
@@ -23944,7 +23953,7 @@
       <c r="P762" s="24"/>
       <c r="Q762" s="7"/>
     </row>
-    <row r="763" spans="1:17">
+    <row r="763" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A763" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F4</v>
@@ -23968,7 +23977,7 @@
       <c r="P763" s="24"/>
       <c r="Q763" s="7"/>
     </row>
-    <row r="764" spans="1:17">
+    <row r="764" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A764" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F5</v>
@@ -23992,7 +24001,7 @@
       <c r="P764" s="24"/>
       <c r="Q764" s="7"/>
     </row>
-    <row r="765" spans="1:17">
+    <row r="765" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A765" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F6</v>
@@ -24016,7 +24025,7 @@
       <c r="P765" s="24"/>
       <c r="Q765" s="7"/>
     </row>
-    <row r="766" spans="1:17">
+    <row r="766" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A766" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F7</v>
@@ -24040,7 +24049,7 @@
       <c r="P766" s="24"/>
       <c r="Q766" s="7"/>
     </row>
-    <row r="767" spans="1:17">
+    <row r="767" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A767" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F8</v>
@@ -24064,7 +24073,7 @@
       <c r="P767" s="24"/>
       <c r="Q767" s="7"/>
     </row>
-    <row r="768" spans="1:17">
+    <row r="768" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A768" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2F9</v>
@@ -24088,7 +24097,7 @@
       <c r="P768" s="24"/>
       <c r="Q768" s="7"/>
     </row>
-    <row r="769" spans="1:17">
+    <row r="769" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A769" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2FA</v>
@@ -24112,7 +24121,7 @@
       <c r="P769" s="24"/>
       <c r="Q769" s="7"/>
     </row>
-    <row r="770" spans="1:17">
+    <row r="770" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A770" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2FB</v>
@@ -24136,7 +24145,7 @@
       <c r="P770" s="24"/>
       <c r="Q770" s="7"/>
     </row>
-    <row r="771" spans="1:17">
+    <row r="771" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A771" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2FC</v>
@@ -24160,7 +24169,7 @@
       <c r="P771" s="24"/>
       <c r="Q771" s="7"/>
     </row>
-    <row r="772" spans="1:17">
+    <row r="772" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A772" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2FD</v>
@@ -24184,7 +24193,7 @@
       <c r="P772" s="24"/>
       <c r="Q772" s="7"/>
     </row>
-    <row r="773" spans="1:17">
+    <row r="773" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A773" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2FE</v>
@@ -24208,7 +24217,7 @@
       <c r="P773" s="24"/>
       <c r="Q773" s="7"/>
     </row>
-    <row r="774" spans="1:17">
+    <row r="774" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A774" s="5" t="str">
         <f t="shared" si="30"/>
         <v>2FF</v>
@@ -24232,7 +24241,7 @@
       <c r="P774" s="24"/>
       <c r="Q774" s="7"/>
     </row>
-    <row r="775" spans="1:17">
+    <row r="775" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A775" s="5" t="str">
         <f t="shared" si="30"/>
         <v>300</v>
@@ -24256,7 +24265,7 @@
       <c r="P775" s="24"/>
       <c r="Q775" s="7"/>
     </row>
-    <row r="776" spans="1:17">
+    <row r="776" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A776" s="5" t="str">
         <f t="shared" ref="A776:A839" si="31">DEC2HEX(B776, 3)</f>
         <v>301</v>
@@ -24280,7 +24289,7 @@
       <c r="P776" s="24"/>
       <c r="Q776" s="7"/>
     </row>
-    <row r="777" spans="1:17">
+    <row r="777" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A777" s="5" t="str">
         <f t="shared" si="31"/>
         <v>302</v>
@@ -24304,7 +24313,7 @@
       <c r="P777" s="24"/>
       <c r="Q777" s="7"/>
     </row>
-    <row r="778" spans="1:17">
+    <row r="778" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A778" s="5" t="str">
         <f t="shared" si="31"/>
         <v>303</v>
@@ -24328,7 +24337,7 @@
       <c r="P778" s="24"/>
       <c r="Q778" s="7"/>
     </row>
-    <row r="779" spans="1:17">
+    <row r="779" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A779" s="5" t="str">
         <f t="shared" si="31"/>
         <v>304</v>
@@ -24352,7 +24361,7 @@
       <c r="P779" s="24"/>
       <c r="Q779" s="7"/>
     </row>
-    <row r="780" spans="1:17">
+    <row r="780" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A780" s="5" t="str">
         <f t="shared" si="31"/>
         <v>305</v>
@@ -24376,7 +24385,7 @@
       <c r="P780" s="24"/>
       <c r="Q780" s="7"/>
     </row>
-    <row r="781" spans="1:17">
+    <row r="781" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A781" s="5" t="str">
         <f t="shared" si="31"/>
         <v>306</v>
@@ -24400,7 +24409,7 @@
       <c r="P781" s="24"/>
       <c r="Q781" s="7"/>
     </row>
-    <row r="782" spans="1:17">
+    <row r="782" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A782" s="5" t="str">
         <f t="shared" si="31"/>
         <v>307</v>
@@ -24424,7 +24433,7 @@
       <c r="P782" s="24"/>
       <c r="Q782" s="7"/>
     </row>
-    <row r="783" spans="1:17">
+    <row r="783" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A783" s="5" t="str">
         <f t="shared" si="31"/>
         <v>308</v>
@@ -24448,7 +24457,7 @@
       <c r="P783" s="24"/>
       <c r="Q783" s="7"/>
     </row>
-    <row r="784" spans="1:17">
+    <row r="784" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A784" s="5" t="str">
         <f t="shared" si="31"/>
         <v>309</v>
@@ -24472,7 +24481,7 @@
       <c r="P784" s="24"/>
       <c r="Q784" s="7"/>
     </row>
-    <row r="785" spans="1:17">
+    <row r="785" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A785" s="5" t="str">
         <f t="shared" si="31"/>
         <v>30A</v>
@@ -24496,7 +24505,7 @@
       <c r="P785" s="24"/>
       <c r="Q785" s="7"/>
     </row>
-    <row r="786" spans="1:17">
+    <row r="786" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A786" s="5" t="str">
         <f t="shared" si="31"/>
         <v>30B</v>
@@ -24520,7 +24529,7 @@
       <c r="P786" s="24"/>
       <c r="Q786" s="7"/>
     </row>
-    <row r="787" spans="1:17">
+    <row r="787" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A787" s="5" t="str">
         <f t="shared" si="31"/>
         <v>30C</v>
@@ -24544,7 +24553,7 @@
       <c r="P787" s="24"/>
       <c r="Q787" s="7"/>
     </row>
-    <row r="788" spans="1:17">
+    <row r="788" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A788" s="5" t="str">
         <f t="shared" si="31"/>
         <v>30D</v>
@@ -24568,7 +24577,7 @@
       <c r="P788" s="24"/>
       <c r="Q788" s="7"/>
     </row>
-    <row r="789" spans="1:17">
+    <row r="789" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A789" s="5" t="str">
         <f t="shared" si="31"/>
         <v>30E</v>
@@ -24592,7 +24601,7 @@
       <c r="P789" s="24"/>
       <c r="Q789" s="7"/>
     </row>
-    <row r="790" spans="1:17">
+    <row r="790" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A790" s="5" t="str">
         <f t="shared" si="31"/>
         <v>30F</v>
@@ -24616,7 +24625,7 @@
       <c r="P790" s="24"/>
       <c r="Q790" s="7"/>
     </row>
-    <row r="791" spans="1:17">
+    <row r="791" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A791" s="5" t="str">
         <f t="shared" si="31"/>
         <v>310</v>
@@ -24640,7 +24649,7 @@
       <c r="P791" s="24"/>
       <c r="Q791" s="7"/>
     </row>
-    <row r="792" spans="1:17">
+    <row r="792" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A792" s="5" t="str">
         <f t="shared" si="31"/>
         <v>311</v>
@@ -24664,7 +24673,7 @@
       <c r="P792" s="24"/>
       <c r="Q792" s="7"/>
     </row>
-    <row r="793" spans="1:17">
+    <row r="793" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A793" s="5" t="str">
         <f t="shared" si="31"/>
         <v>312</v>
@@ -24688,7 +24697,7 @@
       <c r="P793" s="24"/>
       <c r="Q793" s="7"/>
     </row>
-    <row r="794" spans="1:17">
+    <row r="794" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A794" s="5" t="str">
         <f t="shared" si="31"/>
         <v>313</v>
@@ -24712,7 +24721,7 @@
       <c r="P794" s="24"/>
       <c r="Q794" s="7"/>
     </row>
-    <row r="795" spans="1:17">
+    <row r="795" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A795" s="5" t="str">
         <f t="shared" si="31"/>
         <v>314</v>
@@ -24736,7 +24745,7 @@
       <c r="P795" s="24"/>
       <c r="Q795" s="7"/>
     </row>
-    <row r="796" spans="1:17">
+    <row r="796" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A796" s="5" t="str">
         <f t="shared" si="31"/>
         <v>315</v>
@@ -24760,7 +24769,7 @@
       <c r="P796" s="24"/>
       <c r="Q796" s="7"/>
     </row>
-    <row r="797" spans="1:17">
+    <row r="797" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A797" s="5" t="str">
         <f t="shared" si="31"/>
         <v>316</v>
@@ -24784,7 +24793,7 @@
       <c r="P797" s="24"/>
       <c r="Q797" s="7"/>
     </row>
-    <row r="798" spans="1:17">
+    <row r="798" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A798" s="5" t="str">
         <f t="shared" si="31"/>
         <v>317</v>
@@ -24808,7 +24817,7 @@
       <c r="P798" s="24"/>
       <c r="Q798" s="7"/>
     </row>
-    <row r="799" spans="1:17">
+    <row r="799" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A799" s="5" t="str">
         <f t="shared" si="31"/>
         <v>318</v>
@@ -24832,7 +24841,7 @@
       <c r="P799" s="24"/>
       <c r="Q799" s="7"/>
     </row>
-    <row r="800" spans="1:17">
+    <row r="800" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A800" s="5" t="str">
         <f t="shared" si="31"/>
         <v>319</v>
@@ -24856,7 +24865,7 @@
       <c r="P800" s="24"/>
       <c r="Q800" s="7"/>
     </row>
-    <row r="801" spans="1:17">
+    <row r="801" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A801" s="5" t="str">
         <f t="shared" si="31"/>
         <v>31A</v>
@@ -24880,7 +24889,7 @@
       <c r="P801" s="24"/>
       <c r="Q801" s="7"/>
     </row>
-    <row r="802" spans="1:17">
+    <row r="802" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A802" s="5" t="str">
         <f t="shared" si="31"/>
         <v>31B</v>
@@ -24904,7 +24913,7 @@
       <c r="P802" s="24"/>
       <c r="Q802" s="7"/>
     </row>
-    <row r="803" spans="1:17">
+    <row r="803" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A803" s="5" t="str">
         <f t="shared" si="31"/>
         <v>31C</v>
@@ -24928,7 +24937,7 @@
       <c r="P803" s="24"/>
       <c r="Q803" s="7"/>
     </row>
-    <row r="804" spans="1:17">
+    <row r="804" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A804" s="5" t="str">
         <f t="shared" si="31"/>
         <v>31D</v>
@@ -24952,7 +24961,7 @@
       <c r="P804" s="24"/>
       <c r="Q804" s="7"/>
     </row>
-    <row r="805" spans="1:17">
+    <row r="805" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A805" s="5" t="str">
         <f t="shared" si="31"/>
         <v>31E</v>
@@ -24976,7 +24985,7 @@
       <c r="P805" s="24"/>
       <c r="Q805" s="7"/>
     </row>
-    <row r="806" spans="1:17">
+    <row r="806" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A806" s="5" t="str">
         <f t="shared" si="31"/>
         <v>31F</v>
@@ -25000,7 +25009,7 @@
       <c r="P806" s="24"/>
       <c r="Q806" s="7"/>
     </row>
-    <row r="807" spans="1:17">
+    <row r="807" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A807" s="5" t="str">
         <f t="shared" si="31"/>
         <v>320</v>
@@ -25024,7 +25033,7 @@
       <c r="P807" s="24"/>
       <c r="Q807" s="7"/>
     </row>
-    <row r="808" spans="1:17">
+    <row r="808" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A808" s="5" t="str">
         <f t="shared" si="31"/>
         <v>321</v>
@@ -25048,7 +25057,7 @@
       <c r="P808" s="24"/>
       <c r="Q808" s="7"/>
     </row>
-    <row r="809" spans="1:17">
+    <row r="809" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A809" s="5" t="str">
         <f t="shared" si="31"/>
         <v>322</v>
@@ -25072,7 +25081,7 @@
       <c r="P809" s="24"/>
       <c r="Q809" s="7"/>
     </row>
-    <row r="810" spans="1:17">
+    <row r="810" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A810" s="5" t="str">
         <f t="shared" si="31"/>
         <v>323</v>
@@ -25096,7 +25105,7 @@
       <c r="P810" s="24"/>
       <c r="Q810" s="7"/>
     </row>
-    <row r="811" spans="1:17">
+    <row r="811" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A811" s="5" t="str">
         <f t="shared" si="31"/>
         <v>324</v>
@@ -25120,7 +25129,7 @@
       <c r="P811" s="24"/>
       <c r="Q811" s="7"/>
     </row>
-    <row r="812" spans="1:17">
+    <row r="812" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A812" s="5" t="str">
         <f t="shared" si="31"/>
         <v>325</v>
@@ -25144,7 +25153,7 @@
       <c r="P812" s="24"/>
       <c r="Q812" s="7"/>
     </row>
-    <row r="813" spans="1:17">
+    <row r="813" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A813" s="5" t="str">
         <f t="shared" si="31"/>
         <v>326</v>
@@ -25168,7 +25177,7 @@
       <c r="P813" s="24"/>
       <c r="Q813" s="7"/>
     </row>
-    <row r="814" spans="1:17">
+    <row r="814" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A814" s="5" t="str">
         <f t="shared" si="31"/>
         <v>327</v>
@@ -25192,7 +25201,7 @@
       <c r="P814" s="24"/>
       <c r="Q814" s="7"/>
     </row>
-    <row r="815" spans="1:17">
+    <row r="815" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A815" s="5" t="str">
         <f t="shared" si="31"/>
         <v>328</v>
@@ -25216,7 +25225,7 @@
       <c r="P815" s="24"/>
       <c r="Q815" s="7"/>
     </row>
-    <row r="816" spans="1:17">
+    <row r="816" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A816" s="5" t="str">
         <f t="shared" si="31"/>
         <v>329</v>
@@ -25240,7 +25249,7 @@
       <c r="P816" s="24"/>
       <c r="Q816" s="7"/>
     </row>
-    <row r="817" spans="1:17">
+    <row r="817" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A817" s="5" t="str">
         <f t="shared" si="31"/>
         <v>32A</v>
@@ -25264,7 +25273,7 @@
       <c r="P817" s="24"/>
       <c r="Q817" s="7"/>
     </row>
-    <row r="818" spans="1:17">
+    <row r="818" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A818" s="5" t="str">
         <f t="shared" si="31"/>
         <v>32B</v>
@@ -25288,7 +25297,7 @@
       <c r="P818" s="24"/>
       <c r="Q818" s="7"/>
     </row>
-    <row r="819" spans="1:17">
+    <row r="819" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A819" s="5" t="str">
         <f t="shared" si="31"/>
         <v>32C</v>
@@ -25312,7 +25321,7 @@
       <c r="P819" s="24"/>
       <c r="Q819" s="7"/>
     </row>
-    <row r="820" spans="1:17">
+    <row r="820" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A820" s="5" t="str">
         <f t="shared" si="31"/>
         <v>32D</v>
@@ -25336,7 +25345,7 @@
       <c r="P820" s="24"/>
       <c r="Q820" s="7"/>
     </row>
-    <row r="821" spans="1:17">
+    <row r="821" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A821" s="5" t="str">
         <f t="shared" si="31"/>
         <v>32E</v>
@@ -25360,7 +25369,7 @@
       <c r="P821" s="24"/>
       <c r="Q821" s="7"/>
     </row>
-    <row r="822" spans="1:17">
+    <row r="822" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A822" s="5" t="str">
         <f t="shared" si="31"/>
         <v>32F</v>
@@ -25384,7 +25393,7 @@
       <c r="P822" s="24"/>
       <c r="Q822" s="7"/>
     </row>
-    <row r="823" spans="1:17">
+    <row r="823" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A823" s="5" t="str">
         <f t="shared" si="31"/>
         <v>330</v>
@@ -25408,7 +25417,7 @@
       <c r="P823" s="24"/>
       <c r="Q823" s="7"/>
     </row>
-    <row r="824" spans="1:17">
+    <row r="824" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A824" s="5" t="str">
         <f t="shared" si="31"/>
         <v>331</v>
@@ -25432,7 +25441,7 @@
       <c r="P824" s="24"/>
       <c r="Q824" s="7"/>
     </row>
-    <row r="825" spans="1:17">
+    <row r="825" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A825" s="5" t="str">
         <f t="shared" si="31"/>
         <v>332</v>
@@ -25456,7 +25465,7 @@
       <c r="P825" s="24"/>
       <c r="Q825" s="7"/>
     </row>
-    <row r="826" spans="1:17">
+    <row r="826" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A826" s="5" t="str">
         <f t="shared" si="31"/>
         <v>333</v>
@@ -25480,7 +25489,7 @@
       <c r="P826" s="24"/>
       <c r="Q826" s="7"/>
     </row>
-    <row r="827" spans="1:17">
+    <row r="827" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A827" s="5" t="str">
         <f t="shared" si="31"/>
         <v>334</v>
@@ -25504,7 +25513,7 @@
       <c r="P827" s="24"/>
       <c r="Q827" s="7"/>
     </row>
-    <row r="828" spans="1:17">
+    <row r="828" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A828" s="5" t="str">
         <f t="shared" si="31"/>
         <v>335</v>
@@ -25528,7 +25537,7 @@
       <c r="P828" s="24"/>
       <c r="Q828" s="7"/>
     </row>
-    <row r="829" spans="1:17">
+    <row r="829" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A829" s="5" t="str">
         <f t="shared" si="31"/>
         <v>336</v>
@@ -25552,7 +25561,7 @@
       <c r="P829" s="24"/>
       <c r="Q829" s="7"/>
     </row>
-    <row r="830" spans="1:17">
+    <row r="830" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A830" s="5" t="str">
         <f t="shared" si="31"/>
         <v>337</v>
@@ -25576,7 +25585,7 @@
       <c r="P830" s="24"/>
       <c r="Q830" s="7"/>
     </row>
-    <row r="831" spans="1:17">
+    <row r="831" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A831" s="5" t="str">
         <f t="shared" si="31"/>
         <v>338</v>
@@ -25600,7 +25609,7 @@
       <c r="P831" s="24"/>
       <c r="Q831" s="7"/>
     </row>
-    <row r="832" spans="1:17">
+    <row r="832" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A832" s="5" t="str">
         <f t="shared" si="31"/>
         <v>339</v>
@@ -25624,7 +25633,7 @@
       <c r="P832" s="24"/>
       <c r="Q832" s="7"/>
     </row>
-    <row r="833" spans="1:17">
+    <row r="833" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A833" s="5" t="str">
         <f t="shared" si="31"/>
         <v>33A</v>
@@ -25648,7 +25657,7 @@
       <c r="P833" s="24"/>
       <c r="Q833" s="7"/>
     </row>
-    <row r="834" spans="1:17">
+    <row r="834" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A834" s="5" t="str">
         <f t="shared" si="31"/>
         <v>33B</v>
@@ -25672,7 +25681,7 @@
       <c r="P834" s="24"/>
       <c r="Q834" s="7"/>
     </row>
-    <row r="835" spans="1:17">
+    <row r="835" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A835" s="5" t="str">
         <f t="shared" si="31"/>
         <v>33C</v>
@@ -25696,7 +25705,7 @@
       <c r="P835" s="24"/>
       <c r="Q835" s="7"/>
     </row>
-    <row r="836" spans="1:17">
+    <row r="836" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A836" s="5" t="str">
         <f t="shared" si="31"/>
         <v>33D</v>
@@ -25720,7 +25729,7 @@
       <c r="P836" s="24"/>
       <c r="Q836" s="7"/>
     </row>
-    <row r="837" spans="1:17">
+    <row r="837" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A837" s="5" t="str">
         <f t="shared" si="31"/>
         <v>33E</v>
@@ -25744,7 +25753,7 @@
       <c r="P837" s="24"/>
       <c r="Q837" s="7"/>
     </row>
-    <row r="838" spans="1:17">
+    <row r="838" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A838" s="5" t="str">
         <f t="shared" si="31"/>
         <v>33F</v>
@@ -25768,7 +25777,7 @@
       <c r="P838" s="24"/>
       <c r="Q838" s="7"/>
     </row>
-    <row r="839" spans="1:17">
+    <row r="839" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A839" s="5" t="str">
         <f t="shared" si="31"/>
         <v>340</v>
@@ -25792,7 +25801,7 @@
       <c r="P839" s="24"/>
       <c r="Q839" s="7"/>
     </row>
-    <row r="840" spans="1:17">
+    <row r="840" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A840" s="5" t="str">
         <f t="shared" ref="A840:A903" si="32">DEC2HEX(B840, 3)</f>
         <v>341</v>
@@ -25816,7 +25825,7 @@
       <c r="P840" s="24"/>
       <c r="Q840" s="7"/>
     </row>
-    <row r="841" spans="1:17">
+    <row r="841" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A841" s="5" t="str">
         <f t="shared" si="32"/>
         <v>342</v>
@@ -25840,7 +25849,7 @@
       <c r="P841" s="24"/>
       <c r="Q841" s="7"/>
     </row>
-    <row r="842" spans="1:17">
+    <row r="842" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A842" s="5" t="str">
         <f t="shared" si="32"/>
         <v>343</v>
@@ -25864,7 +25873,7 @@
       <c r="P842" s="24"/>
       <c r="Q842" s="7"/>
     </row>
-    <row r="843" spans="1:17">
+    <row r="843" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A843" s="5" t="str">
         <f t="shared" si="32"/>
         <v>344</v>
@@ -25888,7 +25897,7 @@
       <c r="P843" s="24"/>
       <c r="Q843" s="7"/>
     </row>
-    <row r="844" spans="1:17">
+    <row r="844" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A844" s="5" t="str">
         <f t="shared" si="32"/>
         <v>345</v>
@@ -25912,7 +25921,7 @@
       <c r="P844" s="24"/>
       <c r="Q844" s="7"/>
     </row>
-    <row r="845" spans="1:17">
+    <row r="845" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A845" s="5" t="str">
         <f t="shared" si="32"/>
         <v>346</v>
@@ -25936,7 +25945,7 @@
       <c r="P845" s="24"/>
       <c r="Q845" s="7"/>
     </row>
-    <row r="846" spans="1:17">
+    <row r="846" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A846" s="5" t="str">
         <f t="shared" si="32"/>
         <v>347</v>
@@ -25960,7 +25969,7 @@
       <c r="P846" s="24"/>
       <c r="Q846" s="7"/>
     </row>
-    <row r="847" spans="1:17">
+    <row r="847" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A847" s="5" t="str">
         <f t="shared" si="32"/>
         <v>348</v>
@@ -25984,7 +25993,7 @@
       <c r="P847" s="24"/>
       <c r="Q847" s="7"/>
     </row>
-    <row r="848" spans="1:17">
+    <row r="848" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A848" s="5" t="str">
         <f t="shared" si="32"/>
         <v>349</v>
@@ -26008,7 +26017,7 @@
       <c r="P848" s="24"/>
       <c r="Q848" s="7"/>
     </row>
-    <row r="849" spans="1:17">
+    <row r="849" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A849" s="5" t="str">
         <f t="shared" si="32"/>
         <v>34A</v>
@@ -26032,7 +26041,7 @@
       <c r="P849" s="24"/>
       <c r="Q849" s="7"/>
     </row>
-    <row r="850" spans="1:17">
+    <row r="850" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A850" s="5" t="str">
         <f t="shared" si="32"/>
         <v>34B</v>
@@ -26056,7 +26065,7 @@
       <c r="P850" s="24"/>
       <c r="Q850" s="7"/>
     </row>
-    <row r="851" spans="1:17">
+    <row r="851" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A851" s="5" t="str">
         <f t="shared" si="32"/>
         <v>34C</v>
@@ -26080,7 +26089,7 @@
       <c r="P851" s="24"/>
       <c r="Q851" s="7"/>
     </row>
-    <row r="852" spans="1:17">
+    <row r="852" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A852" s="5" t="str">
         <f t="shared" si="32"/>
         <v>34D</v>
@@ -26104,7 +26113,7 @@
       <c r="P852" s="24"/>
       <c r="Q852" s="7"/>
     </row>
-    <row r="853" spans="1:17">
+    <row r="853" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A853" s="5" t="str">
         <f t="shared" si="32"/>
         <v>34E</v>
@@ -26128,7 +26137,7 @@
       <c r="P853" s="24"/>
       <c r="Q853" s="7"/>
     </row>
-    <row r="854" spans="1:17">
+    <row r="854" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A854" s="5" t="str">
         <f t="shared" si="32"/>
         <v>34F</v>
@@ -26152,7 +26161,7 @@
       <c r="P854" s="24"/>
       <c r="Q854" s="7"/>
     </row>
-    <row r="855" spans="1:17">
+    <row r="855" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A855" s="5" t="str">
         <f t="shared" si="32"/>
         <v>350</v>
@@ -26176,7 +26185,7 @@
       <c r="P855" s="24"/>
       <c r="Q855" s="7"/>
     </row>
-    <row r="856" spans="1:17">
+    <row r="856" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A856" s="5" t="str">
         <f t="shared" si="32"/>
         <v>351</v>
@@ -26200,7 +26209,7 @@
       <c r="P856" s="24"/>
       <c r="Q856" s="7"/>
     </row>
-    <row r="857" spans="1:17">
+    <row r="857" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A857" s="5" t="str">
         <f t="shared" si="32"/>
         <v>352</v>
@@ -26224,7 +26233,7 @@
       <c r="P857" s="24"/>
       <c r="Q857" s="7"/>
     </row>
-    <row r="858" spans="1:17">
+    <row r="858" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A858" s="5" t="str">
         <f t="shared" si="32"/>
         <v>353</v>
@@ -26248,7 +26257,7 @@
       <c r="P858" s="24"/>
       <c r="Q858" s="7"/>
     </row>
-    <row r="859" spans="1:17">
+    <row r="859" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A859" s="5" t="str">
         <f t="shared" si="32"/>
         <v>354</v>
@@ -26272,7 +26281,7 @@
       <c r="P859" s="24"/>
       <c r="Q859" s="7"/>
     </row>
-    <row r="860" spans="1:17">
+    <row r="860" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A860" s="5" t="str">
         <f t="shared" si="32"/>
         <v>355</v>
@@ -26296,7 +26305,7 @@
       <c r="P860" s="24"/>
       <c r="Q860" s="7"/>
     </row>
-    <row r="861" spans="1:17">
+    <row r="861" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A861" s="5" t="str">
         <f t="shared" si="32"/>
         <v>356</v>
@@ -26320,7 +26329,7 @@
       <c r="P861" s="24"/>
       <c r="Q861" s="7"/>
     </row>
-    <row r="862" spans="1:17">
+    <row r="862" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A862" s="5" t="str">
         <f t="shared" si="32"/>
         <v>357</v>
@@ -26344,7 +26353,7 @@
       <c r="P862" s="24"/>
       <c r="Q862" s="7"/>
     </row>
-    <row r="863" spans="1:17">
+    <row r="863" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A863" s="5" t="str">
         <f t="shared" si="32"/>
         <v>358</v>
@@ -26368,7 +26377,7 @@
       <c r="P863" s="24"/>
       <c r="Q863" s="7"/>
     </row>
-    <row r="864" spans="1:17">
+    <row r="864" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A864" s="5" t="str">
         <f t="shared" si="32"/>
         <v>359</v>
@@ -26392,7 +26401,7 @@
       <c r="P864" s="24"/>
       <c r="Q864" s="7"/>
     </row>
-    <row r="865" spans="1:17">
+    <row r="865" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A865" s="5" t="str">
         <f t="shared" si="32"/>
         <v>35A</v>
@@ -26416,7 +26425,7 @@
       <c r="P865" s="24"/>
       <c r="Q865" s="7"/>
     </row>
-    <row r="866" spans="1:17">
+    <row r="866" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A866" s="5" t="str">
         <f t="shared" si="32"/>
         <v>35B</v>
@@ -26440,7 +26449,7 @@
       <c r="P866" s="24"/>
       <c r="Q866" s="7"/>
     </row>
-    <row r="867" spans="1:17">
+    <row r="867" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A867" s="5" t="str">
         <f t="shared" si="32"/>
         <v>35C</v>
@@ -26464,7 +26473,7 @@
       <c r="P867" s="24"/>
       <c r="Q867" s="7"/>
     </row>
-    <row r="868" spans="1:17">
+    <row r="868" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A868" s="5" t="str">
         <f t="shared" si="32"/>
         <v>35D</v>
@@ -26488,7 +26497,7 @@
       <c r="P868" s="24"/>
       <c r="Q868" s="7"/>
     </row>
-    <row r="869" spans="1:17">
+    <row r="869" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A869" s="5" t="str">
         <f t="shared" si="32"/>
         <v>35E</v>
@@ -26512,7 +26521,7 @@
       <c r="P869" s="24"/>
       <c r="Q869" s="7"/>
     </row>
-    <row r="870" spans="1:17">
+    <row r="870" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A870" s="5" t="str">
         <f t="shared" si="32"/>
         <v>35F</v>
@@ -26536,7 +26545,7 @@
       <c r="P870" s="24"/>
       <c r="Q870" s="7"/>
     </row>
-    <row r="871" spans="1:17">
+    <row r="871" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A871" s="5" t="str">
         <f t="shared" si="32"/>
         <v>360</v>
@@ -26560,7 +26569,7 @@
       <c r="P871" s="24"/>
       <c r="Q871" s="7"/>
     </row>
-    <row r="872" spans="1:17">
+    <row r="872" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A872" s="5" t="str">
         <f t="shared" si="32"/>
         <v>361</v>
@@ -26584,7 +26593,7 @@
       <c r="P872" s="24"/>
       <c r="Q872" s="7"/>
     </row>
-    <row r="873" spans="1:17">
+    <row r="873" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A873" s="5" t="str">
         <f t="shared" si="32"/>
         <v>362</v>
@@ -26608,7 +26617,7 @@
       <c r="P873" s="24"/>
       <c r="Q873" s="7"/>
     </row>
-    <row r="874" spans="1:17">
+    <row r="874" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A874" s="5" t="str">
         <f t="shared" si="32"/>
         <v>363</v>
@@ -26632,7 +26641,7 @@
       <c r="P874" s="24"/>
       <c r="Q874" s="7"/>
     </row>
-    <row r="875" spans="1:17">
+    <row r="875" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A875" s="5" t="str">
         <f t="shared" si="32"/>
         <v>364</v>
@@ -26656,7 +26665,7 @@
       <c r="P875" s="24"/>
       <c r="Q875" s="7"/>
     </row>
-    <row r="876" spans="1:17">
+    <row r="876" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A876" s="5" t="str">
         <f t="shared" si="32"/>
         <v>365</v>
@@ -26680,7 +26689,7 @@
       <c r="P876" s="24"/>
       <c r="Q876" s="7"/>
     </row>
-    <row r="877" spans="1:17">
+    <row r="877" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A877" s="5" t="str">
         <f t="shared" si="32"/>
         <v>366</v>
@@ -26704,7 +26713,7 @@
       <c r="P877" s="24"/>
       <c r="Q877" s="7"/>
     </row>
-    <row r="878" spans="1:17">
+    <row r="878" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A878" s="5" t="str">
         <f t="shared" si="32"/>
         <v>367</v>
@@ -26728,7 +26737,7 @@
       <c r="P878" s="24"/>
       <c r="Q878" s="7"/>
     </row>
-    <row r="879" spans="1:17">
+    <row r="879" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A879" s="5" t="str">
         <f t="shared" si="32"/>
         <v>368</v>
@@ -26752,7 +26761,7 @@
       <c r="P879" s="24"/>
       <c r="Q879" s="7"/>
     </row>
-    <row r="880" spans="1:17">
+    <row r="880" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A880" s="5" t="str">
         <f t="shared" si="32"/>
         <v>369</v>
@@ -26776,7 +26785,7 @@
       <c r="P880" s="24"/>
       <c r="Q880" s="7"/>
     </row>
-    <row r="881" spans="1:17">
+    <row r="881" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A881" s="5" t="str">
         <f t="shared" si="32"/>
         <v>36A</v>
@@ -26800,7 +26809,7 @@
       <c r="P881" s="24"/>
       <c r="Q881" s="7"/>
     </row>
-    <row r="882" spans="1:17">
+    <row r="882" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A882" s="5" t="str">
         <f t="shared" si="32"/>
         <v>36B</v>
@@ -26824,7 +26833,7 @@
       <c r="P882" s="24"/>
       <c r="Q882" s="7"/>
     </row>
-    <row r="883" spans="1:17">
+    <row r="883" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A883" s="5" t="str">
         <f t="shared" si="32"/>
         <v>36C</v>
@@ -26848,7 +26857,7 @@
       <c r="P883" s="24"/>
       <c r="Q883" s="7"/>
     </row>
-    <row r="884" spans="1:17">
+    <row r="884" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A884" s="5" t="str">
         <f t="shared" si="32"/>
         <v>36D</v>
@@ -26872,7 +26881,7 @@
       <c r="P884" s="24"/>
       <c r="Q884" s="7"/>
     </row>
-    <row r="885" spans="1:17">
+    <row r="885" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A885" s="5" t="str">
         <f t="shared" si="32"/>
         <v>36E</v>
@@ -26896,7 +26905,7 @@
       <c r="P885" s="24"/>
       <c r="Q885" s="7"/>
     </row>
-    <row r="886" spans="1:17">
+    <row r="886" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A886" s="5" t="str">
         <f t="shared" si="32"/>
         <v>36F</v>
@@ -26920,7 +26929,7 @@
       <c r="P886" s="24"/>
       <c r="Q886" s="7"/>
     </row>
-    <row r="887" spans="1:17">
+    <row r="887" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A887" s="5" t="str">
         <f t="shared" si="32"/>
         <v>370</v>
@@ -26944,7 +26953,7 @@
       <c r="P887" s="24"/>
       <c r="Q887" s="7"/>
     </row>
-    <row r="888" spans="1:17">
+    <row r="888" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A888" s="5" t="str">
         <f t="shared" si="32"/>
         <v>371</v>
@@ -26968,7 +26977,7 @@
       <c r="P888" s="24"/>
       <c r="Q888" s="7"/>
     </row>
-    <row r="889" spans="1:17">
+    <row r="889" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A889" s="5" t="str">
         <f t="shared" si="32"/>
         <v>372</v>
@@ -26992,7 +27001,7 @@
       <c r="P889" s="24"/>
       <c r="Q889" s="7"/>
     </row>
-    <row r="890" spans="1:17">
+    <row r="890" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A890" s="5" t="str">
         <f t="shared" si="32"/>
         <v>373</v>
@@ -27016,7 +27025,7 @@
       <c r="P890" s="24"/>
       <c r="Q890" s="7"/>
     </row>
-    <row r="891" spans="1:17">
+    <row r="891" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A891" s="5" t="str">
         <f t="shared" si="32"/>
         <v>374</v>
@@ -27040,7 +27049,7 @@
       <c r="P891" s="24"/>
       <c r="Q891" s="7"/>
     </row>
-    <row r="892" spans="1:17">
+    <row r="892" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A892" s="5" t="str">
         <f t="shared" si="32"/>
         <v>375</v>
@@ -27064,7 +27073,7 @@
       <c r="P892" s="24"/>
       <c r="Q892" s="7"/>
     </row>
-    <row r="893" spans="1:17">
+    <row r="893" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A893" s="5" t="str">
         <f t="shared" si="32"/>
         <v>376</v>
@@ -27088,7 +27097,7 @@
       <c r="P893" s="24"/>
       <c r="Q893" s="7"/>
     </row>
-    <row r="894" spans="1:17">
+    <row r="894" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A894" s="5" t="str">
         <f t="shared" si="32"/>
         <v>377</v>
@@ -27112,7 +27121,7 @@
       <c r="P894" s="24"/>
       <c r="Q894" s="7"/>
     </row>
-    <row r="895" spans="1:17">
+    <row r="895" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A895" s="5" t="str">
         <f t="shared" si="32"/>
         <v>378</v>
@@ -27136,7 +27145,7 @@
       <c r="P895" s="24"/>
       <c r="Q895" s="7"/>
     </row>
-    <row r="896" spans="1:17">
+    <row r="896" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A896" s="5" t="str">
         <f t="shared" si="32"/>
         <v>379</v>
@@ -27160,7 +27169,7 @@
       <c r="P896" s="24"/>
       <c r="Q896" s="7"/>
     </row>
-    <row r="897" spans="1:17">
+    <row r="897" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A897" s="5" t="str">
         <f t="shared" si="32"/>
         <v>37A</v>
@@ -27184,7 +27193,7 @@
       <c r="P897" s="24"/>
       <c r="Q897" s="7"/>
     </row>
-    <row r="898" spans="1:17">
+    <row r="898" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A898" s="5" t="str">
         <f t="shared" si="32"/>
         <v>37B</v>
@@ -27208,7 +27217,7 @@
       <c r="P898" s="24"/>
       <c r="Q898" s="7"/>
     </row>
-    <row r="899" spans="1:17">
+    <row r="899" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A899" s="5" t="str">
         <f t="shared" si="32"/>
         <v>37C</v>
@@ -27232,7 +27241,7 @@
       <c r="P899" s="24"/>
       <c r="Q899" s="7"/>
     </row>
-    <row r="900" spans="1:17">
+    <row r="900" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A900" s="5" t="str">
         <f t="shared" si="32"/>
         <v>37D</v>
@@ -27256,7 +27265,7 @@
       <c r="P900" s="24"/>
       <c r="Q900" s="7"/>
     </row>
-    <row r="901" spans="1:17">
+    <row r="901" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A901" s="5" t="str">
         <f t="shared" si="32"/>
         <v>37E</v>
@@ -27280,7 +27289,7 @@
       <c r="P901" s="24"/>
       <c r="Q901" s="7"/>
     </row>
-    <row r="902" spans="1:17">
+    <row r="902" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A902" s="5" t="str">
         <f t="shared" si="32"/>
         <v>37F</v>
@@ -27304,7 +27313,7 @@
       <c r="P902" s="24"/>
       <c r="Q902" s="7"/>
     </row>
-    <row r="903" spans="1:17">
+    <row r="903" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A903" s="5" t="str">
         <f t="shared" si="32"/>
         <v>380</v>
@@ -27328,7 +27337,7 @@
       <c r="P903" s="24"/>
       <c r="Q903" s="7"/>
     </row>
-    <row r="904" spans="1:17">
+    <row r="904" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A904" s="5" t="str">
         <f t="shared" ref="A904:A967" si="33">DEC2HEX(B904, 3)</f>
         <v>381</v>
@@ -27352,7 +27361,7 @@
       <c r="P904" s="24"/>
       <c r="Q904" s="7"/>
     </row>
-    <row r="905" spans="1:17">
+    <row r="905" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A905" s="5" t="str">
         <f t="shared" si="33"/>
         <v>382</v>
@@ -27376,7 +27385,7 @@
       <c r="P905" s="24"/>
       <c r="Q905" s="7"/>
     </row>
-    <row r="906" spans="1:17">
+    <row r="906" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A906" s="5" t="str">
         <f t="shared" si="33"/>
         <v>383</v>
@@ -27400,7 +27409,7 @@
       <c r="P906" s="24"/>
       <c r="Q906" s="7"/>
     </row>
-    <row r="907" spans="1:17">
+    <row r="907" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A907" s="5" t="str">
         <f t="shared" si="33"/>
         <v>384</v>
@@ -27424,7 +27433,7 @@
       <c r="P907" s="24"/>
       <c r="Q907" s="7"/>
     </row>
-    <row r="908" spans="1:17">
+    <row r="908" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A908" s="5" t="str">
         <f t="shared" si="33"/>
         <v>385</v>
@@ -27448,7 +27457,7 @@
       <c r="P908" s="24"/>
       <c r="Q908" s="7"/>
     </row>
-    <row r="909" spans="1:17">
+    <row r="909" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A909" s="5" t="str">
         <f t="shared" si="33"/>
         <v>386</v>
@@ -27472,7 +27481,7 @@
       <c r="P909" s="24"/>
       <c r="Q909" s="7"/>
     </row>
-    <row r="910" spans="1:17">
+    <row r="910" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A910" s="5" t="str">
         <f t="shared" si="33"/>
         <v>387</v>
@@ -27496,7 +27505,7 @@
       <c r="P910" s="24"/>
       <c r="Q910" s="7"/>
     </row>
-    <row r="911" spans="1:17">
+    <row r="911" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A911" s="5" t="str">
         <f t="shared" si="33"/>
         <v>388</v>
@@ -27520,7 +27529,7 @@
       <c r="P911" s="24"/>
       <c r="Q911" s="7"/>
     </row>
-    <row r="912" spans="1:17">
+    <row r="912" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A912" s="5" t="str">
         <f t="shared" si="33"/>
         <v>389</v>
@@ -27544,7 +27553,7 @@
       <c r="P912" s="24"/>
       <c r="Q912" s="7"/>
     </row>
-    <row r="913" spans="1:17">
+    <row r="913" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A913" s="5" t="str">
         <f t="shared" si="33"/>
         <v>38A</v>
@@ -27568,7 +27577,7 @@
       <c r="P913" s="24"/>
       <c r="Q913" s="7"/>
     </row>
-    <row r="914" spans="1:17">
+    <row r="914" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A914" s="5" t="str">
         <f t="shared" si="33"/>
         <v>38B</v>
@@ -27592,7 +27601,7 @@
       <c r="P914" s="24"/>
       <c r="Q914" s="7"/>
     </row>
-    <row r="915" spans="1:17">
+    <row r="915" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A915" s="5" t="str">
         <f t="shared" si="33"/>
         <v>38C</v>
@@ -27616,7 +27625,7 @@
       <c r="P915" s="24"/>
       <c r="Q915" s="7"/>
     </row>
-    <row r="916" spans="1:17">
+    <row r="916" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A916" s="5" t="str">
         <f t="shared" si="33"/>
         <v>38D</v>
@@ -27640,7 +27649,7 @@
       <c r="P916" s="24"/>
       <c r="Q916" s="7"/>
     </row>
-    <row r="917" spans="1:17">
+    <row r="917" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A917" s="5" t="str">
         <f t="shared" si="33"/>
         <v>38E</v>
@@ -27664,7 +27673,7 @@
       <c r="P917" s="24"/>
       <c r="Q917" s="7"/>
     </row>
-    <row r="918" spans="1:17">
+    <row r="918" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A918" s="5" t="str">
         <f t="shared" si="33"/>
         <v>38F</v>
@@ -27688,7 +27697,7 @@
       <c r="P918" s="24"/>
       <c r="Q918" s="7"/>
     </row>
-    <row r="919" spans="1:17">
+    <row r="919" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A919" s="5" t="str">
         <f t="shared" si="33"/>
         <v>390</v>
@@ -27712,7 +27721,7 @@
       <c r="P919" s="24"/>
       <c r="Q919" s="7"/>
     </row>
-    <row r="920" spans="1:17">
+    <row r="920" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A920" s="5" t="str">
         <f t="shared" si="33"/>
         <v>391</v>
@@ -27736,7 +27745,7 @@
       <c r="P920" s="24"/>
       <c r="Q920" s="7"/>
     </row>
-    <row r="921" spans="1:17">
+    <row r="921" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A921" s="5" t="str">
         <f t="shared" si="33"/>
         <v>392</v>
@@ -27760,7 +27769,7 @@
       <c r="P921" s="24"/>
       <c r="Q921" s="7"/>
     </row>
-    <row r="922" spans="1:17">
+    <row r="922" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A922" s="5" t="str">
         <f t="shared" si="33"/>
         <v>393</v>
@@ -27784,7 +27793,7 @@
       <c r="P922" s="24"/>
       <c r="Q922" s="7"/>
     </row>
-    <row r="923" spans="1:17">
+    <row r="923" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A923" s="5" t="str">
         <f t="shared" si="33"/>
         <v>394</v>
@@ -27808,7 +27817,7 @@
       <c r="P923" s="24"/>
       <c r="Q923" s="7"/>
     </row>
-    <row r="924" spans="1:17">
+    <row r="924" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A924" s="5" t="str">
         <f t="shared" si="33"/>
         <v>395</v>
@@ -27832,7 +27841,7 @@
       <c r="P924" s="24"/>
       <c r="Q924" s="7"/>
     </row>
-    <row r="925" spans="1:17">
+    <row r="925" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A925" s="5" t="str">
         <f t="shared" si="33"/>
         <v>396</v>
@@ -27856,7 +27865,7 @@
       <c r="P925" s="24"/>
       <c r="Q925" s="7"/>
     </row>
-    <row r="926" spans="1:17">
+    <row r="926" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A926" s="5" t="str">
         <f t="shared" si="33"/>
         <v>397</v>
@@ -27880,7 +27889,7 @@
       <c r="P926" s="24"/>
       <c r="Q926" s="7"/>
     </row>
-    <row r="927" spans="1:17">
+    <row r="927" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A927" s="5" t="str">
         <f t="shared" si="33"/>
         <v>398</v>
@@ -27904,7 +27913,7 @@
       <c r="P927" s="24"/>
       <c r="Q927" s="7"/>
     </row>
-    <row r="928" spans="1:17">
+    <row r="928" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A928" s="5" t="str">
         <f t="shared" si="33"/>
         <v>399</v>
@@ -27928,7 +27937,7 @@
       <c r="P928" s="24"/>
       <c r="Q928" s="7"/>
     </row>
-    <row r="929" spans="1:17">
+    <row r="929" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A929" s="5" t="str">
         <f t="shared" si="33"/>
         <v>39A</v>
@@ -27952,7 +27961,7 @@
       <c r="P929" s="24"/>
       <c r="Q929" s="7"/>
     </row>
-    <row r="930" spans="1:17">
+    <row r="930" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A930" s="5" t="str">
         <f t="shared" si="33"/>
         <v>39B</v>
@@ -27976,7 +27985,7 @@
       <c r="P930" s="24"/>
       <c r="Q930" s="7"/>
     </row>
-    <row r="931" spans="1:17">
+    <row r="931" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A931" s="5" t="str">
         <f t="shared" si="33"/>
         <v>39C</v>
@@ -28000,7 +28009,7 @@
       <c r="P931" s="24"/>
       <c r="Q931" s="7"/>
     </row>
-    <row r="932" spans="1:17">
+    <row r="932" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A932" s="5" t="str">
         <f t="shared" si="33"/>
         <v>39D</v>
@@ -28024,7 +28033,7 @@
       <c r="P932" s="24"/>
       <c r="Q932" s="7"/>
     </row>
-    <row r="933" spans="1:17">
+    <row r="933" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A933" s="5" t="str">
         <f t="shared" si="33"/>
         <v>39E</v>
@@ -28048,7 +28057,7 @@
       <c r="P933" s="24"/>
       <c r="Q933" s="7"/>
     </row>
-    <row r="934" spans="1:17">
+    <row r="934" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A934" s="5" t="str">
         <f t="shared" si="33"/>
         <v>39F</v>
@@ -28072,7 +28081,7 @@
       <c r="P934" s="24"/>
       <c r="Q934" s="7"/>
     </row>
-    <row r="935" spans="1:17">
+    <row r="935" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A935" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A0</v>
@@ -28096,7 +28105,7 @@
       <c r="P935" s="24"/>
       <c r="Q935" s="7"/>
     </row>
-    <row r="936" spans="1:17">
+    <row r="936" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A936" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A1</v>
@@ -28120,7 +28129,7 @@
       <c r="P936" s="24"/>
       <c r="Q936" s="7"/>
     </row>
-    <row r="937" spans="1:17">
+    <row r="937" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A937" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A2</v>
@@ -28144,7 +28153,7 @@
       <c r="P937" s="24"/>
       <c r="Q937" s="7"/>
     </row>
-    <row r="938" spans="1:17">
+    <row r="938" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A938" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A3</v>
@@ -28168,7 +28177,7 @@
       <c r="P938" s="24"/>
       <c r="Q938" s="7"/>
     </row>
-    <row r="939" spans="1:17">
+    <row r="939" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A939" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A4</v>
@@ -28192,7 +28201,7 @@
       <c r="P939" s="24"/>
       <c r="Q939" s="7"/>
     </row>
-    <row r="940" spans="1:17">
+    <row r="940" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A940" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A5</v>
@@ -28216,7 +28225,7 @@
       <c r="P940" s="24"/>
       <c r="Q940" s="7"/>
     </row>
-    <row r="941" spans="1:17">
+    <row r="941" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A941" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A6</v>
@@ -28240,7 +28249,7 @@
       <c r="P941" s="24"/>
       <c r="Q941" s="7"/>
     </row>
-    <row r="942" spans="1:17">
+    <row r="942" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A942" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A7</v>
@@ -28264,7 +28273,7 @@
       <c r="P942" s="24"/>
       <c r="Q942" s="7"/>
     </row>
-    <row r="943" spans="1:17">
+    <row r="943" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A943" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A8</v>
@@ -28288,7 +28297,7 @@
       <c r="P943" s="24"/>
       <c r="Q943" s="7"/>
     </row>
-    <row r="944" spans="1:17">
+    <row r="944" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A944" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3A9</v>
@@ -28312,7 +28321,7 @@
       <c r="P944" s="24"/>
       <c r="Q944" s="7"/>
     </row>
-    <row r="945" spans="1:17">
+    <row r="945" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A945" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3AA</v>
@@ -28336,7 +28345,7 @@
       <c r="P945" s="24"/>
       <c r="Q945" s="7"/>
     </row>
-    <row r="946" spans="1:17">
+    <row r="946" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A946" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3AB</v>
@@ -28360,7 +28369,7 @@
       <c r="P946" s="24"/>
       <c r="Q946" s="7"/>
     </row>
-    <row r="947" spans="1:17">
+    <row r="947" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A947" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3AC</v>
@@ -28384,7 +28393,7 @@
       <c r="P947" s="24"/>
       <c r="Q947" s="7"/>
     </row>
-    <row r="948" spans="1:17">
+    <row r="948" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A948" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3AD</v>
@@ -28408,7 +28417,7 @@
       <c r="P948" s="24"/>
       <c r="Q948" s="7"/>
     </row>
-    <row r="949" spans="1:17">
+    <row r="949" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A949" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3AE</v>
@@ -28432,7 +28441,7 @@
       <c r="P949" s="24"/>
       <c r="Q949" s="7"/>
     </row>
-    <row r="950" spans="1:17">
+    <row r="950" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A950" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3AF</v>
@@ -28456,7 +28465,7 @@
       <c r="P950" s="24"/>
       <c r="Q950" s="7"/>
     </row>
-    <row r="951" spans="1:17">
+    <row r="951" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A951" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B0</v>
@@ -28480,7 +28489,7 @@
       <c r="P951" s="24"/>
       <c r="Q951" s="7"/>
     </row>
-    <row r="952" spans="1:17">
+    <row r="952" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A952" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B1</v>
@@ -28504,7 +28513,7 @@
       <c r="P952" s="24"/>
       <c r="Q952" s="7"/>
     </row>
-    <row r="953" spans="1:17">
+    <row r="953" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A953" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B2</v>
@@ -28528,7 +28537,7 @@
       <c r="P953" s="24"/>
       <c r="Q953" s="7"/>
     </row>
-    <row r="954" spans="1:17">
+    <row r="954" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A954" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B3</v>
@@ -28552,7 +28561,7 @@
       <c r="P954" s="24"/>
       <c r="Q954" s="7"/>
     </row>
-    <row r="955" spans="1:17">
+    <row r="955" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A955" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B4</v>
@@ -28576,7 +28585,7 @@
       <c r="P955" s="24"/>
       <c r="Q955" s="7"/>
     </row>
-    <row r="956" spans="1:17">
+    <row r="956" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A956" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B5</v>
@@ -28600,7 +28609,7 @@
       <c r="P956" s="24"/>
       <c r="Q956" s="7"/>
     </row>
-    <row r="957" spans="1:17">
+    <row r="957" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A957" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B6</v>
@@ -28624,7 +28633,7 @@
       <c r="P957" s="24"/>
       <c r="Q957" s="7"/>
     </row>
-    <row r="958" spans="1:17">
+    <row r="958" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A958" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B7</v>
@@ -28648,7 +28657,7 @@
       <c r="P958" s="24"/>
       <c r="Q958" s="7"/>
     </row>
-    <row r="959" spans="1:17">
+    <row r="959" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A959" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B8</v>
@@ -28672,7 +28681,7 @@
       <c r="P959" s="24"/>
       <c r="Q959" s="7"/>
     </row>
-    <row r="960" spans="1:17">
+    <row r="960" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A960" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3B9</v>
@@ -28696,7 +28705,7 @@
       <c r="P960" s="24"/>
       <c r="Q960" s="7"/>
     </row>
-    <row r="961" spans="1:17">
+    <row r="961" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A961" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3BA</v>
@@ -28720,7 +28729,7 @@
       <c r="P961" s="24"/>
       <c r="Q961" s="7"/>
     </row>
-    <row r="962" spans="1:17">
+    <row r="962" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A962" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3BB</v>
@@ -28744,7 +28753,7 @@
       <c r="P962" s="24"/>
       <c r="Q962" s="7"/>
     </row>
-    <row r="963" spans="1:17">
+    <row r="963" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A963" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3BC</v>
@@ -28768,7 +28777,7 @@
       <c r="P963" s="24"/>
       <c r="Q963" s="7"/>
     </row>
-    <row r="964" spans="1:17">
+    <row r="964" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A964" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3BD</v>
@@ -28792,7 +28801,7 @@
       <c r="P964" s="24"/>
       <c r="Q964" s="7"/>
     </row>
-    <row r="965" spans="1:17">
+    <row r="965" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A965" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3BE</v>
@@ -28816,7 +28825,7 @@
       <c r="P965" s="24"/>
       <c r="Q965" s="7"/>
     </row>
-    <row r="966" spans="1:17">
+    <row r="966" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A966" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3BF</v>
@@ -28840,7 +28849,7 @@
       <c r="P966" s="24"/>
       <c r="Q966" s="7"/>
     </row>
-    <row r="967" spans="1:17">
+    <row r="967" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A967" s="5" t="str">
         <f t="shared" si="33"/>
         <v>3C0</v>
@@ -28864,7 +28873,7 @@
       <c r="P967" s="24"/>
       <c r="Q967" s="7"/>
     </row>
-    <row r="968" spans="1:17">
+    <row r="968" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A968" s="5" t="str">
         <f t="shared" ref="A968:A1030" si="34">DEC2HEX(B968, 3)</f>
         <v>3C1</v>
@@ -28888,7 +28897,7 @@
       <c r="P968" s="24"/>
       <c r="Q968" s="7"/>
     </row>
-    <row r="969" spans="1:17">
+    <row r="969" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A969" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3C2</v>
@@ -28912,7 +28921,7 @@
       <c r="P969" s="24"/>
       <c r="Q969" s="7"/>
     </row>
-    <row r="970" spans="1:17">
+    <row r="970" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A970" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3C3</v>
@@ -28936,7 +28945,7 @@
       <c r="P970" s="24"/>
       <c r="Q970" s="7"/>
     </row>
-    <row r="971" spans="1:17">
+    <row r="971" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A971" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3C4</v>
@@ -28960,7 +28969,7 @@
       <c r="P971" s="24"/>
       <c r="Q971" s="7"/>
     </row>
-    <row r="972" spans="1:17">
+    <row r="972" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A972" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3C5</v>
@@ -28984,7 +28993,7 @@
       <c r="P972" s="24"/>
       <c r="Q972" s="7"/>
     </row>
-    <row r="973" spans="1:17">
+    <row r="973" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A973" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3C6</v>
@@ -29008,7 +29017,7 @@
       <c r="P973" s="24"/>
       <c r="Q973" s="7"/>
     </row>
-    <row r="974" spans="1:17">
+    <row r="974" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A974" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3C7</v>
@@ -29032,7 +29041,7 @@
       <c r="P974" s="24"/>
       <c r="Q974" s="7"/>
     </row>
-    <row r="975" spans="1:17">
+    <row r="975" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A975" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3C8</v>
@@ -29056,7 +29065,7 @@
       <c r="P975" s="24"/>
       <c r="Q975" s="7"/>
     </row>
-    <row r="976" spans="1:17">
+    <row r="976" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A976" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3C9</v>
@@ -29080,7 +29089,7 @@
       <c r="P976" s="24"/>
       <c r="Q976" s="7"/>
     </row>
-    <row r="977" spans="1:17">
+    <row r="977" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A977" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3CA</v>
@@ -29104,7 +29113,7 @@
       <c r="P977" s="24"/>
       <c r="Q977" s="7"/>
     </row>
-    <row r="978" spans="1:17">
+    <row r="978" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A978" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3CB</v>
@@ -29128,7 +29137,7 @@
       <c r="P978" s="24"/>
       <c r="Q978" s="7"/>
     </row>
-    <row r="979" spans="1:17">
+    <row r="979" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A979" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3CC</v>
@@ -29152,7 +29161,7 @@
       <c r="P979" s="24"/>
       <c r="Q979" s="7"/>
     </row>
-    <row r="980" spans="1:17">
+    <row r="980" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A980" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3CD</v>
@@ -29176,7 +29185,7 @@
       <c r="P980" s="24"/>
       <c r="Q980" s="7"/>
     </row>
-    <row r="981" spans="1:17">
+    <row r="981" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A981" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3CE</v>
@@ -29200,7 +29209,7 @@
       <c r="P981" s="24"/>
       <c r="Q981" s="7"/>
     </row>
-    <row r="982" spans="1:17">
+    <row r="982" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A982" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3CF</v>
@@ -29224,7 +29233,7 @@
       <c r="P982" s="24"/>
       <c r="Q982" s="7"/>
     </row>
-    <row r="983" spans="1:17">
+    <row r="983" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A983" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D0</v>
@@ -29248,7 +29257,7 @@
       <c r="P983" s="24"/>
       <c r="Q983" s="7"/>
     </row>
-    <row r="984" spans="1:17">
+    <row r="984" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A984" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D1</v>
@@ -29272,7 +29281,7 @@
       <c r="P984" s="24"/>
       <c r="Q984" s="7"/>
     </row>
-    <row r="985" spans="1:17">
+    <row r="985" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A985" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D2</v>
@@ -29296,7 +29305,7 @@
       <c r="P985" s="24"/>
       <c r="Q985" s="7"/>
     </row>
-    <row r="986" spans="1:17">
+    <row r="986" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A986" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D3</v>
@@ -29320,7 +29329,7 @@
       <c r="P986" s="24"/>
       <c r="Q986" s="7"/>
     </row>
-    <row r="987" spans="1:17">
+    <row r="987" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A987" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D4</v>
@@ -29344,7 +29353,7 @@
       <c r="P987" s="24"/>
       <c r="Q987" s="7"/>
     </row>
-    <row r="988" spans="1:17">
+    <row r="988" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A988" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D5</v>
@@ -29368,7 +29377,7 @@
       <c r="P988" s="24"/>
       <c r="Q988" s="7"/>
     </row>
-    <row r="989" spans="1:17">
+    <row r="989" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A989" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D6</v>
@@ -29392,7 +29401,7 @@
       <c r="P989" s="24"/>
       <c r="Q989" s="7"/>
     </row>
-    <row r="990" spans="1:17">
+    <row r="990" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A990" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D7</v>
@@ -29416,7 +29425,7 @@
       <c r="P990" s="24"/>
       <c r="Q990" s="7"/>
     </row>
-    <row r="991" spans="1:17">
+    <row r="991" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A991" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D8</v>
@@ -29440,7 +29449,7 @@
       <c r="P991" s="24"/>
       <c r="Q991" s="7"/>
     </row>
-    <row r="992" spans="1:17">
+    <row r="992" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A992" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3D9</v>
@@ -29464,7 +29473,7 @@
       <c r="P992" s="24"/>
       <c r="Q992" s="7"/>
     </row>
-    <row r="993" spans="1:17">
+    <row r="993" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A993" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3DA</v>
@@ -29488,7 +29497,7 @@
       <c r="P993" s="24"/>
       <c r="Q993" s="7"/>
     </row>
-    <row r="994" spans="1:17">
+    <row r="994" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A994" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3DB</v>
@@ -29512,7 +29521,7 @@
       <c r="P994" s="24"/>
       <c r="Q994" s="7"/>
     </row>
-    <row r="995" spans="1:17">
+    <row r="995" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A995" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3DC</v>
@@ -29536,7 +29545,7 @@
       <c r="P995" s="24"/>
       <c r="Q995" s="7"/>
     </row>
-    <row r="996" spans="1:17">
+    <row r="996" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A996" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3DD</v>
@@ -29560,7 +29569,7 @@
       <c r="P996" s="24"/>
       <c r="Q996" s="7"/>
     </row>
-    <row r="997" spans="1:17">
+    <row r="997" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A997" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3DE</v>
@@ -29584,7 +29593,7 @@
       <c r="P997" s="24"/>
       <c r="Q997" s="7"/>
     </row>
-    <row r="998" spans="1:17">
+    <row r="998" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A998" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3DF</v>
@@ -29608,7 +29617,7 @@
       <c r="P998" s="24"/>
       <c r="Q998" s="7"/>
     </row>
-    <row r="999" spans="1:17">
+    <row r="999" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A999" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E0</v>
@@ -29632,7 +29641,7 @@
       <c r="P999" s="24"/>
       <c r="Q999" s="7"/>
     </row>
-    <row r="1000" spans="1:17">
+    <row r="1000" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1000" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E1</v>
@@ -29656,7 +29665,7 @@
       <c r="P1000" s="24"/>
       <c r="Q1000" s="7"/>
     </row>
-    <row r="1001" spans="1:17">
+    <row r="1001" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1001" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E2</v>
@@ -29680,7 +29689,7 @@
       <c r="P1001" s="24"/>
       <c r="Q1001" s="7"/>
     </row>
-    <row r="1002" spans="1:17">
+    <row r="1002" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1002" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E3</v>
@@ -29704,7 +29713,7 @@
       <c r="P1002" s="24"/>
       <c r="Q1002" s="7"/>
     </row>
-    <row r="1003" spans="1:17">
+    <row r="1003" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1003" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E4</v>
@@ -29728,7 +29737,7 @@
       <c r="P1003" s="24"/>
       <c r="Q1003" s="7"/>
     </row>
-    <row r="1004" spans="1:17">
+    <row r="1004" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1004" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E5</v>
@@ -29752,7 +29761,7 @@
       <c r="P1004" s="24"/>
       <c r="Q1004" s="7"/>
     </row>
-    <row r="1005" spans="1:17">
+    <row r="1005" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1005" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E6</v>
@@ -29776,7 +29785,7 @@
       <c r="P1005" s="24"/>
       <c r="Q1005" s="7"/>
     </row>
-    <row r="1006" spans="1:17">
+    <row r="1006" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1006" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E7</v>
@@ -29800,7 +29809,7 @@
       <c r="P1006" s="24"/>
       <c r="Q1006" s="7"/>
     </row>
-    <row r="1007" spans="1:17">
+    <row r="1007" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1007" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E8</v>
@@ -29824,7 +29833,7 @@
       <c r="P1007" s="24"/>
       <c r="Q1007" s="7"/>
     </row>
-    <row r="1008" spans="1:17">
+    <row r="1008" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1008" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3E9</v>
@@ -29848,7 +29857,7 @@
       <c r="P1008" s="24"/>
       <c r="Q1008" s="7"/>
     </row>
-    <row r="1009" spans="1:17">
+    <row r="1009" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1009" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3EA</v>
@@ -29872,7 +29881,7 @@
       <c r="P1009" s="24"/>
       <c r="Q1009" s="7"/>
     </row>
-    <row r="1010" spans="1:17">
+    <row r="1010" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1010" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3EB</v>
@@ -29896,7 +29905,7 @@
       <c r="P1010" s="24"/>
       <c r="Q1010" s="7"/>
     </row>
-    <row r="1011" spans="1:17">
+    <row r="1011" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1011" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3EC</v>
@@ -29920,7 +29929,7 @@
       <c r="P1011" s="24"/>
       <c r="Q1011" s="7"/>
     </row>
-    <row r="1012" spans="1:17">
+    <row r="1012" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1012" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3ED</v>
@@ -29944,7 +29953,7 @@
       <c r="P1012" s="24"/>
       <c r="Q1012" s="7"/>
     </row>
-    <row r="1013" spans="1:17">
+    <row r="1013" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1013" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3EE</v>
@@ -29968,7 +29977,7 @@
       <c r="P1013" s="24"/>
       <c r="Q1013" s="7"/>
     </row>
-    <row r="1014" spans="1:17">
+    <row r="1014" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1014" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3EF</v>
@@ -29992,7 +30001,7 @@
       <c r="P1014" s="24"/>
       <c r="Q1014" s="7"/>
     </row>
-    <row r="1015" spans="1:17">
+    <row r="1015" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1015" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F0</v>
@@ -30016,7 +30025,7 @@
       <c r="P1015" s="24"/>
       <c r="Q1015" s="7"/>
     </row>
-    <row r="1016" spans="1:17">
+    <row r="1016" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1016" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F1</v>
@@ -30040,7 +30049,7 @@
       <c r="P1016" s="24"/>
       <c r="Q1016" s="7"/>
     </row>
-    <row r="1017" spans="1:17">
+    <row r="1017" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1017" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F2</v>
@@ -30064,7 +30073,7 @@
       <c r="P1017" s="24"/>
       <c r="Q1017" s="7"/>
     </row>
-    <row r="1018" spans="1:17">
+    <row r="1018" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1018" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F3</v>
@@ -30088,7 +30097,7 @@
       <c r="P1018" s="24"/>
       <c r="Q1018" s="7"/>
     </row>
-    <row r="1019" spans="1:17">
+    <row r="1019" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1019" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F4</v>
@@ -30112,7 +30121,7 @@
       <c r="P1019" s="24"/>
       <c r="Q1019" s="7"/>
     </row>
-    <row r="1020" spans="1:17">
+    <row r="1020" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1020" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F5</v>
@@ -30136,7 +30145,7 @@
       <c r="P1020" s="24"/>
       <c r="Q1020" s="7"/>
     </row>
-    <row r="1021" spans="1:17">
+    <row r="1021" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1021" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F6</v>
@@ -30160,7 +30169,7 @@
       <c r="P1021" s="24"/>
       <c r="Q1021" s="7"/>
     </row>
-    <row r="1022" spans="1:17">
+    <row r="1022" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1022" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F7</v>
@@ -30184,7 +30193,7 @@
       <c r="P1022" s="24"/>
       <c r="Q1022" s="7"/>
     </row>
-    <row r="1023" spans="1:17">
+    <row r="1023" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1023" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F8</v>
@@ -30208,7 +30217,7 @@
       <c r="P1023" s="24"/>
       <c r="Q1023" s="7"/>
     </row>
-    <row r="1024" spans="1:17">
+    <row r="1024" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1024" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3F9</v>
@@ -30232,7 +30241,7 @@
       <c r="P1024" s="24"/>
       <c r="Q1024" s="7"/>
     </row>
-    <row r="1025" spans="1:17">
+    <row r="1025" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1025" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3FA</v>
@@ -30256,7 +30265,7 @@
       <c r="P1025" s="24"/>
       <c r="Q1025" s="7"/>
     </row>
-    <row r="1026" spans="1:17">
+    <row r="1026" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1026" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3FB</v>
@@ -30280,7 +30289,7 @@
       <c r="P1026" s="24"/>
       <c r="Q1026" s="7"/>
     </row>
-    <row r="1027" spans="1:17">
+    <row r="1027" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1027" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3FC</v>
@@ -30304,7 +30313,7 @@
       <c r="P1027" s="24"/>
       <c r="Q1027" s="7"/>
     </row>
-    <row r="1028" spans="1:17">
+    <row r="1028" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1028" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3FD</v>
@@ -30328,7 +30337,7 @@
       <c r="P1028" s="24"/>
       <c r="Q1028" s="7"/>
     </row>
-    <row r="1029" spans="1:17">
+    <row r="1029" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A1029" s="5" t="str">
         <f t="shared" si="34"/>
         <v>3FE</v>
@@ -30352,7 +30361,7 @@
       <c r="P1029" s="24"/>
       <c r="Q1029" s="7"/>
     </row>
-    <row r="1030" spans="1:17" ht="14.25" thickBot="1">
+    <row r="1030" spans="1:17" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A1030" s="11" t="str">
         <f t="shared" si="34"/>
         <v>3FF</v>
@@ -30376,7 +30385,7 @@
       <c r="P1030" s="25"/>
       <c r="Q1030" s="13"/>
     </row>
-    <row r="1031" spans="1:17" ht="14.25" thickTop="1"/>
+    <row r="1031" spans="1:17" ht="14.25" thickTop="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -586,10 +586,6 @@
   </si>
   <si>
     <t>Rd = Rd - Rs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = (Rd * Rs) &amp; 0xFFFF</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1945,6 +1941,10 @@
     <rPh sb="0" eb="4">
       <t>フゴウカクチョウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = (Rd * Rs) &amp; 0xFFFFFFFF</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2711,8 +2711,8 @@
   </sheetPr>
   <dimension ref="A2:AK1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A251" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E143" sqref="E143"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -2764,52 +2764,52 @@
     </row>
     <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>401</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>403</v>
-      </c>
       <c r="C6" s="18" t="s">
+        <v>371</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>372</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>373</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="F6" s="18" t="s">
         <v>374</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>375</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
+        <v>385</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>384</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>376</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>386</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>377</v>
-      </c>
       <c r="K6" s="18" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="L6" s="29" t="s">
+        <v>378</v>
+      </c>
+      <c r="M6" s="43" t="s">
         <v>379</v>
-      </c>
-      <c r="M6" s="43" t="s">
-        <v>380</v>
       </c>
       <c r="N6" s="26" t="s">
         <v>76</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="Q6" s="19" t="s">
         <v>41</v>
@@ -2830,7 +2830,7 @@
         <v>1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>0</v>
@@ -2843,7 +2843,7 @@
         <v>16</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>121</v>
@@ -2869,7 +2869,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>3</v>
@@ -2882,7 +2882,7 @@
         <v>16</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="J8" s="6" t="s">
         <v>122</v>
@@ -2908,7 +2908,7 @@
         <v>48</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" s="22" t="s">
         <v>63</v>
@@ -2921,10 +2921,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>123</v>
+        <v>409</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -2947,7 +2947,7 @@
         <v>49</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F10" s="22" t="s">
         <v>47</v>
@@ -2960,10 +2960,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -2983,11 +2983,11 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2997,10 +2997,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -3024,11 +3024,11 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="22" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G12" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3038,10 +3038,10 @@
         <v>16</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -3068,7 +3068,7 @@
         <v>62</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>40</v>
@@ -3081,10 +3081,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -3106,13 +3106,13 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="22" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G14" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3122,10 +3122,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -3149,13 +3149,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G15" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3165,10 +3165,10 @@
         <v>16</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -3192,25 +3192,25 @@
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000001001</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -3231,21 +3231,21 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001010</v>
       </c>
       <c r="H17" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>399</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
@@ -3268,21 +3268,21 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001011</v>
       </c>
       <c r="H18" s="35" t="s">
+        <v>398</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>399</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>400</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
@@ -3334,22 +3334,22 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="6" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001101</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -3369,26 +3369,26 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>282</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>177</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>283</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>178</v>
       </c>
       <c r="G21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001110</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>178</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>180</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>181</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -3435,22 +3435,22 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010000</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -3470,22 +3470,22 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010001</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3532,27 +3532,27 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="G26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010011</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="K26" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -3571,27 +3571,27 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010100</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="J27" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3610,27 +3610,27 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>DEC2BIN(B28, 10)</f>
         <v>0000010101</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>349</v>
-      </c>
       <c r="K28" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3649,27 +3649,27 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010110</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="J29" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>350</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>351</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -3823,25 +3823,25 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="22" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011100</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="6"/>
@@ -3860,25 +3860,25 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011101</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="6"/>
@@ -3950,7 +3950,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -4840,16 +4840,16 @@
         <v>0001000000</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J71" s="6" t="s">
         <v>97</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L71" s="32"/>
       <c r="M71" s="6"/>
@@ -4883,16 +4883,16 @@
         <v>0001000001</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J72" s="6" t="s">
         <v>98</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L72" s="32"/>
       <c r="M72" s="6"/>
@@ -4996,7 +4996,7 @@
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22" t="s">
@@ -5007,16 +5007,16 @@
         <v>0001000101</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J76" s="6" t="s">
         <v>99</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="L76" s="32"/>
       <c r="M76" s="6"/>
@@ -5104,16 +5104,16 @@
         <v>0001001000</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L79" s="32"/>
       <c r="M79" s="6"/>
@@ -5147,16 +5147,16 @@
         <v>0001001001</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J80" s="6" t="s">
         <v>100</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="L80" s="32"/>
       <c r="M80" s="6"/>
@@ -5897,11 +5897,11 @@
         <v>0001100011</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I106" s="22"/>
       <c r="J106" s="22" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -6043,7 +6043,7 @@
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
@@ -6121,7 +6121,7 @@
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G113" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6135,7 +6135,7 @@
         <v>107</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="6"/>
@@ -6158,7 +6158,7 @@
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G114" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6172,7 +6172,7 @@
         <v>108</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="6"/>
@@ -6191,11 +6191,11 @@
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6206,10 +6206,10 @@
         <v>69</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="6"/>
@@ -6232,7 +6232,7 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G116" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6243,10 +6243,10 @@
         <v>69</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L116" s="10"/>
       <c r="M116" s="6"/>
@@ -6272,7 +6272,7 @@
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G117" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6286,7 +6286,7 @@
         <v>109</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="6"/>
@@ -6309,7 +6309,7 @@
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="22" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="G118" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6323,7 +6323,7 @@
         <v>110</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L118" s="10"/>
       <c r="M118" s="6"/>
@@ -6346,21 +6346,21 @@
       </c>
       <c r="E119" s="22"/>
       <c r="F119" s="22" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G119" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110000</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I119" s="22"/>
       <c r="J119" s="22" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="6"/>
@@ -6383,21 +6383,21 @@
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="22" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="G120" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110001</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="6"/>
@@ -6420,23 +6420,23 @@
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="22" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="G121" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110010</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="6"/>
@@ -6459,23 +6459,23 @@
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="22" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G122" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110011</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="I122" s="6" t="s">
         <v>69</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L122" s="10"/>
       <c r="M122" s="6"/>
@@ -6551,11 +6551,11 @@
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="22" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G125" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6563,13 +6563,13 @@
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="6"/>
@@ -6588,11 +6588,11 @@
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="22" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G126" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6600,13 +6600,13 @@
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="6"/>
@@ -6679,11 +6679,11 @@
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="22" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G129" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6691,10 +6691,10 @@
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
@@ -6727,7 +6727,7 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="10" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="6"/>
@@ -6853,14 +6853,14 @@
         <v>128</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="22" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G135" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6870,19 +6870,19 @@
         <v>16</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L135" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="M135" s="35" t="s">
         <v>381</v>
-      </c>
-      <c r="M135" s="35" t="s">
-        <v>382</v>
       </c>
       <c r="N135" s="24"/>
       <c r="O135" s="24">
@@ -6904,10 +6904,10 @@
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G136" s="6" t="str">
         <f t="shared" ref="G136:G199" si="10">DEC2BIN(B136, 10)</f>
@@ -6917,19 +6917,19 @@
         <v>16</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J136" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L136" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="M136" s="35" t="s">
         <v>381</v>
-      </c>
-      <c r="M136" s="35" t="s">
-        <v>382</v>
       </c>
       <c r="N136" s="24"/>
       <c r="O136" s="24">
@@ -6951,10 +6951,10 @@
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="G137" s="6" t="str">
         <f t="shared" si="10"/>
@@ -6964,19 +6964,19 @@
         <v>16</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J137" s="22" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L137" s="35" t="s">
+        <v>380</v>
+      </c>
+      <c r="M137" s="35" t="s">
         <v>381</v>
-      </c>
-      <c r="M137" s="35" t="s">
-        <v>382</v>
       </c>
       <c r="N137" s="24"/>
       <c r="O137" s="24">
@@ -7001,7 +7001,7 @@
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G138" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7011,13 +7011,13 @@
         <v>16</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J138" s="22" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
@@ -7041,10 +7041,10 @@
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G139" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7054,13 +7054,13 @@
         <v>16</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J139" s="22" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
@@ -7084,10 +7084,10 @@
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G140" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7097,13 +7097,13 @@
         <v>16</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J140" s="22" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
@@ -7183,7 +7183,7 @@
         <v>36</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="F143" s="22" t="s">
         <v>30</v>
@@ -7196,13 +7196,13 @@
         <v>22</v>
       </c>
       <c r="I143" s="35" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>111</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
@@ -7229,7 +7229,7 @@
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G144" s="6" t="str">
         <f t="shared" ref="G144" si="11">DEC2BIN(B144, 10)</f>
@@ -7240,10 +7240,10 @@
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
@@ -7446,11 +7446,11 @@
         <v>112</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L151" s="6"/>
       <c r="M151" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="N151" s="24"/>
       <c r="O151" s="24">
@@ -7714,28 +7714,28 @@
       </c>
       <c r="C161" s="27"/>
       <c r="D161" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E161" s="27"/>
       <c r="F161" s="28" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="G161" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011010</v>
       </c>
       <c r="H161" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I161" s="27"/>
       <c r="J161" s="22" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="K161" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="M161" s="22"/>
       <c r="N161" s="30"/>
@@ -7757,30 +7757,30 @@
       </c>
       <c r="C162" s="27"/>
       <c r="D162" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="G162" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011011</v>
       </c>
       <c r="H162" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I162" s="27"/>
       <c r="J162" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K162" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="M162" s="22"/>
       <c r="N162" s="30"/>
@@ -7802,30 +7802,30 @@
       </c>
       <c r="C163" s="27"/>
       <c r="D163" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G163" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011100</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I163" s="27"/>
       <c r="J163" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="K163" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="M163" s="22"/>
       <c r="N163" s="30"/>
@@ -7847,25 +7847,25 @@
       </c>
       <c r="C164" s="27"/>
       <c r="D164" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E164" s="27"/>
       <c r="F164" s="28" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="G164" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011101</v>
       </c>
       <c r="H164" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I164" s="27"/>
       <c r="J164" s="22" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
@@ -7888,27 +7888,27 @@
       </c>
       <c r="C165" s="27"/>
       <c r="D165" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G165" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011110</v>
       </c>
       <c r="H165" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I165" s="27"/>
       <c r="J165" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K165" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
@@ -7931,27 +7931,27 @@
       </c>
       <c r="C166" s="27"/>
       <c r="D166" s="27" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G166" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011111</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="I166" s="27"/>
       <c r="J166" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="K166" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
@@ -7979,10 +7979,10 @@
         <v>73</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G167" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7992,13 +7992,13 @@
         <v>120</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J167" s="6" t="s">
         <v>113</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
@@ -8010,7 +8010,7 @@
         <v>94</v>
       </c>
       <c r="Q167" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.15">
@@ -8026,10 +8026,10 @@
         <v>74</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G168" s="6" t="str">
         <f t="shared" si="10"/>
@@ -8039,13 +8039,13 @@
         <v>120</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J168" s="6" t="s">
         <v>114</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
@@ -8057,7 +8057,7 @@
         <v>94</v>
       </c>
       <c r="Q168" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.15">
@@ -8073,10 +8073,10 @@
         <v>75</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G169" s="6" t="str">
         <f t="shared" si="10"/>
@@ -8086,13 +8086,13 @@
         <v>120</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J169" s="6" t="s">
         <v>115</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
@@ -8104,7 +8104,7 @@
         <v>94</v>
       </c>
       <c r="Q169" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.15">
@@ -8117,27 +8117,27 @@
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G170" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100011</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="6" t="s">
         <v>115</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
@@ -8149,7 +8149,7 @@
         <v>94</v>
       </c>
       <c r="Q170" s="7" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.15">
@@ -8489,10 +8489,10 @@
         <v>73</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G183" s="6" t="str">
         <f t="shared" si="10"/>
@@ -8502,13 +8502,13 @@
         <v>120</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J183" s="6" t="s">
         <v>113</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
@@ -8520,7 +8520,7 @@
         <v>94</v>
       </c>
       <c r="Q183" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.15">
@@ -8536,10 +8536,10 @@
         <v>74</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G184" s="6" t="str">
         <f t="shared" si="10"/>
@@ -8549,13 +8549,13 @@
         <v>120</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J184" s="6" t="s">
         <v>114</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -8567,7 +8567,7 @@
         <v>94</v>
       </c>
       <c r="Q184" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.15">
@@ -8583,10 +8583,10 @@
         <v>75</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G185" s="6" t="str">
         <f t="shared" si="10"/>
@@ -8596,13 +8596,13 @@
         <v>120</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="J185" s="6" t="s">
         <v>115</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
@@ -8614,7 +8614,7 @@
         <v>94</v>
       </c>
       <c r="Q185" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.15">
@@ -8984,7 +8984,7 @@
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G199" s="6" t="str">
         <f t="shared" si="10"/>
@@ -8998,7 +8998,7 @@
         <v>116</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L199" s="6"/>
       <c r="M199" s="22"/>
@@ -9021,7 +9021,7 @@
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G200" s="6" t="str">
         <f t="shared" ref="G200:G201" si="15">DEC2BIN(B200, 10)</f>
@@ -9035,7 +9035,7 @@
         <v>117</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L200" s="6"/>
       <c r="M200" s="10"/>
@@ -9058,7 +9058,7 @@
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="22" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="G201" s="6" t="str">
         <f t="shared" si="15"/>
@@ -9069,10 +9069,10 @@
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
@@ -9091,11 +9091,11 @@
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="22" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E202" s="22"/>
       <c r="F202" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G202" s="6" t="str">
         <f t="shared" ref="G202:G208" si="16">DEC2BIN(B202, 10)</f>
@@ -9106,10 +9106,10 @@
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="K202" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L202" s="35"/>
       <c r="M202" s="10"/>
@@ -9128,11 +9128,11 @@
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="22" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G203" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9143,10 +9143,10 @@
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
@@ -9169,7 +9169,7 @@
       </c>
       <c r="E204" s="22"/>
       <c r="F204" s="22" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G204" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9180,10 +9180,10 @@
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
@@ -9258,11 +9258,11 @@
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="22" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="G207" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9273,15 +9273,15 @@
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L207" s="6"/>
       <c r="M207" s="10"/>
       <c r="N207" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O207" s="24">
         <v>3</v>
@@ -9305,7 +9305,7 @@
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G208" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9319,12 +9319,12 @@
         <v>118</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
       <c r="N208" s="24" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="O208" s="24">
         <v>3</v>
@@ -9344,25 +9344,25 @@
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G209" s="6" t="str">
         <f t="shared" ref="G209:G262" si="17">DEC2BIN(B209, 10)</f>
         <v>0011001010</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
@@ -9370,7 +9370,7 @@
       <c r="O209" s="24"/>
       <c r="P209" s="24"/>
       <c r="Q209" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.15">
@@ -9383,25 +9383,25 @@
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="22" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G210" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001011</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
@@ -9420,25 +9420,25 @@
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G211" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001100</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
@@ -9457,11 +9457,11 @@
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="34" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E212" s="34"/>
       <c r="F212" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G212" s="6" t="str">
         <f t="shared" si="17"/>
@@ -9473,7 +9473,7 @@
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L212" s="35"/>
       <c r="M212" s="6"/>
@@ -9492,11 +9492,11 @@
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G213" s="6" t="str">
         <f t="shared" si="17"/>
@@ -9508,7 +9508,7 @@
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L213" s="35"/>
       <c r="M213" s="6"/>
@@ -9556,11 +9556,11 @@
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G215" s="6" t="str">
         <f t="shared" si="17"/>
@@ -9572,7 +9572,7 @@
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L215" s="35"/>
       <c r="M215" s="6"/>
@@ -9591,11 +9591,11 @@
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G216" s="6" t="str">
         <f t="shared" si="17"/>
@@ -9607,7 +9607,7 @@
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L216" s="35"/>
       <c r="M216" s="6"/>
@@ -9653,23 +9653,23 @@
       </c>
       <c r="C218" s="22"/>
       <c r="D218" s="22" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E218" s="22"/>
       <c r="F218" s="22" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G218" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010011</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I218" s="22"/>
       <c r="J218" s="22"/>
       <c r="K218" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L218" s="22"/>
       <c r="M218" s="6"/>
@@ -9688,23 +9688,23 @@
       </c>
       <c r="C219" s="22"/>
       <c r="D219" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="E219" s="22"/>
       <c r="F219" s="22" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G219" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010100</v>
       </c>
       <c r="H219" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
       <c r="K219" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L219" s="22"/>
       <c r="M219" s="6"/>
@@ -9723,23 +9723,23 @@
       </c>
       <c r="C220" s="22"/>
       <c r="D220" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="E220" s="22"/>
       <c r="F220" s="22" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G220" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010101</v>
       </c>
       <c r="H220" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I220" s="22"/>
       <c r="J220" s="22"/>
       <c r="K220" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L220" s="22"/>
       <c r="M220" s="6"/>
@@ -9758,23 +9758,23 @@
       </c>
       <c r="C221" s="22"/>
       <c r="D221" s="22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E221" s="22"/>
       <c r="F221" s="22" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G221" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010110</v>
       </c>
       <c r="H221" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="I221" s="22"/>
       <c r="J221" s="22"/>
       <c r="K221" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L221" s="22"/>
       <c r="M221" s="6"/>
@@ -9793,25 +9793,25 @@
       </c>
       <c r="C222" s="32"/>
       <c r="D222" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E222" s="32"/>
       <c r="F222" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G222" s="32" t="str">
         <f t="shared" si="17"/>
         <v>0011010111</v>
       </c>
       <c r="H222" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="I222" s="32"/>
       <c r="J222" s="32" t="s">
+        <v>335</v>
+      </c>
+      <c r="K222" s="32" t="s">
         <v>336</v>
-      </c>
-      <c r="K222" s="32" t="s">
-        <v>337</v>
       </c>
       <c r="L222" s="32"/>
       <c r="M222" s="6"/>
@@ -10052,7 +10052,7 @@
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="22" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G231" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10066,7 +10066,7 @@
         <v>119</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
@@ -10085,11 +10085,11 @@
       </c>
       <c r="C232" s="32"/>
       <c r="D232" s="32" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E232" s="32"/>
       <c r="F232" s="32" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G232" s="32" t="str">
         <f t="shared" si="17"/>
@@ -10101,12 +10101,12 @@
       <c r="I232" s="32"/>
       <c r="J232" s="32"/>
       <c r="K232" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L232" s="32"/>
       <c r="M232" s="6"/>
       <c r="N232" s="24" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="O232" s="24"/>
       <c r="P232" s="24" t="s">
@@ -10134,7 +10134,7 @@
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L233" s="22"/>
       <c r="M233" s="6"/>
@@ -10211,23 +10211,23 @@
       </c>
       <c r="E236" s="22"/>
       <c r="F236" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G236" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011100101</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="K236" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L236" s="22"/>
       <c r="M236" s="6"/>
@@ -10308,11 +10308,11 @@
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="22" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G239" s="6" t="str">
         <f>DEC2BIN(B239, 10)</f>
@@ -10323,10 +10323,10 @@
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K239" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L239" s="22"/>
       <c r="M239" s="6"/>
@@ -10355,7 +10355,7 @@
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G240" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10366,10 +10366,10 @@
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="K240" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L240" s="22"/>
       <c r="M240" s="6"/>
@@ -10394,27 +10394,27 @@
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G241" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101010</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="K241" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L241" s="22"/>
       <c r="M241" s="6"/>
@@ -10428,7 +10428,7 @@
         <v>95</v>
       </c>
       <c r="Q241" s="7" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.15">
@@ -10495,11 +10495,11 @@
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="34" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E244" s="34"/>
       <c r="F244" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G244" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10511,7 +10511,7 @@
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L244" s="22"/>
       <c r="M244" s="6"/>
@@ -10530,11 +10530,11 @@
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G245" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10546,7 +10546,7 @@
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L245" s="22"/>
       <c r="M245" s="6"/>
@@ -10594,11 +10594,11 @@
       </c>
       <c r="C247" s="22"/>
       <c r="D247" s="22" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E247" s="22"/>
       <c r="F247" s="22" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G247" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10610,7 +10610,7 @@
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L247" s="22"/>
       <c r="M247" s="6"/>
@@ -10629,11 +10629,11 @@
       </c>
       <c r="C248" s="22"/>
       <c r="D248" s="22" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E248" s="22"/>
       <c r="F248" s="22" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G248" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10645,7 +10645,7 @@
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L248" s="22"/>
       <c r="M248" s="6"/>
@@ -10664,23 +10664,23 @@
       </c>
       <c r="C249" s="22"/>
       <c r="D249" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E249" s="22"/>
       <c r="F249" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G249" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110010</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="22" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L249" s="22"/>
       <c r="M249" s="6"/>
@@ -10699,23 +10699,23 @@
       </c>
       <c r="C250" s="22"/>
       <c r="D250" s="22" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E250" s="22"/>
       <c r="F250" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G250" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110011</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="L250" s="22"/>
       <c r="M250" s="6"/>
@@ -10734,23 +10734,23 @@
       </c>
       <c r="C251" s="22"/>
       <c r="D251" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="E251" s="22"/>
       <c r="F251" s="22" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G251" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110100</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L251" s="22"/>
       <c r="M251" s="6"/>
@@ -10769,23 +10769,23 @@
       </c>
       <c r="C252" s="22"/>
       <c r="D252" s="22" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="E252" s="22"/>
       <c r="F252" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G252" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110101</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L252" s="22"/>
       <c r="M252" s="6"/>
@@ -10804,23 +10804,23 @@
       </c>
       <c r="C253" s="22"/>
       <c r="D253" s="22" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="E253" s="22"/>
       <c r="F253" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G253" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110110</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="22" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="L253" s="22"/>
       <c r="M253" s="6"/>
@@ -11055,13 +11055,13 @@
       </c>
       <c r="C262" s="35"/>
       <c r="D262" s="35" t="s">
+        <v>393</v>
+      </c>
+      <c r="E262" s="35" t="s">
+        <v>283</v>
+      </c>
+      <c r="F262" s="35" t="s">
         <v>394</v>
-      </c>
-      <c r="E262" s="35" t="s">
-        <v>284</v>
-      </c>
-      <c r="F262" s="35" t="s">
-        <v>395</v>
       </c>
       <c r="G262" s="35" t="str">
         <f t="shared" si="17"/>
@@ -11069,13 +11069,13 @@
       </c>
       <c r="H262" s="35"/>
       <c r="I262" s="35" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -11111,10 +11111,10 @@
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -11148,15 +11148,15 @@
       </c>
       <c r="I264" s="6"/>
       <c r="J264" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
       <c r="N264" s="24" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="O264" s="24">
         <v>3</v>
@@ -11191,10 +11191,10 @@
       </c>
       <c r="I265" s="6"/>
       <c r="J265" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="K265" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L265" s="35"/>
       <c r="M265" s="6"/>
@@ -11213,29 +11213,29 @@
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G266" s="6" t="str">
         <f t="shared" ref="G266:G327" si="20">DEC2BIN(B266, 10)</f>
         <v>0100000011</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -12009,14 +12009,14 @@
         <v>288</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E295" s="6"/>
       <c r="F295" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G295" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12024,13 +12024,13 @@
       </c>
       <c r="H295" s="6"/>
       <c r="I295" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="J295" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="J295" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="K295" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L295" s="35"/>
       <c r="M295" s="6"/>
@@ -12049,27 +12049,27 @@
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G296" s="6" t="str">
         <f t="shared" si="20"/>
         <v>0100100001</v>
       </c>
       <c r="H296" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="I296" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="I296" s="6" t="s">
+      <c r="J296" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="J296" s="6" t="s">
-        <v>408</v>
-      </c>
       <c r="K296" s="35" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L296" s="35"/>
       <c r="M296" s="6"/>
@@ -12088,37 +12088,37 @@
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="27" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E297" s="28"/>
       <c r="F297" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G297" s="28" t="str">
         <f t="shared" si="20"/>
         <v>0100100010</v>
       </c>
       <c r="H297" s="28" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="I297" s="28"/>
       <c r="J297" s="28" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="K297" s="28" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L297" s="28"/>
       <c r="M297" s="28"/>
       <c r="N297" s="39" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="O297" s="39"/>
       <c r="P297" s="39" t="s">
+        <v>293</v>
+      </c>
+      <c r="Q297" s="40" t="s">
         <v>294</v>
-      </c>
-      <c r="Q297" s="40" t="s">
-        <v>295</v>
       </c>
       <c r="R297" s="41"/>
     </row>
@@ -12132,11 +12132,11 @@
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="6" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="G298" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12163,11 +12163,11 @@
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G299" s="6" t="str">
         <f t="shared" si="20"/>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -188,13 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>備考</t>
-    <rPh sb="0" eb="2">
-      <t>ビコウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SUBを行ない、結果を破棄しフラグのみ更新</t>
     <rPh sb="4" eb="5">
       <t>オコ</t>
@@ -345,16 +338,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実行権限</t>
-    <rPh sb="0" eb="2">
-      <t>ジッコウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ケンゲン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ルートモードのみ実行可能</t>
     <rPh sb="8" eb="10">
       <t>ジッコウ</t>
@@ -589,10 +572,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = (Rd * Rs) &gt;&gt; 32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = Rd / Rs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -634,19 +613,6 @@
   </si>
   <si>
     <t>Rd = Rs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>例外発生の条件</t>
-    <rPh sb="0" eb="2">
-      <t>レイガイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ハッセイ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>ジョウケン</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -939,13 +905,6 @@
   </si>
   <si>
     <t>TAS</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>トラップ番号</t>
-    <rPh sb="4" eb="6">
-      <t>バンゴウ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1812,14 +1771,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>AFE-Format1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>AFE-Format2(Imm)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MA</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1833,14 +1784,6 @@
   </si>
   <si>
     <t>MA</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Format2(Imm)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Format1(Operand/Disp)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1945,6 +1888,42 @@
   </si>
   <si>
     <t>Rd = (Rd * Rs) &amp; 0xFFFFFFFF</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = (Rd * Rs) &gt;&gt; 32</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FMT1(Operand/Disp)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FMT2(Imm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFE-FMT1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>AFE-FMT2(Imm)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Auth</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trap</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Trap Condition</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Note</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2711,8 +2690,8 @@
   </sheetPr>
   <dimension ref="A2:AK1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+    <sheetView tabSelected="1" topLeftCell="I127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I129" sqref="I129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2751,68 +2730,68 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M5" s="44"/>
       <c r="N5" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>401</v>
+        <v>392</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>370</v>
+      </c>
+      <c r="H6" s="18" t="s">
         <v>402</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="I6" s="18" t="s">
+        <v>403</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>371</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>372</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>373</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>374</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>375</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>385</v>
-      </c>
-      <c r="I6" s="18" t="s">
-        <v>384</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>376</v>
-      </c>
       <c r="K6" s="18" t="s">
+        <v>395</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>404</v>
       </c>
-      <c r="L6" s="29" t="s">
-        <v>378</v>
-      </c>
       <c r="M6" s="43" t="s">
-        <v>379</v>
+        <v>405</v>
       </c>
       <c r="N6" s="26" t="s">
-        <v>76</v>
+        <v>406</v>
       </c>
       <c r="O6" s="33" t="s">
-        <v>199</v>
+        <v>407</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>135</v>
+        <v>408</v>
       </c>
       <c r="Q6" s="19" t="s">
-        <v>41</v>
+        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -2824,13 +2803,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>0</v>
@@ -2843,10 +2822,10 @@
         <v>16</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -2869,7 +2848,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>3</v>
@@ -2882,10 +2861,10 @@
         <v>16</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2905,13 +2884,13 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2921,10 +2900,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>409</v>
+        <v>400</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -2944,13 +2923,13 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" ref="G10:G70" si="2">DEC2BIN(B10, 10)</f>
@@ -2960,10 +2939,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>123</v>
+        <v>401</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -2983,11 +2962,11 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="2"/>
@@ -2997,10 +2976,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -3010,7 +2989,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q11" s="7"/>
     </row>
@@ -3024,11 +3003,11 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="G12" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3038,10 +3017,10 @@
         <v>16</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -3051,7 +3030,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
@@ -3065,10 +3044,10 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F13" s="22" t="s">
         <v>40</v>
@@ -3081,10 +3060,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -3093,7 +3072,7 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="7" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -3106,13 +3085,13 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="22" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="G14" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3122,10 +3101,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -3135,7 +3114,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q14" s="7"/>
     </row>
@@ -3149,13 +3128,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="22" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="G15" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3165,10 +3144,10 @@
         <v>16</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -3178,7 +3157,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="Q15" s="7"/>
     </row>
@@ -3192,25 +3171,25 @@
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000001001</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -3231,21 +3210,21 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>386</v>
+        <v>377</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>388</v>
+        <v>379</v>
       </c>
       <c r="G17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001010</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
@@ -3268,21 +3247,21 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>387</v>
+        <v>378</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="G18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001011</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>399</v>
+        <v>390</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
@@ -3334,22 +3313,22 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="6" t="s">
-        <v>400</v>
+        <v>391</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001101</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -3369,26 +3348,26 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="E21" s="22" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="F21" s="6" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001110</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -3435,22 +3414,22 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="6" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010000</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -3470,22 +3449,22 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="G24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010001</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3532,27 +3511,27 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="G26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010011</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -3571,27 +3550,27 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="G27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010100</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3610,27 +3589,27 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>DEC2BIN(B28, 10)</f>
         <v>0000010101</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3649,27 +3628,27 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>354</v>
+        <v>349</v>
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010110</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>349</v>
+        <v>344</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -3823,25 +3802,25 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="22" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011100</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="6"/>
@@ -3860,25 +3839,25 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="22" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011101</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="6"/>
@@ -3950,7 +3929,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -4833,23 +4812,23 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G71" s="6" t="str">
         <f t="shared" ref="G71:G82" si="3">DEC2BIN(B71, 10)</f>
         <v>0001000000</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L71" s="32"/>
       <c r="M71" s="6"/>
@@ -4858,7 +4837,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q71" s="7"/>
     </row>
@@ -4876,23 +4855,23 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G72" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0001000001</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L72" s="32"/>
       <c r="M72" s="6"/>
@@ -4901,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q72" s="7"/>
     </row>
@@ -4996,27 +4975,27 @@
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G76" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001000101</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="L76" s="32"/>
       <c r="M76" s="6"/>
@@ -5025,7 +5004,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="Q76" s="7"/>
     </row>
@@ -5097,23 +5076,23 @@
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G79" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001001000</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="L79" s="32"/>
       <c r="M79" s="6"/>
@@ -5122,7 +5101,7 @@
         <v>1</v>
       </c>
       <c r="P79" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q79" s="7"/>
     </row>
@@ -5140,23 +5119,23 @@
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="G80" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001001001</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="L80" s="32"/>
       <c r="M80" s="6"/>
@@ -5165,7 +5144,7 @@
         <v>1</v>
       </c>
       <c r="P80" s="24" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="Q80" s="7"/>
     </row>
@@ -5793,7 +5772,7 @@
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -5828,7 +5807,7 @@
       </c>
       <c r="I104" s="22"/>
       <c r="J104" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
@@ -5851,22 +5830,22 @@
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="G105" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100010</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I105" s="22"/>
       <c r="J105" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -5897,11 +5876,11 @@
         <v>0001100011</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I106" s="22"/>
       <c r="J106" s="22" t="s">
-        <v>356</v>
+        <v>351</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -5936,7 +5915,7 @@
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -5957,11 +5936,11 @@
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G108" s="6" t="str">
         <f t="shared" si="8"/>
@@ -5972,7 +5951,7 @@
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -5993,11 +5972,11 @@
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G109" s="6" t="str">
         <f t="shared" si="8"/>
@@ -6008,7 +5987,7 @@
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
@@ -6028,22 +6007,22 @@
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G110" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100111</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
@@ -6117,11 +6096,11 @@
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="22" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="G113" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6132,10 +6111,10 @@
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="6"/>
@@ -6154,11 +6133,11 @@
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="22" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G114" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6169,10 +6148,10 @@
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="6"/>
@@ -6191,11 +6170,11 @@
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="22" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6203,13 +6182,13 @@
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="6"/>
@@ -6232,7 +6211,7 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="22" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="G116" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6240,13 +6219,13 @@
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L116" s="10"/>
       <c r="M116" s="6"/>
@@ -6272,7 +6251,7 @@
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="22" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G117" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6283,10 +6262,10 @@
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="6"/>
@@ -6309,7 +6288,7 @@
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="22" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="G118" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6320,10 +6299,10 @@
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L118" s="10"/>
       <c r="M118" s="6"/>
@@ -6342,25 +6321,25 @@
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E119" s="22"/>
       <c r="F119" s="22" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G119" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110000</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I119" s="22"/>
       <c r="J119" s="22" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="6"/>
@@ -6379,25 +6358,25 @@
       </c>
       <c r="C120" s="22"/>
       <c r="D120" s="22" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="22" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="G120" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110001</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>355</v>
+        <v>350</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="6"/>
@@ -6416,27 +6395,27 @@
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="22" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="G121" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110010</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="6"/>
@@ -6455,27 +6434,27 @@
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="22" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G122" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110011</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L122" s="10"/>
       <c r="M122" s="6"/>
@@ -6551,11 +6530,11 @@
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="22" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="G125" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6563,13 +6542,13 @@
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="6"/>
@@ -6588,11 +6567,11 @@
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="22" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G126" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6600,13 +6579,13 @@
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="6"/>
@@ -6679,11 +6658,11 @@
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="22" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G129" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6691,10 +6670,10 @@
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
@@ -6727,7 +6706,7 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="10" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="6"/>
@@ -6853,14 +6832,14 @@
         <v>128</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="22" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="G135" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6870,26 +6849,26 @@
         <v>16</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L135" s="35" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M135" s="35" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N135" s="24"/>
       <c r="O135" s="24">
         <v>2</v>
       </c>
       <c r="P135" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q135" s="7"/>
     </row>
@@ -6904,10 +6883,10 @@
       <c r="C136" s="6"/>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G136" s="6" t="str">
         <f t="shared" ref="G136:G199" si="10">DEC2BIN(B136, 10)</f>
@@ -6917,26 +6896,26 @@
         <v>16</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J136" s="22" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L136" s="35" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M136" s="35" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N136" s="24"/>
       <c r="O136" s="24">
         <v>2</v>
       </c>
       <c r="P136" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q136" s="7"/>
     </row>
@@ -6951,10 +6930,10 @@
       <c r="C137" s="6"/>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="G137" s="6" t="str">
         <f t="shared" si="10"/>
@@ -6964,26 +6943,26 @@
         <v>16</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J137" s="22" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L137" s="35" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M137" s="35" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="N137" s="24"/>
       <c r="O137" s="24">
         <v>2</v>
       </c>
       <c r="P137" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q137" s="7"/>
     </row>
@@ -7001,7 +6980,7 @@
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="22" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G138" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7011,13 +6990,13 @@
         <v>16</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J138" s="22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
@@ -7026,7 +7005,7 @@
         <v>2</v>
       </c>
       <c r="P138" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q138" s="7"/>
     </row>
@@ -7041,10 +7020,10 @@
       <c r="C139" s="6"/>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="G139" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7054,13 +7033,13 @@
         <v>16</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J139" s="22" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
@@ -7069,7 +7048,7 @@
         <v>2</v>
       </c>
       <c r="P139" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q139" s="7"/>
     </row>
@@ -7084,10 +7063,10 @@
       <c r="C140" s="6"/>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G140" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7097,13 +7076,13 @@
         <v>16</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J140" s="22" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
@@ -7112,7 +7091,7 @@
         <v>2</v>
       </c>
       <c r="P140" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q140" s="7"/>
     </row>
@@ -7183,7 +7162,7 @@
         <v>36</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>408</v>
+        <v>399</v>
       </c>
       <c r="F143" s="22" t="s">
         <v>30</v>
@@ -7196,13 +7175,13 @@
         <v>22</v>
       </c>
       <c r="I143" s="35" t="s">
-        <v>403</v>
+        <v>394</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
@@ -7211,7 +7190,7 @@
         <v>2</v>
       </c>
       <c r="P143" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q143" s="7"/>
     </row>
@@ -7225,11 +7204,11 @@
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="22" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G144" s="6" t="str">
         <f t="shared" ref="G144" si="11">DEC2BIN(B144, 10)</f>
@@ -7240,10 +7219,10 @@
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
@@ -7252,7 +7231,7 @@
         <v>2</v>
       </c>
       <c r="P144" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q144" s="7"/>
     </row>
@@ -7443,21 +7422,21 @@
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L151" s="6"/>
       <c r="M151" s="35" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="N151" s="24"/>
       <c r="O151" s="24">
         <v>2</v>
       </c>
       <c r="P151" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q151" s="7"/>
     </row>
@@ -7714,28 +7693,28 @@
       </c>
       <c r="C161" s="27"/>
       <c r="D161" s="27" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E161" s="27"/>
       <c r="F161" s="28" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="G161" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011010</v>
       </c>
       <c r="H161" s="27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I161" s="27"/>
       <c r="J161" s="22" t="s">
-        <v>367</v>
+        <v>362</v>
       </c>
       <c r="K161" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
       <c r="M161" s="22"/>
       <c r="N161" s="30"/>
@@ -7743,7 +7722,7 @@
         <v>2</v>
       </c>
       <c r="P161" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q161" s="45"/>
     </row>
@@ -7757,30 +7736,30 @@
       </c>
       <c r="C162" s="27"/>
       <c r="D162" s="27" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>361</v>
+        <v>356</v>
       </c>
       <c r="G162" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011011</v>
       </c>
       <c r="H162" s="27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I162" s="27"/>
       <c r="J162" s="22" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K162" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="M162" s="22"/>
       <c r="N162" s="30"/>
@@ -7788,7 +7767,7 @@
         <v>2</v>
       </c>
       <c r="P162" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q162" s="45"/>
     </row>
@@ -7802,30 +7781,30 @@
       </c>
       <c r="C163" s="27"/>
       <c r="D163" s="27" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>362</v>
+        <v>357</v>
       </c>
       <c r="G163" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011100</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I163" s="27"/>
       <c r="J163" s="22" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="K163" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
       <c r="M163" s="22"/>
       <c r="N163" s="30"/>
@@ -7833,7 +7812,7 @@
         <v>2</v>
       </c>
       <c r="P163" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q163" s="45"/>
     </row>
@@ -7847,25 +7826,25 @@
       </c>
       <c r="C164" s="27"/>
       <c r="D164" s="27" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E164" s="27"/>
       <c r="F164" s="28" t="s">
-        <v>363</v>
+        <v>358</v>
       </c>
       <c r="G164" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011101</v>
       </c>
       <c r="H164" s="27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I164" s="27"/>
       <c r="J164" s="22" t="s">
-        <v>366</v>
+        <v>361</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
@@ -7874,7 +7853,7 @@
         <v>2</v>
       </c>
       <c r="P164" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q164" s="45"/>
     </row>
@@ -7888,27 +7867,27 @@
       </c>
       <c r="C165" s="27"/>
       <c r="D165" s="27" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>364</v>
+        <v>359</v>
       </c>
       <c r="G165" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011110</v>
       </c>
       <c r="H165" s="27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I165" s="27"/>
       <c r="J165" s="22" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K165" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
@@ -7917,7 +7896,7 @@
         <v>2</v>
       </c>
       <c r="P165" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q165" s="45"/>
     </row>
@@ -7931,27 +7910,27 @@
       </c>
       <c r="C166" s="27"/>
       <c r="D166" s="27" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="G166" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011111</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="I166" s="27"/>
       <c r="J166" s="22" t="s">
-        <v>369</v>
+        <v>364</v>
       </c>
       <c r="K166" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
@@ -7960,7 +7939,7 @@
         <v>2</v>
       </c>
       <c r="P166" s="30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q166" s="45"/>
     </row>
@@ -7973,32 +7952,32 @@
         <v>160</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G167" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100000</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
@@ -8007,10 +7986,10 @@
         <v>2</v>
       </c>
       <c r="P167" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q167" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.15">
@@ -8023,29 +8002,29 @@
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="G168" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100001</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
@@ -8054,10 +8033,10 @@
         <v>2</v>
       </c>
       <c r="P168" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q168" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.15">
@@ -8070,29 +8049,29 @@
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G169" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100010</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
@@ -8101,10 +8080,10 @@
         <v>2</v>
       </c>
       <c r="P169" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q169" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.15">
@@ -8117,27 +8096,27 @@
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="G170" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100011</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
@@ -8146,10 +8125,10 @@
         <v>2</v>
       </c>
       <c r="P170" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q170" s="7" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.15">
@@ -8486,29 +8465,29 @@
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G183" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110000</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
@@ -8517,10 +8496,10 @@
         <v>2</v>
       </c>
       <c r="P183" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q183" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.15">
@@ -8533,29 +8512,29 @@
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="G184" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110001</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -8564,10 +8543,10 @@
         <v>2</v>
       </c>
       <c r="P184" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q184" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.15">
@@ -8580,29 +8559,29 @@
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G185" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110010</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
@@ -8611,10 +8590,10 @@
         <v>2</v>
       </c>
       <c r="P185" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="Q185" s="7" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.15">
@@ -8977,14 +8956,14 @@
         <v>192</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="22" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="G199" s="6" t="str">
         <f t="shared" si="10"/>
@@ -8995,10 +8974,10 @@
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L199" s="6"/>
       <c r="M199" s="22"/>
@@ -9017,11 +8996,11 @@
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="22" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G200" s="6" t="str">
         <f t="shared" ref="G200:G201" si="15">DEC2BIN(B200, 10)</f>
@@ -9032,10 +9011,10 @@
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L200" s="6"/>
       <c r="M200" s="10"/>
@@ -9054,11 +9033,11 @@
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="22" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="G201" s="6" t="str">
         <f t="shared" si="15"/>
@@ -9069,10 +9048,10 @@
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="6" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
@@ -9091,11 +9070,11 @@
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="22" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E202" s="22"/>
       <c r="F202" s="22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G202" s="6" t="str">
         <f t="shared" ref="G202:G208" si="16">DEC2BIN(B202, 10)</f>
@@ -9106,10 +9085,10 @@
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="K202" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L202" s="35"/>
       <c r="M202" s="10"/>
@@ -9128,11 +9107,11 @@
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="22" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="G203" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9143,10 +9122,10 @@
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
@@ -9165,11 +9144,11 @@
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E204" s="22"/>
       <c r="F204" s="22" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="G204" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9180,10 +9159,10 @@
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
@@ -9191,7 +9170,7 @@
       <c r="O204" s="24"/>
       <c r="P204" s="24"/>
       <c r="Q204" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.15">
@@ -9258,36 +9237,36 @@
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="6" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="22" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="G207" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011001000</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L207" s="6"/>
       <c r="M207" s="10"/>
       <c r="N207" s="24" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O207" s="24">
         <v>3</v>
       </c>
       <c r="P207" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q207" s="7"/>
     </row>
@@ -9301,36 +9280,36 @@
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="22" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="G208" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011001001</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
       <c r="N208" s="24" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="O208" s="24">
         <v>3</v>
       </c>
       <c r="P208" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q208" s="7"/>
     </row>
@@ -9344,25 +9323,25 @@
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="22" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="G209" s="6" t="str">
         <f t="shared" ref="G209:G262" si="17">DEC2BIN(B209, 10)</f>
         <v>0011001010</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="6" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
@@ -9370,7 +9349,7 @@
       <c r="O209" s="24"/>
       <c r="P209" s="24"/>
       <c r="Q209" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.15">
@@ -9383,25 +9362,25 @@
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="6" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="22" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G210" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001011</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
@@ -9420,25 +9399,25 @@
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G211" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001100</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
@@ -9457,23 +9436,23 @@
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="34" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="E212" s="34"/>
       <c r="F212" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="G212" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001101</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L212" s="35"/>
       <c r="M212" s="6"/>
@@ -9492,23 +9471,23 @@
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G213" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001110</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L213" s="35"/>
       <c r="M213" s="6"/>
@@ -9534,7 +9513,7 @@
         <v>0011001111</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
@@ -9556,23 +9535,23 @@
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="G215" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011010000</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L215" s="35"/>
       <c r="M215" s="6"/>
@@ -9591,23 +9570,23 @@
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G216" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011010001</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L216" s="35"/>
       <c r="M216" s="6"/>
@@ -9653,23 +9632,23 @@
       </c>
       <c r="C218" s="22"/>
       <c r="D218" s="22" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="E218" s="22"/>
       <c r="F218" s="22" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="G218" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010011</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I218" s="22"/>
       <c r="J218" s="22"/>
       <c r="K218" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L218" s="22"/>
       <c r="M218" s="6"/>
@@ -9688,23 +9667,23 @@
       </c>
       <c r="C219" s="22"/>
       <c r="D219" s="22" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="E219" s="22"/>
       <c r="F219" s="22" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
       <c r="G219" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010100</v>
       </c>
       <c r="H219" s="22" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
       <c r="K219" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L219" s="22"/>
       <c r="M219" s="6"/>
@@ -9723,23 +9702,23 @@
       </c>
       <c r="C220" s="22"/>
       <c r="D220" s="22" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="E220" s="22"/>
       <c r="F220" s="22" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G220" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010101</v>
       </c>
       <c r="H220" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I220" s="22"/>
       <c r="J220" s="22"/>
       <c r="K220" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L220" s="22"/>
       <c r="M220" s="6"/>
@@ -9758,23 +9737,23 @@
       </c>
       <c r="C221" s="22"/>
       <c r="D221" s="22" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="E221" s="22"/>
       <c r="F221" s="22" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="G221" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010110</v>
       </c>
       <c r="H221" s="22" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="I221" s="22"/>
       <c r="J221" s="22"/>
       <c r="K221" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L221" s="22"/>
       <c r="M221" s="6"/>
@@ -9793,25 +9772,25 @@
       </c>
       <c r="C222" s="32"/>
       <c r="D222" s="32" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="E222" s="32"/>
       <c r="F222" s="32" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="G222" s="32" t="str">
         <f t="shared" si="17"/>
         <v>0011010111</v>
       </c>
       <c r="H222" s="32" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="I222" s="32"/>
       <c r="J222" s="32" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K222" s="32" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="L222" s="32"/>
       <c r="M222" s="6"/>
@@ -10045,14 +10024,14 @@
         <v>224</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="22" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="G231" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10063,10 +10042,10 @@
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
@@ -10085,11 +10064,11 @@
       </c>
       <c r="C232" s="32"/>
       <c r="D232" s="32" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="E232" s="32"/>
       <c r="F232" s="32" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="G232" s="32" t="str">
         <f t="shared" si="17"/>
@@ -10101,16 +10080,16 @@
       <c r="I232" s="32"/>
       <c r="J232" s="32"/>
       <c r="K232" s="32" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L232" s="32"/>
       <c r="M232" s="6"/>
       <c r="N232" s="24" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="O232" s="24"/>
       <c r="P232" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q232" s="7"/>
     </row>
@@ -10134,7 +10113,7 @@
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L233" s="22"/>
       <c r="M233" s="6"/>
@@ -10207,41 +10186,41 @@
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="22" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E236" s="22"/>
       <c r="F236" s="22" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="G236" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011100101</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="K236" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L236" s="22"/>
       <c r="M236" s="6"/>
       <c r="N236" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O236" s="24">
         <v>3</v>
       </c>
       <c r="P236" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q236" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.15">
@@ -10308,36 +10287,36 @@
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="6" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="22" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G239" s="6" t="str">
         <f>DEC2BIN(B239, 10)</f>
         <v>0011101000</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="K239" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L239" s="22"/>
       <c r="M239" s="6"/>
       <c r="N239" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O239" s="24">
         <v>3</v>
       </c>
       <c r="P239" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q239" s="7"/>
     </row>
@@ -10351,36 +10330,36 @@
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="22" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="G240" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101001</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="6" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="K240" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L240" s="22"/>
       <c r="M240" s="6"/>
       <c r="N240" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O240" s="24">
         <v>3</v>
       </c>
       <c r="P240" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q240" s="7"/>
     </row>
@@ -10394,41 +10373,41 @@
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="22" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="G241" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101010</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="K241" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L241" s="22"/>
       <c r="M241" s="6"/>
       <c r="N241" s="24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O241" s="24">
         <v>3</v>
       </c>
       <c r="P241" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q241" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.15">
@@ -10495,23 +10474,23 @@
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="34" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="E244" s="34"/>
       <c r="F244" s="6" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="G244" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101101</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L244" s="22"/>
       <c r="M244" s="6"/>
@@ -10530,23 +10509,23 @@
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="6" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G245" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101110</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L245" s="22"/>
       <c r="M245" s="6"/>
@@ -10572,7 +10551,7 @@
         <v>0011101111</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -10594,23 +10573,23 @@
       </c>
       <c r="C247" s="22"/>
       <c r="D247" s="22" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="E247" s="22"/>
       <c r="F247" s="22" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="G247" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110000</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L247" s="22"/>
       <c r="M247" s="6"/>
@@ -10629,23 +10608,23 @@
       </c>
       <c r="C248" s="22"/>
       <c r="D248" s="22" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="E248" s="22"/>
       <c r="F248" s="22" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="G248" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110001</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L248" s="22"/>
       <c r="M248" s="6"/>
@@ -10664,23 +10643,23 @@
       </c>
       <c r="C249" s="22"/>
       <c r="D249" s="22" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="E249" s="22"/>
       <c r="F249" s="22" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="G249" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110010</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="22" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L249" s="22"/>
       <c r="M249" s="6"/>
@@ -10699,23 +10678,23 @@
       </c>
       <c r="C250" s="22"/>
       <c r="D250" s="22" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="E250" s="22"/>
       <c r="F250" s="22" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="G250" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110011</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="22" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="L250" s="22"/>
       <c r="M250" s="6"/>
@@ -10734,23 +10713,23 @@
       </c>
       <c r="C251" s="22"/>
       <c r="D251" s="22" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="E251" s="22"/>
       <c r="F251" s="22" t="s">
-        <v>323</v>
+        <v>318</v>
       </c>
       <c r="G251" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110100</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L251" s="22"/>
       <c r="M251" s="6"/>
@@ -10769,23 +10748,23 @@
       </c>
       <c r="C252" s="22"/>
       <c r="D252" s="22" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="E252" s="22"/>
       <c r="F252" s="22" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="G252" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110101</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L252" s="22"/>
       <c r="M252" s="6"/>
@@ -10804,23 +10783,23 @@
       </c>
       <c r="C253" s="22"/>
       <c r="D253" s="22" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="E253" s="22"/>
       <c r="F253" s="22" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="G253" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110110</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="22" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
       <c r="L253" s="22"/>
       <c r="M253" s="6"/>
@@ -11055,13 +11034,13 @@
       </c>
       <c r="C262" s="35"/>
       <c r="D262" s="35" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="E262" s="35" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F262" s="35" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="G262" s="35" t="str">
         <f t="shared" si="17"/>
@@ -11069,13 +11048,13 @@
       </c>
       <c r="H262" s="35"/>
       <c r="I262" s="35" t="s">
-        <v>397</v>
+        <v>388</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>396</v>
+        <v>387</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -11111,10 +11090,10 @@
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -11148,21 +11127,21 @@
       </c>
       <c r="I264" s="6"/>
       <c r="J264" s="6" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
       <c r="N264" s="24" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="O264" s="24">
         <v>3</v>
       </c>
       <c r="P264" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="Q264" s="7"/>
     </row>
@@ -11191,10 +11170,10 @@
       </c>
       <c r="I265" s="6"/>
       <c r="J265" s="6" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="K265" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L265" s="35"/>
       <c r="M265" s="6"/>
@@ -11213,29 +11192,29 @@
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="6" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G266" s="6" t="str">
         <f t="shared" ref="G266:G327" si="20">DEC2BIN(B266, 10)</f>
         <v>0100000011</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -12009,14 +11988,14 @@
         <v>288</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E295" s="6"/>
       <c r="F295" s="6" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G295" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12024,13 +12003,13 @@
       </c>
       <c r="H295" s="6"/>
       <c r="I295" s="6" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="J295" s="6" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="K295" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L295" s="35"/>
       <c r="M295" s="6"/>
@@ -12049,27 +12028,27 @@
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="G296" s="6" t="str">
         <f t="shared" si="20"/>
         <v>0100100001</v>
       </c>
       <c r="H296" s="6" t="s">
-        <v>405</v>
+        <v>396</v>
       </c>
       <c r="I296" s="6" t="s">
-        <v>406</v>
+        <v>397</v>
       </c>
       <c r="J296" s="6" t="s">
-        <v>407</v>
+        <v>398</v>
       </c>
       <c r="K296" s="35" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L296" s="35"/>
       <c r="M296" s="6"/>
@@ -12088,37 +12067,37 @@
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="27" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="E297" s="28"/>
       <c r="F297" s="28" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="G297" s="28" t="str">
         <f t="shared" si="20"/>
         <v>0100100010</v>
       </c>
       <c r="H297" s="28" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="I297" s="28"/>
       <c r="J297" s="28" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="K297" s="28" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="L297" s="28"/>
       <c r="M297" s="28"/>
       <c r="N297" s="39" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O297" s="39"/>
       <c r="P297" s="39" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="Q297" s="40" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="R297" s="41"/>
     </row>
@@ -12132,11 +12111,11 @@
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="6" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="G298" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12163,11 +12142,11 @@
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="6" t="s">
-        <v>329</v>
+        <v>324</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
-        <v>330</v>
+        <v>325</v>
       </c>
       <c r="G299" s="6" t="str">
         <f t="shared" si="20"/>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="418">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -1924,6 +1924,41 @@
   </si>
   <si>
     <t>Note</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRFI0R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SRFI1R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = FI0R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = FI1R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグを発生しない</t>
+    <rPh sb="4" eb="6">
+      <t>ハッセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FI1R Read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FI0R Read</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2690,8 +2725,8 @@
   </sheetPr>
   <dimension ref="A2:AK1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I129" sqref="I129"/>
+    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D215" sqref="D215"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -9808,17 +9843,27 @@
         <v>216</v>
       </c>
       <c r="C223" s="6"/>
-      <c r="D223" s="6"/>
+      <c r="D223" s="6" t="s">
+        <v>417</v>
+      </c>
       <c r="E223" s="6"/>
-      <c r="F223" s="6"/>
+      <c r="F223" s="6" t="s">
+        <v>410</v>
+      </c>
       <c r="G223" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011000</v>
       </c>
-      <c r="H223" s="6"/>
+      <c r="H223" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="I223" s="6"/>
-      <c r="J223" s="6"/>
-      <c r="K223" s="6"/>
+      <c r="J223" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="K223" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
       <c r="N223" s="24"/>
@@ -9835,17 +9880,27 @@
         <v>217</v>
       </c>
       <c r="C224" s="6"/>
-      <c r="D224" s="6"/>
+      <c r="D224" s="6" t="s">
+        <v>416</v>
+      </c>
       <c r="E224" s="6"/>
-      <c r="F224" s="6"/>
+      <c r="F224" s="6" t="s">
+        <v>411</v>
+      </c>
       <c r="G224" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011001</v>
       </c>
-      <c r="H224" s="6"/>
+      <c r="H224" s="6" t="s">
+        <v>412</v>
+      </c>
       <c r="I224" s="6"/>
-      <c r="J224" s="6"/>
-      <c r="K224" s="6"/>
+      <c r="J224" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="K224" s="6" t="s">
+        <v>415</v>
+      </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
       <c r="N224" s="24"/>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="418">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="422">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -1727,10 +1727,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = mask(MEMORY[Rs+displacement], 8)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = mask(MEMORY[Rs+displacement], 16)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1748,10 +1744,6 @@
   </si>
   <si>
     <t>Instruction</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Immediate</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1959,6 +1951,38 @@
   </si>
   <si>
     <t>FI0R Read</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = mask(MEMORY[Rs+displacement], 8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Immediate(Displacement)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>(符号拡張)</t>
+  </si>
+  <si>
+    <t>(符号拡張)</t>
+    <rPh sb="1" eb="5">
+      <t>フゴウカクチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1bit左シフト(符号拡張・1bit左シフト)</t>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2bit左シフト(符号拡張・2bit左シフト)</t>
+    <rPh sb="4" eb="5">
+      <t>ヒダリ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2725,8 +2749,8 @@
   </sheetPr>
   <dimension ref="A2:AK1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D215" sqref="D215"/>
+    <sheetView tabSelected="1" topLeftCell="B136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D165" sqref="D165"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2735,7 +2759,7 @@
     <col min="2" max="2" width="6.125" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
     <col min="4" max="4" width="55.375" customWidth="1"/>
-    <col min="5" max="5" width="28" customWidth="1"/>
+    <col min="5" max="5" width="34.625" customWidth="1"/>
     <col min="6" max="6" width="40.875" customWidth="1"/>
     <col min="7" max="7" width="11.25" customWidth="1"/>
     <col min="8" max="8" width="20.125" customWidth="1"/>
@@ -2778,55 +2802,55 @@
     </row>
     <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B6" s="18" t="s">
+        <v>391</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>365</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>366</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>417</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>367</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>368</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>401</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>369</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>393</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>366</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>368</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>370</v>
-      </c>
-      <c r="H6" s="18" t="s">
+      <c r="L6" s="29" t="s">
         <v>402</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="M6" s="43" t="s">
         <v>403</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>371</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>395</v>
-      </c>
-      <c r="L6" s="29" t="s">
+      <c r="N6" s="26" t="s">
         <v>404</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="O6" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="P6" s="33" t="s">
         <v>406</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="Q6" s="19" t="s">
         <v>407</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>408</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>409</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -2938,7 +2962,7 @@
         <v>144</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -2977,7 +3001,7 @@
         <v>144</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -3245,21 +3269,21 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="G17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001010</v>
       </c>
       <c r="H17" s="35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I17" s="35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
@@ -3282,21 +3306,21 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="G18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001011</v>
       </c>
       <c r="H18" s="35" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="I18" s="35" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
@@ -3352,7 +3376,7 @@
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3964,7 +3988,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -6867,7 +6891,7 @@
         <v>128</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>38</v>
@@ -6893,10 +6917,10 @@
         <v>276</v>
       </c>
       <c r="L135" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M135" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N135" s="24"/>
       <c r="O135" s="24">
@@ -6940,10 +6964,10 @@
         <v>276</v>
       </c>
       <c r="L136" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M136" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N136" s="24"/>
       <c r="O136" s="24">
@@ -6987,10 +7011,10 @@
         <v>276</v>
       </c>
       <c r="L137" s="35" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M137" s="35" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="N137" s="24"/>
       <c r="O137" s="24">
@@ -7197,7 +7221,7 @@
         <v>36</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="F143" s="22" t="s">
         <v>30</v>
@@ -7210,7 +7234,7 @@
         <v>22</v>
       </c>
       <c r="I143" s="35" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="J143" s="6" t="s">
         <v>109</v>
@@ -7464,7 +7488,7 @@
       </c>
       <c r="L151" s="6"/>
       <c r="M151" s="35" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="N151" s="24"/>
       <c r="O151" s="24">
@@ -7728,9 +7752,11 @@
       </c>
       <c r="C161" s="27"/>
       <c r="D161" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="E161" s="27"/>
+        <v>364</v>
+      </c>
+      <c r="E161" s="27" t="s">
+        <v>419</v>
+      </c>
       <c r="F161" s="28" t="s">
         <v>355</v>
       </c>
@@ -7743,13 +7769,13 @@
       </c>
       <c r="I161" s="27"/>
       <c r="J161" s="22" t="s">
-        <v>362</v>
+        <v>416</v>
       </c>
       <c r="K161" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="M161" s="22"/>
       <c r="N161" s="30"/>
@@ -7771,10 +7797,10 @@
       </c>
       <c r="C162" s="27"/>
       <c r="D162" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>274</v>
+        <v>420</v>
       </c>
       <c r="F162" s="28" t="s">
         <v>356</v>
@@ -7788,13 +7814,13 @@
       </c>
       <c r="I162" s="27"/>
       <c r="J162" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K162" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="M162" s="22"/>
       <c r="N162" s="30"/>
@@ -7816,10 +7842,10 @@
       </c>
       <c r="C163" s="27"/>
       <c r="D163" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>275</v>
+        <v>421</v>
       </c>
       <c r="F163" s="28" t="s">
         <v>357</v>
@@ -7833,13 +7859,13 @@
       </c>
       <c r="I163" s="27"/>
       <c r="J163" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K163" s="22" t="s">
         <v>276</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="M163" s="22"/>
       <c r="N163" s="30"/>
@@ -7861,9 +7887,11 @@
       </c>
       <c r="C164" s="27"/>
       <c r="D164" s="27" t="s">
-        <v>365</v>
-      </c>
-      <c r="E164" s="27"/>
+        <v>364</v>
+      </c>
+      <c r="E164" s="27" t="s">
+        <v>418</v>
+      </c>
       <c r="F164" s="28" t="s">
         <v>358</v>
       </c>
@@ -7902,10 +7930,10 @@
       </c>
       <c r="C165" s="27"/>
       <c r="D165" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>274</v>
+        <v>420</v>
       </c>
       <c r="F165" s="28" t="s">
         <v>359</v>
@@ -7919,7 +7947,7 @@
       </c>
       <c r="I165" s="27"/>
       <c r="J165" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K165" s="22" t="s">
         <v>276</v>
@@ -7945,10 +7973,10 @@
       </c>
       <c r="C166" s="27"/>
       <c r="D166" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>275</v>
+        <v>421</v>
       </c>
       <c r="F166" s="28" t="s">
         <v>360</v>
@@ -7962,7 +7990,7 @@
       </c>
       <c r="I166" s="27"/>
       <c r="J166" s="22" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="K166" s="22" t="s">
         <v>276</v>
@@ -9844,25 +9872,25 @@
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="G223" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011000</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I223" s="6"/>
       <c r="J223" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K223" s="6" t="s">
         <v>413</v>
-      </c>
-      <c r="K223" s="6" t="s">
-        <v>415</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
@@ -9881,25 +9909,25 @@
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="G224" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011001</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="K224" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
@@ -10803,7 +10831,7 @@
       </c>
       <c r="C252" s="22"/>
       <c r="D252" s="22" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E252" s="22"/>
       <c r="F252" s="22" t="s">
@@ -10838,7 +10866,7 @@
       </c>
       <c r="C253" s="22"/>
       <c r="D253" s="22" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E253" s="22"/>
       <c r="F253" s="22" t="s">
@@ -11089,13 +11117,13 @@
       </c>
       <c r="C262" s="35"/>
       <c r="D262" s="35" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="E262" s="35" t="s">
         <v>278</v>
       </c>
       <c r="F262" s="35" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="G262" s="35" t="str">
         <f t="shared" si="17"/>
@@ -11103,10 +11131,10 @@
       </c>
       <c r="H262" s="35"/>
       <c r="I262" s="35" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="K262" s="6" t="s">
         <v>276</v>
@@ -11190,7 +11218,7 @@
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
       <c r="N264" s="24" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="O264" s="24">
         <v>3</v>
@@ -12094,13 +12122,13 @@
         <v>0100100001</v>
       </c>
       <c r="H296" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="I296" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="J296" s="6" t="s">
         <v>396</v>
-      </c>
-      <c r="I296" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="J296" s="6" t="s">
-        <v>398</v>
       </c>
       <c r="K296" s="35" t="s">
         <v>276</v>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="705" uniqueCount="422">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="435">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -165,10 +165,6 @@
   </si>
   <si>
     <t>set word</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>push</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1982,6 +1978,73 @@
     <t>2bit左シフト(符号拡張・2bit左シフト)</t>
     <rPh sb="4" eb="5">
       <t>ヒダリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>push</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Load(always use PDTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Store(always use PDTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LD8U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LD16U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>LD32U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST8U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST16U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ST32U</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>O2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>I11</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2,3</t>
+  </si>
+  <si>
+    <t>2,3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メモリ保護違反、特権違反</t>
+    <rPh sb="3" eb="5">
+      <t>ホゴ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イハン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>トッケン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>イハン</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2749,8 +2812,8 @@
   </sheetPr>
   <dimension ref="A2:AK1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B136" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D165" sqref="D165"/>
+    <sheetView tabSelected="1" topLeftCell="A127" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J155" sqref="J155"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2789,68 +2852,68 @@
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.15">
       <c r="C3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" spans="1:19" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="M5" s="44"/>
       <c r="N5" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O5" s="21"/>
       <c r="P5" s="21"/>
     </row>
     <row r="6" spans="1:19" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>389</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>390</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>391</v>
-      </c>
       <c r="C6" s="18" t="s">
+        <v>364</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
+        <v>416</v>
+      </c>
+      <c r="F6" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="E6" s="18" t="s">
-        <v>417</v>
-      </c>
-      <c r="F6" s="18" t="s">
+      <c r="G6" s="18" t="s">
         <v>367</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
+        <v>399</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>400</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>368</v>
       </c>
-      <c r="H6" s="18" t="s">
-        <v>400</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="K6" s="18" t="s">
+        <v>392</v>
+      </c>
+      <c r="L6" s="29" t="s">
         <v>401</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>369</v>
-      </c>
-      <c r="K6" s="18" t="s">
-        <v>393</v>
-      </c>
-      <c r="L6" s="29" t="s">
+      <c r="M6" s="43" t="s">
         <v>402</v>
       </c>
-      <c r="M6" s="43" t="s">
+      <c r="N6" s="26" t="s">
         <v>403</v>
       </c>
-      <c r="N6" s="26" t="s">
+      <c r="O6" s="33" t="s">
         <v>404</v>
       </c>
-      <c r="O6" s="33" t="s">
+      <c r="P6" s="33" t="s">
         <v>405</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="Q6" s="19" t="s">
         <v>406</v>
-      </c>
-      <c r="Q6" s="19" t="s">
-        <v>407</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -2862,13 +2925,13 @@
         <v>0</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="E7" s="38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>0</v>
@@ -2881,10 +2944,10 @@
         <v>16</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="K7" s="15"/>
       <c r="L7" s="15"/>
@@ -2907,7 +2970,7 @@
         <v>2</v>
       </c>
       <c r="E8" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>3</v>
@@ -2920,10 +2983,10 @@
         <v>16</v>
       </c>
       <c r="I8" s="15" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="K8" s="6"/>
       <c r="L8" s="6"/>
@@ -2943,13 +3006,13 @@
       </c>
       <c r="C9" s="6"/>
       <c r="D9" s="6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E9" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -2959,10 +3022,10 @@
         <v>16</v>
       </c>
       <c r="I9" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J9" s="6" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="K9" s="6"/>
       <c r="L9" s="6"/>
@@ -2982,13 +3045,13 @@
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E10" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G10" s="6" t="str">
         <f t="shared" ref="G10:G70" si="2">DEC2BIN(B10, 10)</f>
@@ -2998,10 +3061,10 @@
         <v>16</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J10" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="K10" s="6"/>
       <c r="L10" s="6"/>
@@ -3021,11 +3084,11 @@
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E11" s="22"/>
       <c r="F11" s="22" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G11" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3035,10 +3098,10 @@
         <v>16</v>
       </c>
       <c r="I11" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J11" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K11" s="6"/>
       <c r="L11" s="6"/>
@@ -3048,7 +3111,7 @@
         <v>4</v>
       </c>
       <c r="P11" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q11" s="7"/>
     </row>
@@ -3062,11 +3125,11 @@
       </c>
       <c r="C12" s="6"/>
       <c r="D12" s="22" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="E12" s="22"/>
       <c r="F12" s="22" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G12" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3076,10 +3139,10 @@
         <v>16</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J12" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K12" s="6"/>
       <c r="L12" s="6"/>
@@ -3089,7 +3152,7 @@
         <v>4</v>
       </c>
       <c r="P12" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q12" s="7"/>
     </row>
@@ -3103,13 +3166,13 @@
       </c>
       <c r="C13" s="6"/>
       <c r="D13" s="22" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="G13" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3119,10 +3182,10 @@
         <v>16</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J13" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K13" s="6"/>
       <c r="L13" s="6"/>
@@ -3131,7 +3194,7 @@
       <c r="O13" s="24"/>
       <c r="P13" s="24"/>
       <c r="Q13" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.15">
@@ -3144,13 +3207,13 @@
       </c>
       <c r="C14" s="6"/>
       <c r="D14" s="22" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G14" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3160,10 +3223,10 @@
         <v>16</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J14" s="6" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="K14" s="6"/>
       <c r="L14" s="6"/>
@@ -3173,7 +3236,7 @@
         <v>4</v>
       </c>
       <c r="P14" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7"/>
     </row>
@@ -3187,13 +3250,13 @@
       </c>
       <c r="C15" s="6"/>
       <c r="D15" s="22" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E15" s="22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G15" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3203,10 +3266,10 @@
         <v>16</v>
       </c>
       <c r="I15" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="J15" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="K15" s="6"/>
       <c r="L15" s="6"/>
@@ -3216,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="P15" s="24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="Q15" s="7"/>
     </row>
@@ -3230,25 +3293,25 @@
       </c>
       <c r="C16" s="22"/>
       <c r="D16" s="22" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000001001</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I16" s="22"/>
       <c r="J16" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="K16" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L16" s="22"/>
       <c r="M16" s="22"/>
@@ -3269,21 +3332,21 @@
       </c>
       <c r="C17" s="35"/>
       <c r="D17" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E17" s="35"/>
       <c r="F17" s="35" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001010</v>
       </c>
       <c r="H17" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="I17" s="35" t="s">
         <v>387</v>
-      </c>
-      <c r="I17" s="35" t="s">
-        <v>388</v>
       </c>
       <c r="J17" s="35"/>
       <c r="K17" s="35"/>
@@ -3306,21 +3369,21 @@
       </c>
       <c r="C18" s="35"/>
       <c r="D18" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E18" s="35"/>
       <c r="F18" s="35" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001011</v>
       </c>
       <c r="H18" s="35" t="s">
+        <v>386</v>
+      </c>
+      <c r="I18" s="35" t="s">
         <v>387</v>
-      </c>
-      <c r="I18" s="35" t="s">
-        <v>388</v>
       </c>
       <c r="J18" s="35"/>
       <c r="K18" s="35"/>
@@ -3372,22 +3435,22 @@
       </c>
       <c r="C20" s="6"/>
       <c r="D20" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E20" s="22"/>
       <c r="F20" s="6" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001101</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="I20" s="6"/>
       <c r="J20" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="K20" s="6"/>
       <c r="L20" s="6"/>
@@ -3407,26 +3470,26 @@
       </c>
       <c r="C21" s="6"/>
       <c r="D21" s="6" t="s">
+        <v>171</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="F21" s="6" t="s">
         <v>172</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="F21" s="6" t="s">
-        <v>173</v>
       </c>
       <c r="G21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001110</v>
       </c>
       <c r="H21" s="6" t="s">
+        <v>173</v>
+      </c>
+      <c r="I21" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="I21" s="6" t="s">
+      <c r="J21" s="6" t="s">
         <v>175</v>
-      </c>
-      <c r="J21" s="6" t="s">
-        <v>176</v>
       </c>
       <c r="K21" s="6"/>
       <c r="L21" s="6"/>
@@ -3473,22 +3536,22 @@
       </c>
       <c r="C23" s="6"/>
       <c r="D23" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="E23" s="22"/>
       <c r="F23" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010000</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I23" s="6"/>
       <c r="J23" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="K23" s="6"/>
       <c r="L23" s="6"/>
@@ -3508,22 +3571,22 @@
       </c>
       <c r="C24" s="6"/>
       <c r="D24" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E24" s="22"/>
       <c r="F24" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010001</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="I24" s="6"/>
       <c r="J24" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="K24" s="6"/>
       <c r="L24" s="6"/>
@@ -3570,27 +3633,27 @@
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="E26" s="6"/>
       <c r="F26" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010011</v>
       </c>
       <c r="H26" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I26" s="6" t="s">
+      <c r="J26" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="J26" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="K26" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L26" s="6"/>
       <c r="M26" s="6"/>
@@ -3609,27 +3672,27 @@
       </c>
       <c r="C27" s="6"/>
       <c r="D27" s="6" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E27" s="6"/>
       <c r="F27" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010100</v>
       </c>
       <c r="H27" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I27" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I27" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="J27" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="L27" s="6"/>
       <c r="M27" s="6"/>
@@ -3648,27 +3711,27 @@
       </c>
       <c r="C28" s="6"/>
       <c r="D28" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E28" s="6"/>
       <c r="F28" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G28" s="6" t="str">
         <f>DEC2BIN(B28, 10)</f>
         <v>0000010101</v>
       </c>
       <c r="H28" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I28" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I28" s="6" t="s">
+      <c r="J28" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="J28" s="6" t="s">
-        <v>343</v>
-      </c>
       <c r="K28" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="L28" s="6"/>
       <c r="M28" s="6"/>
@@ -3687,27 +3750,27 @@
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="G29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010110</v>
       </c>
       <c r="H29" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="I29" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="I29" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="J29" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>344</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="L29" s="6"/>
       <c r="M29" s="6"/>
@@ -3861,25 +3924,25 @@
       </c>
       <c r="C35" s="6"/>
       <c r="D35" s="6" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E35" s="6"/>
       <c r="F35" s="22" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011100</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I35" s="6"/>
       <c r="J35" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="K35" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L35" s="35"/>
       <c r="M35" s="6"/>
@@ -3898,25 +3961,25 @@
       </c>
       <c r="C36" s="6"/>
       <c r="D36" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E36" s="6"/>
       <c r="F36" s="22" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011101</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I36" s="6"/>
       <c r="J36" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="K36" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L36" s="35"/>
       <c r="M36" s="6"/>
@@ -3988,7 +4051,7 @@
         <v>32</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
@@ -4871,23 +4934,23 @@
       </c>
       <c r="E71" s="6"/>
       <c r="F71" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="6" t="str">
         <f t="shared" ref="G71:G82" si="3">DEC2BIN(B71, 10)</f>
         <v>0001000000</v>
       </c>
       <c r="H71" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K71" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L71" s="32"/>
       <c r="M71" s="6"/>
@@ -4896,7 +4959,7 @@
         <v>1</v>
       </c>
       <c r="P71" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q71" s="7"/>
     </row>
@@ -4914,23 +4977,23 @@
       </c>
       <c r="E72" s="6"/>
       <c r="F72" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G72" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0001000001</v>
       </c>
       <c r="H72" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="K72" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L72" s="32"/>
       <c r="M72" s="6"/>
@@ -4939,7 +5002,7 @@
         <v>1</v>
       </c>
       <c r="P72" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q72" s="7"/>
     </row>
@@ -5034,27 +5097,27 @@
       </c>
       <c r="C76" s="22"/>
       <c r="D76" s="22" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="E76" s="22"/>
       <c r="F76" s="22" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G76" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001000101</v>
       </c>
       <c r="H76" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="K76" s="32" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="L76" s="32"/>
       <c r="M76" s="6"/>
@@ -5063,7 +5126,7 @@
         <v>1</v>
       </c>
       <c r="P76" s="24" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="Q76" s="7"/>
     </row>
@@ -5135,23 +5198,23 @@
       </c>
       <c r="E79" s="22"/>
       <c r="F79" s="22" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G79" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001001000</v>
       </c>
       <c r="H79" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="K79" s="32" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L79" s="32"/>
       <c r="M79" s="6"/>
@@ -5160,7 +5223,7 @@
         <v>1</v>
       </c>
       <c r="P79" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q79" s="7"/>
     </row>
@@ -5178,23 +5241,23 @@
       </c>
       <c r="E80" s="22"/>
       <c r="F80" s="22" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G80" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001001001</v>
       </c>
       <c r="H80" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K80" s="32" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L80" s="32"/>
       <c r="M80" s="6"/>
@@ -5203,7 +5266,7 @@
         <v>1</v>
       </c>
       <c r="P80" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="Q80" s="7"/>
     </row>
@@ -5831,7 +5894,7 @@
       </c>
       <c r="I103" s="6"/>
       <c r="J103" s="6" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="K103" s="6"/>
       <c r="L103" s="6"/>
@@ -5866,7 +5929,7 @@
       </c>
       <c r="I104" s="22"/>
       <c r="J104" s="6" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K104" s="6"/>
       <c r="L104" s="6"/>
@@ -5889,22 +5952,22 @@
       </c>
       <c r="C105" s="6"/>
       <c r="D105" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E105" s="6"/>
       <c r="F105" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G105" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100010</v>
       </c>
       <c r="H105" s="22" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I105" s="22"/>
       <c r="J105" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K105" s="6"/>
       <c r="L105" s="6"/>
@@ -5935,11 +5998,11 @@
         <v>0001100011</v>
       </c>
       <c r="H106" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I106" s="22"/>
       <c r="J106" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K106" s="6"/>
       <c r="L106" s="6"/>
@@ -5974,7 +6037,7 @@
       </c>
       <c r="I107" s="6"/>
       <c r="J107" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="K107" s="6"/>
       <c r="L107" s="6"/>
@@ -5995,11 +6058,11 @@
       </c>
       <c r="C108" s="6"/>
       <c r="D108" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E108" s="6"/>
       <c r="F108" s="6" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G108" s="6" t="str">
         <f t="shared" si="8"/>
@@ -6010,7 +6073,7 @@
       </c>
       <c r="I108" s="6"/>
       <c r="J108" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="K108" s="6"/>
       <c r="L108" s="6"/>
@@ -6031,11 +6094,11 @@
       </c>
       <c r="C109" s="6"/>
       <c r="D109" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E109" s="6"/>
       <c r="F109" s="6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G109" s="6" t="str">
         <f t="shared" si="8"/>
@@ -6046,7 +6109,7 @@
       </c>
       <c r="I109" s="6"/>
       <c r="J109" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="K109" s="6"/>
       <c r="L109" s="6"/>
@@ -6066,22 +6129,22 @@
       </c>
       <c r="C110" s="6"/>
       <c r="D110" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E110" s="6"/>
       <c r="F110" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G110" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100111</v>
       </c>
       <c r="H110" s="6" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I110" s="6"/>
       <c r="J110" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="K110" s="6"/>
       <c r="L110" s="6"/>
@@ -6155,11 +6218,11 @@
       </c>
       <c r="C113" s="6"/>
       <c r="D113" s="6" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E113" s="6"/>
       <c r="F113" s="22" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="G113" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6170,10 +6233,10 @@
       </c>
       <c r="I113" s="6"/>
       <c r="J113" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="K113" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L113" s="10"/>
       <c r="M113" s="6"/>
@@ -6192,11 +6255,11 @@
       </c>
       <c r="C114" s="6"/>
       <c r="D114" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E114" s="6"/>
       <c r="F114" s="22" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="G114" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6207,10 +6270,10 @@
       </c>
       <c r="I114" s="6"/>
       <c r="J114" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="K114" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L114" s="10"/>
       <c r="M114" s="6"/>
@@ -6229,11 +6292,11 @@
       </c>
       <c r="C115" s="6"/>
       <c r="D115" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E115" s="6"/>
       <c r="F115" s="22" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G115" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6241,13 +6304,13 @@
       </c>
       <c r="H115" s="6"/>
       <c r="I115" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J115" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="K115" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L115" s="10"/>
       <c r="M115" s="6"/>
@@ -6270,7 +6333,7 @@
       </c>
       <c r="E116" s="6"/>
       <c r="F116" s="22" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G116" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6278,13 +6341,13 @@
       </c>
       <c r="H116" s="6"/>
       <c r="I116" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J116" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="K116" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L116" s="10"/>
       <c r="M116" s="6"/>
@@ -6310,7 +6373,7 @@
       </c>
       <c r="E117" s="6"/>
       <c r="F117" s="22" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G117" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6321,10 +6384,10 @@
       </c>
       <c r="I117" s="6"/>
       <c r="J117" s="6" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K117" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L117" s="10"/>
       <c r="M117" s="6"/>
@@ -6347,7 +6410,7 @@
       </c>
       <c r="E118" s="6"/>
       <c r="F118" s="22" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="G118" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6358,10 +6421,10 @@
       </c>
       <c r="I118" s="6"/>
       <c r="J118" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="K118" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L118" s="10"/>
       <c r="M118" s="6"/>
@@ -6380,25 +6443,25 @@
       </c>
       <c r="C119" s="22"/>
       <c r="D119" s="22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E119" s="22"/>
       <c r="F119" s="22" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G119" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110000</v>
       </c>
       <c r="H119" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I119" s="22"/>
       <c r="J119" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K119" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L119" s="10"/>
       <c r="M119" s="6"/>
@@ -6417,25 +6480,25 @@
       </c>
       <c r="C120" s="22"/>
       <c r="D120" s="22" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E120" s="22"/>
       <c r="F120" s="22" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G120" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110001</v>
       </c>
       <c r="H120" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="I120" s="22"/>
       <c r="J120" s="22" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K120" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L120" s="10"/>
       <c r="M120" s="6"/>
@@ -6454,27 +6517,27 @@
       </c>
       <c r="C121" s="6"/>
       <c r="D121" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E121" s="6"/>
       <c r="F121" s="22" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G121" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110010</v>
       </c>
       <c r="H121" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="K121" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L121" s="10"/>
       <c r="M121" s="6"/>
@@ -6493,27 +6556,27 @@
       </c>
       <c r="C122" s="6"/>
       <c r="D122" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E122" s="6"/>
       <c r="F122" s="22" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G122" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110011</v>
       </c>
       <c r="H122" s="6" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="K122" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L122" s="10"/>
       <c r="M122" s="6"/>
@@ -6589,11 +6652,11 @@
       </c>
       <c r="C125" s="6"/>
       <c r="D125" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="E125" s="6"/>
       <c r="F125" s="22" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="G125" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6601,13 +6664,13 @@
       </c>
       <c r="H125" s="6"/>
       <c r="I125" s="6" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="J125" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="K125" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L125" s="10"/>
       <c r="M125" s="6"/>
@@ -6626,11 +6689,11 @@
       </c>
       <c r="C126" s="6"/>
       <c r="D126" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="E126" s="6"/>
       <c r="F126" s="22" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G126" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6638,13 +6701,13 @@
       </c>
       <c r="H126" s="6"/>
       <c r="I126" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J126" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="K126" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L126" s="10"/>
       <c r="M126" s="6"/>
@@ -6717,11 +6780,11 @@
       </c>
       <c r="C129" s="6"/>
       <c r="D129" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="E129" s="6"/>
       <c r="F129" s="22" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G129" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6729,10 +6792,10 @@
       </c>
       <c r="H129" s="6"/>
       <c r="I129" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="J129" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="K129" s="10"/>
       <c r="L129" s="10"/>
@@ -6765,7 +6828,7 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L130" s="10"/>
       <c r="M130" s="6"/>
@@ -6891,14 +6954,14 @@
         <v>128</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E135" s="6"/>
       <c r="F135" s="22" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="G135" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6908,26 +6971,26 @@
         <v>16</v>
       </c>
       <c r="I135" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L135" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="M135" s="35" t="s">
         <v>371</v>
-      </c>
-      <c r="M135" s="35" t="s">
-        <v>372</v>
       </c>
       <c r="N135" s="24"/>
       <c r="O135" s="24">
         <v>2</v>
       </c>
       <c r="P135" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q135" s="7"/>
     </row>
@@ -6940,12 +7003,14 @@
         <v>129</v>
       </c>
       <c r="C136" s="6"/>
-      <c r="D136" s="6"/>
+      <c r="D136" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E136" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F136" s="22" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G136" s="6" t="str">
         <f t="shared" ref="G136:G199" si="10">DEC2BIN(B136, 10)</f>
@@ -6955,26 +7020,26 @@
         <v>16</v>
       </c>
       <c r="I136" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J136" s="22" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="K136" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L136" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="M136" s="35" t="s">
         <v>371</v>
-      </c>
-      <c r="M136" s="35" t="s">
-        <v>372</v>
       </c>
       <c r="N136" s="24"/>
       <c r="O136" s="24">
         <v>2</v>
       </c>
       <c r="P136" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q136" s="7"/>
     </row>
@@ -6987,12 +7052,14 @@
         <v>130</v>
       </c>
       <c r="C137" s="6"/>
-      <c r="D137" s="6"/>
+      <c r="D137" s="6" t="s">
+        <v>37</v>
+      </c>
       <c r="E137" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F137" s="22" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G137" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7002,26 +7069,26 @@
         <v>16</v>
       </c>
       <c r="I137" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J137" s="22" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="K137" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L137" s="35" t="s">
+        <v>370</v>
+      </c>
+      <c r="M137" s="35" t="s">
         <v>371</v>
-      </c>
-      <c r="M137" s="35" t="s">
-        <v>372</v>
       </c>
       <c r="N137" s="24"/>
       <c r="O137" s="24">
         <v>2</v>
       </c>
       <c r="P137" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q137" s="7"/>
     </row>
@@ -7035,11 +7102,11 @@
       </c>
       <c r="C138" s="6"/>
       <c r="D138" s="6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E138" s="6"/>
       <c r="F138" s="22" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G138" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7049,13 +7116,13 @@
         <v>16</v>
       </c>
       <c r="I138" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J138" s="22" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="K138" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L138" s="6"/>
       <c r="M138" s="6"/>
@@ -7064,7 +7131,7 @@
         <v>2</v>
       </c>
       <c r="P138" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q138" s="7"/>
     </row>
@@ -7077,12 +7144,14 @@
         <v>132</v>
       </c>
       <c r="C139" s="6"/>
-      <c r="D139" s="6"/>
+      <c r="D139" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E139" s="6" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F139" s="22" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G139" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7092,13 +7161,13 @@
         <v>16</v>
       </c>
       <c r="I139" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J139" s="22" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K139" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L139" s="6"/>
       <c r="M139" s="6"/>
@@ -7107,7 +7176,7 @@
         <v>2</v>
       </c>
       <c r="P139" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q139" s="7"/>
     </row>
@@ -7120,12 +7189,14 @@
         <v>133</v>
       </c>
       <c r="C140" s="6"/>
-      <c r="D140" s="6"/>
+      <c r="D140" s="6" t="s">
+        <v>38</v>
+      </c>
       <c r="E140" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F140" s="22" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G140" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7135,13 +7206,13 @@
         <v>16</v>
       </c>
       <c r="I140" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J140" s="22" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="K140" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L140" s="6"/>
       <c r="M140" s="6"/>
@@ -7150,7 +7221,7 @@
         <v>2</v>
       </c>
       <c r="P140" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q140" s="7"/>
     </row>
@@ -7218,10 +7289,10 @@
       </c>
       <c r="C143" s="6"/>
       <c r="D143" s="6" t="s">
-        <v>36</v>
+        <v>421</v>
       </c>
       <c r="E143" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="F143" s="22" t="s">
         <v>30</v>
@@ -7234,13 +7305,13 @@
         <v>22</v>
       </c>
       <c r="I143" s="35" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="J143" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L143" s="6"/>
       <c r="M143" s="6"/>
@@ -7249,7 +7320,7 @@
         <v>2</v>
       </c>
       <c r="P143" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q143" s="7"/>
     </row>
@@ -7263,11 +7334,11 @@
       </c>
       <c r="C144" s="6"/>
       <c r="D144" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E144" s="6"/>
       <c r="F144" s="22" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G144" s="6" t="str">
         <f t="shared" ref="G144" si="11">DEC2BIN(B144, 10)</f>
@@ -7278,10 +7349,10 @@
       </c>
       <c r="I144" s="6"/>
       <c r="J144" s="6" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="K144" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L144" s="6"/>
       <c r="M144" s="6"/>
@@ -7290,7 +7361,7 @@
         <v>2</v>
       </c>
       <c r="P144" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q144" s="7"/>
     </row>
@@ -7303,22 +7374,40 @@
         <v>138</v>
       </c>
       <c r="C145" s="6"/>
-      <c r="D145" s="6"/>
+      <c r="D145" s="6" t="s">
+        <v>422</v>
+      </c>
       <c r="E145" s="6"/>
-      <c r="F145" s="22"/>
+      <c r="F145" s="22" t="s">
+        <v>424</v>
+      </c>
       <c r="G145" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001010</v>
       </c>
-      <c r="H145" s="6"/>
-      <c r="I145" s="6"/>
-      <c r="J145" s="6"/>
-      <c r="K145" s="6"/>
+      <c r="H145" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I145" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J145" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="K145" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="L145" s="6"/>
       <c r="M145" s="6"/>
-      <c r="N145" s="24"/>
-      <c r="O145" s="24"/>
-      <c r="P145" s="24"/>
+      <c r="N145" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="O145" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="P145" s="24" t="s">
+        <v>434</v>
+      </c>
       <c r="Q145" s="7"/>
     </row>
     <row r="146" spans="1:17" x14ac:dyDescent="0.15">
@@ -7330,22 +7419,42 @@
         <v>139</v>
       </c>
       <c r="C146" s="6"/>
-      <c r="D146" s="6"/>
-      <c r="E146" s="6"/>
-      <c r="F146" s="22"/>
+      <c r="D146" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E146" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F146" s="22" t="s">
+        <v>425</v>
+      </c>
       <c r="G146" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001011</v>
       </c>
-      <c r="H146" s="6"/>
-      <c r="I146" s="6"/>
-      <c r="J146" s="6"/>
-      <c r="K146" s="6"/>
+      <c r="H146" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I146" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J146" s="22" t="s">
+        <v>177</v>
+      </c>
+      <c r="K146" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="L146" s="6"/>
       <c r="M146" s="6"/>
-      <c r="N146" s="24"/>
-      <c r="O146" s="24"/>
-      <c r="P146" s="24"/>
+      <c r="N146" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="O146" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="P146" s="24" t="s">
+        <v>434</v>
+      </c>
       <c r="Q146" s="7"/>
     </row>
     <row r="147" spans="1:17" x14ac:dyDescent="0.15">
@@ -7357,22 +7466,42 @@
         <v>140</v>
       </c>
       <c r="C147" s="6"/>
-      <c r="D147" s="6"/>
-      <c r="E147" s="6"/>
-      <c r="F147" s="6"/>
+      <c r="D147" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="E147" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>426</v>
+      </c>
       <c r="G147" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001100</v>
       </c>
-      <c r="H147" s="6"/>
-      <c r="I147" s="6"/>
-      <c r="J147" s="6"/>
-      <c r="K147" s="6"/>
+      <c r="H147" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I147" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J147" s="22" t="s">
+        <v>178</v>
+      </c>
+      <c r="K147" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="L147" s="6"/>
       <c r="M147" s="6"/>
-      <c r="N147" s="24"/>
-      <c r="O147" s="24"/>
-      <c r="P147" s="24"/>
+      <c r="N147" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="O147" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="P147" s="24" t="s">
+        <v>434</v>
+      </c>
       <c r="Q147" s="7"/>
     </row>
     <row r="148" spans="1:17" x14ac:dyDescent="0.15">
@@ -7384,22 +7513,40 @@
         <v>141</v>
       </c>
       <c r="C148" s="6"/>
-      <c r="D148" s="6"/>
+      <c r="D148" s="6" t="s">
+        <v>423</v>
+      </c>
       <c r="E148" s="6"/>
-      <c r="F148" s="6"/>
+      <c r="F148" s="6" t="s">
+        <v>427</v>
+      </c>
       <c r="G148" s="6" t="str">
         <f t="shared" ref="G148" si="12">DEC2BIN(B148, 10)</f>
         <v>0010001101</v>
       </c>
-      <c r="H148" s="6"/>
-      <c r="I148" s="6"/>
-      <c r="J148" s="6"/>
-      <c r="K148" s="6"/>
+      <c r="H148" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I148" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J148" s="22" t="s">
+        <v>170</v>
+      </c>
+      <c r="K148" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="L148" s="6"/>
       <c r="M148" s="6"/>
-      <c r="N148" s="24"/>
-      <c r="O148" s="24"/>
-      <c r="P148" s="24"/>
+      <c r="N148" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="O148" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="P148" s="24" t="s">
+        <v>434</v>
+      </c>
       <c r="Q148" s="7"/>
     </row>
     <row r="149" spans="1:17" x14ac:dyDescent="0.15">
@@ -7411,22 +7558,42 @@
         <v>142</v>
       </c>
       <c r="C149" s="6"/>
-      <c r="D149" s="6"/>
-      <c r="E149" s="6"/>
-      <c r="F149" s="6"/>
+      <c r="D149" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E149" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>428</v>
+      </c>
       <c r="G149" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001110</v>
       </c>
-      <c r="H149" s="6"/>
-      <c r="I149" s="6"/>
-      <c r="J149" s="6"/>
-      <c r="K149" s="6"/>
+      <c r="H149" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I149" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J149" s="22" t="s">
+        <v>179</v>
+      </c>
+      <c r="K149" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="L149" s="6"/>
       <c r="M149" s="6"/>
-      <c r="N149" s="24"/>
-      <c r="O149" s="24"/>
-      <c r="P149" s="24"/>
+      <c r="N149" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="O149" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="P149" s="24" t="s">
+        <v>434</v>
+      </c>
       <c r="Q149" s="7"/>
     </row>
     <row r="150" spans="1:17" x14ac:dyDescent="0.15">
@@ -7438,22 +7605,42 @@
         <v>143</v>
       </c>
       <c r="C150" s="6"/>
-      <c r="D150" s="6"/>
-      <c r="E150" s="6"/>
-      <c r="F150" s="6"/>
+      <c r="D150" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="E150" s="6" t="s">
+        <v>274</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>429</v>
+      </c>
       <c r="G150" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001111</v>
       </c>
-      <c r="H150" s="6"/>
-      <c r="I150" s="6"/>
-      <c r="J150" s="6"/>
-      <c r="K150" s="6"/>
+      <c r="H150" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="I150" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="J150" s="22" t="s">
+        <v>180</v>
+      </c>
+      <c r="K150" s="6" t="s">
+        <v>275</v>
+      </c>
       <c r="L150" s="6"/>
       <c r="M150" s="6"/>
-      <c r="N150" s="24"/>
-      <c r="O150" s="24"/>
-      <c r="P150" s="24"/>
+      <c r="N150" s="24" t="s">
+        <v>331</v>
+      </c>
+      <c r="O150" s="24" t="s">
+        <v>432</v>
+      </c>
+      <c r="P150" s="24" t="s">
+        <v>434</v>
+      </c>
       <c r="Q150" s="7"/>
     </row>
     <row r="151" spans="1:17" x14ac:dyDescent="0.15">
@@ -7481,21 +7668,21 @@
       </c>
       <c r="I151" s="6"/>
       <c r="J151" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="K151" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L151" s="6"/>
       <c r="M151" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="N151" s="24"/>
       <c r="O151" s="24">
         <v>2</v>
       </c>
       <c r="P151" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q151" s="7"/>
     </row>
@@ -7752,30 +7939,30 @@
       </c>
       <c r="C161" s="27"/>
       <c r="D161" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E161" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F161" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G161" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011010</v>
       </c>
       <c r="H161" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I161" s="27"/>
       <c r="J161" s="22" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="K161" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="M161" s="22"/>
       <c r="N161" s="30"/>
@@ -7783,7 +7970,7 @@
         <v>2</v>
       </c>
       <c r="P161" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q161" s="45"/>
     </row>
@@ -7797,30 +7984,30 @@
       </c>
       <c r="C162" s="27"/>
       <c r="D162" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E162" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F162" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G162" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011011</v>
       </c>
       <c r="H162" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I162" s="27"/>
       <c r="J162" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K162" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="M162" s="22"/>
       <c r="N162" s="30"/>
@@ -7828,7 +8015,7 @@
         <v>2</v>
       </c>
       <c r="P162" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q162" s="45"/>
     </row>
@@ -7842,30 +8029,30 @@
       </c>
       <c r="C163" s="27"/>
       <c r="D163" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E163" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F163" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G163" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011100</v>
       </c>
       <c r="H163" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I163" s="27"/>
       <c r="J163" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="K163" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="M163" s="22"/>
       <c r="N163" s="30"/>
@@ -7873,7 +8060,7 @@
         <v>2</v>
       </c>
       <c r="P163" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q163" s="45"/>
     </row>
@@ -7887,27 +8074,27 @@
       </c>
       <c r="C164" s="27"/>
       <c r="D164" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E164" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="F164" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G164" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011101</v>
       </c>
       <c r="H164" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I164" s="27"/>
       <c r="J164" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="K164" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L164" s="22"/>
       <c r="M164" s="22"/>
@@ -7916,7 +8103,7 @@
         <v>2</v>
       </c>
       <c r="P164" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q164" s="45"/>
     </row>
@@ -7930,27 +8117,27 @@
       </c>
       <c r="C165" s="27"/>
       <c r="D165" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E165" s="27" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F165" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G165" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011110</v>
       </c>
       <c r="H165" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I165" s="27"/>
       <c r="J165" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K165" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L165" s="22"/>
       <c r="M165" s="22"/>
@@ -7959,7 +8146,7 @@
         <v>2</v>
       </c>
       <c r="P165" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q165" s="45"/>
     </row>
@@ -7973,27 +8160,27 @@
       </c>
       <c r="C166" s="27"/>
       <c r="D166" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E166" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F166" s="28" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G166" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011111</v>
       </c>
       <c r="H166" s="27" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="I166" s="27"/>
       <c r="J166" s="22" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K166" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L166" s="22"/>
       <c r="M166" s="22"/>
@@ -8002,7 +8189,7 @@
         <v>2</v>
       </c>
       <c r="P166" s="30" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q166" s="45"/>
     </row>
@@ -8015,32 +8202,32 @@
         <v>160</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F167" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G167" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100000</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J167" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L167" s="6"/>
       <c r="M167" s="6"/>
@@ -8049,10 +8236,10 @@
         <v>2</v>
       </c>
       <c r="P167" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q167" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="168" spans="1:17" x14ac:dyDescent="0.15">
@@ -8065,29 +8252,29 @@
       </c>
       <c r="C168" s="6"/>
       <c r="D168" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E168" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F168" s="22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G168" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100001</v>
       </c>
       <c r="H168" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J168" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L168" s="6"/>
       <c r="M168" s="6"/>
@@ -8096,10 +8283,10 @@
         <v>2</v>
       </c>
       <c r="P168" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q168" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="169" spans="1:17" x14ac:dyDescent="0.15">
@@ -8112,29 +8299,29 @@
       </c>
       <c r="C169" s="6"/>
       <c r="D169" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E169" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F169" s="22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G169" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100010</v>
       </c>
       <c r="H169" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J169" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L169" s="6"/>
       <c r="M169" s="6"/>
@@ -8143,10 +8330,10 @@
         <v>2</v>
       </c>
       <c r="P169" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q169" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="170" spans="1:17" x14ac:dyDescent="0.15">
@@ -8159,27 +8346,27 @@
       </c>
       <c r="C170" s="6"/>
       <c r="D170" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E170" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F170" s="22" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G170" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100011</v>
       </c>
       <c r="H170" s="9" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I170" s="9"/>
       <c r="J170" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K170" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L170" s="6"/>
       <c r="M170" s="6"/>
@@ -8188,10 +8375,10 @@
         <v>2</v>
       </c>
       <c r="P170" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q170" s="7" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:17" x14ac:dyDescent="0.15">
@@ -8528,29 +8715,29 @@
       </c>
       <c r="C183" s="6"/>
       <c r="D183" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E183" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F183" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G183" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110000</v>
       </c>
       <c r="H183" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J183" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L183" s="6"/>
       <c r="M183" s="6"/>
@@ -8559,10 +8746,10 @@
         <v>2</v>
       </c>
       <c r="P183" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q183" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="184" spans="1:17" x14ac:dyDescent="0.15">
@@ -8575,29 +8762,29 @@
       </c>
       <c r="C184" s="6"/>
       <c r="D184" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E184" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F184" s="22" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G184" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110001</v>
       </c>
       <c r="H184" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J184" s="6" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L184" s="6"/>
       <c r="M184" s="6"/>
@@ -8606,10 +8793,10 @@
         <v>2</v>
       </c>
       <c r="P184" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q184" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="185" spans="1:17" x14ac:dyDescent="0.15">
@@ -8622,29 +8809,29 @@
       </c>
       <c r="C185" s="6"/>
       <c r="D185" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E185" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="F185" s="22" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G185" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110010</v>
       </c>
       <c r="H185" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="J185" s="6" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L185" s="6"/>
       <c r="M185" s="6"/>
@@ -8653,10 +8840,10 @@
         <v>2</v>
       </c>
       <c r="P185" s="24" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="Q185" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="186" spans="1:17" x14ac:dyDescent="0.15">
@@ -9019,14 +9206,14 @@
         <v>192</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E199" s="6"/>
       <c r="F199" s="22" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G199" s="6" t="str">
         <f t="shared" si="10"/>
@@ -9037,10 +9224,10 @@
       </c>
       <c r="I199" s="6"/>
       <c r="J199" s="6" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="K199" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L199" s="6"/>
       <c r="M199" s="22"/>
@@ -9059,11 +9246,11 @@
       </c>
       <c r="C200" s="6"/>
       <c r="D200" s="6" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E200" s="6"/>
       <c r="F200" s="22" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G200" s="6" t="str">
         <f t="shared" ref="G200:G201" si="15">DEC2BIN(B200, 10)</f>
@@ -9074,10 +9261,10 @@
       </c>
       <c r="I200" s="6"/>
       <c r="J200" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K200" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L200" s="6"/>
       <c r="M200" s="10"/>
@@ -9096,11 +9283,11 @@
       </c>
       <c r="C201" s="6"/>
       <c r="D201" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E201" s="6"/>
       <c r="F201" s="22" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="G201" s="6" t="str">
         <f t="shared" si="15"/>
@@ -9111,10 +9298,10 @@
       </c>
       <c r="I201" s="6"/>
       <c r="J201" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="K201" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L201" s="6"/>
       <c r="M201" s="6"/>
@@ -9133,11 +9320,11 @@
       </c>
       <c r="C202" s="6"/>
       <c r="D202" s="22" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E202" s="22"/>
       <c r="F202" s="22" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G202" s="6" t="str">
         <f t="shared" ref="G202:G208" si="16">DEC2BIN(B202, 10)</f>
@@ -9148,10 +9335,10 @@
       </c>
       <c r="I202" s="6"/>
       <c r="J202" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="K202" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L202" s="35"/>
       <c r="M202" s="10"/>
@@ -9170,11 +9357,11 @@
       </c>
       <c r="C203" s="6"/>
       <c r="D203" s="6" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E203" s="6"/>
       <c r="F203" s="22" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G203" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9185,10 +9372,10 @@
       </c>
       <c r="I203" s="6"/>
       <c r="J203" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K203" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L203" s="6"/>
       <c r="M203" s="6"/>
@@ -9207,11 +9394,11 @@
       </c>
       <c r="C204" s="6"/>
       <c r="D204" s="22" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E204" s="22"/>
       <c r="F204" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="G204" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9222,10 +9409,10 @@
       </c>
       <c r="I204" s="6"/>
       <c r="J204" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="K204" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L204" s="6"/>
       <c r="M204" s="6"/>
@@ -9233,7 +9420,7 @@
       <c r="O204" s="24"/>
       <c r="P204" s="24"/>
       <c r="Q204" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="205" spans="1:17" x14ac:dyDescent="0.15">
@@ -9300,36 +9487,36 @@
       </c>
       <c r="C207" s="6"/>
       <c r="D207" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E207" s="6"/>
       <c r="F207" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="G207" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011001000</v>
       </c>
       <c r="H207" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I207" s="6"/>
       <c r="J207" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K207" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L207" s="6"/>
       <c r="M207" s="10"/>
       <c r="N207" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O207" s="24">
         <v>3</v>
       </c>
       <c r="P207" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q207" s="7"/>
     </row>
@@ -9343,36 +9530,36 @@
       </c>
       <c r="C208" s="6"/>
       <c r="D208" s="6" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E208" s="6"/>
       <c r="F208" s="22" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G208" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011001001</v>
       </c>
       <c r="H208" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I208" s="6"/>
       <c r="J208" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="K208" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L208" s="6"/>
       <c r="M208" s="6"/>
       <c r="N208" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="O208" s="24">
         <v>3</v>
       </c>
       <c r="P208" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q208" s="7"/>
     </row>
@@ -9386,25 +9573,25 @@
       </c>
       <c r="C209" s="6"/>
       <c r="D209" s="6" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="E209" s="6"/>
       <c r="F209" s="22" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G209" s="6" t="str">
         <f t="shared" ref="G209:G262" si="17">DEC2BIN(B209, 10)</f>
         <v>0011001010</v>
       </c>
       <c r="H209" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="I209" s="6"/>
       <c r="J209" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="K209" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L209" s="6"/>
       <c r="M209" s="6"/>
@@ -9412,7 +9599,7 @@
       <c r="O209" s="24"/>
       <c r="P209" s="24"/>
       <c r="Q209" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="210" spans="1:17" x14ac:dyDescent="0.15">
@@ -9425,25 +9612,25 @@
       </c>
       <c r="C210" s="6"/>
       <c r="D210" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="E210" s="6"/>
       <c r="F210" s="22" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="G210" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001011</v>
       </c>
       <c r="H210" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="I210" s="6"/>
       <c r="J210" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="K210" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L210" s="6"/>
       <c r="M210" s="6"/>
@@ -9462,25 +9649,25 @@
       </c>
       <c r="C211" s="6"/>
       <c r="D211" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E211" s="6"/>
       <c r="F211" s="6" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G211" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001100</v>
       </c>
       <c r="H211" s="6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I211" s="6"/>
       <c r="J211" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="K211" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L211" s="6"/>
       <c r="M211" s="6"/>
@@ -9499,23 +9686,23 @@
       </c>
       <c r="C212" s="6"/>
       <c r="D212" s="34" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E212" s="34"/>
       <c r="F212" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G212" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001101</v>
       </c>
       <c r="H212" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I212" s="6"/>
       <c r="J212" s="6"/>
       <c r="K212" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L212" s="35"/>
       <c r="M212" s="6"/>
@@ -9534,23 +9721,23 @@
       </c>
       <c r="C213" s="6"/>
       <c r="D213" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E213" s="6"/>
       <c r="F213" s="6" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G213" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001110</v>
       </c>
       <c r="H213" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I213" s="6"/>
       <c r="J213" s="6"/>
       <c r="K213" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L213" s="35"/>
       <c r="M213" s="6"/>
@@ -9576,7 +9763,7 @@
         <v>0011001111</v>
       </c>
       <c r="H214" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I214" s="6"/>
       <c r="J214" s="6"/>
@@ -9598,23 +9785,23 @@
       </c>
       <c r="C215" s="6"/>
       <c r="D215" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E215" s="6"/>
       <c r="F215" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G215" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011010000</v>
       </c>
       <c r="H215" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I215" s="6"/>
       <c r="J215" s="6"/>
       <c r="K215" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L215" s="35"/>
       <c r="M215" s="6"/>
@@ -9633,23 +9820,23 @@
       </c>
       <c r="C216" s="6"/>
       <c r="D216" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E216" s="6"/>
       <c r="F216" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G216" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011010001</v>
       </c>
       <c r="H216" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I216" s="6"/>
       <c r="J216" s="6"/>
       <c r="K216" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L216" s="35"/>
       <c r="M216" s="6"/>
@@ -9695,23 +9882,23 @@
       </c>
       <c r="C218" s="22"/>
       <c r="D218" s="22" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E218" s="22"/>
       <c r="F218" s="22" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G218" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010011</v>
       </c>
       <c r="H218" s="22" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I218" s="22"/>
       <c r="J218" s="22"/>
       <c r="K218" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L218" s="22"/>
       <c r="M218" s="6"/>
@@ -9730,23 +9917,23 @@
       </c>
       <c r="C219" s="22"/>
       <c r="D219" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E219" s="22"/>
       <c r="F219" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G219" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010100</v>
       </c>
       <c r="H219" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="I219" s="22"/>
       <c r="J219" s="22"/>
       <c r="K219" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L219" s="22"/>
       <c r="M219" s="6"/>
@@ -9765,23 +9952,23 @@
       </c>
       <c r="C220" s="22"/>
       <c r="D220" s="22" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E220" s="22"/>
       <c r="F220" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G220" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010101</v>
       </c>
       <c r="H220" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I220" s="22"/>
       <c r="J220" s="22"/>
       <c r="K220" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L220" s="22"/>
       <c r="M220" s="6"/>
@@ -9800,23 +9987,23 @@
       </c>
       <c r="C221" s="22"/>
       <c r="D221" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E221" s="22"/>
       <c r="F221" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G221" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010110</v>
       </c>
       <c r="H221" s="22" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="I221" s="22"/>
       <c r="J221" s="22"/>
       <c r="K221" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L221" s="22"/>
       <c r="M221" s="6"/>
@@ -9835,25 +10022,25 @@
       </c>
       <c r="C222" s="32"/>
       <c r="D222" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="E222" s="32"/>
       <c r="F222" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G222" s="32" t="str">
         <f t="shared" si="17"/>
         <v>0011010111</v>
       </c>
       <c r="H222" s="32" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="I222" s="32"/>
       <c r="J222" s="32" t="s">
+        <v>329</v>
+      </c>
+      <c r="K222" s="32" t="s">
         <v>330</v>
-      </c>
-      <c r="K222" s="32" t="s">
-        <v>331</v>
       </c>
       <c r="L222" s="32"/>
       <c r="M222" s="6"/>
@@ -9872,25 +10059,25 @@
       </c>
       <c r="C223" s="6"/>
       <c r="D223" s="6" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E223" s="6"/>
       <c r="F223" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G223" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011000</v>
       </c>
       <c r="H223" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I223" s="6"/>
       <c r="J223" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="K223" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L223" s="6"/>
       <c r="M223" s="6"/>
@@ -9909,25 +10096,25 @@
       </c>
       <c r="C224" s="6"/>
       <c r="D224" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="E224" s="6"/>
       <c r="F224" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G224" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011001</v>
       </c>
       <c r="H224" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="I224" s="6"/>
       <c r="J224" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="K224" s="6" t="s">
         <v>412</v>
-      </c>
-      <c r="K224" s="6" t="s">
-        <v>413</v>
       </c>
       <c r="L224" s="6"/>
       <c r="M224" s="6"/>
@@ -10107,14 +10294,14 @@
         <v>224</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E231" s="6"/>
       <c r="F231" s="22" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G231" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10125,10 +10312,10 @@
       </c>
       <c r="I231" s="6"/>
       <c r="J231" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="K231" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L231" s="6"/>
       <c r="M231" s="6"/>
@@ -10147,11 +10334,11 @@
       </c>
       <c r="C232" s="32"/>
       <c r="D232" s="32" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="E232" s="32"/>
       <c r="F232" s="32" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G232" s="32" t="str">
         <f t="shared" si="17"/>
@@ -10163,16 +10350,16 @@
       <c r="I232" s="32"/>
       <c r="J232" s="32"/>
       <c r="K232" s="32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L232" s="32"/>
       <c r="M232" s="6"/>
       <c r="N232" s="24" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="O232" s="24"/>
       <c r="P232" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q232" s="7"/>
     </row>
@@ -10196,7 +10383,7 @@
       <c r="I233" s="6"/>
       <c r="J233" s="6"/>
       <c r="K233" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L233" s="22"/>
       <c r="M233" s="6"/>
@@ -10269,41 +10456,41 @@
       </c>
       <c r="C236" s="6"/>
       <c r="D236" s="22" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E236" s="22"/>
       <c r="F236" s="22" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G236" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011100101</v>
       </c>
       <c r="H236" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="K236" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L236" s="22"/>
       <c r="M236" s="6"/>
       <c r="N236" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O236" s="24">
         <v>3</v>
       </c>
       <c r="P236" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q236" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="Q236" s="7" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="237" spans="1:17" x14ac:dyDescent="0.15">
@@ -10370,36 +10557,36 @@
       </c>
       <c r="C239" s="6"/>
       <c r="D239" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E239" s="6"/>
       <c r="F239" s="22" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G239" s="6" t="str">
         <f>DEC2BIN(B239, 10)</f>
         <v>0011101000</v>
       </c>
       <c r="H239" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I239" s="6"/>
       <c r="J239" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="K239" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L239" s="22"/>
       <c r="M239" s="6"/>
       <c r="N239" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O239" s="24">
         <v>3</v>
       </c>
       <c r="P239" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q239" s="7"/>
     </row>
@@ -10413,36 +10600,36 @@
       </c>
       <c r="C240" s="6"/>
       <c r="D240" s="6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E240" s="6"/>
       <c r="F240" s="22" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="G240" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101001</v>
       </c>
       <c r="H240" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I240" s="6"/>
       <c r="J240" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="K240" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L240" s="22"/>
       <c r="M240" s="6"/>
       <c r="N240" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O240" s="24">
         <v>3</v>
       </c>
       <c r="P240" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q240" s="7"/>
     </row>
@@ -10456,41 +10643,41 @@
       </c>
       <c r="C241" s="6"/>
       <c r="D241" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E241" s="6"/>
       <c r="F241" s="22" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="G241" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101010</v>
       </c>
       <c r="H241" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="K241" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L241" s="22"/>
       <c r="M241" s="6"/>
       <c r="N241" s="24" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="O241" s="24">
         <v>3</v>
       </c>
       <c r="P241" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q241" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="242" spans="1:17" x14ac:dyDescent="0.15">
@@ -10557,23 +10744,23 @@
       </c>
       <c r="C244" s="6"/>
       <c r="D244" s="34" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E244" s="34"/>
       <c r="F244" s="6" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G244" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101101</v>
       </c>
       <c r="H244" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I244" s="6"/>
       <c r="J244" s="6"/>
       <c r="K244" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L244" s="22"/>
       <c r="M244" s="6"/>
@@ -10592,23 +10779,23 @@
       </c>
       <c r="C245" s="6"/>
       <c r="D245" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="E245" s="6"/>
       <c r="F245" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G245" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101110</v>
       </c>
       <c r="H245" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I245" s="6"/>
       <c r="J245" s="6"/>
       <c r="K245" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L245" s="22"/>
       <c r="M245" s="6"/>
@@ -10634,7 +10821,7 @@
         <v>0011101111</v>
       </c>
       <c r="H246" s="22" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I246" s="22"/>
       <c r="J246" s="22"/>
@@ -10656,23 +10843,23 @@
       </c>
       <c r="C247" s="22"/>
       <c r="D247" s="22" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E247" s="22"/>
       <c r="F247" s="22" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G247" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110000</v>
       </c>
       <c r="H247" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I247" s="6"/>
       <c r="J247" s="6"/>
       <c r="K247" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L247" s="22"/>
       <c r="M247" s="6"/>
@@ -10691,23 +10878,23 @@
       </c>
       <c r="C248" s="22"/>
       <c r="D248" s="22" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E248" s="22"/>
       <c r="F248" s="22" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G248" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110001</v>
       </c>
       <c r="H248" s="6" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I248" s="6"/>
       <c r="J248" s="6"/>
       <c r="K248" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L248" s="22"/>
       <c r="M248" s="6"/>
@@ -10726,23 +10913,23 @@
       </c>
       <c r="C249" s="22"/>
       <c r="D249" s="22" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E249" s="22"/>
       <c r="F249" s="22" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G249" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110010</v>
       </c>
       <c r="H249" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="I249" s="6"/>
       <c r="J249" s="6"/>
       <c r="K249" s="22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L249" s="22"/>
       <c r="M249" s="6"/>
@@ -10761,23 +10948,23 @@
       </c>
       <c r="C250" s="22"/>
       <c r="D250" s="22" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E250" s="22"/>
       <c r="F250" s="22" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G250" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110011</v>
       </c>
       <c r="H250" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="I250" s="6"/>
       <c r="J250" s="6"/>
       <c r="K250" s="22" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L250" s="22"/>
       <c r="M250" s="6"/>
@@ -10796,23 +10983,23 @@
       </c>
       <c r="C251" s="22"/>
       <c r="D251" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="E251" s="22"/>
       <c r="F251" s="22" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="G251" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110100</v>
       </c>
       <c r="H251" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="I251" s="6"/>
       <c r="J251" s="6"/>
       <c r="K251" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L251" s="22"/>
       <c r="M251" s="6"/>
@@ -10831,23 +11018,23 @@
       </c>
       <c r="C252" s="22"/>
       <c r="D252" s="22" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E252" s="22"/>
       <c r="F252" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G252" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110101</v>
       </c>
       <c r="H252" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I252" s="6"/>
       <c r="J252" s="6"/>
       <c r="K252" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L252" s="22"/>
       <c r="M252" s="6"/>
@@ -10866,23 +11053,23 @@
       </c>
       <c r="C253" s="22"/>
       <c r="D253" s="22" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E253" s="22"/>
       <c r="F253" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G253" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110110</v>
       </c>
       <c r="H253" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="I253" s="6"/>
       <c r="J253" s="6"/>
       <c r="K253" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="L253" s="22"/>
       <c r="M253" s="6"/>
@@ -11117,13 +11304,13 @@
       </c>
       <c r="C262" s="35"/>
       <c r="D262" s="35" t="s">
+        <v>381</v>
+      </c>
+      <c r="E262" s="35" t="s">
+        <v>277</v>
+      </c>
+      <c r="F262" s="35" t="s">
         <v>382</v>
-      </c>
-      <c r="E262" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="F262" s="35" t="s">
-        <v>383</v>
       </c>
       <c r="G262" s="35" t="str">
         <f t="shared" si="17"/>
@@ -11131,13 +11318,13 @@
       </c>
       <c r="H262" s="35"/>
       <c r="I262" s="35" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="J262" s="6" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L262" s="6"/>
       <c r="M262" s="6"/>
@@ -11173,10 +11360,10 @@
       </c>
       <c r="I263" s="6"/>
       <c r="J263" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="K263" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L263" s="6"/>
       <c r="M263" s="6"/>
@@ -11195,7 +11382,7 @@
       </c>
       <c r="C264" s="6"/>
       <c r="D264" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E264" s="6"/>
       <c r="F264" s="6" t="s">
@@ -11210,21 +11397,21 @@
       </c>
       <c r="I264" s="6"/>
       <c r="J264" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="K264" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L264" s="6"/>
       <c r="M264" s="6"/>
       <c r="N264" s="24" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="O264" s="24">
         <v>3</v>
       </c>
       <c r="P264" s="24" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q264" s="7"/>
     </row>
@@ -11253,10 +11440,10 @@
       </c>
       <c r="I265" s="6"/>
       <c r="J265" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="K265" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L265" s="35"/>
       <c r="M265" s="6"/>
@@ -11275,29 +11462,29 @@
       </c>
       <c r="C266" s="6"/>
       <c r="D266" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E266" s="22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G266" s="6" t="str">
         <f t="shared" ref="G266:G327" si="20">DEC2BIN(B266, 10)</f>
         <v>0100000011</v>
       </c>
       <c r="H266" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L266" s="6"/>
       <c r="M266" s="6"/>
@@ -12071,14 +12258,14 @@
         <v>288</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D295" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E295" s="6"/>
       <c r="F295" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="G295" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12086,13 +12273,13 @@
       </c>
       <c r="H295" s="6"/>
       <c r="I295" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="J295" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="J295" s="6" t="s">
-        <v>218</v>
-      </c>
       <c r="K295" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L295" s="35"/>
       <c r="M295" s="6"/>
@@ -12111,27 +12298,27 @@
       </c>
       <c r="C296" s="6"/>
       <c r="D296" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E296" s="6"/>
       <c r="F296" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="G296" s="6" t="str">
         <f t="shared" si="20"/>
         <v>0100100001</v>
       </c>
       <c r="H296" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="I296" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="I296" s="6" t="s">
+      <c r="J296" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="J296" s="6" t="s">
-        <v>396</v>
-      </c>
       <c r="K296" s="35" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L296" s="35"/>
       <c r="M296" s="6"/>
@@ -12150,37 +12337,37 @@
       </c>
       <c r="C297" s="6"/>
       <c r="D297" s="27" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E297" s="28"/>
       <c r="F297" s="28" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G297" s="28" t="str">
         <f t="shared" si="20"/>
         <v>0100100010</v>
       </c>
       <c r="H297" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="I297" s="28"/>
       <c r="J297" s="28" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="K297" s="28" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L297" s="28"/>
       <c r="M297" s="28"/>
       <c r="N297" s="39" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="O297" s="39"/>
       <c r="P297" s="39" t="s">
+        <v>287</v>
+      </c>
+      <c r="Q297" s="40" t="s">
         <v>288</v>
-      </c>
-      <c r="Q297" s="40" t="s">
-        <v>289</v>
       </c>
       <c r="R297" s="41"/>
     </row>
@@ -12194,11 +12381,11 @@
       </c>
       <c r="C298" s="6"/>
       <c r="D298" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E298" s="6"/>
       <c r="F298" s="6" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G298" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12225,11 +12412,11 @@
       </c>
       <c r="C299" s="6"/>
       <c r="D299" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E299" s="6"/>
       <c r="F299" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G299" s="6" t="str">
         <f t="shared" si="20"/>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -1803,10 +1803,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SRSPWADD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>kernelモードのみ実行可能</t>
     <rPh sb="11" eb="13">
       <t>ジッコウ</t>
@@ -2058,6 +2054,10 @@
   </si>
   <si>
     <t>○</t>
+  </si>
+  <si>
+    <t>SRSPADD</t>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -2910,8 +2910,8 @@
   </sheetPr>
   <dimension ref="A2:AL1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F271" sqref="F271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2964,22 +2964,22 @@
     </row>
     <row r="6" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>387</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>388</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>389</v>
-      </c>
       <c r="C6" s="18" t="s">
+        <v>433</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>434</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>435</v>
       </c>
       <c r="E6" s="18" t="s">
         <v>364</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G6" s="18" t="s">
         <v>365</v>
@@ -2988,34 +2988,34 @@
         <v>366</v>
       </c>
       <c r="I6" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="J6" s="18" t="s">
         <v>398</v>
-      </c>
-      <c r="J6" s="18" t="s">
-        <v>399</v>
       </c>
       <c r="K6" s="18" t="s">
         <v>367</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="M6" s="29" t="s">
+        <v>399</v>
+      </c>
+      <c r="N6" s="43" t="s">
         <v>400</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="26" t="s">
         <v>401</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="P6" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="Q6" s="33" t="s">
         <v>403</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="R6" s="19" t="s">
         <v>404</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>44</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
@@ -3113,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
@@ -3136,7 +3136,7 @@
         <v>143</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3155,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
@@ -3178,7 +3178,7 @@
         <v>143</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3281,7 +3281,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="22" t="s">
@@ -3453,7 +3453,7 @@
         <v>10</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
@@ -3468,10 +3468,10 @@
         <v>0000001010</v>
       </c>
       <c r="I17" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="J17" s="35" t="s">
         <v>385</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>386</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
@@ -3493,7 +3493,7 @@
         <v>11</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
@@ -3508,10 +3508,10 @@
         <v>0000001011</v>
       </c>
       <c r="I18" s="35" t="s">
+        <v>384</v>
+      </c>
+      <c r="J18" s="35" t="s">
         <v>385</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>386</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
@@ -3569,7 +3569,7 @@
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="6" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3599,7 +3599,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
@@ -3669,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
@@ -3707,7 +3707,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
@@ -4073,7 +4073,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
@@ -4113,7 +4113,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
@@ -5117,7 +5117,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>4</v>
@@ -5165,7 +5165,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
@@ -5295,7 +5295,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22" t="s">
@@ -6104,7 +6104,7 @@
         <v>96</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
@@ -6144,7 +6144,7 @@
         <v>97</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
@@ -6185,7 +6185,7 @@
         <v>98</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
@@ -6223,7 +6223,7 @@
         <v>99</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="22" t="s">
@@ -6261,7 +6261,7 @@
         <v>100</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
@@ -6300,7 +6300,7 @@
         <v>101</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
@@ -6339,7 +6339,7 @@
         <v>102</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
@@ -6377,7 +6377,7 @@
         <v>103</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
@@ -6471,7 +6471,7 @@
         <v>106</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6" t="s">
@@ -6511,7 +6511,7 @@
         <v>107</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6" t="s">
@@ -6551,7 +6551,7 @@
         <v>108</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6" t="s">
@@ -6591,7 +6591,7 @@
         <v>109</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
@@ -6634,7 +6634,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
@@ -6674,7 +6674,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
@@ -6830,7 +6830,7 @@
         <v>115</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
@@ -6931,7 +6931,7 @@
         <v>118</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
@@ -6971,7 +6971,7 @@
         <v>119</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
@@ -7067,7 +7067,7 @@
         <v>122</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
@@ -7250,7 +7250,7 @@
         <v>128</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D135" s="6" t="s">
         <v>368</v>
@@ -7302,7 +7302,7 @@
         <v>129</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
@@ -7354,7 +7354,7 @@
         <v>130</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
@@ -7406,7 +7406,7 @@
         <v>131</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
@@ -7452,7 +7452,7 @@
         <v>132</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
@@ -7500,7 +7500,7 @@
         <v>133</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
@@ -7604,14 +7604,14 @@
         <v>136</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G143" s="22" t="s">
         <v>30</v>
@@ -7623,8 +7623,8 @@
       <c r="I143" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="J143" s="35" t="s">
-        <v>390</v>
+      <c r="J143" s="22" t="s">
+        <v>389</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>108</v>
@@ -7696,21 +7696,21 @@
       <c r="C145" s="24"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H145" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001010</v>
       </c>
       <c r="I145" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J145" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>176</v>
@@ -7724,10 +7724,10 @@
         <v>331</v>
       </c>
       <c r="P145" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q145" s="24" t="s">
         <v>432</v>
-      </c>
-      <c r="Q145" s="24" t="s">
-        <v>433</v>
       </c>
       <c r="R145" s="7"/>
     </row>
@@ -7742,23 +7742,23 @@
       <c r="C146" s="24"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>273</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H146" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001011</v>
       </c>
       <c r="I146" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J146" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="K146" s="22" t="s">
         <v>177</v>
@@ -7772,10 +7772,10 @@
         <v>331</v>
       </c>
       <c r="P146" s="24" t="s">
+        <v>431</v>
+      </c>
+      <c r="Q146" s="24" t="s">
         <v>432</v>
-      </c>
-      <c r="Q146" s="24" t="s">
-        <v>433</v>
       </c>
       <c r="R146" s="7"/>
     </row>
@@ -7790,23 +7790,23 @@
       <c r="C147" s="24"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>274</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H147" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001100</v>
       </c>
       <c r="I147" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J147" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="K147" s="22" t="s">
         <v>178</v>
@@ -7820,10 +7820,10 @@
         <v>331</v>
       </c>
       <c r="P147" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q147" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R147" s="7"/>
     </row>
@@ -7838,21 +7838,21 @@
       <c r="C148" s="24"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H148" s="6" t="str">
         <f t="shared" ref="H148" si="12">DEC2BIN(B148, 10)</f>
         <v>0010001101</v>
       </c>
       <c r="I148" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J148" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="K148" s="22" t="s">
         <v>170</v>
@@ -7866,10 +7866,10 @@
         <v>331</v>
       </c>
       <c r="P148" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q148" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R148" s="7"/>
     </row>
@@ -7884,23 +7884,23 @@
       <c r="C149" s="24"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>273</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H149" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001110</v>
       </c>
       <c r="I149" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J149" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="K149" s="22" t="s">
         <v>179</v>
@@ -7914,10 +7914,10 @@
         <v>331</v>
       </c>
       <c r="P149" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q149" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R149" s="7"/>
     </row>
@@ -7932,23 +7932,23 @@
       <c r="C150" s="24"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>274</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="H150" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001111</v>
       </c>
       <c r="I150" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="J150" s="6" t="s">
         <v>429</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>430</v>
       </c>
       <c r="K150" s="22" t="s">
         <v>180</v>
@@ -7962,10 +7962,10 @@
         <v>331</v>
       </c>
       <c r="P150" s="24" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="Q150" s="24" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="R150" s="7"/>
     </row>
@@ -7978,7 +7978,7 @@
         <v>144</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
@@ -8276,14 +8276,14 @@
         <v>154</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
         <v>363</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G161" s="28" t="s">
         <v>354</v>
@@ -8297,7 +8297,7 @@
       </c>
       <c r="J161" s="27"/>
       <c r="K161" s="22" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="L161" s="22" t="s">
         <v>275</v>
@@ -8324,14 +8324,14 @@
         <v>155</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
         <v>363</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G162" s="28" t="s">
         <v>355</v>
@@ -8372,14 +8372,14 @@
         <v>156</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
         <v>363</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G163" s="28" t="s">
         <v>356</v>
@@ -8420,14 +8420,14 @@
         <v>157</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
         <v>363</v>
       </c>
       <c r="F164" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G164" s="28" t="s">
         <v>357</v>
@@ -8466,14 +8466,14 @@
         <v>158</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
         <v>363</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G165" s="28" t="s">
         <v>358</v>
@@ -8512,14 +8512,14 @@
         <v>159</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
         <v>363</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G166" s="28" t="s">
         <v>359</v>
@@ -8558,7 +8558,7 @@
         <v>160</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>48</v>
@@ -8610,7 +8610,7 @@
         <v>161</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
@@ -8660,7 +8660,7 @@
         <v>162</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
@@ -8710,7 +8710,7 @@
         <v>163</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
@@ -9602,7 +9602,7 @@
         <v>192</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>69</v>
@@ -9796,7 +9796,7 @@
         <v>197</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="22" t="s">
@@ -10300,7 +10300,7 @@
         <v>211</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="22" t="s">
@@ -10338,7 +10338,7 @@
         <v>212</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D219" s="22"/>
       <c r="E219" s="22" t="s">
@@ -10448,7 +10448,7 @@
         <v>215</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D222" s="32"/>
       <c r="E222" s="32" t="s">
@@ -10488,29 +10488,29 @@
         <v>216</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H223" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011000</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J223" s="6"/>
       <c r="K223" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="L223" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="M223" s="6"/>
       <c r="N223" s="6"/>
@@ -10528,29 +10528,29 @@
         <v>217</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D224" s="6"/>
       <c r="E224" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="H224" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011001</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="J224" s="6"/>
       <c r="K224" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="L224" s="6" t="s">
         <v>410</v>
-      </c>
-      <c r="L224" s="6" t="s">
-        <v>411</v>
       </c>
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
@@ -10736,7 +10736,7 @@
         <v>224</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>70</v>
@@ -10904,7 +10904,7 @@
         <v>229</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="22" t="s">
@@ -11202,7 +11202,7 @@
         <v>237</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="34" t="s">
@@ -11240,7 +11240,7 @@
         <v>238</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="6" t="s">
@@ -11380,7 +11380,7 @@
         <v>242</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D249" s="22"/>
       <c r="E249" s="22" t="s">
@@ -11418,7 +11418,7 @@
         <v>243</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D250" s="22"/>
       <c r="E250" s="22" t="s">
@@ -11456,7 +11456,7 @@
         <v>244</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D251" s="22"/>
       <c r="E251" s="22" t="s">
@@ -11494,7 +11494,7 @@
         <v>245</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D252" s="22"/>
       <c r="E252" s="22" t="s">
@@ -11532,7 +11532,7 @@
         <v>246</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D253" s="22"/>
       <c r="E253" s="22" t="s">
@@ -11794,7 +11794,7 @@
         <v>255</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D262" s="35"/>
       <c r="E262" s="35" t="s">
@@ -11804,7 +11804,7 @@
         <v>277</v>
       </c>
       <c r="G262" s="35" t="s">
-        <v>381</v>
+        <v>437</v>
       </c>
       <c r="H262" s="35" t="str">
         <f t="shared" si="17"/>
@@ -11812,10 +11812,10 @@
       </c>
       <c r="I262" s="35"/>
       <c r="J262" s="35" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="L262" s="6" t="s">
         <v>275</v>
@@ -11836,7 +11836,7 @@
         <v>256</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>25</v>
@@ -11903,7 +11903,7 @@
       <c r="M264" s="6"/>
       <c r="N264" s="6"/>
       <c r="O264" s="24" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="P264" s="24">
         <v>3</v>
@@ -11922,7 +11922,7 @@
         <v>258</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6" t="s">
@@ -11962,7 +11962,7 @@
         <v>259</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="D266" s="6"/>
       <c r="E266" s="6" t="s">
@@ -12790,7 +12790,7 @@
         <v>288</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>283</v>
@@ -12845,13 +12845,13 @@
         <v>0100100001</v>
       </c>
       <c r="I296" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="J296" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="J296" s="6" t="s">
+      <c r="K296" s="6" t="s">
         <v>393</v>
-      </c>
-      <c r="K296" s="6" t="s">
-        <v>394</v>
       </c>
       <c r="L296" s="35" t="s">
         <v>275</v>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="438">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -2910,8 +2910,8 @@
   </sheetPr>
   <dimension ref="A2:AL1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A250" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F271" sqref="F271"/>
+    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C213" sqref="C213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10097,7 +10097,9 @@
       <c r="B212" s="6">
         <v>205</v>
       </c>
-      <c r="C212" s="24"/>
+      <c r="C212" s="24" t="s">
+        <v>436</v>
+      </c>
       <c r="D212" s="6"/>
       <c r="E212" s="34" t="s">
         <v>253</v>
@@ -10133,7 +10135,9 @@
       <c r="B213" s="6">
         <v>206</v>
       </c>
-      <c r="C213" s="24"/>
+      <c r="C213" s="24" t="s">
+        <v>436</v>
+      </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
         <v>250</v>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="438">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -1477,10 +1477,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRCR -&gt; {FRCHR, FRCLW}</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>FRCHR Read</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2057,6 +2053,10 @@
   </si>
   <si>
     <t>SRSPADD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRCR -&gt; {FRCHR, FRCLR}</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2910,8 +2910,8 @@
   </sheetPr>
   <dimension ref="A2:AL1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A226" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C213" sqref="C213"/>
+    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C297" sqref="C297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2964,58 +2964,58 @@
     </row>
     <row r="6" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>386</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>387</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>388</v>
-      </c>
       <c r="C6" s="18" t="s">
+        <v>432</v>
+      </c>
+      <c r="D6" s="18" t="s">
         <v>433</v>
       </c>
-      <c r="D6" s="18" t="s">
-        <v>434</v>
-      </c>
       <c r="E6" s="18" t="s">
+        <v>363</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>413</v>
+      </c>
+      <c r="G6" s="18" t="s">
         <v>364</v>
       </c>
-      <c r="F6" s="18" t="s">
-        <v>414</v>
-      </c>
-      <c r="G6" s="18" t="s">
+      <c r="H6" s="18" t="s">
         <v>365</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="I6" s="18" t="s">
+        <v>396</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>397</v>
+      </c>
+      <c r="K6" s="18" t="s">
         <v>366</v>
       </c>
-      <c r="I6" s="18" t="s">
-        <v>397</v>
-      </c>
-      <c r="J6" s="18" t="s">
+      <c r="L6" s="18" t="s">
+        <v>389</v>
+      </c>
+      <c r="M6" s="29" t="s">
         <v>398</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>367</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>390</v>
-      </c>
-      <c r="M6" s="29" t="s">
+      <c r="N6" s="43" t="s">
         <v>399</v>
       </c>
-      <c r="N6" s="43" t="s">
+      <c r="O6" s="26" t="s">
         <v>400</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="P6" s="33" t="s">
         <v>401</v>
       </c>
-      <c r="P6" s="33" t="s">
+      <c r="Q6" s="33" t="s">
         <v>402</v>
       </c>
-      <c r="Q6" s="33" t="s">
+      <c r="R6" s="19" t="s">
         <v>403</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>404</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -3027,7 +3027,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>44</v>
@@ -3071,7 +3071,7 @@
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
@@ -3113,7 +3113,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
@@ -3136,7 +3136,7 @@
         <v>143</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3155,7 +3155,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
@@ -3178,7 +3178,7 @@
         <v>143</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3281,7 +3281,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="22" t="s">
@@ -3426,11 +3426,11 @@
         <v>0000001001</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="L16" s="22" t="s">
         <v>275</v>
@@ -3453,25 +3453,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D17" s="35"/>
       <c r="E17" s="35" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F17" s="35"/>
       <c r="G17" s="35" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H17" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001010</v>
       </c>
       <c r="I17" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="J17" s="35" t="s">
         <v>384</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>385</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
@@ -3493,25 +3493,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D18" s="35"/>
       <c r="E18" s="35" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="F18" s="35"/>
       <c r="G18" s="35" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="H18" s="35" t="str">
         <f t="shared" si="2"/>
         <v>0000001011</v>
       </c>
       <c r="I18" s="35" t="s">
+        <v>383</v>
+      </c>
+      <c r="J18" s="35" t="s">
         <v>384</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>385</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="35"/>
@@ -3565,22 +3565,22 @@
       <c r="C20" s="24"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="6" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001101</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -3599,7 +3599,7 @@
         <v>14</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
@@ -3669,7 +3669,7 @@
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
@@ -3707,7 +3707,7 @@
         <v>17</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
@@ -3775,27 +3775,27 @@
       <c r="C26" s="24"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="H26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010011</v>
       </c>
       <c r="I26" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J26" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="J26" s="6" t="s">
+      <c r="K26" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="K26" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="L26" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -3815,27 +3815,27 @@
       <c r="C27" s="24"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010100</v>
       </c>
       <c r="I27" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J27" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="K27" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L27" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -3855,27 +3855,27 @@
       <c r="C28" s="24"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="H28" s="6" t="str">
         <f>DEC2BIN(B28, 10)</f>
         <v>0000010101</v>
       </c>
       <c r="I28" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J28" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="J28" s="6" t="s">
+      <c r="K28" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="K28" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="L28" s="6" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -3895,27 +3895,27 @@
       <c r="C29" s="24"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="H29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010110</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="J29" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>341</v>
-      </c>
       <c r="K29" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="L29" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>344</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -4073,7 +4073,7 @@
         <v>28</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
@@ -4113,7 +4113,7 @@
         <v>29</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
@@ -4210,7 +4210,7 @@
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="6" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -5117,7 +5117,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>4</v>
@@ -5165,7 +5165,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
@@ -5295,7 +5295,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22" t="s">
@@ -6104,7 +6104,7 @@
         <v>96</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
@@ -6144,7 +6144,7 @@
         <v>97</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
@@ -6185,7 +6185,7 @@
         <v>98</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
@@ -6223,7 +6223,7 @@
         <v>99</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="22" t="s">
@@ -6238,11 +6238,11 @@
         <v>0001100011</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J106" s="22"/>
       <c r="K106" s="22" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -6261,7 +6261,7 @@
         <v>100</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
@@ -6300,7 +6300,7 @@
         <v>101</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
@@ -6339,7 +6339,7 @@
         <v>102</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
@@ -6377,7 +6377,7 @@
         <v>103</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
@@ -6471,7 +6471,7 @@
         <v>106</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6" t="s">
@@ -6511,7 +6511,7 @@
         <v>107</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6" t="s">
@@ -6551,7 +6551,7 @@
         <v>108</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6" t="s">
@@ -6591,7 +6591,7 @@
         <v>109</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
@@ -6634,7 +6634,7 @@
         <v>110</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
@@ -6674,7 +6674,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
@@ -6727,11 +6727,11 @@
         <v>0001110000</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J119" s="22"/>
       <c r="K119" s="22" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="L119" s="10" t="s">
         <v>275</v>
@@ -6765,11 +6765,11 @@
         <v>0001110001</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="J120" s="22"/>
       <c r="K120" s="22" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="L120" s="10" t="s">
         <v>275</v>
@@ -6830,7 +6830,7 @@
         <v>115</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
@@ -6851,7 +6851,7 @@
         <v>67</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="L122" s="10" t="s">
         <v>275</v>
@@ -6931,7 +6931,7 @@
         <v>118</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
@@ -6971,7 +6971,7 @@
         <v>119</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
@@ -7067,7 +7067,7 @@
         <v>122</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
@@ -7250,10 +7250,10 @@
         <v>128</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E135" s="6" t="s">
         <v>37</v>
@@ -7279,10 +7279,10 @@
         <v>275</v>
       </c>
       <c r="M135" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="N135" s="35" t="s">
         <v>369</v>
-      </c>
-      <c r="N135" s="35" t="s">
-        <v>370</v>
       </c>
       <c r="O135" s="24"/>
       <c r="P135" s="24">
@@ -7302,7 +7302,7 @@
         <v>129</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
@@ -7331,10 +7331,10 @@
         <v>275</v>
       </c>
       <c r="M136" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="N136" s="35" t="s">
         <v>369</v>
-      </c>
-      <c r="N136" s="35" t="s">
-        <v>370</v>
       </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24">
@@ -7354,7 +7354,7 @@
         <v>130</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
@@ -7383,10 +7383,10 @@
         <v>275</v>
       </c>
       <c r="M137" s="35" t="s">
+        <v>368</v>
+      </c>
+      <c r="N137" s="35" t="s">
         <v>369</v>
-      </c>
-      <c r="N137" s="35" t="s">
-        <v>370</v>
       </c>
       <c r="O137" s="24"/>
       <c r="P137" s="24">
@@ -7406,7 +7406,7 @@
         <v>131</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
@@ -7452,7 +7452,7 @@
         <v>132</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
@@ -7500,7 +7500,7 @@
         <v>133</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
@@ -7604,14 +7604,14 @@
         <v>136</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G143" s="22" t="s">
         <v>30</v>
@@ -7624,7 +7624,7 @@
         <v>22</v>
       </c>
       <c r="J143" s="22" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="K143" s="6" t="s">
         <v>108</v>
@@ -7696,21 +7696,21 @@
       <c r="C145" s="24"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="22" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="H145" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001010</v>
       </c>
       <c r="I145" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J145" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="J145" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>176</v>
@@ -7721,13 +7721,13 @@
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
       <c r="O145" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P145" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q145" s="24" t="s">
         <v>431</v>
-      </c>
-      <c r="Q145" s="24" t="s">
-        <v>432</v>
       </c>
       <c r="R145" s="7"/>
     </row>
@@ -7742,23 +7742,23 @@
       <c r="C146" s="24"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F146" s="6" t="s">
         <v>273</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="H146" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001011</v>
       </c>
       <c r="I146" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J146" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="J146" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="K146" s="22" t="s">
         <v>177</v>
@@ -7769,13 +7769,13 @@
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
       <c r="O146" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P146" s="24" t="s">
+        <v>430</v>
+      </c>
+      <c r="Q146" s="24" t="s">
         <v>431</v>
-      </c>
-      <c r="Q146" s="24" t="s">
-        <v>432</v>
       </c>
       <c r="R146" s="7"/>
     </row>
@@ -7790,23 +7790,23 @@
       <c r="C147" s="24"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="F147" s="6" t="s">
         <v>274</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H147" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001100</v>
       </c>
       <c r="I147" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J147" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="J147" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="K147" s="22" t="s">
         <v>178</v>
@@ -7817,13 +7817,13 @@
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
       <c r="O147" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P147" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q147" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R147" s="7"/>
     </row>
@@ -7838,21 +7838,21 @@
       <c r="C148" s="24"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="H148" s="6" t="str">
         <f t="shared" ref="H148" si="12">DEC2BIN(B148, 10)</f>
         <v>0010001101</v>
       </c>
       <c r="I148" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J148" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="J148" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="K148" s="22" t="s">
         <v>170</v>
@@ -7863,13 +7863,13 @@
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
       <c r="O148" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P148" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q148" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R148" s="7"/>
     </row>
@@ -7884,23 +7884,23 @@
       <c r="C149" s="24"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F149" s="6" t="s">
         <v>273</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H149" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001110</v>
       </c>
       <c r="I149" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J149" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="J149" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="K149" s="22" t="s">
         <v>179</v>
@@ -7911,13 +7911,13 @@
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
       <c r="O149" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P149" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q149" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R149" s="7"/>
     </row>
@@ -7932,23 +7932,23 @@
       <c r="C150" s="24"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="F150" s="6" t="s">
         <v>274</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="H150" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001111</v>
       </c>
       <c r="I150" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="J150" s="6" t="s">
         <v>428</v>
-      </c>
-      <c r="J150" s="6" t="s">
-        <v>429</v>
       </c>
       <c r="K150" s="22" t="s">
         <v>180</v>
@@ -7959,13 +7959,13 @@
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
       <c r="O150" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P150" s="24" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="Q150" s="24" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="R150" s="7"/>
     </row>
@@ -7978,7 +7978,7 @@
         <v>144</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
@@ -8004,7 +8004,7 @@
       </c>
       <c r="M151" s="6"/>
       <c r="N151" s="35" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="O151" s="24"/>
       <c r="P151" s="24">
@@ -8276,34 +8276,34 @@
         <v>154</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H161" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011010</v>
       </c>
       <c r="I161" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J161" s="27"/>
       <c r="K161" s="22" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="L161" s="22" t="s">
         <v>275</v>
       </c>
       <c r="M161" s="22" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="N161" s="22"/>
       <c r="O161" s="30"/>
@@ -8324,34 +8324,34 @@
         <v>155</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G162" s="28" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="H162" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011011</v>
       </c>
       <c r="I162" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J162" s="27"/>
       <c r="K162" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L162" s="22" t="s">
         <v>275</v>
       </c>
       <c r="M162" s="22" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="N162" s="22"/>
       <c r="O162" s="30"/>
@@ -8372,34 +8372,34 @@
         <v>156</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H163" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011100</v>
       </c>
       <c r="I163" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J163" s="27"/>
       <c r="K163" s="22" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="L163" s="22" t="s">
         <v>275</v>
       </c>
       <c r="M163" s="22" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="N163" s="22"/>
       <c r="O163" s="30"/>
@@ -8420,28 +8420,28 @@
         <v>157</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F164" s="27" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="H164" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011101</v>
       </c>
       <c r="I164" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J164" s="27"/>
       <c r="K164" s="22" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="L164" s="22" t="s">
         <v>275</v>
@@ -8466,28 +8466,28 @@
         <v>158</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="H165" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011110</v>
       </c>
       <c r="I165" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J165" s="27"/>
       <c r="K165" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L165" s="22" t="s">
         <v>275</v>
@@ -8512,28 +8512,28 @@
         <v>159</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G166" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H166" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011111</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="J166" s="27"/>
       <c r="K166" s="22" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="L166" s="22" t="s">
         <v>275</v>
@@ -8558,7 +8558,7 @@
         <v>160</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>48</v>
@@ -8610,7 +8610,7 @@
         <v>161</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
@@ -8660,7 +8660,7 @@
         <v>162</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
@@ -8710,7 +8710,7 @@
         <v>163</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
@@ -9602,7 +9602,7 @@
         <v>192</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>69</v>
@@ -9796,7 +9796,7 @@
         <v>197</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="22" t="s">
@@ -9919,7 +9919,7 @@
       <c r="M207" s="6"/>
       <c r="N207" s="10"/>
       <c r="O207" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P207" s="24">
         <v>3</v>
@@ -9963,7 +9963,7 @@
       <c r="M208" s="6"/>
       <c r="N208" s="6"/>
       <c r="O208" s="24" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="P208" s="24">
         <v>3</v>
@@ -10098,7 +10098,7 @@
         <v>205</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="34" t="s">
@@ -10136,7 +10136,7 @@
         <v>206</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
@@ -10304,7 +10304,7 @@
         <v>211</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="22" t="s">
@@ -10342,27 +10342,27 @@
         <v>212</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D219" s="22"/>
       <c r="E219" s="22" t="s">
-        <v>304</v>
+        <v>437</v>
       </c>
       <c r="F219" s="22"/>
       <c r="G219" s="22" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="H219" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010100</v>
       </c>
       <c r="I219" s="22" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J219" s="22"/>
       <c r="K219" s="22"/>
       <c r="L219" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M219" s="22"/>
       <c r="N219" s="6"/>
@@ -10379,26 +10379,28 @@
       <c r="B220" s="22">
         <v>213</v>
       </c>
-      <c r="C220" s="24"/>
+      <c r="C220" s="24" t="s">
+        <v>435</v>
+      </c>
       <c r="D220" s="22"/>
       <c r="E220" s="22" t="s">
         <v>303</v>
       </c>
       <c r="F220" s="22"/>
       <c r="G220" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="H220" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010101</v>
       </c>
       <c r="I220" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J220" s="22"/>
       <c r="K220" s="22"/>
       <c r="L220" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M220" s="22"/>
       <c r="N220" s="6"/>
@@ -10415,26 +10417,28 @@
       <c r="B221" s="22">
         <v>214</v>
       </c>
-      <c r="C221" s="24"/>
+      <c r="C221" s="24" t="s">
+        <v>435</v>
+      </c>
       <c r="D221" s="22"/>
       <c r="E221" s="22" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F221" s="22"/>
       <c r="G221" s="22" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H221" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010110</v>
       </c>
       <c r="I221" s="22" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J221" s="22"/>
       <c r="K221" s="22"/>
       <c r="L221" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M221" s="22"/>
       <c r="N221" s="6"/>
@@ -10452,29 +10456,29 @@
         <v>215</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D222" s="32"/>
       <c r="E222" s="32" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="F222" s="32"/>
       <c r="G222" s="32" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H222" s="32" t="str">
         <f t="shared" si="17"/>
         <v>0011010111</v>
       </c>
       <c r="I222" s="32" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="J222" s="32"/>
       <c r="K222" s="32" t="s">
+        <v>328</v>
+      </c>
+      <c r="L222" s="32" t="s">
         <v>329</v>
-      </c>
-      <c r="L222" s="32" t="s">
-        <v>330</v>
       </c>
       <c r="M222" s="32"/>
       <c r="N222" s="6"/>
@@ -10492,29 +10496,29 @@
         <v>216</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="H223" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011000</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J223" s="6"/>
       <c r="K223" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="L223" s="6" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="M223" s="6"/>
       <c r="N223" s="6"/>
@@ -10532,29 +10536,29 @@
         <v>217</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D224" s="6"/>
       <c r="E224" s="6" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="H224" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011001</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="J224" s="6"/>
       <c r="K224" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="L224" s="6" t="s">
         <v>409</v>
-      </c>
-      <c r="L224" s="6" t="s">
-        <v>410</v>
       </c>
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
@@ -10740,7 +10744,7 @@
         <v>224</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>70</v>
@@ -10750,7 +10754,7 @@
       </c>
       <c r="F231" s="6"/>
       <c r="G231" s="22" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="H231" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10784,11 +10788,11 @@
       <c r="C232" s="24"/>
       <c r="D232" s="32"/>
       <c r="E232" s="32" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F232" s="32"/>
       <c r="G232" s="32" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="H232" s="32" t="str">
         <f t="shared" si="17"/>
@@ -10805,7 +10809,7 @@
       <c r="M232" s="32"/>
       <c r="N232" s="6"/>
       <c r="O232" s="24" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="P232" s="24"/>
       <c r="Q232" s="24" t="s">
@@ -10908,7 +10912,7 @@
         <v>229</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="22" t="s">
@@ -11206,7 +11210,7 @@
         <v>237</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="34" t="s">
@@ -11244,7 +11248,7 @@
         <v>238</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="6" t="s">
@@ -11384,7 +11388,7 @@
         <v>242</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D249" s="22"/>
       <c r="E249" s="22" t="s">
@@ -11422,7 +11426,7 @@
         <v>243</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D250" s="22"/>
       <c r="E250" s="22" t="s">
@@ -11460,27 +11464,27 @@
         <v>244</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D251" s="22"/>
       <c r="E251" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="F251" s="22"/>
       <c r="G251" s="22" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="H251" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110100</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J251" s="6"/>
       <c r="K251" s="6"/>
       <c r="L251" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M251" s="22"/>
       <c r="N251" s="6"/>
@@ -11498,27 +11502,27 @@
         <v>245</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D252" s="22"/>
       <c r="E252" s="22" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="F252" s="22"/>
       <c r="G252" s="22" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="H252" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110101</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J252" s="6"/>
       <c r="K252" s="6"/>
       <c r="L252" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M252" s="22"/>
       <c r="N252" s="6"/>
@@ -11536,27 +11540,27 @@
         <v>246</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D253" s="22"/>
       <c r="E253" s="22" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F253" s="22"/>
       <c r="G253" s="22" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="H253" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110110</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J253" s="6"/>
       <c r="K253" s="6"/>
       <c r="L253" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="M253" s="22"/>
       <c r="N253" s="6"/>
@@ -11798,17 +11802,17 @@
         <v>255</v>
       </c>
       <c r="C262" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D262" s="35"/>
       <c r="E262" s="35" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F262" s="35" t="s">
         <v>277</v>
       </c>
       <c r="G262" s="35" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="H262" s="35" t="str">
         <f t="shared" si="17"/>
@@ -11816,10 +11820,10 @@
       </c>
       <c r="I262" s="35"/>
       <c r="J262" s="35" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="L262" s="6" t="s">
         <v>275</v>
@@ -11840,7 +11844,7 @@
         <v>256</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>25</v>
@@ -11907,7 +11911,7 @@
       <c r="M264" s="6"/>
       <c r="N264" s="6"/>
       <c r="O264" s="24" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="P264" s="24">
         <v>3</v>
@@ -11926,7 +11930,7 @@
         <v>258</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6" t="s">
@@ -11966,7 +11970,7 @@
         <v>259</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D266" s="6"/>
       <c r="E266" s="6" t="s">
@@ -12794,7 +12798,7 @@
         <v>288</v>
       </c>
       <c r="C295" s="24" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D295" s="6" t="s">
         <v>283</v>
@@ -12849,13 +12853,13 @@
         <v>0100100001</v>
       </c>
       <c r="I296" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="J296" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="J296" s="6" t="s">
+      <c r="K296" s="6" t="s">
         <v>392</v>
-      </c>
-      <c r="K296" s="6" t="s">
-        <v>393</v>
       </c>
       <c r="L296" s="35" t="s">
         <v>275</v>
@@ -12875,7 +12879,9 @@
       <c r="B297" s="6">
         <v>290</v>
       </c>
-      <c r="C297" s="39"/>
+      <c r="C297" s="24" t="s">
+        <v>434</v>
+      </c>
       <c r="D297" s="6"/>
       <c r="E297" s="27" t="s">
         <v>290</v>
@@ -12923,11 +12929,11 @@
       <c r="C298" s="24"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="H298" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12955,11 +12961,11 @@
       <c r="C299" s="24"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" s="6" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="H299" s="6" t="str">
         <f t="shared" si="20"/>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="438">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -2910,8 +2910,8 @@
   </sheetPr>
   <dimension ref="A2:AL1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A274" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C297" sqref="C297"/>
+    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C295" sqref="C295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -12797,9 +12797,7 @@
       <c r="B295" s="6">
         <v>288</v>
       </c>
-      <c r="C295" s="24" t="s">
-        <v>434</v>
-      </c>
+      <c r="C295" s="24"/>
       <c r="D295" s="6" t="s">
         <v>283</v>
       </c>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="1500" windowWidth="16110" windowHeight="7815"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="844" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="438">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -2910,8 +2910,8 @@
   </sheetPr>
   <dimension ref="A2:AL1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C295" sqref="C295"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C120" sqref="C120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6751,7 +6751,9 @@
       <c r="B120" s="22">
         <v>113</v>
       </c>
-      <c r="C120" s="24"/>
+      <c r="C120" s="24" t="s">
+        <v>435</v>
+      </c>
       <c r="D120" s="22"/>
       <c r="E120" s="22" t="s">
         <v>77</v>

--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="7020" yWindow="1500" windowWidth="16110" windowHeight="7815"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="474">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -105,10 +105,6 @@
   </si>
   <si>
     <t>O1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>No Operation</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -160,23 +156,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>clear　word</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>set word</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>pipline is halt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>load register or immediate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>store register or immediate</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -200,18 +180,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>write 2Byte1/2（下位16ビット）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>write 2Byte2/2（上位16ビット）</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Program Counter Push</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>integer</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -220,14 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>mul output Low 32bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mul output High 32bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Branch</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -257,14 +217,6 @@
   </si>
   <si>
     <t>XNOR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>CPU ID Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stack Point Register Read</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -319,18 +271,6 @@
   </si>
   <si>
     <t>System Register Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(PC relative addressing) register or imm Unsigned!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(PC relative addressing) register or imm Signed!</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(direct addressing)register or immediate</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -350,20 +290,6 @@
     </rPh>
     <rPh sb="9" eb="11">
       <t>バアイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ビットリバース命令</t>
-    <rPh sb="7" eb="9">
-      <t>メイレイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>バイトリバース命令</t>
-    <rPh sb="7" eb="9">
-      <t>メイレイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -381,14 +307,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Get Bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Get Byte</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>test</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -398,29 +316,6 @@
   </si>
   <si>
     <t>O2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>KPDTR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Stack Point Register Write</t>
-  </si>
-  <si>
-    <t>KPDTR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Interrupt Enable Information Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Interrupt Enable Information Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PDTR Read</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -476,10 +371,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = ROR(Rd, Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = Rd &amp; Rs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -504,14 +395,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = Rd &amp; 0xFFFF0000 | Rs</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = Rd &amp; 0x0000FFFF | Rs &lt;&lt; 16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = 0x00000000</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -520,14 +403,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MEMORY[SPR] = Rd</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = MEMORY[SPR]</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>PC = PC + unsigned(Rd)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -576,22 +451,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = ROL(Rd, Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = clb(Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = stb(Rs)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FLAGR = flags(Rd, Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TISPR = Rd</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -600,31 +463,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>No Operation</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Halt</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = Rs</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>※フラグが生成されない命令の後、フラグはすべておろした状態(00000)となります。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MMU Mode Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Core Mode Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>MMU Mode Write</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -662,14 +505,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>signed div</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signed mod</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = (Rd &gt;&gt; Rs) &amp; 0x00000001</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -701,10 +536,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sign Negative</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SEXT8</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -713,21 +544,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Sign Extension8-&gt;32</t>
-  </si>
-  <si>
-    <t>Sign Extension16-&gt;32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>O2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = Sign Extension16-&gt;32(Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>LIH</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -736,22 +556,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Unsigned Load Immediate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ULIL</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Signed Load Immediate(Low)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Signed Load Immediate(High)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = Rs</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -764,18 +572,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Move Programm Counter + Offset</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Word Addressing</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IOSR Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRIOSR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -784,14 +584,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MEMORY[Rs] = mask(Rd, 8)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>add cary output</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ADDC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -804,70 +596,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = cary_output(Rd + Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = mask(MEMORY[Rs], 8)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>O2の時 : Rd = mask(MEMORY[Rs], 16) I11の時Rd = mask(MEMORY[Rs&gt;&gt;1], 16)</t>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O2の時 : Rd = mask(MEMORY[Rs], 16) I11の時Rd = mask(MEMORY[Rs&gt;&gt;2], 16)</t>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O2の時 : MEMORY[Rs] = mask(Rd, 16) I11の時 : MEMORY[Rs&gt;&gt;1] = mask(Rd, 16)</t>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>O2の時 : MEMORY[Rs] = mask(Rd, 16) I11の時 : MEMORY[Rs&gt;&gt;2] = mask(Rd, 16)</t>
-    <rPh sb="3" eb="4">
-      <t>トキ</t>
-    </rPh>
-    <rPh sb="37" eb="38">
-      <t>トキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = Rs(Signed) + PC</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Core ID Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Inc</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dec</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>INC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -888,30 +620,14 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">Software Interrupt </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SWI</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Test And Set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TAS</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t xml:space="preserve">TISR Write </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t xml:space="preserve">TISR Read </t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRCIDR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -948,10 +664,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = mask(SR1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = TISR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -984,14 +696,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = Sign Extension8-&gt;32(Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = SignExtension(Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>I11</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1068,10 +772,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Task ID(TID) Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRTIDR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1128,42 +828,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PPCR Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPDTR Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PTIDR Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPSR Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = TIDR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PPSR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPCR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PPDTR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>PTIDR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRPPSR</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1193,10 +861,6 @@
   </si>
   <si>
     <t>SRPTIDW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(IRQ Ret)(direct addressing)register or immediate(CC Non Suport )</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1234,10 +898,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDTR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRIDTW</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1247,49 +907,12 @@
   </si>
   <si>
     <t>Rd = Rs&lt;&lt;16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1bit左シフト</t>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2bit左シフト</t>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>フラグを発生しない</t>
     <rPh sb="4" eb="6">
       <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>符号拡張</t>
-    <rPh sb="0" eb="2">
-      <t>フゴウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>符号拡張　2bit左シフト</t>
-    <rPh sb="0" eb="2">
-      <t>フゴウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カクチョウ</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>ヒダリ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1376,10 +999,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Set IDT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>カーネルモードのみ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1420,10 +1039,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>IDT Set</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>O1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1431,60 +1046,22 @@
     <t>SRPSR</t>
   </si>
   <si>
-    <t>PSR Read</t>
-  </si>
-  <si>
     <t>O1</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PSR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRPSW</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フラグを発生しない</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mask(SR1) = Rs &amp; 0x00000011</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = IOSR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = (PSR &amp; 0x00000004) &gt;&gt; 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>mask(SR1) = (Rs &amp; 0x00000004) &gt;&gt; 2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>C</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRCLR Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRCHR Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>{FRCLR, FRCHR} -&gt; FRCR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRFRCHW</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1521,13 +1098,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フラグを発生しない</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRFRCW</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1536,26 +1106,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>increment(Cary Output)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>O2</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = cary_output(Rs + 1)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load Linked</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store Conditional</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>STC</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1564,26 +1118,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>PFLAGR Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>SRPFLAGR</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>O1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Rd = SRPFLAGR</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>フラグを発生しない</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1595,10 +1134,6 @@
   </si>
   <si>
     <t>SRSPW</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Page Directory Table Register Write</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1616,22 +1151,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>unsigned Maximum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unsigned Minimum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signed Maximum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>signed Minimum</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>O2</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1648,13 +1167,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フラグを発生しない</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>MAX</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1679,10 +1191,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Rd = neg(Rs)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = rvbi(Rs)</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1715,22 +1223,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MEMORY[Rs] = mask(Rd+displacement, 8)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = mask(MEMORY[Rs+displacement], 16)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>MEMORY[Rs] = mask(Rd+displacement, 16)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>with signed displacement</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Instruction</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1767,14 +1263,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>unsigned mul output low 32bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>unsigned mul output high 32bit</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>UMULL</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1784,18 +1272,6 @@
   </si>
   <si>
     <t>Reserved</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRCLR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FRCHR Write</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SPR + Immediate</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1809,10 +1285,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SPR = SPR + signed immediate</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CI16</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1856,13 +1328,6 @@
     <t>tas gr[src0], mem[src1]</t>
   </si>
   <si>
-    <t>符号拡張</t>
-    <rPh sb="0" eb="4">
-      <t>フゴウカクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = (Rd * Rs) &amp; 0xFFFFFFFF</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1923,62 +1388,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>フラグを発生しない</t>
-    <rPh sb="4" eb="6">
-      <t>ハッセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FI1R Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>FI0R Read</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Rd = mask(MEMORY[Rs+displacement], 8)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Immediate(Displacement)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>(符号拡張)</t>
-  </si>
-  <si>
-    <t>(符号拡張)</t>
-    <rPh sb="1" eb="5">
-      <t>フゴウカクチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>1bit左シフト(符号拡張・1bit左シフト)</t>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>2bit左シフト(符号拡張・2bit左シフト)</t>
-    <rPh sb="4" eb="5">
-      <t>ヒダリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>push</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Load(always use PDTR)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Store(always use PDTR)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2056,7 +1470,662 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>FRCR -&gt; {FRCHR, FRCLR}</t>
+    <t>sign extension</t>
+  </si>
+  <si>
+    <t>sign extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Immediate[Displacement]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[sign extension]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>[sign extension]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1bit left shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2bit left shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1bit left shift[sign extension・1bit left shift]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2bit left shift[sign extension・2bit left shift]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>div</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mod</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign negative</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inc</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dec</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mul output low32bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mul output high32bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned mul output low32bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned mul output high32bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>increment output carry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>add output carry</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maximum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>minimum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned maximum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned minimum</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign extension 8bit to 32bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign extension 16bit to 32bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>write for high 16bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>write for low 16bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>clear word</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>bit reverse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>byte reverse</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get single bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>get 1 byte</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load immediate low 16bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load immediate high 16bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned load immediate 16bit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load byte data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load 2byte data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load word data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store byte data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store 2byte data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store word data</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>push program counter</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load byte data (always use PDTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load 2byte data (always use PDTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load word data (always use PDTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store byte data (always use PDTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store 2byte data (always use PDTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store word data (always use PDTR)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load byte data with displacement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load 2byte data with displacement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load word data with displacement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store byte data with displacement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store 2byte data with displacement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store word data with displacement</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>2bit left shift[sign extension・2bit left shift]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign extension</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sign extension・2bit left shift</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PC = PPCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch (direct address)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch (PC relative address)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned branch (PC relative address)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set pcr from ppcr data(condition code not suport)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>unsigned branch (PC relative address). with hint of not branch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch (PC relative address). with hint of not branch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>branch (direct address). with hint of not branch</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read SPR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PDTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read CPUIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read COREIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PSR_CMOD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PSR_IM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read TISR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read KPDTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PSR_MMUMOD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read IOSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read TIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PPSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PPCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PPDTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PTIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read FRCR to {FRCHR, FRCLR}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read FRCLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read FRCHR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read PFLAGR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read FI0R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>read FI1R</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store SPR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PDTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PSR_IM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store TISR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store KPDTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PSR_MMUMOD</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PPSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PPCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PPDTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PTIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store IDTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store FRCR from {FRCLR, FRCHR}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store FRCLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store FRCHR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>no operation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>pipline halt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store PSR add immediate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>move PCR add immediate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">software interrupt </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>test and set</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>set interrupt discriptor table</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>load linked</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>store conditional</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FLAGR = flags_out(Rd - Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = cary_out(Rs + 1)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = cary_out(Rd + Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = negative(Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = sign_extension8to32(Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = sign_extension16to32(Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = rol(Rd, Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = ror(Rd, Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FLAGR = flags_out(Rd &amp; Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = (Rd &amp; 0xFFFF0000) | (Rs &amp; 0x0000FFFF)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = (Rd &amp; 0x0000FFFF) | ((Rs &lt;&lt; 16) &amp; 0xFFFF0000)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = clb(Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = sign_extension(Rs)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = mask(MEMORY[Rs], 16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = MEMORY[Rs]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY[Rs] = mask(Rd, 8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY[Rs] = mask(Rd, 16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY[Rs] = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY[SPR] = Rd, SPR = SPR - 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = MEMORY[SPR], SPR = SPR + 4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = MEMORY[Rs+displacement]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY[Rs+displacement] = mask(Rd, 8)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY[Rs+displacement] = mask(Rd, 16)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MEMORY[Rs+displacement] = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = (PSR &gt;&gt; 5) &amp; 0x3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = (PSR &gt;&gt; 2) &amp; 0x1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = PSR &amp; 0x3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = PFLAGR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSR = (PSR &amp; 0xFFFFFFFB) | ((Rs &lt;&lt; 2) &amp; 0x00000004)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSR = (PSR &amp; 0xFFFFFFFC) | (Rs &amp; 0x0000003)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PDTR = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = PPSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = PPCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = PPDTR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = PTIDR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = PSR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>{FRCHR, FRCLR} = FRCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = FRCLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = FRCHR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPSR = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPCR = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PPDTR = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PTIDR = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IDTR = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>PSR = Rd</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRCR = {FRCLR, FRCHR}</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRCLR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>FRCHR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SPR = SPR + immediate</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>halt</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rd = Rs + PCR</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CoreIDT = MEMORY[IDTR]</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>not generate flags</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2375,7 +2444,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2502,9 +2571,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -2517,7 +2583,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2532,90 +2598,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>704711</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>67375</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="1580029" cy="642484"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="テキスト ボックス 1"/>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="10048736" y="12278425"/>
-          <a:ext cx="1580029" cy="642484"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>回路サイズを確認してから検討</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-            <a:solidFill>
-              <a:srgbClr val="FF0000"/>
-            </a:solidFill>
-          </a:endParaRPr>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>150LE</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>、これは外したい。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2910,8 +2892,8 @@
   </sheetPr>
   <dimension ref="A2:AL1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C120" sqref="C120"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2920,13 +2902,13 @@
     <col min="2" max="2" width="8.75" customWidth="1"/>
     <col min="3" max="3" width="10" customWidth="1"/>
     <col min="4" max="4" width="19.25" customWidth="1"/>
-    <col min="5" max="5" width="55.375" customWidth="1"/>
+    <col min="5" max="5" width="37.875" customWidth="1"/>
     <col min="6" max="6" width="34.625" customWidth="1"/>
-    <col min="7" max="7" width="40.875" customWidth="1"/>
+    <col min="7" max="7" width="11.625" customWidth="1"/>
     <col min="8" max="8" width="11.25" customWidth="1"/>
     <col min="9" max="9" width="20.125" customWidth="1"/>
     <col min="10" max="10" width="17.125" customWidth="1"/>
-    <col min="11" max="11" width="77" customWidth="1"/>
+    <col min="11" max="11" width="50.625" customWidth="1"/>
     <col min="12" max="12" width="22.375" customWidth="1"/>
     <col min="13" max="13" width="13" customWidth="1"/>
     <col min="14" max="14" width="17.5" customWidth="1"/>
@@ -2946,76 +2928,76 @@
   <sheetData>
     <row r="2" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.15">
       <c r="D3" t="s">
-        <v>131</v>
+        <v>96</v>
       </c>
     </row>
     <row r="5" spans="1:20" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="N5" s="44"/>
+      <c r="N5" s="43"/>
       <c r="O5" s="4" t="s">
-        <v>68</v>
+        <v>56</v>
       </c>
       <c r="P5" s="21"/>
       <c r="Q5" s="21"/>
     </row>
     <row r="6" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
-        <v>386</v>
+        <v>269</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>387</v>
+        <v>270</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>432</v>
+        <v>304</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>433</v>
+        <v>305</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>363</v>
+        <v>252</v>
       </c>
       <c r="F6" s="18" t="s">
-        <v>413</v>
+        <v>311</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>364</v>
+        <v>253</v>
       </c>
       <c r="H6" s="18" t="s">
-        <v>365</v>
+        <v>254</v>
       </c>
       <c r="I6" s="18" t="s">
-        <v>396</v>
+        <v>278</v>
       </c>
       <c r="J6" s="18" t="s">
-        <v>397</v>
+        <v>279</v>
       </c>
       <c r="K6" s="18" t="s">
-        <v>366</v>
+        <v>255</v>
       </c>
       <c r="L6" s="18" t="s">
-        <v>389</v>
+        <v>272</v>
       </c>
       <c r="M6" s="29" t="s">
-        <v>398</v>
-      </c>
-      <c r="N6" s="43" t="s">
-        <v>399</v>
+        <v>280</v>
+      </c>
+      <c r="N6" s="42" t="s">
+        <v>281</v>
       </c>
       <c r="O6" s="26" t="s">
-        <v>400</v>
+        <v>282</v>
       </c>
       <c r="P6" s="33" t="s">
-        <v>401</v>
+        <v>283</v>
       </c>
       <c r="Q6" s="33" t="s">
-        <v>402</v>
+        <v>284</v>
       </c>
       <c r="R6" s="19" t="s">
-        <v>403</v>
+        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -3027,16 +3009,16 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="E7" s="15" t="s">
         <v>1</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>276</v>
+        <v>310</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>0</v>
@@ -3049,10 +3031,10 @@
         <v>16</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>118</v>
+        <v>88</v>
       </c>
       <c r="L7" s="15"/>
       <c r="M7" s="15"/>
@@ -3071,14 +3053,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>3</v>
@@ -3091,10 +3073,10 @@
         <v>16</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>144</v>
+        <v>104</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>119</v>
+        <v>89</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -3113,17 +3095,17 @@
         <v>2</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>46</v>
+        <v>323</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G9" s="22" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="H9" s="6" t="str">
         <f t="shared" si="0"/>
@@ -3133,10 +3115,10 @@
         <v>16</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>394</v>
+        <v>276</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3155,17 +3137,17 @@
         <v>3</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G10" s="22" t="s">
-        <v>45</v>
+        <v>37</v>
       </c>
       <c r="H10" s="6" t="str">
         <f t="shared" ref="H10:H70" si="2">DEC2BIN(B10, 10)</f>
@@ -3175,10 +3157,10 @@
         <v>16</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>395</v>
+        <v>277</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3199,11 +3181,11 @@
       <c r="C11" s="24"/>
       <c r="D11" s="6"/>
       <c r="E11" s="6" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="F11" s="22"/>
       <c r="G11" s="22" t="s">
-        <v>209</v>
+        <v>144</v>
       </c>
       <c r="H11" s="6" t="str">
         <f t="shared" si="2"/>
@@ -3213,10 +3195,10 @@
         <v>16</v>
       </c>
       <c r="J11" s="15" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L11" s="6"/>
       <c r="M11" s="6"/>
@@ -3226,7 +3208,7 @@
         <v>4</v>
       </c>
       <c r="Q11" s="24" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="R11" s="7"/>
     </row>
@@ -3241,11 +3223,11 @@
       <c r="C12" s="24"/>
       <c r="D12" s="6"/>
       <c r="E12" s="22" t="s">
-        <v>137</v>
+        <v>99</v>
       </c>
       <c r="F12" s="22"/>
       <c r="G12" s="22" t="s">
-        <v>210</v>
+        <v>145</v>
       </c>
       <c r="H12" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3255,10 +3237,10 @@
         <v>16</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L12" s="6"/>
       <c r="M12" s="6"/>
@@ -3268,7 +3250,7 @@
         <v>4</v>
       </c>
       <c r="Q12" s="24" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="R12" s="7"/>
     </row>
@@ -3281,17 +3263,17 @@
         <v>6</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="22" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G13" s="22" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H13" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3301,10 +3283,10 @@
         <v>16</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>125</v>
+        <v>421</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -3313,7 +3295,7 @@
       <c r="P13" s="24"/>
       <c r="Q13" s="24"/>
       <c r="R13" s="7" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.15">
@@ -3327,13 +3309,13 @@
       <c r="C14" s="24"/>
       <c r="D14" s="6"/>
       <c r="E14" s="22" t="s">
-        <v>139</v>
+        <v>318</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G14" s="22" t="s">
-        <v>211</v>
+        <v>146</v>
       </c>
       <c r="H14" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3343,10 +3325,10 @@
         <v>16</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>120</v>
+        <v>90</v>
       </c>
       <c r="L14" s="6"/>
       <c r="M14" s="6"/>
@@ -3356,7 +3338,7 @@
         <v>4</v>
       </c>
       <c r="Q14" s="24" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="R14" s="7"/>
     </row>
@@ -3371,13 +3353,13 @@
       <c r="C15" s="24"/>
       <c r="D15" s="6"/>
       <c r="E15" s="22" t="s">
-        <v>140</v>
+        <v>319</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>276</v>
+        <v>309</v>
       </c>
       <c r="G15" s="22" t="s">
-        <v>212</v>
+        <v>147</v>
       </c>
       <c r="H15" s="22" t="str">
         <f t="shared" si="2"/>
@@ -3387,10 +3369,10 @@
         <v>16</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>143</v>
+        <v>103</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>121</v>
+        <v>91</v>
       </c>
       <c r="L15" s="6"/>
       <c r="M15" s="6"/>
@@ -3400,7 +3382,7 @@
         <v>4</v>
       </c>
       <c r="Q15" s="24" t="s">
-        <v>78</v>
+        <v>61</v>
       </c>
       <c r="R15" s="7"/>
     </row>
@@ -3415,112 +3397,112 @@
       <c r="C16" s="30"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>149</v>
+        <v>320</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22" t="s">
-        <v>213</v>
+        <v>148</v>
       </c>
       <c r="H16" s="22" t="str">
         <f t="shared" si="2"/>
         <v>0000001001</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
       <c r="O16" s="30"/>
       <c r="P16" s="30"/>
       <c r="Q16" s="30"/>
-      <c r="R16" s="45"/>
+      <c r="R16" s="44"/>
       <c r="S16" s="21"/>
       <c r="T16" s="21"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A17" s="42" t="str">
+      <c r="A17" s="46" t="str">
         <f t="shared" si="1"/>
         <v>00A</v>
       </c>
-      <c r="B17" s="35">
+      <c r="B17" s="10">
         <v>10</v>
       </c>
-      <c r="C17" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="35" t="s">
-        <v>372</v>
-      </c>
-      <c r="F17" s="35"/>
-      <c r="G17" s="35" t="s">
-        <v>374</v>
-      </c>
-      <c r="H17" s="35" t="str">
+      <c r="C17" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D17" s="10"/>
+      <c r="E17" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10" t="s">
+        <v>261</v>
+      </c>
+      <c r="H17" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0000001010</v>
       </c>
-      <c r="I17" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="J17" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
+      <c r="I17" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
       <c r="M17" s="22"/>
       <c r="N17" s="22"/>
       <c r="O17" s="30"/>
       <c r="P17" s="30"/>
       <c r="Q17" s="30"/>
-      <c r="R17" s="45"/>
+      <c r="R17" s="44"/>
       <c r="S17" s="21"/>
       <c r="T17" s="21"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.15">
-      <c r="A18" s="42" t="str">
+      <c r="A18" s="46" t="str">
         <f t="shared" si="1"/>
         <v>00B</v>
       </c>
-      <c r="B18" s="35">
+      <c r="B18" s="10">
         <v>11</v>
       </c>
-      <c r="C18" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35" t="s">
-        <v>373</v>
-      </c>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35" t="s">
-        <v>375</v>
-      </c>
-      <c r="H18" s="35" t="str">
+      <c r="C18" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D18" s="10"/>
+      <c r="E18" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10" t="s">
+        <v>262</v>
+      </c>
+      <c r="H18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0000001011</v>
       </c>
-      <c r="I18" s="35" t="s">
-        <v>383</v>
-      </c>
-      <c r="J18" s="35" t="s">
-        <v>384</v>
-      </c>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
+      <c r="I18" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>267</v>
+      </c>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
       <c r="M18" s="22"/>
       <c r="N18" s="22"/>
       <c r="O18" s="30"/>
       <c r="P18" s="30"/>
       <c r="Q18" s="30"/>
-      <c r="R18" s="45"/>
+      <c r="R18" s="44"/>
       <c r="S18" s="21"/>
       <c r="T18" s="21"/>
     </row>
@@ -3550,7 +3532,7 @@
       <c r="O19" s="30"/>
       <c r="P19" s="30"/>
       <c r="Q19" s="30"/>
-      <c r="R19" s="45"/>
+      <c r="R19" s="44"/>
       <c r="S19" s="21"/>
       <c r="T19" s="21"/>
     </row>
@@ -3565,22 +3547,22 @@
       <c r="C20" s="24"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="6" t="s">
-        <v>385</v>
+        <v>268</v>
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001101</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>319</v>
+        <v>224</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>320</v>
+        <v>422</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -3599,30 +3581,30 @@
         <v>14</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>171</v>
+        <v>328</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>276</v>
+        <v>365</v>
       </c>
       <c r="G21" s="6" t="s">
-        <v>172</v>
+        <v>121</v>
       </c>
       <c r="H21" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001110</v>
       </c>
       <c r="I21" s="6" t="s">
-        <v>173</v>
+        <v>122</v>
       </c>
       <c r="J21" s="6" t="s">
-        <v>174</v>
+        <v>123</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>175</v>
+        <v>423</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -3669,26 +3651,26 @@
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>183</v>
+        <v>321</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="6" t="s">
-        <v>185</v>
+        <v>125</v>
       </c>
       <c r="H23" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010000</v>
       </c>
       <c r="I23" s="6" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="J23" s="6"/>
       <c r="K23" s="6" t="s">
-        <v>188</v>
+        <v>128</v>
       </c>
       <c r="L23" s="6"/>
       <c r="M23" s="6"/>
@@ -3707,26 +3689,26 @@
         <v>17</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>184</v>
+        <v>322</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="6" t="s">
-        <v>186</v>
+        <v>126</v>
       </c>
       <c r="H24" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010001</v>
       </c>
       <c r="I24" s="6" t="s">
-        <v>187</v>
+        <v>127</v>
       </c>
       <c r="J24" s="6"/>
       <c r="K24" s="6" t="s">
-        <v>189</v>
+        <v>129</v>
       </c>
       <c r="L24" s="6"/>
       <c r="M24" s="6"/>
@@ -3775,27 +3757,27 @@
       <c r="C26" s="24"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>344</v>
+        <v>237</v>
       </c>
       <c r="H26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010011</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="L26" s="6" t="s">
-        <v>343</v>
+        <v>235</v>
+      </c>
+      <c r="L26" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -3815,27 +3797,27 @@
       <c r="C27" s="24"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>345</v>
+        <v>238</v>
       </c>
       <c r="H27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010100</v>
       </c>
       <c r="I27" s="6" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J27" s="6" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L27" s="6" t="s">
-        <v>343</v>
+        <v>236</v>
+      </c>
+      <c r="L27" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -3855,27 +3837,27 @@
       <c r="C28" s="24"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>346</v>
+        <v>239</v>
       </c>
       <c r="H28" s="6" t="str">
         <f>DEC2BIN(B28, 10)</f>
         <v>0000010101</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="L28" s="6" t="s">
-        <v>343</v>
+        <v>235</v>
+      </c>
+      <c r="L28" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -3895,27 +3877,27 @@
       <c r="C29" s="24"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>347</v>
+        <v>240</v>
       </c>
       <c r="H29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010110</v>
       </c>
       <c r="I29" s="6" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J29" s="6" t="s">
-        <v>340</v>
+        <v>234</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="L29" s="6" t="s">
-        <v>343</v>
+        <v>236</v>
+      </c>
+      <c r="L29" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -4073,29 +4055,29 @@
         <v>28</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>152</v>
+        <v>333</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="22" t="s">
-        <v>150</v>
+        <v>109</v>
       </c>
       <c r="H35" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011100</v>
       </c>
       <c r="I35" s="6" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35" s="35" t="s">
-        <v>275</v>
+        <v>425</v>
+      </c>
+      <c r="L35" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M35" s="35"/>
       <c r="N35" s="6"/>
@@ -4113,29 +4095,29 @@
         <v>29</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>153</v>
+        <v>334</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="22" t="s">
-        <v>151</v>
+        <v>110</v>
       </c>
       <c r="H36" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000011101</v>
       </c>
       <c r="I36" s="6" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="L36" s="35" t="s">
-        <v>275</v>
+        <v>426</v>
+      </c>
+      <c r="L36" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M36" s="35"/>
       <c r="N36" s="6"/>
@@ -4210,7 +4192,7 @@
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="6" t="s">
-        <v>376</v>
+        <v>263</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -5117,7 +5099,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>4</v>
@@ -5127,23 +5109,23 @@
       </c>
       <c r="F71" s="6"/>
       <c r="G71" s="6" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="H71" s="6" t="str">
         <f t="shared" ref="H71:H82" si="3">DEC2BIN(B71, 10)</f>
         <v>0001000000</v>
       </c>
       <c r="I71" s="6" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J71" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K71" s="6" t="s">
-        <v>94</v>
+        <v>69</v>
       </c>
       <c r="L71" s="32" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M71" s="32"/>
       <c r="N71" s="6"/>
@@ -5152,7 +5134,7 @@
         <v>1</v>
       </c>
       <c r="Q71" s="24" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="R71" s="7"/>
     </row>
@@ -5165,7 +5147,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
@@ -5173,23 +5155,23 @@
       </c>
       <c r="F72" s="6"/>
       <c r="G72" s="6" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="H72" s="6" t="str">
         <f t="shared" si="3"/>
         <v>0001000001</v>
       </c>
       <c r="I72" s="6" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J72" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K72" s="6" t="s">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="L72" s="32" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M72" s="32"/>
       <c r="N72" s="6"/>
@@ -5198,7 +5180,7 @@
         <v>1</v>
       </c>
       <c r="Q72" s="24" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="R72" s="7"/>
     </row>
@@ -5295,31 +5277,31 @@
         <v>69</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22" t="s">
-        <v>278</v>
+        <v>196</v>
       </c>
       <c r="F76" s="22"/>
       <c r="G76" s="22" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="H76" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001000101</v>
       </c>
       <c r="I76" s="6" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J76" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K76" s="6" t="s">
-        <v>96</v>
+        <v>71</v>
       </c>
       <c r="L76" s="32" t="s">
-        <v>279</v>
+        <v>197</v>
       </c>
       <c r="M76" s="32"/>
       <c r="N76" s="6"/>
@@ -5328,7 +5310,7 @@
         <v>1</v>
       </c>
       <c r="Q76" s="24" t="s">
-        <v>90</v>
+        <v>65</v>
       </c>
       <c r="R76" s="7"/>
     </row>
@@ -5403,23 +5385,23 @@
       </c>
       <c r="F79" s="22"/>
       <c r="G79" s="22" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="H79" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001001000</v>
       </c>
       <c r="I79" s="6" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J79" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>122</v>
+        <v>427</v>
       </c>
       <c r="L79" s="32" t="s">
-        <v>280</v>
+        <v>198</v>
       </c>
       <c r="M79" s="32"/>
       <c r="N79" s="6"/>
@@ -5428,7 +5410,7 @@
         <v>1</v>
       </c>
       <c r="Q79" s="24" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="R79" s="7"/>
     </row>
@@ -5447,23 +5429,23 @@
       </c>
       <c r="F80" s="22"/>
       <c r="G80" s="22" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="H80" s="22" t="str">
         <f t="shared" si="3"/>
         <v>0001001001</v>
       </c>
       <c r="I80" s="6" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J80" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>97</v>
+        <v>428</v>
       </c>
       <c r="L80" s="32" t="s">
-        <v>281</v>
+        <v>199</v>
       </c>
       <c r="M80" s="32"/>
       <c r="N80" s="6"/>
@@ -5472,7 +5454,7 @@
         <v>1</v>
       </c>
       <c r="Q80" s="24" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="R80" s="7"/>
     </row>
@@ -6104,7 +6086,7 @@
         <v>96</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
@@ -6125,7 +6107,7 @@
       </c>
       <c r="J103" s="6"/>
       <c r="K103" s="6" t="s">
-        <v>98</v>
+        <v>72</v>
       </c>
       <c r="L103" s="6"/>
       <c r="M103" s="6"/>
@@ -6144,7 +6126,7 @@
         <v>97</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
@@ -6163,7 +6145,7 @@
       </c>
       <c r="J104" s="22"/>
       <c r="K104" s="6" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="L104" s="6"/>
       <c r="M104" s="6"/>
@@ -6185,26 +6167,26 @@
         <v>98</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="F105" s="6"/>
       <c r="G105" s="6" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="H105" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100010</v>
       </c>
       <c r="I105" s="22" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="J105" s="22"/>
       <c r="K105" s="6" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="L105" s="6"/>
       <c r="M105" s="6"/>
@@ -6223,7 +6205,7 @@
         <v>99</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="22" t="s">
@@ -6238,11 +6220,11 @@
         <v>0001100011</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="J106" s="22"/>
       <c r="K106" s="22" t="s">
-        <v>349</v>
+        <v>242</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -6261,7 +6243,7 @@
         <v>100</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
@@ -6276,11 +6258,11 @@
         <v>0001100100</v>
       </c>
       <c r="I107" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J107" s="6"/>
       <c r="K107" s="6" t="s">
-        <v>101</v>
+        <v>75</v>
       </c>
       <c r="L107" s="6"/>
       <c r="M107" s="6"/>
@@ -6300,26 +6282,26 @@
         <v>101</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F108" s="6"/>
       <c r="G108" s="6" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="H108" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0001100101</v>
       </c>
       <c r="I108" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J108" s="6"/>
       <c r="K108" s="6" t="s">
-        <v>102</v>
+        <v>76</v>
       </c>
       <c r="L108" s="6"/>
       <c r="M108" s="6"/>
@@ -6339,26 +6321,26 @@
         <v>102</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="F109" s="6"/>
       <c r="G109" s="6" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="H109" s="6" t="str">
         <f t="shared" si="8"/>
         <v>0001100110</v>
       </c>
       <c r="I109" s="6" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J109" s="6"/>
       <c r="K109" s="6" t="s">
-        <v>103</v>
+        <v>77</v>
       </c>
       <c r="L109" s="6"/>
       <c r="M109" s="6"/>
@@ -6377,26 +6359,26 @@
         <v>103</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
-        <v>81</v>
+        <v>62</v>
       </c>
       <c r="F110" s="6"/>
       <c r="G110" s="6" t="s">
-        <v>82</v>
+        <v>63</v>
       </c>
       <c r="H110" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001100111</v>
       </c>
       <c r="I110" s="6" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>125</v>
+        <v>429</v>
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -6471,15 +6453,15 @@
         <v>106</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6" t="s">
-        <v>41</v>
+        <v>336</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="22" t="s">
-        <v>239</v>
+        <v>171</v>
       </c>
       <c r="H113" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6490,10 +6472,10 @@
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L113" s="10" t="s">
-        <v>275</v>
+        <v>430</v>
+      </c>
+      <c r="L113" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="6"/>
@@ -6511,15 +6493,15 @@
         <v>107</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6" t="s">
-        <v>42</v>
+        <v>335</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="22" t="s">
-        <v>240</v>
+        <v>172</v>
       </c>
       <c r="H114" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6530,10 +6512,10 @@
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L114" s="10" t="s">
-        <v>275</v>
+        <v>431</v>
+      </c>
+      <c r="L114" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="6"/>
@@ -6551,15 +6533,15 @@
         <v>108</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6" t="s">
-        <v>282</v>
+        <v>200</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="22" t="s">
-        <v>241</v>
+        <v>173</v>
       </c>
       <c r="H115" s="8" t="str">
         <f t="shared" si="6"/>
@@ -6567,13 +6549,13 @@
       </c>
       <c r="I115" s="6"/>
       <c r="J115" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L115" s="10" t="s">
-        <v>275</v>
+        <v>432</v>
+      </c>
+      <c r="L115" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="6"/>
@@ -6591,15 +6573,15 @@
         <v>109</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F116" s="6"/>
       <c r="G116" s="22" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
       <c r="H116" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6607,13 +6589,13 @@
       </c>
       <c r="I116" s="6"/>
       <c r="J116" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K116" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L116" s="10" t="s">
-        <v>275</v>
+        <v>92</v>
+      </c>
+      <c r="L116" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="6"/>
@@ -6634,15 +6616,15 @@
         <v>110</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
-        <v>34</v>
+        <v>337</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="22" t="s">
-        <v>243</v>
+        <v>175</v>
       </c>
       <c r="H117" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6653,10 +6635,10 @@
       </c>
       <c r="J117" s="6"/>
       <c r="K117" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L117" s="10" t="s">
-        <v>275</v>
+        <v>78</v>
+      </c>
+      <c r="L117" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="6"/>
@@ -6674,15 +6656,15 @@
         <v>111</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F118" s="6"/>
       <c r="G118" s="22" t="s">
-        <v>244</v>
+        <v>176</v>
       </c>
       <c r="H118" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6693,10 +6675,10 @@
       </c>
       <c r="J118" s="6"/>
       <c r="K118" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L118" s="10" t="s">
-        <v>275</v>
+        <v>79</v>
+      </c>
+      <c r="L118" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="6"/>
@@ -6716,25 +6698,25 @@
       <c r="C119" s="24"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22" t="s">
-        <v>76</v>
+        <v>338</v>
       </c>
       <c r="F119" s="22"/>
       <c r="G119" s="22" t="s">
-        <v>245</v>
+        <v>177</v>
       </c>
       <c r="H119" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110000</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="J119" s="22"/>
       <c r="K119" s="22" t="s">
-        <v>351</v>
-      </c>
-      <c r="L119" s="10" t="s">
-        <v>275</v>
+        <v>243</v>
+      </c>
+      <c r="L119" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M119" s="10"/>
       <c r="N119" s="6"/>
@@ -6752,29 +6734,29 @@
         <v>113</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D120" s="22"/>
       <c r="E120" s="22" t="s">
-        <v>77</v>
+        <v>339</v>
       </c>
       <c r="F120" s="22"/>
       <c r="G120" s="22" t="s">
-        <v>246</v>
+        <v>178</v>
       </c>
       <c r="H120" s="22" t="str">
         <f t="shared" si="6"/>
         <v>0001110001</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>348</v>
+        <v>241</v>
       </c>
       <c r="J120" s="22"/>
       <c r="K120" s="22" t="s">
-        <v>352</v>
-      </c>
-      <c r="L120" s="10" t="s">
-        <v>275</v>
+        <v>244</v>
+      </c>
+      <c r="L120" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M120" s="10"/>
       <c r="N120" s="6"/>
@@ -6794,27 +6776,27 @@
       <c r="C121" s="24"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
-        <v>79</v>
+        <v>340</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="22" t="s">
-        <v>247</v>
+        <v>179</v>
       </c>
       <c r="H121" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110010</v>
       </c>
       <c r="I121" s="6" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J121" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K121" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="L121" s="10" t="s">
-        <v>275</v>
+        <v>101</v>
+      </c>
+      <c r="L121" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M121" s="10"/>
       <c r="N121" s="6"/>
@@ -6832,31 +6814,31 @@
         <v>115</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
-        <v>80</v>
+        <v>341</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="22" t="s">
-        <v>248</v>
+        <v>180</v>
       </c>
       <c r="H122" s="6" t="str">
         <f t="shared" si="6"/>
         <v>0001110011</v>
       </c>
       <c r="I122" s="6" t="s">
-        <v>146</v>
+        <v>106</v>
       </c>
       <c r="J122" s="6" t="s">
-        <v>67</v>
+        <v>55</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="L122" s="10" t="s">
-        <v>275</v>
+        <v>223</v>
+      </c>
+      <c r="L122" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="6"/>
@@ -6933,15 +6915,15 @@
         <v>118</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>160</v>
+        <v>342</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="22" t="s">
-        <v>249</v>
+        <v>181</v>
       </c>
       <c r="H125" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6949,13 +6931,13 @@
       </c>
       <c r="I125" s="6"/>
       <c r="J125" s="6" t="s">
-        <v>148</v>
+        <v>108</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>215</v>
-      </c>
-      <c r="L125" s="10" t="s">
-        <v>275</v>
+        <v>433</v>
+      </c>
+      <c r="L125" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M125" s="10"/>
       <c r="N125" s="6"/>
@@ -6973,15 +6955,15 @@
         <v>119</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>161</v>
+        <v>343</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="22" t="s">
-        <v>156</v>
+        <v>112</v>
       </c>
       <c r="H126" s="6" t="str">
         <f t="shared" si="6"/>
@@ -6989,13 +6971,13 @@
       </c>
       <c r="I126" s="6"/>
       <c r="J126" s="6" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="K126" s="6" t="s">
-        <v>272</v>
-      </c>
-      <c r="L126" s="10" t="s">
-        <v>275</v>
+        <v>194</v>
+      </c>
+      <c r="L126" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="6"/>
@@ -7069,15 +7051,15 @@
         <v>122</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
-        <v>158</v>
+        <v>344</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="22" t="s">
-        <v>159</v>
+        <v>114</v>
       </c>
       <c r="H129" s="6" t="str">
         <f t="shared" si="6"/>
@@ -7085,10 +7067,10 @@
       </c>
       <c r="I129" s="6"/>
       <c r="J129" s="6" t="s">
-        <v>157</v>
+        <v>113</v>
       </c>
       <c r="K129" s="6" t="s">
-        <v>162</v>
+        <v>115</v>
       </c>
       <c r="L129" s="10"/>
       <c r="M129" s="10"/>
@@ -7121,8 +7103,8 @@
       <c r="I130" s="6"/>
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
-      <c r="L130" s="10" t="s">
-        <v>275</v>
+      <c r="L130" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="6"/>
@@ -7252,17 +7234,17 @@
         <v>128</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>367</v>
+        <v>256</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>37</v>
+        <v>345</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="22" t="s">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="H135" s="6" t="str">
         <f t="shared" si="6"/>
@@ -7272,26 +7254,26 @@
         <v>16</v>
       </c>
       <c r="J135" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K135" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L135" s="6" t="s">
-        <v>275</v>
+        <v>124</v>
+      </c>
+      <c r="L135" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M135" s="35" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="N135" s="35" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="O135" s="24"/>
       <c r="P135" s="24">
         <v>2</v>
       </c>
       <c r="Q135" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R135" s="7"/>
     </row>
@@ -7304,17 +7286,17 @@
         <v>129</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>37</v>
+        <v>346</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="G136" s="22" t="s">
-        <v>230</v>
+        <v>163</v>
       </c>
       <c r="H136" s="6" t="str">
         <f t="shared" ref="H136:H199" si="10">DEC2BIN(B136, 10)</f>
@@ -7324,26 +7306,26 @@
         <v>16</v>
       </c>
       <c r="J136" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="L136" s="6" t="s">
-        <v>275</v>
+        <v>434</v>
+      </c>
+      <c r="L136" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M136" s="35" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="N136" s="35" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24">
         <v>2</v>
       </c>
       <c r="Q136" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R136" s="7"/>
     </row>
@@ -7356,17 +7338,17 @@
         <v>130</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
-        <v>37</v>
+        <v>347</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G137" s="22" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="H137" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7376,26 +7358,26 @@
         <v>16</v>
       </c>
       <c r="J137" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K137" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="L137" s="6" t="s">
-        <v>275</v>
+        <v>435</v>
+      </c>
+      <c r="L137" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M137" s="35" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="N137" s="35" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="O137" s="24"/>
       <c r="P137" s="24">
         <v>2</v>
       </c>
       <c r="Q137" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R137" s="7"/>
     </row>
@@ -7408,15 +7390,15 @@
         <v>131</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>38</v>
+        <v>348</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="22" t="s">
-        <v>232</v>
+        <v>165</v>
       </c>
       <c r="H138" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7426,13 +7408,13 @@
         <v>16</v>
       </c>
       <c r="J138" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K138" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="L138" s="6" t="s">
-        <v>275</v>
+        <v>436</v>
+      </c>
+      <c r="L138" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
@@ -7441,7 +7423,7 @@
         <v>2</v>
       </c>
       <c r="Q138" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R138" s="7"/>
     </row>
@@ -7454,17 +7436,17 @@
         <v>132</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>38</v>
+        <v>349</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="G139" s="22" t="s">
-        <v>233</v>
+        <v>166</v>
       </c>
       <c r="H139" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7474,13 +7456,13 @@
         <v>16</v>
       </c>
       <c r="J139" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K139" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L139" s="6" t="s">
-        <v>275</v>
+        <v>437</v>
+      </c>
+      <c r="L139" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
@@ -7489,7 +7471,7 @@
         <v>2</v>
       </c>
       <c r="Q139" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R139" s="7"/>
     </row>
@@ -7502,17 +7484,17 @@
         <v>133</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>38</v>
+        <v>350</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G140" s="22" t="s">
-        <v>234</v>
+        <v>167</v>
       </c>
       <c r="H140" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7522,13 +7504,13 @@
         <v>16</v>
       </c>
       <c r="J140" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K140" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="L140" s="6" t="s">
-        <v>275</v>
+        <v>438</v>
+      </c>
+      <c r="L140" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
@@ -7537,7 +7519,7 @@
         <v>2</v>
       </c>
       <c r="Q140" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R140" s="7"/>
     </row>
@@ -7606,17 +7588,17 @@
         <v>136</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
-        <v>418</v>
+        <v>292</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>393</v>
+        <v>309</v>
       </c>
       <c r="G143" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H143" s="6" t="str">
         <f t="shared" si="10"/>
@@ -7626,13 +7608,13 @@
         <v>22</v>
       </c>
       <c r="J143" s="22" t="s">
-        <v>388</v>
+        <v>271</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L143" s="6" t="s">
-        <v>275</v>
+        <v>439</v>
+      </c>
+      <c r="L143" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
@@ -7641,7 +7623,7 @@
         <v>2</v>
       </c>
       <c r="Q143" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R143" s="7"/>
     </row>
@@ -7656,25 +7638,25 @@
       <c r="C144" s="24"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
-        <v>43</v>
+        <v>351</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="22" t="s">
-        <v>228</v>
+        <v>161</v>
       </c>
       <c r="H144" s="6" t="str">
         <f t="shared" ref="H144" si="11">DEC2BIN(B144, 10)</f>
         <v>0010001001</v>
       </c>
       <c r="I144" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J144" s="6"/>
       <c r="K144" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="L144" s="6" t="s">
-        <v>275</v>
+        <v>102</v>
+      </c>
+      <c r="L144" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
@@ -7683,7 +7665,7 @@
         <v>2</v>
       </c>
       <c r="Q144" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R144" s="7"/>
     </row>
@@ -7698,38 +7680,38 @@
       <c r="C145" s="24"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
-        <v>419</v>
+        <v>352</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="22" t="s">
-        <v>421</v>
+        <v>293</v>
       </c>
       <c r="H145" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001010</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="K145" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="L145" s="6" t="s">
-        <v>275</v>
+        <v>124</v>
+      </c>
+      <c r="L145" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
       <c r="O145" s="24" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="P145" s="24" t="s">
-        <v>430</v>
+        <v>302</v>
       </c>
       <c r="Q145" s="24" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="R145" s="7"/>
     </row>
@@ -7744,40 +7726,40 @@
       <c r="C146" s="24"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
-        <v>419</v>
+        <v>353</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>422</v>
+        <v>294</v>
       </c>
       <c r="H146" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001011</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="K146" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="L146" s="6" t="s">
-        <v>275</v>
+        <v>434</v>
+      </c>
+      <c r="L146" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
       <c r="O146" s="24" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="P146" s="24" t="s">
-        <v>430</v>
+        <v>302</v>
       </c>
       <c r="Q146" s="24" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="R146" s="7"/>
     </row>
@@ -7792,40 +7774,40 @@
       <c r="C147" s="24"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
-        <v>419</v>
+        <v>354</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>423</v>
+        <v>295</v>
       </c>
       <c r="H147" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001100</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="K147" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="L147" s="6" t="s">
-        <v>275</v>
+        <v>435</v>
+      </c>
+      <c r="L147" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
       <c r="O147" s="24" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="P147" s="24" t="s">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="Q147" s="24" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="R147" s="7"/>
     </row>
@@ -7840,38 +7822,38 @@
       <c r="C148" s="24"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
-        <v>420</v>
+        <v>355</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6" t="s">
-        <v>424</v>
+        <v>296</v>
       </c>
       <c r="H148" s="6" t="str">
         <f t="shared" ref="H148" si="12">DEC2BIN(B148, 10)</f>
         <v>0010001101</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="K148" s="22" t="s">
-        <v>170</v>
-      </c>
-      <c r="L148" s="6" t="s">
-        <v>275</v>
+        <v>436</v>
+      </c>
+      <c r="L148" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
       <c r="O148" s="24" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="P148" s="24" t="s">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="Q148" s="24" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="R148" s="7"/>
     </row>
@@ -7886,40 +7868,40 @@
       <c r="C149" s="24"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
-        <v>420</v>
+        <v>356</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>273</v>
+        <v>314</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>425</v>
+        <v>297</v>
       </c>
       <c r="H149" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001110</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="K149" s="22" t="s">
-        <v>179</v>
-      </c>
-      <c r="L149" s="6" t="s">
-        <v>275</v>
+        <v>437</v>
+      </c>
+      <c r="L149" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
       <c r="O149" s="24" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="P149" s="24" t="s">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="Q149" s="24" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="R149" s="7"/>
     </row>
@@ -7934,40 +7916,40 @@
       <c r="C150" s="24"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
-        <v>420</v>
+        <v>357</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>426</v>
+        <v>298</v>
       </c>
       <c r="H150" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001111</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>427</v>
+        <v>299</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>428</v>
+        <v>300</v>
       </c>
       <c r="K150" s="22" t="s">
-        <v>180</v>
-      </c>
-      <c r="L150" s="6" t="s">
-        <v>275</v>
+        <v>438</v>
+      </c>
+      <c r="L150" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
       <c r="O150" s="24" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="P150" s="24" t="s">
-        <v>429</v>
+        <v>301</v>
       </c>
       <c r="Q150" s="24" t="s">
-        <v>431</v>
+        <v>303</v>
       </c>
       <c r="R150" s="7"/>
     </row>
@@ -7980,15 +7962,15 @@
         <v>144</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F151" s="6"/>
       <c r="G151" s="6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H151" s="6" t="str">
         <f t="shared" ref="H151:H152" si="13">DEC2BIN(B151, 10)</f>
@@ -7999,21 +7981,21 @@
       </c>
       <c r="J151" s="6"/>
       <c r="K151" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L151" s="6" t="s">
-        <v>275</v>
+        <v>440</v>
+      </c>
+      <c r="L151" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M151" s="6"/>
       <c r="N151" s="35" t="s">
-        <v>371</v>
+        <v>260</v>
       </c>
       <c r="O151" s="24"/>
       <c r="P151" s="24">
         <v>2</v>
       </c>
       <c r="Q151" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R151" s="7"/>
     </row>
@@ -8102,7 +8084,7 @@
       <c r="R154" s="7"/>
     </row>
     <row r="155" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A155" s="46" t="str">
+      <c r="A155" s="45" t="str">
         <f t="shared" si="9"/>
         <v>094</v>
       </c>
@@ -8130,7 +8112,7 @@
       <c r="R155" s="7"/>
     </row>
     <row r="156" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A156" s="46" t="str">
+      <c r="A156" s="45" t="str">
         <f t="shared" si="9"/>
         <v>095</v>
       </c>
@@ -8158,7 +8140,7 @@
       <c r="R156" s="7"/>
     </row>
     <row r="157" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A157" s="46" t="str">
+      <c r="A157" s="45" t="str">
         <f t="shared" si="9"/>
         <v>096</v>
       </c>
@@ -8186,7 +8168,7 @@
       <c r="R157" s="7"/>
     </row>
     <row r="158" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A158" s="46" t="str">
+      <c r="A158" s="45" t="str">
         <f t="shared" si="9"/>
         <v>097</v>
       </c>
@@ -8214,7 +8196,7 @@
       <c r="R158" s="7"/>
     </row>
     <row r="159" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A159" s="46" t="str">
+      <c r="A159" s="45" t="str">
         <f t="shared" si="9"/>
         <v>098</v>
       </c>
@@ -8242,7 +8224,7 @@
       <c r="R159" s="7"/>
     </row>
     <row r="160" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A160" s="46" t="str">
+      <c r="A160" s="45" t="str">
         <f t="shared" si="9"/>
         <v>099</v>
       </c>
@@ -8270,7 +8252,7 @@
       <c r="R160" s="7"/>
     </row>
     <row r="161" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A161" s="46" t="str">
+      <c r="A161" s="45" t="str">
         <f t="shared" si="9"/>
         <v>09A</v>
       </c>
@@ -8278,34 +8260,34 @@
         <v>154</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>415</v>
+        <v>312</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>353</v>
+        <v>245</v>
       </c>
       <c r="H161" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011010</v>
       </c>
       <c r="I161" s="27" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J161" s="27"/>
-      <c r="K161" s="22" t="s">
-        <v>412</v>
+      <c r="K161" s="6" t="s">
+        <v>291</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M161" s="22" t="s">
-        <v>368</v>
+        <v>257</v>
       </c>
       <c r="N161" s="22"/>
       <c r="O161" s="30"/>
@@ -8313,12 +8295,12 @@
         <v>2</v>
       </c>
       <c r="Q161" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="R161" s="45"/>
+        <v>66</v>
+      </c>
+      <c r="R161" s="44"/>
     </row>
     <row r="162" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A162" s="46" t="str">
+      <c r="A162" s="45" t="str">
         <f t="shared" si="9"/>
         <v>09B</v>
       </c>
@@ -8326,34 +8308,34 @@
         <v>155</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="G162" s="28" t="s">
-        <v>354</v>
+        <v>246</v>
       </c>
       <c r="H162" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011011</v>
       </c>
       <c r="I162" s="27" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J162" s="27"/>
       <c r="K162" s="22" t="s">
-        <v>360</v>
+        <v>251</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M162" s="22" t="s">
-        <v>369</v>
+        <v>258</v>
       </c>
       <c r="N162" s="22"/>
       <c r="O162" s="30"/>
@@ -8361,12 +8343,12 @@
         <v>2</v>
       </c>
       <c r="Q162" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="R162" s="45"/>
+        <v>66</v>
+      </c>
+      <c r="R162" s="44"/>
     </row>
     <row r="163" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A163" s="46" t="str">
+      <c r="A163" s="45" t="str">
         <f t="shared" si="9"/>
         <v>09C</v>
       </c>
@@ -8374,34 +8356,34 @@
         <v>156</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>417</v>
+        <v>317</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>355</v>
+        <v>247</v>
       </c>
       <c r="H163" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011100</v>
       </c>
       <c r="I163" s="27" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J163" s="27"/>
       <c r="K163" s="22" t="s">
-        <v>360</v>
+        <v>441</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M163" s="22" t="s">
-        <v>370</v>
+        <v>259</v>
       </c>
       <c r="N163" s="22"/>
       <c r="O163" s="30"/>
@@ -8409,12 +8391,12 @@
         <v>2</v>
       </c>
       <c r="Q163" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="R163" s="45"/>
+        <v>66</v>
+      </c>
+      <c r="R163" s="44"/>
     </row>
     <row r="164" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A164" s="46" t="str">
+      <c r="A164" s="45" t="str">
         <f t="shared" si="9"/>
         <v>09D</v>
       </c>
@@ -8422,31 +8404,31 @@
         <v>157</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F164" s="27" t="s">
-        <v>414</v>
+        <v>313</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>356</v>
+        <v>248</v>
       </c>
       <c r="H164" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011101</v>
       </c>
       <c r="I164" s="27" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J164" s="27"/>
       <c r="K164" s="22" t="s">
-        <v>359</v>
+        <v>442</v>
       </c>
       <c r="L164" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M164" s="22"/>
       <c r="N164" s="22"/>
@@ -8455,12 +8437,12 @@
         <v>2</v>
       </c>
       <c r="Q164" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="R164" s="45"/>
+        <v>66</v>
+      </c>
+      <c r="R164" s="44"/>
     </row>
     <row r="165" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A165" s="46" t="str">
+      <c r="A165" s="45" t="str">
         <f t="shared" si="9"/>
         <v>09E</v>
       </c>
@@ -8468,31 +8450,31 @@
         <v>158</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
         <v>362</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>416</v>
+        <v>316</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>357</v>
+        <v>249</v>
       </c>
       <c r="H165" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011110</v>
       </c>
       <c r="I165" s="27" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J165" s="27"/>
       <c r="K165" s="22" t="s">
-        <v>361</v>
+        <v>443</v>
       </c>
       <c r="L165" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M165" s="22"/>
       <c r="N165" s="22"/>
@@ -8501,12 +8483,12 @@
         <v>2</v>
       </c>
       <c r="Q165" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="R165" s="45"/>
+        <v>66</v>
+      </c>
+      <c r="R165" s="44"/>
     </row>
     <row r="166" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A166" s="46" t="str">
+      <c r="A166" s="45" t="str">
         <f t="shared" si="9"/>
         <v>09F</v>
       </c>
@@ -8514,31 +8496,31 @@
         <v>159</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>417</v>
+        <v>364</v>
       </c>
       <c r="G166" s="28" t="s">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="H166" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011111</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>339</v>
+        <v>233</v>
       </c>
       <c r="J166" s="27"/>
       <c r="K166" s="22" t="s">
-        <v>361</v>
+        <v>444</v>
       </c>
       <c r="L166" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M166" s="22"/>
       <c r="N166" s="22"/>
@@ -8547,9 +8529,9 @@
         <v>2</v>
       </c>
       <c r="Q166" s="30" t="s">
-        <v>91</v>
-      </c>
-      <c r="R166" s="45"/>
+        <v>66</v>
+      </c>
+      <c r="R166" s="44"/>
     </row>
     <row r="167" spans="1:18" x14ac:dyDescent="0.15">
       <c r="A167" s="5" t="str">
@@ -8560,35 +8542,35 @@
         <v>160</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D167" s="6" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>71</v>
+        <v>370</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G167" s="28" t="s">
-        <v>222</v>
+        <v>155</v>
       </c>
       <c r="H167" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100000</v>
       </c>
       <c r="I167" s="9" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="J167" s="9" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="K167" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L167" s="6" t="s">
-        <v>275</v>
+        <v>80</v>
+      </c>
+      <c r="L167" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
@@ -8597,10 +8579,10 @@
         <v>2</v>
       </c>
       <c r="Q167" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R167" s="7" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="168" spans="1:18" x14ac:dyDescent="0.15">
@@ -8612,33 +8594,33 @@
         <v>161</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
-        <v>72</v>
+        <v>369</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="G168" s="22" t="s">
-        <v>223</v>
+        <v>156</v>
       </c>
       <c r="H168" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100001</v>
       </c>
       <c r="I168" s="9" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="J168" s="9" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="K168" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L168" s="6" t="s">
-        <v>275</v>
+        <v>81</v>
+      </c>
+      <c r="L168" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
@@ -8647,10 +8629,10 @@
         <v>2</v>
       </c>
       <c r="Q168" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R168" s="7" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169" spans="1:18" x14ac:dyDescent="0.15">
@@ -8662,33 +8644,33 @@
         <v>162</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
-        <v>73</v>
+        <v>368</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G169" s="22" t="s">
-        <v>224</v>
+        <v>157</v>
       </c>
       <c r="H169" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100010</v>
       </c>
       <c r="I169" s="9" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="J169" s="9" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="K169" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L169" s="6" t="s">
-        <v>275</v>
+        <v>82</v>
+      </c>
+      <c r="L169" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
@@ -8697,10 +8679,10 @@
         <v>2</v>
       </c>
       <c r="Q169" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R169" s="7" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="170" spans="1:18" x14ac:dyDescent="0.15">
@@ -8712,31 +8694,29 @@
         <v>163</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>267</v>
-      </c>
-      <c r="F170" s="6" t="s">
-        <v>274</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="F170" s="6"/>
       <c r="G170" s="22" t="s">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="H170" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010100011</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>302</v>
+        <v>212</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L170" s="6" t="s">
-        <v>275</v>
+        <v>367</v>
+      </c>
+      <c r="L170" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
@@ -8745,10 +8725,10 @@
         <v>2</v>
       </c>
       <c r="Q170" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R170" s="7" t="s">
-        <v>268</v>
+        <v>191</v>
       </c>
     </row>
     <row r="171" spans="1:18" x14ac:dyDescent="0.15">
@@ -9098,29 +9078,29 @@
       <c r="C183" s="24"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6" t="s">
-        <v>71</v>
+        <v>372</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G183" s="28" t="s">
-        <v>225</v>
+        <v>158</v>
       </c>
       <c r="H183" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110000</v>
       </c>
       <c r="I183" s="9" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="J183" s="9" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="K183" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L183" s="6" t="s">
-        <v>275</v>
+        <v>80</v>
+      </c>
+      <c r="L183" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
@@ -9129,10 +9109,10 @@
         <v>2</v>
       </c>
       <c r="Q183" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R183" s="7" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="184" spans="1:18" x14ac:dyDescent="0.15">
@@ -9146,29 +9126,29 @@
       <c r="C184" s="24"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6" t="s">
-        <v>72</v>
+        <v>373</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>274</v>
+        <v>366</v>
       </c>
       <c r="G184" s="22" t="s">
-        <v>226</v>
+        <v>159</v>
       </c>
       <c r="H184" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110001</v>
       </c>
       <c r="I184" s="9" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="J184" s="9" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="K184" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L184" s="6" t="s">
-        <v>275</v>
+        <v>81</v>
+      </c>
+      <c r="L184" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
@@ -9177,10 +9157,10 @@
         <v>2</v>
       </c>
       <c r="Q184" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R184" s="7" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="185" spans="1:18" x14ac:dyDescent="0.15">
@@ -9194,29 +9174,29 @@
       <c r="C185" s="24"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6" t="s">
-        <v>73</v>
+        <v>374</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>274</v>
+        <v>315</v>
       </c>
       <c r="G185" s="22" t="s">
-        <v>227</v>
+        <v>160</v>
       </c>
       <c r="H185" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010110010</v>
       </c>
       <c r="I185" s="9" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="J185" s="9" t="s">
-        <v>147</v>
+        <v>107</v>
       </c>
       <c r="K185" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L185" s="6" t="s">
-        <v>275</v>
+        <v>82</v>
+      </c>
+      <c r="L185" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
@@ -9225,10 +9205,10 @@
         <v>2</v>
       </c>
       <c r="Q185" s="24" t="s">
-        <v>91</v>
+        <v>66</v>
       </c>
       <c r="R185" s="7" t="s">
-        <v>166</v>
+        <v>118</v>
       </c>
     </row>
     <row r="186" spans="1:18" x14ac:dyDescent="0.15">
@@ -9604,17 +9584,17 @@
         <v>192</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D199" s="6" t="s">
-        <v>69</v>
+        <v>57</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>57</v>
+        <v>375</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="22" t="s">
-        <v>197</v>
+        <v>133</v>
       </c>
       <c r="H199" s="6" t="str">
         <f t="shared" si="10"/>
@@ -9625,10 +9605,10 @@
       </c>
       <c r="J199" s="6"/>
       <c r="K199" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L199" s="6" t="s">
-        <v>275</v>
+        <v>83</v>
+      </c>
+      <c r="L199" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M199" s="6"/>
       <c r="N199" s="22"/>
@@ -9648,11 +9628,11 @@
       <c r="C200" s="24"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6" t="s">
-        <v>89</v>
+        <v>376</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="22" t="s">
-        <v>198</v>
+        <v>134</v>
       </c>
       <c r="H200" s="6" t="str">
         <f t="shared" ref="H200:H201" si="15">DEC2BIN(B200, 10)</f>
@@ -9663,10 +9643,10 @@
       </c>
       <c r="J200" s="6"/>
       <c r="K200" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L200" s="6" t="s">
-        <v>275</v>
+        <v>84</v>
+      </c>
+      <c r="L200" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M200" s="6"/>
       <c r="N200" s="10"/>
@@ -9686,11 +9666,11 @@
       <c r="C201" s="24"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6" t="s">
-        <v>56</v>
+        <v>377</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="22" t="s">
-        <v>199</v>
+        <v>135</v>
       </c>
       <c r="H201" s="6" t="str">
         <f t="shared" si="15"/>
@@ -9701,10 +9681,10 @@
       </c>
       <c r="J201" s="6"/>
       <c r="K201" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="L201" s="6" t="s">
-        <v>275</v>
+        <v>143</v>
+      </c>
+      <c r="L201" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M201" s="6"/>
       <c r="N201" s="6"/>
@@ -9724,11 +9704,11 @@
       <c r="C202" s="24"/>
       <c r="D202" s="6"/>
       <c r="E202" s="22" t="s">
-        <v>182</v>
+        <v>378</v>
       </c>
       <c r="F202" s="22"/>
       <c r="G202" s="22" t="s">
-        <v>196</v>
+        <v>132</v>
       </c>
       <c r="H202" s="6" t="str">
         <f t="shared" ref="H202:H208" si="16">DEC2BIN(B202, 10)</f>
@@ -9739,10 +9719,10 @@
       </c>
       <c r="J202" s="6"/>
       <c r="K202" s="6" t="s">
-        <v>207</v>
-      </c>
-      <c r="L202" s="35" t="s">
-        <v>275</v>
+        <v>142</v>
+      </c>
+      <c r="L202" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M202" s="35"/>
       <c r="N202" s="10"/>
@@ -9762,11 +9742,11 @@
       <c r="C203" s="24"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6" t="s">
-        <v>133</v>
+        <v>379</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="22" t="s">
-        <v>200</v>
+        <v>136</v>
       </c>
       <c r="H203" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9777,10 +9757,10 @@
       </c>
       <c r="J203" s="6"/>
       <c r="K203" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="L203" s="6" t="s">
-        <v>275</v>
+        <v>445</v>
+      </c>
+      <c r="L203" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M203" s="6"/>
       <c r="N203" s="6"/>
@@ -9798,15 +9778,15 @@
         <v>197</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="22" t="s">
-        <v>88</v>
+        <v>380</v>
       </c>
       <c r="F204" s="22"/>
       <c r="G204" s="22" t="s">
-        <v>201</v>
+        <v>137</v>
       </c>
       <c r="H204" s="6" t="str">
         <f t="shared" si="16"/>
@@ -9817,10 +9797,10 @@
       </c>
       <c r="J204" s="6"/>
       <c r="K204" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="L204" s="6" t="s">
-        <v>275</v>
+        <v>446</v>
+      </c>
+      <c r="L204" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
@@ -9828,7 +9808,7 @@
       <c r="P204" s="24"/>
       <c r="Q204" s="24"/>
       <c r="R204" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="205" spans="1:18" x14ac:dyDescent="0.15">
@@ -9898,36 +9878,36 @@
       <c r="C207" s="24"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6" t="s">
-        <v>195</v>
+        <v>381</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="22" t="s">
-        <v>202</v>
+        <v>138</v>
       </c>
       <c r="H207" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011001000</v>
       </c>
       <c r="I207" s="6" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="J207" s="6"/>
       <c r="K207" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="L207" s="6" t="s">
-        <v>275</v>
+        <v>141</v>
+      </c>
+      <c r="L207" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M207" s="6"/>
       <c r="N207" s="10"/>
       <c r="O207" s="24" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="P207" s="24">
         <v>3</v>
       </c>
       <c r="Q207" s="24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R207" s="7"/>
     </row>
@@ -9942,36 +9922,36 @@
       <c r="C208" s="24"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6" t="s">
-        <v>84</v>
+        <v>382</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="22" t="s">
-        <v>203</v>
+        <v>139</v>
       </c>
       <c r="H208" s="6" t="str">
         <f t="shared" si="16"/>
         <v>0011001001</v>
       </c>
       <c r="I208" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J208" s="6"/>
       <c r="K208" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L208" s="6" t="s">
-        <v>275</v>
+        <v>85</v>
+      </c>
+      <c r="L208" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M208" s="6"/>
       <c r="N208" s="6"/>
       <c r="O208" s="24" t="s">
-        <v>330</v>
+        <v>229</v>
       </c>
       <c r="P208" s="24">
         <v>3</v>
       </c>
       <c r="Q208" s="24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R208" s="7"/>
     </row>
@@ -9986,25 +9966,25 @@
       <c r="C209" s="24"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6" t="s">
-        <v>132</v>
+        <v>383</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="22" t="s">
-        <v>204</v>
+        <v>140</v>
       </c>
       <c r="H209" s="6" t="str">
         <f t="shared" ref="H209:H262" si="17">DEC2BIN(B209, 10)</f>
         <v>0011001010</v>
       </c>
       <c r="I209" s="6" t="s">
-        <v>135</v>
+        <v>97</v>
       </c>
       <c r="J209" s="6"/>
       <c r="K209" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="L209" s="6" t="s">
-        <v>275</v>
+        <v>447</v>
+      </c>
+      <c r="L209" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
@@ -10012,7 +9992,7 @@
       <c r="P209" s="24"/>
       <c r="Q209" s="24"/>
       <c r="R209" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="210" spans="1:18" x14ac:dyDescent="0.15">
@@ -10026,25 +10006,25 @@
       <c r="C210" s="24"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6" t="s">
-        <v>167</v>
+        <v>384</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="22" t="s">
-        <v>168</v>
+        <v>119</v>
       </c>
       <c r="H210" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001011</v>
       </c>
       <c r="I210" s="6" t="s">
-        <v>169</v>
+        <v>120</v>
       </c>
       <c r="J210" s="6"/>
       <c r="K210" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="L210" s="6" t="s">
-        <v>275</v>
+        <v>211</v>
+      </c>
+      <c r="L210" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M210" s="6"/>
       <c r="N210" s="6"/>
@@ -10064,25 +10044,25 @@
       <c r="C211" s="24"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6" t="s">
-        <v>235</v>
+        <v>385</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6" t="s">
-        <v>236</v>
+        <v>168</v>
       </c>
       <c r="H211" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001100</v>
       </c>
       <c r="I211" s="6" t="s">
-        <v>237</v>
+        <v>169</v>
       </c>
       <c r="J211" s="6"/>
       <c r="K211" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="L211" s="6" t="s">
-        <v>275</v>
+        <v>182</v>
+      </c>
+      <c r="L211" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M211" s="6"/>
       <c r="N211" s="6"/>
@@ -10100,27 +10080,29 @@
         <v>205</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="34" t="s">
-        <v>253</v>
+        <v>386</v>
       </c>
       <c r="F212" s="34"/>
       <c r="G212" s="6" t="s">
-        <v>259</v>
+        <v>183</v>
       </c>
       <c r="H212" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001101</v>
       </c>
       <c r="I212" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J212" s="6"/>
-      <c r="K212" s="6"/>
-      <c r="L212" s="35" t="s">
-        <v>275</v>
+      <c r="K212" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="L212" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M212" s="35"/>
       <c r="N212" s="6"/>
@@ -10138,27 +10120,29 @@
         <v>206</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
-        <v>250</v>
+        <v>387</v>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6" t="s">
-        <v>260</v>
+        <v>184</v>
       </c>
       <c r="H213" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011001110</v>
       </c>
       <c r="I213" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J213" s="6"/>
-      <c r="K213" s="6"/>
-      <c r="L213" s="35" t="s">
-        <v>275</v>
+      <c r="K213" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="L213" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M213" s="35"/>
       <c r="N213" s="6"/>
@@ -10185,11 +10169,13 @@
         <v>0011001111</v>
       </c>
       <c r="I214" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
-      <c r="L214" s="35"/>
+      <c r="L214" s="22" t="s">
+        <v>473</v>
+      </c>
       <c r="M214" s="35"/>
       <c r="N214" s="6"/>
       <c r="O214" s="24"/>
@@ -10208,23 +10194,25 @@
       <c r="C215" s="24"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6" t="s">
-        <v>251</v>
+        <v>388</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6" t="s">
-        <v>261</v>
+        <v>185</v>
       </c>
       <c r="H215" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011010000</v>
       </c>
       <c r="I215" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J215" s="6"/>
-      <c r="K215" s="6"/>
-      <c r="L215" s="35" t="s">
-        <v>275</v>
+      <c r="K215" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="L215" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M215" s="35"/>
       <c r="N215" s="6"/>
@@ -10244,23 +10232,25 @@
       <c r="C216" s="24"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6" t="s">
-        <v>252</v>
+        <v>389</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6" t="s">
-        <v>262</v>
+        <v>186</v>
       </c>
       <c r="H216" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011010001</v>
       </c>
       <c r="I216" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J216" s="6"/>
-      <c r="K216" s="6"/>
-      <c r="L216" s="35" t="s">
-        <v>275</v>
+      <c r="K216" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="L216" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M216" s="35"/>
       <c r="N216" s="6"/>
@@ -10306,27 +10296,29 @@
         <v>211</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="22" t="s">
-        <v>293</v>
+        <v>390</v>
       </c>
       <c r="F218" s="22"/>
       <c r="G218" s="22" t="s">
-        <v>292</v>
+        <v>208</v>
       </c>
       <c r="H218" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010011</v>
       </c>
       <c r="I218" s="22" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="J218" s="22"/>
-      <c r="K218" s="22"/>
+      <c r="K218" s="22" t="s">
+        <v>456</v>
+      </c>
       <c r="L218" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M218" s="22"/>
       <c r="N218" s="6"/>
@@ -10344,27 +10336,29 @@
         <v>212</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D219" s="22"/>
       <c r="E219" s="22" t="s">
-        <v>437</v>
+        <v>391</v>
       </c>
       <c r="F219" s="22"/>
       <c r="G219" s="22" t="s">
-        <v>314</v>
+        <v>221</v>
       </c>
       <c r="H219" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010100</v>
       </c>
       <c r="I219" s="22" t="s">
-        <v>308</v>
+        <v>215</v>
       </c>
       <c r="J219" s="22"/>
-      <c r="K219" s="22"/>
+      <c r="K219" s="22" t="s">
+        <v>457</v>
+      </c>
       <c r="L219" s="22" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="M219" s="22"/>
       <c r="N219" s="6"/>
@@ -10382,27 +10376,29 @@
         <v>213</v>
       </c>
       <c r="C220" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D220" s="22"/>
       <c r="E220" s="22" t="s">
-        <v>303</v>
+        <v>392</v>
       </c>
       <c r="F220" s="22"/>
       <c r="G220" s="22" t="s">
-        <v>312</v>
+        <v>219</v>
       </c>
       <c r="H220" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010101</v>
       </c>
       <c r="I220" s="22" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="J220" s="22"/>
-      <c r="K220" s="22"/>
+      <c r="K220" s="22" t="s">
+        <v>458</v>
+      </c>
       <c r="L220" s="22" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="M220" s="22"/>
       <c r="N220" s="6"/>
@@ -10420,27 +10416,29 @@
         <v>214</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D221" s="22"/>
       <c r="E221" s="22" t="s">
-        <v>304</v>
+        <v>393</v>
       </c>
       <c r="F221" s="22"/>
       <c r="G221" s="22" t="s">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="H221" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010110</v>
       </c>
       <c r="I221" s="22" t="s">
-        <v>309</v>
+        <v>216</v>
       </c>
       <c r="J221" s="22"/>
-      <c r="K221" s="22"/>
+      <c r="K221" s="22" t="s">
+        <v>459</v>
+      </c>
       <c r="L221" s="22" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="M221" s="22"/>
       <c r="N221" s="6"/>
@@ -10458,29 +10456,29 @@
         <v>215</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
       <c r="D222" s="32"/>
       <c r="E222" s="32" t="s">
-        <v>325</v>
+        <v>394</v>
       </c>
       <c r="F222" s="32"/>
       <c r="G222" s="32" t="s">
-        <v>326</v>
+        <v>227</v>
       </c>
       <c r="H222" s="32" t="str">
         <f t="shared" si="17"/>
         <v>0011010111</v>
       </c>
       <c r="I222" s="32" t="s">
-        <v>327</v>
+        <v>228</v>
       </c>
       <c r="J222" s="32"/>
       <c r="K222" s="32" t="s">
-        <v>328</v>
-      </c>
-      <c r="L222" s="32" t="s">
-        <v>329</v>
+        <v>448</v>
+      </c>
+      <c r="L222" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M222" s="32"/>
       <c r="N222" s="6"/>
@@ -10498,29 +10496,29 @@
         <v>216</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6" t="s">
-        <v>411</v>
+        <v>395</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6" t="s">
-        <v>404</v>
+        <v>286</v>
       </c>
       <c r="H223" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011000</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="J223" s="6"/>
       <c r="K223" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="L223" s="6" t="s">
-        <v>409</v>
+        <v>289</v>
+      </c>
+      <c r="L223" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M223" s="6"/>
       <c r="N223" s="6"/>
@@ -10538,29 +10536,29 @@
         <v>217</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
       <c r="D224" s="6"/>
       <c r="E224" s="6" t="s">
-        <v>410</v>
+        <v>396</v>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6" t="s">
-        <v>405</v>
+        <v>287</v>
       </c>
       <c r="H224" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011001</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>406</v>
+        <v>288</v>
       </c>
       <c r="J224" s="6"/>
       <c r="K224" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="L224" s="6" t="s">
-        <v>409</v>
+        <v>290</v>
+      </c>
+      <c r="L224" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
@@ -10746,17 +10744,17 @@
         <v>224</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D231" s="6" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>85</v>
+        <v>397</v>
       </c>
       <c r="F231" s="6"/>
       <c r="G231" s="22" t="s">
-        <v>331</v>
+        <v>230</v>
       </c>
       <c r="H231" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10767,10 +10765,10 @@
       </c>
       <c r="J231" s="6"/>
       <c r="K231" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L231" s="6" t="s">
-        <v>275</v>
+        <v>86</v>
+      </c>
+      <c r="L231" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M231" s="6"/>
       <c r="N231" s="6"/>
@@ -10790,11 +10788,11 @@
       <c r="C232" s="24"/>
       <c r="D232" s="32"/>
       <c r="E232" s="32" t="s">
-        <v>332</v>
+        <v>398</v>
       </c>
       <c r="F232" s="32"/>
       <c r="G232" s="32" t="s">
-        <v>334</v>
+        <v>232</v>
       </c>
       <c r="H232" s="32" t="str">
         <f t="shared" si="17"/>
@@ -10804,18 +10802,20 @@
         <v>22</v>
       </c>
       <c r="J232" s="32"/>
-      <c r="K232" s="32"/>
-      <c r="L232" s="32" t="s">
-        <v>275</v>
+      <c r="K232" s="32" t="s">
+        <v>451</v>
+      </c>
+      <c r="L232" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M232" s="32"/>
       <c r="N232" s="6"/>
       <c r="O232" s="24" t="s">
-        <v>333</v>
+        <v>231</v>
       </c>
       <c r="P232" s="24"/>
       <c r="Q232" s="24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R232" s="7"/>
     </row>
@@ -10840,7 +10840,7 @@
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M233" s="22"/>
       <c r="N233" s="6"/>
@@ -10914,45 +10914,45 @@
         <v>229</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="22" t="s">
-        <v>87</v>
+        <v>399</v>
       </c>
       <c r="F236" s="22"/>
       <c r="G236" s="22" t="s">
-        <v>218</v>
+        <v>151</v>
       </c>
       <c r="H236" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011100101</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="J236" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>301</v>
+        <v>449</v>
       </c>
       <c r="L236" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M236" s="22"/>
       <c r="N236" s="6"/>
       <c r="O236" s="24" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P236" s="24">
         <v>3</v>
       </c>
       <c r="Q236" s="24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R236" s="7" t="s">
-        <v>93</v>
+        <v>68</v>
       </c>
     </row>
     <row r="237" spans="1:18" x14ac:dyDescent="0.15">
@@ -10963,7 +10963,7 @@
       <c r="B237" s="6">
         <v>230</v>
       </c>
-      <c r="C237" s="47"/>
+      <c r="C237" s="31"/>
       <c r="D237" s="6"/>
       <c r="E237" s="10"/>
       <c r="F237" s="10"/>
@@ -11022,36 +11022,36 @@
       <c r="C239" s="24"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6" t="s">
-        <v>194</v>
+        <v>400</v>
       </c>
       <c r="F239" s="6"/>
       <c r="G239" s="22" t="s">
-        <v>219</v>
+        <v>152</v>
       </c>
       <c r="H239" s="6" t="str">
         <f>DEC2BIN(B239, 10)</f>
         <v>0011101000</v>
       </c>
       <c r="I239" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J239" s="6"/>
       <c r="K239" s="6" t="s">
-        <v>126</v>
+        <v>93</v>
       </c>
       <c r="L239" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M239" s="22"/>
       <c r="N239" s="6"/>
       <c r="O239" s="24" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P239" s="24">
         <v>3</v>
       </c>
       <c r="Q239" s="24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R239" s="7"/>
     </row>
@@ -11066,36 +11066,36 @@
       <c r="C240" s="24"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6" t="s">
-        <v>86</v>
+        <v>401</v>
       </c>
       <c r="F240" s="6"/>
       <c r="G240" s="22" t="s">
-        <v>220</v>
+        <v>153</v>
       </c>
       <c r="H240" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101001</v>
       </c>
       <c r="I240" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J240" s="6"/>
       <c r="K240" s="6" t="s">
-        <v>127</v>
+        <v>94</v>
       </c>
       <c r="L240" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M240" s="22"/>
       <c r="N240" s="6"/>
       <c r="O240" s="24" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P240" s="24">
         <v>3</v>
       </c>
       <c r="Q240" s="24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R240" s="7"/>
     </row>
@@ -11110,41 +11110,41 @@
       <c r="C241" s="24"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6" t="s">
-        <v>134</v>
+        <v>402</v>
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="22" t="s">
-        <v>221</v>
+        <v>154</v>
       </c>
       <c r="H241" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101010</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>291</v>
+        <v>207</v>
       </c>
       <c r="J241" s="6" t="s">
-        <v>145</v>
+        <v>105</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>298</v>
+        <v>450</v>
       </c>
       <c r="L241" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M241" s="22"/>
       <c r="N241" s="6"/>
       <c r="O241" s="24" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="P241" s="24">
         <v>3</v>
       </c>
       <c r="Q241" s="24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R241" s="7" t="s">
-        <v>136</v>
+        <v>98</v>
       </c>
     </row>
     <row r="242" spans="1:18" x14ac:dyDescent="0.15">
@@ -11212,27 +11212,29 @@
         <v>237</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="34" t="s">
-        <v>255</v>
+        <v>403</v>
       </c>
       <c r="F244" s="34"/>
       <c r="G244" s="6" t="s">
-        <v>263</v>
+        <v>187</v>
       </c>
       <c r="H244" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101101</v>
       </c>
       <c r="I244" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J244" s="6"/>
-      <c r="K244" s="6"/>
+      <c r="K244" s="6" t="s">
+        <v>460</v>
+      </c>
       <c r="L244" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M244" s="22"/>
       <c r="N244" s="6"/>
@@ -11250,27 +11252,29 @@
         <v>238</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="6" t="s">
-        <v>256</v>
+        <v>404</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
-        <v>264</v>
+        <v>188</v>
       </c>
       <c r="H245" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011101110</v>
       </c>
       <c r="I245" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J245" s="6"/>
-      <c r="K245" s="6"/>
+      <c r="K245" s="6" t="s">
+        <v>461</v>
+      </c>
       <c r="L245" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M245" s="22"/>
       <c r="N245" s="6"/>
@@ -11297,7 +11301,7 @@
         <v>0011101111</v>
       </c>
       <c r="I246" s="22" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J246" s="22"/>
       <c r="K246" s="22"/>
@@ -11320,23 +11324,25 @@
       <c r="C247" s="24"/>
       <c r="D247" s="22"/>
       <c r="E247" s="22" t="s">
-        <v>257</v>
+        <v>405</v>
       </c>
       <c r="F247" s="22"/>
       <c r="G247" s="22" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="H247" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110000</v>
       </c>
       <c r="I247" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J247" s="6"/>
-      <c r="K247" s="6"/>
+      <c r="K247" s="6" t="s">
+        <v>462</v>
+      </c>
       <c r="L247" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M247" s="22"/>
       <c r="N247" s="6"/>
@@ -11356,23 +11362,25 @@
       <c r="C248" s="24"/>
       <c r="D248" s="22"/>
       <c r="E248" s="22" t="s">
-        <v>258</v>
+        <v>406</v>
       </c>
       <c r="F248" s="22"/>
       <c r="G248" s="22" t="s">
-        <v>266</v>
+        <v>190</v>
       </c>
       <c r="H248" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110001</v>
       </c>
       <c r="I248" s="6" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="J248" s="6"/>
-      <c r="K248" s="6"/>
+      <c r="K248" s="6" t="s">
+        <v>463</v>
+      </c>
       <c r="L248" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M248" s="22"/>
       <c r="N248" s="6"/>
@@ -11390,27 +11398,29 @@
         <v>242</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D249" s="22"/>
       <c r="E249" s="22" t="s">
-        <v>269</v>
+        <v>407</v>
       </c>
       <c r="F249" s="22"/>
       <c r="G249" s="22" t="s">
-        <v>270</v>
+        <v>192</v>
       </c>
       <c r="H249" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110010</v>
       </c>
       <c r="I249" s="6" t="s">
-        <v>271</v>
+        <v>193</v>
       </c>
       <c r="J249" s="6"/>
-      <c r="K249" s="6"/>
+      <c r="K249" s="6" t="s">
+        <v>464</v>
+      </c>
       <c r="L249" s="22" t="s">
-        <v>275</v>
+        <v>473</v>
       </c>
       <c r="M249" s="22"/>
       <c r="N249" s="6"/>
@@ -11428,27 +11438,29 @@
         <v>243</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D250" s="22"/>
       <c r="E250" s="22" t="s">
-        <v>295</v>
+        <v>408</v>
       </c>
       <c r="F250" s="22"/>
       <c r="G250" s="22" t="s">
-        <v>296</v>
+        <v>210</v>
       </c>
       <c r="H250" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110011</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>294</v>
+        <v>209</v>
       </c>
       <c r="J250" s="6"/>
-      <c r="K250" s="6"/>
+      <c r="K250" s="6" t="s">
+        <v>465</v>
+      </c>
       <c r="L250" s="22" t="s">
-        <v>297</v>
+        <v>473</v>
       </c>
       <c r="M250" s="22"/>
       <c r="N250" s="6"/>
@@ -11466,27 +11478,29 @@
         <v>244</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D251" s="22"/>
       <c r="E251" s="22" t="s">
-        <v>305</v>
+        <v>409</v>
       </c>
       <c r="F251" s="22"/>
       <c r="G251" s="22" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="H251" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110100</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>310</v>
+        <v>217</v>
       </c>
       <c r="J251" s="6"/>
-      <c r="K251" s="6"/>
+      <c r="K251" s="6" t="s">
+        <v>466</v>
+      </c>
       <c r="L251" s="22" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="M251" s="22"/>
       <c r="N251" s="6"/>
@@ -11504,27 +11518,29 @@
         <v>245</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D252" s="22"/>
       <c r="E252" s="22" t="s">
-        <v>377</v>
+        <v>410</v>
       </c>
       <c r="F252" s="22"/>
       <c r="G252" s="22" t="s">
-        <v>307</v>
+        <v>214</v>
       </c>
       <c r="H252" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110101</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="J252" s="6"/>
-      <c r="K252" s="6"/>
+      <c r="K252" s="6" t="s">
+        <v>467</v>
+      </c>
       <c r="L252" s="22" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="M252" s="22"/>
       <c r="N252" s="6"/>
@@ -11542,27 +11558,29 @@
         <v>246</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D253" s="22"/>
       <c r="E253" s="22" t="s">
-        <v>378</v>
+        <v>411</v>
       </c>
       <c r="F253" s="22"/>
       <c r="G253" s="22" t="s">
-        <v>306</v>
+        <v>213</v>
       </c>
       <c r="H253" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110110</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>311</v>
+        <v>218</v>
       </c>
       <c r="J253" s="6"/>
-      <c r="K253" s="6"/>
+      <c r="K253" s="6" t="s">
+        <v>468</v>
+      </c>
       <c r="L253" s="22" t="s">
-        <v>315</v>
+        <v>473</v>
       </c>
       <c r="M253" s="22"/>
       <c r="N253" s="6"/>
@@ -11796,39 +11814,39 @@
       <c r="R261" s="7"/>
     </row>
     <row r="262" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="A262" s="42" t="str">
+      <c r="A262" s="46" t="str">
         <f t="shared" si="14"/>
         <v>0FF</v>
       </c>
-      <c r="B262" s="35">
+      <c r="B262" s="10">
         <v>255</v>
       </c>
-      <c r="C262" s="24" t="s">
-        <v>435</v>
-      </c>
-      <c r="D262" s="35"/>
-      <c r="E262" s="35" t="s">
-        <v>379</v>
-      </c>
-      <c r="F262" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="G262" s="35" t="s">
-        <v>436</v>
-      </c>
-      <c r="H262" s="35" t="str">
+      <c r="C262" s="31" t="s">
+        <v>307</v>
+      </c>
+      <c r="D262" s="10"/>
+      <c r="E262" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="F262" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="G262" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="H262" s="10" t="str">
         <f t="shared" si="17"/>
         <v>0011111111</v>
       </c>
-      <c r="I262" s="35"/>
-      <c r="J262" s="35" t="s">
-        <v>382</v>
+      <c r="I262" s="10"/>
+      <c r="J262" s="10" t="s">
+        <v>265</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="L262" s="6" t="s">
-        <v>275</v>
+        <v>469</v>
+      </c>
+      <c r="L262" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M262" s="6"/>
       <c r="N262" s="6"/>
@@ -11846,31 +11864,31 @@
         <v>256</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D263" s="6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>23</v>
+        <v>412</v>
       </c>
       <c r="F263" s="6"/>
       <c r="G263" s="6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H263" s="6" t="str">
         <f t="shared" ref="H263:H265" si="18">DEC2BIN(B263, 10)</f>
         <v>0100000000</v>
       </c>
       <c r="I263" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J263" s="6"/>
       <c r="K263" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="L263" s="6" t="s">
-        <v>275</v>
+        <v>412</v>
+      </c>
+      <c r="L263" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M263" s="6"/>
       <c r="N263" s="6"/>
@@ -11890,36 +11908,36 @@
       <c r="C264" s="24"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6" t="s">
-        <v>36</v>
+        <v>413</v>
       </c>
       <c r="F264" s="6"/>
       <c r="G264" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="H264" s="6" t="str">
         <f t="shared" si="18"/>
         <v>0100000001</v>
       </c>
       <c r="I264" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J264" s="6"/>
       <c r="K264" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="L264" s="6" t="s">
-        <v>275</v>
+        <v>470</v>
+      </c>
+      <c r="L264" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M264" s="6"/>
       <c r="N264" s="6"/>
       <c r="O264" s="24" t="s">
-        <v>380</v>
+        <v>264</v>
       </c>
       <c r="P264" s="24">
         <v>3</v>
       </c>
       <c r="Q264" s="24" t="s">
-        <v>92</v>
+        <v>67</v>
       </c>
       <c r="R264" s="7"/>
     </row>
@@ -11932,7 +11950,7 @@
         <v>258</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6" t="s">
@@ -11951,10 +11969,10 @@
       </c>
       <c r="J265" s="6"/>
       <c r="K265" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="L265" s="35" t="s">
-        <v>275</v>
+        <v>95</v>
+      </c>
+      <c r="L265" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M265" s="35"/>
       <c r="N265" s="6"/>
@@ -11972,33 +11990,33 @@
         <v>259</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>435</v>
+        <v>307</v>
       </c>
       <c r="D266" s="6"/>
       <c r="E266" s="6" t="s">
-        <v>165</v>
+        <v>415</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>277</v>
+        <v>366</v>
       </c>
       <c r="G266" s="22" t="s">
-        <v>163</v>
+        <v>116</v>
       </c>
       <c r="H266" s="6" t="str">
         <f t="shared" ref="H266:H327" si="20">DEC2BIN(B266, 10)</f>
         <v>0100000011</v>
       </c>
       <c r="I266" s="6" t="s">
-        <v>154</v>
+        <v>111</v>
       </c>
       <c r="J266" s="6" t="s">
-        <v>164</v>
+        <v>117</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>181</v>
-      </c>
-      <c r="L266" s="6" t="s">
-        <v>275</v>
+        <v>471</v>
+      </c>
+      <c r="L266" s="22" t="s">
+        <v>473</v>
       </c>
       <c r="M266" s="6"/>
       <c r="N266" s="6"/>
@@ -12801,14 +12819,14 @@
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="6" t="s">
-        <v>283</v>
+        <v>201</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>190</v>
+        <v>416</v>
       </c>
       <c r="F295" s="6"/>
       <c r="G295" s="6" t="s">
-        <v>191</v>
+        <v>130</v>
       </c>
       <c r="H295" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12816,13 +12834,13 @@
       </c>
       <c r="I295" s="6"/>
       <c r="J295" s="6" t="s">
-        <v>216</v>
+        <v>149</v>
       </c>
       <c r="K295" s="6" t="s">
-        <v>217</v>
+        <v>150</v>
       </c>
       <c r="L295" s="35" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="M295" s="35"/>
       <c r="N295" s="6"/>
@@ -12842,27 +12860,27 @@
       <c r="C296" s="24"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6" t="s">
-        <v>192</v>
+        <v>417</v>
       </c>
       <c r="F296" s="6"/>
       <c r="G296" s="6" t="s">
-        <v>193</v>
+        <v>131</v>
       </c>
       <c r="H296" s="6" t="str">
         <f t="shared" si="20"/>
         <v>0100100001</v>
       </c>
       <c r="I296" s="6" t="s">
-        <v>390</v>
+        <v>273</v>
       </c>
       <c r="J296" s="6" t="s">
-        <v>391</v>
+        <v>274</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>392</v>
+        <v>275</v>
       </c>
       <c r="L296" s="35" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="M296" s="35"/>
       <c r="N296" s="6"/>
@@ -12880,41 +12898,41 @@
         <v>290</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>434</v>
+        <v>306</v>
       </c>
       <c r="D297" s="6"/>
       <c r="E297" s="27" t="s">
-        <v>290</v>
+        <v>418</v>
       </c>
       <c r="F297" s="28"/>
       <c r="G297" s="28" t="s">
-        <v>289</v>
+        <v>206</v>
       </c>
       <c r="H297" s="28" t="str">
         <f t="shared" si="20"/>
         <v>0100100010</v>
       </c>
       <c r="I297" s="28" t="s">
-        <v>284</v>
+        <v>202</v>
       </c>
       <c r="J297" s="28"/>
       <c r="K297" s="28" t="s">
-        <v>285</v>
+        <v>472</v>
       </c>
       <c r="L297" s="28" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="M297" s="28"/>
       <c r="N297" s="28"/>
       <c r="O297" s="39" t="s">
-        <v>286</v>
+        <v>203</v>
       </c>
       <c r="P297" s="39"/>
       <c r="Q297" s="39" t="s">
-        <v>287</v>
+        <v>204</v>
       </c>
       <c r="R297" s="40" t="s">
-        <v>288</v>
+        <v>205</v>
       </c>
       <c r="S297" s="41"/>
     </row>
@@ -12929,11 +12947,11 @@
       <c r="C298" s="24"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6" t="s">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6" t="s">
-        <v>324</v>
+        <v>226</v>
       </c>
       <c r="H298" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12961,11 +12979,11 @@
       <c r="C299" s="24"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6" t="s">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" s="6" t="s">
-        <v>323</v>
+        <v>225</v>
       </c>
       <c r="H299" s="6" t="str">
         <f t="shared" si="20"/>
@@ -31919,6 +31937,5 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="46" fitToHeight="0" orientation="landscape" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/instructions/mist32_isa.xlsx
+++ b/instructions/mist32_isa.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="863" uniqueCount="473">
   <si>
     <t>ADD</t>
     <phoneticPr fontId="1"/>
@@ -921,72 +921,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>最後に追い出されたビットをCFに設定、OFは常にゼロクリア</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="22" eb="23">
-      <t>ツネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後に追い出されたビットをCFに設定(0bit目に入るビットと同じ)、OFは常にゼロクリア</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="23" eb="24">
-      <t>メ</t>
-    </rPh>
-    <rPh sb="25" eb="26">
-      <t>ハイ</t>
-    </rPh>
-    <rPh sb="31" eb="32">
-      <t>オナ</t>
-    </rPh>
-    <rPh sb="38" eb="39">
-      <t>ツネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>最後に追い出されたビットをCFに設定(31bit目に入るビットと同じ)、OFは常にゼロクリア</t>
-    <rPh sb="0" eb="2">
-      <t>サイゴ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>オ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>ダ</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>セッテイ</t>
-    </rPh>
-    <rPh sb="39" eb="40">
-      <t>ツネ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>clear bit</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2126,6 +2060,14 @@
   </si>
   <si>
     <t>not generate flags</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CF=Rd[32], OF=0</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CF=Rd[-1], OF=0</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2892,8 +2834,8 @@
   </sheetPr>
   <dimension ref="A2:AL1031"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView tabSelected="1" topLeftCell="H315" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L298" sqref="L298"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2946,58 +2888,58 @@
     </row>
     <row r="6" spans="1:20" ht="15" thickTop="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>267</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>301</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>302</v>
+      </c>
+      <c r="E6" s="18" t="s">
+        <v>249</v>
+      </c>
+      <c r="F6" s="18" t="s">
+        <v>308</v>
+      </c>
+      <c r="G6" s="18" t="s">
+        <v>250</v>
+      </c>
+      <c r="H6" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="I6" s="18" t="s">
+        <v>275</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>276</v>
+      </c>
+      <c r="K6" s="18" t="s">
+        <v>252</v>
+      </c>
+      <c r="L6" s="18" t="s">
         <v>269</v>
       </c>
-      <c r="B6" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>304</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>305</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>311</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="H6" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="I6" s="18" t="s">
+      <c r="M6" s="29" t="s">
+        <v>277</v>
+      </c>
+      <c r="N6" s="42" t="s">
         <v>278</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="O6" s="26" t="s">
         <v>279</v>
       </c>
-      <c r="K6" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="L6" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="M6" s="29" t="s">
+      <c r="P6" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="N6" s="42" t="s">
+      <c r="Q6" s="33" t="s">
         <v>281</v>
       </c>
-      <c r="O6" s="26" t="s">
+      <c r="R6" s="19" t="s">
         <v>282</v>
-      </c>
-      <c r="P6" s="33" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q6" s="33" t="s">
-        <v>284</v>
-      </c>
-      <c r="R6" s="19" t="s">
-        <v>285</v>
       </c>
     </row>
     <row r="7" spans="1:20" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
@@ -3009,7 +2951,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D7" s="15" t="s">
         <v>36</v>
@@ -3018,7 +2960,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="38" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G7" s="15" t="s">
         <v>0</v>
@@ -3053,14 +2995,14 @@
         <v>1</v>
       </c>
       <c r="C8" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D8" s="6"/>
       <c r="E8" s="6" t="s">
         <v>2</v>
       </c>
       <c r="F8" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G8" s="6" t="s">
         <v>3</v>
@@ -3095,14 +3037,14 @@
         <v>2</v>
       </c>
       <c r="C9" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D9" s="6"/>
       <c r="E9" s="6" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F9" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G9" s="22" t="s">
         <v>49</v>
@@ -3118,7 +3060,7 @@
         <v>103</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="L9" s="6"/>
       <c r="M9" s="6"/>
@@ -3137,14 +3079,14 @@
         <v>3</v>
       </c>
       <c r="C10" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D10" s="6"/>
       <c r="E10" s="6" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F10" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G10" s="22" t="s">
         <v>37</v>
@@ -3160,7 +3102,7 @@
         <v>103</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="L10" s="6"/>
       <c r="M10" s="6"/>
@@ -3263,14 +3205,14 @@
         <v>6</v>
       </c>
       <c r="C13" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D13" s="6"/>
       <c r="E13" s="22" t="s">
         <v>48</v>
       </c>
       <c r="F13" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G13" s="22" t="s">
         <v>34</v>
@@ -3286,7 +3228,7 @@
         <v>103</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="L13" s="6"/>
       <c r="M13" s="6"/>
@@ -3309,10 +3251,10 @@
       <c r="C14" s="24"/>
       <c r="D14" s="6"/>
       <c r="E14" s="22" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G14" s="22" t="s">
         <v>146</v>
@@ -3353,10 +3295,10 @@
       <c r="C15" s="24"/>
       <c r="D15" s="6"/>
       <c r="E15" s="22" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F15" s="22" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G15" s="22" t="s">
         <v>147</v>
@@ -3397,7 +3339,7 @@
       <c r="C16" s="30"/>
       <c r="D16" s="22"/>
       <c r="E16" s="22" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="F16" s="22"/>
       <c r="G16" s="22" t="s">
@@ -3408,14 +3350,14 @@
         <v>0000001001</v>
       </c>
       <c r="I16" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J16" s="22"/>
       <c r="K16" s="22" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="L16" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M16" s="22"/>
       <c r="N16" s="22"/>
@@ -3435,25 +3377,25 @@
         <v>10</v>
       </c>
       <c r="C17" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D17" s="10"/>
       <c r="E17" s="6" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F17" s="10"/>
       <c r="G17" s="10" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="H17" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0000001010</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K17" s="10"/>
       <c r="L17" s="10"/>
@@ -3475,25 +3417,25 @@
         <v>11</v>
       </c>
       <c r="C18" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D18" s="10"/>
       <c r="E18" s="6" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F18" s="10"/>
       <c r="G18" s="10" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="H18" s="10" t="str">
         <f t="shared" si="2"/>
         <v>0000001011</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="K18" s="10"/>
       <c r="L18" s="10"/>
@@ -3547,22 +3489,22 @@
       <c r="C20" s="24"/>
       <c r="D20" s="6"/>
       <c r="E20" s="6" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F20" s="22"/>
       <c r="G20" s="6" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H20" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000001101</v>
       </c>
       <c r="I20" s="6" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="J20" s="6"/>
       <c r="K20" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="L20" s="6"/>
       <c r="M20" s="6"/>
@@ -3581,14 +3523,14 @@
         <v>14</v>
       </c>
       <c r="C21" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D21" s="6"/>
       <c r="E21" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F21" s="22" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="G21" s="6" t="s">
         <v>121</v>
@@ -3604,7 +3546,7 @@
         <v>123</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="L21" s="6"/>
       <c r="M21" s="6"/>
@@ -3651,11 +3593,11 @@
         <v>16</v>
       </c>
       <c r="C23" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D23" s="6"/>
       <c r="E23" s="6" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F23" s="22"/>
       <c r="G23" s="6" t="s">
@@ -3689,11 +3631,11 @@
         <v>17</v>
       </c>
       <c r="C24" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D24" s="6"/>
       <c r="E24" s="6" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="F24" s="22"/>
       <c r="G24" s="6" t="s">
@@ -3757,27 +3699,27 @@
       <c r="C26" s="24"/>
       <c r="D26" s="6"/>
       <c r="E26" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F26" s="6"/>
       <c r="G26" s="6" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="H26" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010011</v>
       </c>
       <c r="I26" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J26" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L26" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M26" s="6"/>
       <c r="N26" s="6"/>
@@ -3797,27 +3739,27 @@
       <c r="C27" s="24"/>
       <c r="D27" s="6"/>
       <c r="E27" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F27" s="6"/>
       <c r="G27" s="6" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H27" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010100</v>
       </c>
       <c r="I27" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J27" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K27" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="J27" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="L27" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M27" s="6"/>
       <c r="N27" s="6"/>
@@ -3837,27 +3779,27 @@
       <c r="C28" s="24"/>
       <c r="D28" s="6"/>
       <c r="E28" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="F28" s="6"/>
       <c r="G28" s="6" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="H28" s="6" t="str">
         <f>DEC2BIN(B28, 10)</f>
         <v>0000010101</v>
       </c>
       <c r="I28" s="6" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J28" s="6" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="L28" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M28" s="6"/>
       <c r="N28" s="6"/>
@@ -3877,27 +3819,27 @@
       <c r="C29" s="24"/>
       <c r="D29" s="6"/>
       <c r="E29" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="F29" s="6"/>
       <c r="G29" s="6" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H29" s="6" t="str">
         <f t="shared" si="2"/>
         <v>0000010110</v>
       </c>
       <c r="I29" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="J29" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="K29" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="J29" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>236</v>
-      </c>
       <c r="L29" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M29" s="6"/>
       <c r="N29" s="6"/>
@@ -4055,11 +3997,11 @@
         <v>28</v>
       </c>
       <c r="C35" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D35" s="6"/>
       <c r="E35" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="F35" s="6"/>
       <c r="G35" s="22" t="s">
@@ -4074,10 +4016,10 @@
       </c>
       <c r="J35" s="6"/>
       <c r="K35" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L35" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M35" s="35"/>
       <c r="N35" s="6"/>
@@ -4095,11 +4037,11 @@
         <v>29</v>
       </c>
       <c r="C36" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="F36" s="6"/>
       <c r="G36" s="22" t="s">
@@ -4114,10 +4056,10 @@
       </c>
       <c r="J36" s="6"/>
       <c r="K36" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="L36" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M36" s="35"/>
       <c r="N36" s="6"/>
@@ -4192,7 +4134,7 @@
       </c>
       <c r="C39" s="24"/>
       <c r="D39" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E39" s="6"/>
       <c r="F39" s="6"/>
@@ -5099,7 +5041,7 @@
         <v>64</v>
       </c>
       <c r="C71" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D71" s="6" t="s">
         <v>4</v>
@@ -5124,8 +5066,8 @@
       <c r="K71" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="L71" s="32" t="s">
-        <v>197</v>
+      <c r="L71" s="6" t="s">
+        <v>471</v>
       </c>
       <c r="M71" s="32"/>
       <c r="N71" s="6"/>
@@ -5147,7 +5089,7 @@
         <v>65</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D72" s="6"/>
       <c r="E72" s="6" t="s">
@@ -5170,8 +5112,8 @@
       <c r="K72" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="L72" s="32" t="s">
-        <v>197</v>
+      <c r="L72" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="M72" s="32"/>
       <c r="N72" s="6"/>
@@ -5277,7 +5219,7 @@
         <v>69</v>
       </c>
       <c r="C76" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D76" s="22"/>
       <c r="E76" s="22" t="s">
@@ -5300,8 +5242,8 @@
       <c r="K76" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="L76" s="32" t="s">
-        <v>197</v>
+      <c r="L76" s="6" t="s">
+        <v>472</v>
       </c>
       <c r="M76" s="32"/>
       <c r="N76" s="6"/>
@@ -5398,10 +5340,10 @@
         <v>105</v>
       </c>
       <c r="K79" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="L79" s="32" t="s">
-        <v>198</v>
+        <v>424</v>
+      </c>
+      <c r="L79" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="M79" s="32"/>
       <c r="N79" s="6"/>
@@ -5442,10 +5384,10 @@
         <v>105</v>
       </c>
       <c r="K80" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="L80" s="32" t="s">
-        <v>199</v>
+        <v>425</v>
+      </c>
+      <c r="L80" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="M80" s="32"/>
       <c r="N80" s="6"/>
@@ -6086,7 +6028,7 @@
         <v>96</v>
       </c>
       <c r="C103" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D103" s="6" t="s">
         <v>9</v>
@@ -6126,7 +6068,7 @@
         <v>97</v>
       </c>
       <c r="C104" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D104" s="6"/>
       <c r="E104" s="6" t="s">
@@ -6167,7 +6109,7 @@
         <v>98</v>
       </c>
       <c r="C105" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D105" s="6"/>
       <c r="E105" s="6" t="s">
@@ -6205,7 +6147,7 @@
         <v>99</v>
       </c>
       <c r="C106" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D106" s="22"/>
       <c r="E106" s="22" t="s">
@@ -6220,11 +6162,11 @@
         <v>0001100011</v>
       </c>
       <c r="I106" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J106" s="22"/>
       <c r="K106" s="22" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="L106" s="6"/>
       <c r="M106" s="6"/>
@@ -6243,7 +6185,7 @@
         <v>100</v>
       </c>
       <c r="C107" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D107" s="6"/>
       <c r="E107" s="6" t="s">
@@ -6282,7 +6224,7 @@
         <v>101</v>
       </c>
       <c r="C108" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D108" s="6"/>
       <c r="E108" s="6" t="s">
@@ -6321,7 +6263,7 @@
         <v>102</v>
       </c>
       <c r="C109" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D109" s="6"/>
       <c r="E109" s="6" t="s">
@@ -6359,7 +6301,7 @@
         <v>103</v>
       </c>
       <c r="C110" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D110" s="6"/>
       <c r="E110" s="6" t="s">
@@ -6378,7 +6320,7 @@
       </c>
       <c r="J110" s="6"/>
       <c r="K110" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="L110" s="6"/>
       <c r="M110" s="6"/>
@@ -6453,11 +6395,11 @@
         <v>106</v>
       </c>
       <c r="C113" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D113" s="6"/>
       <c r="E113" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F113" s="6"/>
       <c r="G113" s="22" t="s">
@@ -6472,10 +6414,10 @@
       </c>
       <c r="J113" s="6"/>
       <c r="K113" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="L113" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M113" s="10"/>
       <c r="N113" s="6"/>
@@ -6493,11 +6435,11 @@
         <v>107</v>
       </c>
       <c r="C114" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D114" s="6"/>
       <c r="E114" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="F114" s="6"/>
       <c r="G114" s="22" t="s">
@@ -6512,10 +6454,10 @@
       </c>
       <c r="J114" s="6"/>
       <c r="K114" s="6" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="L114" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M114" s="10"/>
       <c r="N114" s="6"/>
@@ -6533,11 +6475,11 @@
         <v>108</v>
       </c>
       <c r="C115" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D115" s="6"/>
       <c r="E115" s="6" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="F115" s="6"/>
       <c r="G115" s="22" t="s">
@@ -6552,10 +6494,10 @@
         <v>55</v>
       </c>
       <c r="K115" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="L115" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M115" s="10"/>
       <c r="N115" s="6"/>
@@ -6573,7 +6515,7 @@
         <v>109</v>
       </c>
       <c r="C116" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D116" s="6"/>
       <c r="E116" s="6" t="s">
@@ -6595,7 +6537,7 @@
         <v>92</v>
       </c>
       <c r="L116" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M116" s="10"/>
       <c r="N116" s="6"/>
@@ -6616,11 +6558,11 @@
         <v>110</v>
       </c>
       <c r="C117" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D117" s="6"/>
       <c r="E117" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="F117" s="6"/>
       <c r="G117" s="22" t="s">
@@ -6638,7 +6580,7 @@
         <v>78</v>
       </c>
       <c r="L117" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M117" s="10"/>
       <c r="N117" s="6"/>
@@ -6656,7 +6598,7 @@
         <v>111</v>
       </c>
       <c r="C118" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D118" s="6"/>
       <c r="E118" s="6" t="s">
@@ -6678,7 +6620,7 @@
         <v>79</v>
       </c>
       <c r="L118" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M118" s="10"/>
       <c r="N118" s="6"/>
@@ -6698,7 +6640,7 @@
       <c r="C119" s="24"/>
       <c r="D119" s="22"/>
       <c r="E119" s="22" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="F119" s="22"/>
       <c r="G119" s="22" t="s">
@@ -6709,14 +6651,14 @@
         <v>0001110000</v>
       </c>
       <c r="I119" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J119" s="22"/>
       <c r="K119" s="22" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="L119" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M119" s="10"/>
       <c r="N119" s="6"/>
@@ -6734,11 +6676,11 @@
         <v>113</v>
       </c>
       <c r="C120" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D120" s="22"/>
       <c r="E120" s="22" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="F120" s="22"/>
       <c r="G120" s="22" t="s">
@@ -6749,14 +6691,14 @@
         <v>0001110001</v>
       </c>
       <c r="I120" s="22" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="J120" s="22"/>
       <c r="K120" s="22" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="L120" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M120" s="10"/>
       <c r="N120" s="6"/>
@@ -6776,7 +6718,7 @@
       <c r="C121" s="24"/>
       <c r="D121" s="6"/>
       <c r="E121" s="6" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="F121" s="6"/>
       <c r="G121" s="22" t="s">
@@ -6796,7 +6738,7 @@
         <v>101</v>
       </c>
       <c r="L121" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M121" s="10"/>
       <c r="N121" s="6"/>
@@ -6814,11 +6756,11 @@
         <v>115</v>
       </c>
       <c r="C122" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D122" s="6"/>
       <c r="E122" s="6" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="F122" s="6"/>
       <c r="G122" s="22" t="s">
@@ -6835,10 +6777,10 @@
         <v>55</v>
       </c>
       <c r="K122" s="6" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="L122" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M122" s="10"/>
       <c r="N122" s="6"/>
@@ -6915,11 +6857,11 @@
         <v>118</v>
       </c>
       <c r="C125" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D125" s="6"/>
       <c r="E125" s="6" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="F125" s="6"/>
       <c r="G125" s="22" t="s">
@@ -6934,10 +6876,10 @@
         <v>108</v>
       </c>
       <c r="K125" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="L125" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M125" s="10"/>
       <c r="N125" s="6"/>
@@ -6955,11 +6897,11 @@
         <v>119</v>
       </c>
       <c r="C126" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D126" s="6"/>
       <c r="E126" s="6" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="F126" s="6"/>
       <c r="G126" s="22" t="s">
@@ -6977,7 +6919,7 @@
         <v>194</v>
       </c>
       <c r="L126" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M126" s="10"/>
       <c r="N126" s="6"/>
@@ -7051,11 +6993,11 @@
         <v>122</v>
       </c>
       <c r="C129" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D129" s="6"/>
       <c r="E129" s="6" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="F129" s="6"/>
       <c r="G129" s="22" t="s">
@@ -7104,7 +7046,7 @@
       <c r="J130" s="6"/>
       <c r="K130" s="6"/>
       <c r="L130" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M130" s="10"/>
       <c r="N130" s="6"/>
@@ -7234,13 +7176,13 @@
         <v>128</v>
       </c>
       <c r="C135" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D135" s="6" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E135" s="6" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="F135" s="6"/>
       <c r="G135" s="22" t="s">
@@ -7260,13 +7202,13 @@
         <v>124</v>
       </c>
       <c r="L135" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M135" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N135" s="35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O135" s="24"/>
       <c r="P135" s="24">
@@ -7286,14 +7228,14 @@
         <v>129</v>
       </c>
       <c r="C136" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D136" s="6"/>
       <c r="E136" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="F136" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G136" s="22" t="s">
         <v>163</v>
@@ -7309,16 +7251,16 @@
         <v>105</v>
       </c>
       <c r="K136" s="22" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L136" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M136" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N136" s="35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O136" s="24"/>
       <c r="P136" s="24">
@@ -7338,14 +7280,14 @@
         <v>130</v>
       </c>
       <c r="C137" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D137" s="6"/>
       <c r="E137" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="F137" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G137" s="22" t="s">
         <v>164</v>
@@ -7361,16 +7303,16 @@
         <v>105</v>
       </c>
       <c r="K137" s="22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L137" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M137" s="35" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N137" s="35" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="O137" s="24"/>
       <c r="P137" s="24">
@@ -7390,11 +7332,11 @@
         <v>131</v>
       </c>
       <c r="C138" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D138" s="6"/>
       <c r="E138" s="6" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="F138" s="6"/>
       <c r="G138" s="22" t="s">
@@ -7411,10 +7353,10 @@
         <v>105</v>
       </c>
       <c r="K138" s="22" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L138" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M138" s="6"/>
       <c r="N138" s="6"/>
@@ -7436,14 +7378,14 @@
         <v>132</v>
       </c>
       <c r="C139" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D139" s="6"/>
       <c r="E139" s="6" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="F139" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G139" s="22" t="s">
         <v>166</v>
@@ -7459,10 +7401,10 @@
         <v>105</v>
       </c>
       <c r="K139" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L139" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M139" s="6"/>
       <c r="N139" s="6"/>
@@ -7484,14 +7426,14 @@
         <v>133</v>
       </c>
       <c r="C140" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D140" s="6"/>
       <c r="E140" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="F140" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G140" s="22" t="s">
         <v>167</v>
@@ -7507,10 +7449,10 @@
         <v>105</v>
       </c>
       <c r="K140" s="22" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L140" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M140" s="6"/>
       <c r="N140" s="6"/>
@@ -7588,14 +7530,14 @@
         <v>136</v>
       </c>
       <c r="C143" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D143" s="6"/>
       <c r="E143" s="6" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="G143" s="22" t="s">
         <v>29</v>
@@ -7608,13 +7550,13 @@
         <v>22</v>
       </c>
       <c r="J143" s="22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="K143" s="6" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
       <c r="L143" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M143" s="6"/>
       <c r="N143" s="6"/>
@@ -7638,7 +7580,7 @@
       <c r="C144" s="24"/>
       <c r="D144" s="6"/>
       <c r="E144" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="F144" s="6"/>
       <c r="G144" s="22" t="s">
@@ -7656,7 +7598,7 @@
         <v>102</v>
       </c>
       <c r="L144" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M144" s="6"/>
       <c r="N144" s="6"/>
@@ -7680,38 +7622,38 @@
       <c r="C145" s="24"/>
       <c r="D145" s="6"/>
       <c r="E145" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="F145" s="6"/>
       <c r="G145" s="22" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H145" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001010</v>
       </c>
       <c r="I145" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J145" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K145" s="6" t="s">
         <v>124</v>
       </c>
       <c r="L145" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M145" s="6"/>
       <c r="N145" s="6"/>
       <c r="O145" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P145" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q145" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R145" s="7"/>
     </row>
@@ -7726,40 +7668,40 @@
       <c r="C146" s="24"/>
       <c r="D146" s="6"/>
       <c r="E146" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="F146" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G146" s="22" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="H146" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001011</v>
       </c>
       <c r="I146" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J146" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K146" s="22" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="L146" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M146" s="6"/>
       <c r="N146" s="6"/>
       <c r="O146" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P146" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q146" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R146" s="7"/>
     </row>
@@ -7774,40 +7716,40 @@
       <c r="C147" s="24"/>
       <c r="D147" s="6"/>
       <c r="E147" s="6" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="F147" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="H147" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001100</v>
       </c>
       <c r="I147" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J147" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K147" s="22" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="L147" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M147" s="6"/>
       <c r="N147" s="6"/>
       <c r="O147" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P147" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q147" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R147" s="7"/>
     </row>
@@ -7822,38 +7764,38 @@
       <c r="C148" s="24"/>
       <c r="D148" s="6"/>
       <c r="E148" s="6" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="F148" s="6"/>
       <c r="G148" s="6" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="H148" s="6" t="str">
         <f t="shared" ref="H148" si="12">DEC2BIN(B148, 10)</f>
         <v>0010001101</v>
       </c>
       <c r="I148" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J148" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K148" s="22" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="L148" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M148" s="6"/>
       <c r="N148" s="6"/>
       <c r="O148" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P148" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q148" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R148" s="7"/>
     </row>
@@ -7868,40 +7810,40 @@
       <c r="C149" s="24"/>
       <c r="D149" s="6"/>
       <c r="E149" s="6" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="F149" s="6" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G149" s="6" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="H149" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001110</v>
       </c>
       <c r="I149" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J149" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K149" s="22" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="L149" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M149" s="6"/>
       <c r="N149" s="6"/>
       <c r="O149" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P149" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q149" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R149" s="7"/>
     </row>
@@ -7916,40 +7858,40 @@
       <c r="C150" s="24"/>
       <c r="D150" s="6"/>
       <c r="E150" s="6" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="F150" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G150" s="6" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="H150" s="6" t="str">
         <f t="shared" si="10"/>
         <v>0010001111</v>
       </c>
       <c r="I150" s="6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="J150" s="6" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="K150" s="22" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="L150" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M150" s="6"/>
       <c r="N150" s="6"/>
       <c r="O150" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P150" s="24" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q150" s="24" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="R150" s="7"/>
     </row>
@@ -7962,7 +7904,7 @@
         <v>144</v>
       </c>
       <c r="C151" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D151" s="6"/>
       <c r="E151" s="6" t="s">
@@ -7981,14 +7923,14 @@
       </c>
       <c r="J151" s="6"/>
       <c r="K151" s="6" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="L151" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M151" s="6"/>
       <c r="N151" s="35" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="O151" s="24"/>
       <c r="P151" s="24">
@@ -8260,34 +8202,34 @@
         <v>154</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D161" s="27"/>
       <c r="E161" s="27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="F161" s="27" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G161" s="28" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H161" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011010</v>
       </c>
       <c r="I161" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J161" s="27"/>
       <c r="K161" s="6" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="L161" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M161" s="22" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="N161" s="22"/>
       <c r="O161" s="30"/>
@@ -8308,34 +8250,34 @@
         <v>155</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D162" s="27"/>
       <c r="E162" s="27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="F162" s="27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G162" s="28" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="H162" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011011</v>
       </c>
       <c r="I162" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J162" s="27"/>
       <c r="K162" s="22" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L162" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M162" s="22" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="N162" s="22"/>
       <c r="O162" s="30"/>
@@ -8356,34 +8298,34 @@
         <v>156</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D163" s="27"/>
       <c r="E163" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F163" s="27" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="G163" s="28" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="H163" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011100</v>
       </c>
       <c r="I163" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J163" s="27"/>
       <c r="K163" s="22" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
       <c r="L163" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M163" s="22" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="N163" s="22"/>
       <c r="O163" s="30"/>
@@ -8404,31 +8346,31 @@
         <v>157</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D164" s="27"/>
       <c r="E164" s="27" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="F164" s="27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G164" s="28" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H164" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011101</v>
       </c>
       <c r="I164" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J164" s="27"/>
       <c r="K164" s="22" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
       <c r="L164" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M164" s="22"/>
       <c r="N164" s="22"/>
@@ -8450,31 +8392,31 @@
         <v>158</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D165" s="27"/>
       <c r="E165" s="27" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="F165" s="27" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G165" s="28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="H165" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011110</v>
       </c>
       <c r="I165" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J165" s="27"/>
       <c r="K165" s="22" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="L165" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M165" s="22"/>
       <c r="N165" s="22"/>
@@ -8496,31 +8438,31 @@
         <v>159</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D166" s="27"/>
       <c r="E166" s="27" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="F166" s="27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="G166" s="28" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="H166" s="27" t="str">
         <f t="shared" si="10"/>
         <v>0010011111</v>
       </c>
       <c r="I166" s="27" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="J166" s="27"/>
       <c r="K166" s="22" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="L166" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M166" s="22"/>
       <c r="N166" s="22"/>
@@ -8542,16 +8484,16 @@
         <v>160</v>
       </c>
       <c r="C167" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D167" s="6" t="s">
         <v>38</v>
       </c>
       <c r="E167" s="6" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="F167" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G167" s="28" t="s">
         <v>155</v>
@@ -8570,7 +8512,7 @@
         <v>80</v>
       </c>
       <c r="L167" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M167" s="6"/>
       <c r="N167" s="6"/>
@@ -8594,14 +8536,14 @@
         <v>161</v>
       </c>
       <c r="C168" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D168" s="6"/>
       <c r="E168" s="6" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="F168" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G168" s="22" t="s">
         <v>156</v>
@@ -8620,7 +8562,7 @@
         <v>81</v>
       </c>
       <c r="L168" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M168" s="6"/>
       <c r="N168" s="6"/>
@@ -8644,14 +8586,14 @@
         <v>162</v>
       </c>
       <c r="C169" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D169" s="6"/>
       <c r="E169" s="6" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F169" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G169" s="22" t="s">
         <v>157</v>
@@ -8670,7 +8612,7 @@
         <v>82</v>
       </c>
       <c r="L169" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M169" s="6"/>
       <c r="N169" s="6"/>
@@ -8694,11 +8636,11 @@
         <v>163</v>
       </c>
       <c r="C170" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D170" s="6"/>
       <c r="E170" s="6" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="F170" s="6"/>
       <c r="G170" s="22" t="s">
@@ -8709,14 +8651,14 @@
         <v>0010100011</v>
       </c>
       <c r="I170" s="9" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="J170" s="9"/>
       <c r="K170" s="6" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="L170" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M170" s="6"/>
       <c r="N170" s="6"/>
@@ -9078,10 +9020,10 @@
       <c r="C183" s="24"/>
       <c r="D183" s="6"/>
       <c r="E183" s="6" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="F183" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G183" s="28" t="s">
         <v>158</v>
@@ -9100,7 +9042,7 @@
         <v>80</v>
       </c>
       <c r="L183" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M183" s="6"/>
       <c r="N183" s="6"/>
@@ -9126,10 +9068,10 @@
       <c r="C184" s="24"/>
       <c r="D184" s="6"/>
       <c r="E184" s="6" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="F184" s="6" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G184" s="22" t="s">
         <v>159</v>
@@ -9148,7 +9090,7 @@
         <v>81</v>
       </c>
       <c r="L184" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M184" s="6"/>
       <c r="N184" s="6"/>
@@ -9174,10 +9116,10 @@
       <c r="C185" s="24"/>
       <c r="D185" s="6"/>
       <c r="E185" s="6" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="F185" s="6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="G185" s="22" t="s">
         <v>160</v>
@@ -9196,7 +9138,7 @@
         <v>82</v>
       </c>
       <c r="L185" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M185" s="6"/>
       <c r="N185" s="6"/>
@@ -9584,13 +9526,13 @@
         <v>192</v>
       </c>
       <c r="C199" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D199" s="6" t="s">
         <v>57</v>
       </c>
       <c r="E199" s="6" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="F199" s="6"/>
       <c r="G199" s="22" t="s">
@@ -9608,7 +9550,7 @@
         <v>83</v>
       </c>
       <c r="L199" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M199" s="6"/>
       <c r="N199" s="22"/>
@@ -9628,7 +9570,7 @@
       <c r="C200" s="24"/>
       <c r="D200" s="6"/>
       <c r="E200" s="6" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="F200" s="6"/>
       <c r="G200" s="22" t="s">
@@ -9646,7 +9588,7 @@
         <v>84</v>
       </c>
       <c r="L200" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M200" s="6"/>
       <c r="N200" s="10"/>
@@ -9666,7 +9608,7 @@
       <c r="C201" s="24"/>
       <c r="D201" s="6"/>
       <c r="E201" s="6" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="F201" s="6"/>
       <c r="G201" s="22" t="s">
@@ -9684,7 +9626,7 @@
         <v>143</v>
       </c>
       <c r="L201" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M201" s="6"/>
       <c r="N201" s="6"/>
@@ -9704,7 +9646,7 @@
       <c r="C202" s="24"/>
       <c r="D202" s="6"/>
       <c r="E202" s="22" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="F202" s="22"/>
       <c r="G202" s="22" t="s">
@@ -9722,7 +9664,7 @@
         <v>142</v>
       </c>
       <c r="L202" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M202" s="35"/>
       <c r="N202" s="10"/>
@@ -9742,7 +9684,7 @@
       <c r="C203" s="24"/>
       <c r="D203" s="6"/>
       <c r="E203" s="6" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="F203" s="6"/>
       <c r="G203" s="22" t="s">
@@ -9757,10 +9699,10 @@
       </c>
       <c r="J203" s="6"/>
       <c r="K203" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L203" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M203" s="6"/>
       <c r="N203" s="6"/>
@@ -9778,11 +9720,11 @@
         <v>197</v>
       </c>
       <c r="C204" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D204" s="6"/>
       <c r="E204" s="22" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="F204" s="22"/>
       <c r="G204" s="22" t="s">
@@ -9797,10 +9739,10 @@
       </c>
       <c r="J204" s="6"/>
       <c r="K204" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="L204" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M204" s="6"/>
       <c r="N204" s="6"/>
@@ -9878,7 +9820,7 @@
       <c r="C207" s="24"/>
       <c r="D207" s="6"/>
       <c r="E207" s="6" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F207" s="6"/>
       <c r="G207" s="22" t="s">
@@ -9896,12 +9838,12 @@
         <v>141</v>
       </c>
       <c r="L207" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M207" s="6"/>
       <c r="N207" s="10"/>
       <c r="O207" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P207" s="24">
         <v>3</v>
@@ -9922,7 +9864,7 @@
       <c r="C208" s="24"/>
       <c r="D208" s="6"/>
       <c r="E208" s="6" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F208" s="6"/>
       <c r="G208" s="22" t="s">
@@ -9940,12 +9882,12 @@
         <v>85</v>
       </c>
       <c r="L208" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M208" s="6"/>
       <c r="N208" s="6"/>
       <c r="O208" s="24" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="P208" s="24">
         <v>3</v>
@@ -9966,7 +9908,7 @@
       <c r="C209" s="24"/>
       <c r="D209" s="6"/>
       <c r="E209" s="6" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F209" s="6"/>
       <c r="G209" s="22" t="s">
@@ -9981,10 +9923,10 @@
       </c>
       <c r="J209" s="6"/>
       <c r="K209" s="6" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="L209" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M209" s="6"/>
       <c r="N209" s="6"/>
@@ -10006,7 +9948,7 @@
       <c r="C210" s="24"/>
       <c r="D210" s="6"/>
       <c r="E210" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F210" s="6"/>
       <c r="G210" s="22" t="s">
@@ -10021,10 +9963,10 @@
       </c>
       <c r="J210" s="6"/>
       <c r="K210" s="6" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="L210" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M210" s="6"/>
       <c r="N210" s="6"/>
@@ -10044,7 +9986,7 @@
       <c r="C211" s="24"/>
       <c r="D211" s="6"/>
       <c r="E211" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F211" s="6"/>
       <c r="G211" s="6" t="s">
@@ -10062,7 +10004,7 @@
         <v>182</v>
       </c>
       <c r="L211" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M211" s="6"/>
       <c r="N211" s="6"/>
@@ -10080,11 +10022,11 @@
         <v>205</v>
       </c>
       <c r="C212" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D212" s="6"/>
       <c r="E212" s="34" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F212" s="34"/>
       <c r="G212" s="6" t="s">
@@ -10099,10 +10041,10 @@
       </c>
       <c r="J212" s="6"/>
       <c r="K212" s="6" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="L212" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M212" s="35"/>
       <c r="N212" s="6"/>
@@ -10120,11 +10062,11 @@
         <v>206</v>
       </c>
       <c r="C213" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D213" s="6"/>
       <c r="E213" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="F213" s="6"/>
       <c r="G213" s="6" t="s">
@@ -10139,10 +10081,10 @@
       </c>
       <c r="J213" s="6"/>
       <c r="K213" s="6" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="L213" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M213" s="35"/>
       <c r="N213" s="6"/>
@@ -10174,7 +10116,7 @@
       <c r="J214" s="6"/>
       <c r="K214" s="6"/>
       <c r="L214" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M214" s="35"/>
       <c r="N214" s="6"/>
@@ -10194,7 +10136,7 @@
       <c r="C215" s="24"/>
       <c r="D215" s="6"/>
       <c r="E215" s="6" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="F215" s="6"/>
       <c r="G215" s="6" t="s">
@@ -10209,10 +10151,10 @@
       </c>
       <c r="J215" s="6"/>
       <c r="K215" s="6" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="L215" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M215" s="35"/>
       <c r="N215" s="6"/>
@@ -10232,7 +10174,7 @@
       <c r="C216" s="24"/>
       <c r="D216" s="6"/>
       <c r="E216" s="6" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="F216" s="6"/>
       <c r="G216" s="6" t="s">
@@ -10247,10 +10189,10 @@
       </c>
       <c r="J216" s="6"/>
       <c r="K216" s="6" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="L216" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M216" s="35"/>
       <c r="N216" s="6"/>
@@ -10296,29 +10238,29 @@
         <v>211</v>
       </c>
       <c r="C218" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D218" s="22"/>
       <c r="E218" s="22" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="F218" s="22"/>
       <c r="G218" s="22" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="H218" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010011</v>
       </c>
       <c r="I218" s="22" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J218" s="22"/>
       <c r="K218" s="22" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="L218" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M218" s="22"/>
       <c r="N218" s="6"/>
@@ -10336,29 +10278,29 @@
         <v>212</v>
       </c>
       <c r="C219" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D219" s="22"/>
       <c r="E219" s="22" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F219" s="22"/>
       <c r="G219" s="22" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="H219" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010100</v>
       </c>
       <c r="I219" s="22" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="J219" s="22"/>
       <c r="K219" s="22" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="L219" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M219" s="22"/>
       <c r="N219" s="6"/>
@@ -10376,29 +10318,29 @@
         <v>213</v>
       </c>
       <c r="C220" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D220" s="22"/>
       <c r="E220" s="22" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="F220" s="22"/>
       <c r="G220" s="22" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="H220" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010101</v>
       </c>
       <c r="I220" s="22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J220" s="22"/>
       <c r="K220" s="22" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="L220" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M220" s="22"/>
       <c r="N220" s="6"/>
@@ -10416,29 +10358,29 @@
         <v>214</v>
       </c>
       <c r="C221" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D221" s="22"/>
       <c r="E221" s="22" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="F221" s="22"/>
       <c r="G221" s="22" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="H221" s="22" t="str">
         <f t="shared" si="17"/>
         <v>0011010110</v>
       </c>
       <c r="I221" s="22" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="J221" s="22"/>
       <c r="K221" s="22" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="L221" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M221" s="22"/>
       <c r="N221" s="6"/>
@@ -10456,29 +10398,29 @@
         <v>215</v>
       </c>
       <c r="C222" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D222" s="32"/>
       <c r="E222" s="32" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="F222" s="32"/>
       <c r="G222" s="32" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="H222" s="32" t="str">
         <f t="shared" si="17"/>
         <v>0011010111</v>
       </c>
       <c r="I222" s="32" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="J222" s="32"/>
       <c r="K222" s="32" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="L222" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M222" s="32"/>
       <c r="N222" s="6"/>
@@ -10496,29 +10438,29 @@
         <v>216</v>
       </c>
       <c r="C223" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D223" s="6"/>
       <c r="E223" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="F223" s="6"/>
       <c r="G223" s="6" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="H223" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011000</v>
       </c>
       <c r="I223" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J223" s="6"/>
       <c r="K223" s="6" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="L223" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M223" s="6"/>
       <c r="N223" s="6"/>
@@ -10536,29 +10478,29 @@
         <v>217</v>
       </c>
       <c r="C224" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D224" s="6"/>
       <c r="E224" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="F224" s="6"/>
       <c r="G224" s="6" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="H224" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011011001</v>
       </c>
       <c r="I224" s="6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="J224" s="6"/>
       <c r="K224" s="6" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L224" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M224" s="6"/>
       <c r="N224" s="6"/>
@@ -10744,17 +10686,17 @@
         <v>224</v>
       </c>
       <c r="C231" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D231" s="6" t="s">
         <v>58</v>
       </c>
       <c r="E231" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="F231" s="6"/>
       <c r="G231" s="22" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="H231" s="6" t="str">
         <f t="shared" si="17"/>
@@ -10768,7 +10710,7 @@
         <v>86</v>
       </c>
       <c r="L231" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M231" s="6"/>
       <c r="N231" s="6"/>
@@ -10788,11 +10730,11 @@
       <c r="C232" s="24"/>
       <c r="D232" s="32"/>
       <c r="E232" s="32" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="F232" s="32"/>
       <c r="G232" s="32" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="H232" s="32" t="str">
         <f t="shared" si="17"/>
@@ -10803,15 +10745,15 @@
       </c>
       <c r="J232" s="32"/>
       <c r="K232" s="32" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="L232" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M232" s="32"/>
       <c r="N232" s="6"/>
       <c r="O232" s="24" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="P232" s="24"/>
       <c r="Q232" s="24" t="s">
@@ -10840,7 +10782,7 @@
       <c r="J233" s="6"/>
       <c r="K233" s="6"/>
       <c r="L233" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M233" s="22"/>
       <c r="N233" s="6"/>
@@ -10914,11 +10856,11 @@
         <v>229</v>
       </c>
       <c r="C236" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D236" s="6"/>
       <c r="E236" s="22" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="F236" s="22"/>
       <c r="G236" s="22" t="s">
@@ -10929,16 +10871,16 @@
         <v>0011100101</v>
       </c>
       <c r="I236" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J236" s="6" t="s">
         <v>105</v>
       </c>
       <c r="K236" s="6" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="L236" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M236" s="22"/>
       <c r="N236" s="6"/>
@@ -11022,7 +10964,7 @@
       <c r="C239" s="24"/>
       <c r="D239" s="6"/>
       <c r="E239" s="6" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="F239" s="6"/>
       <c r="G239" s="22" t="s">
@@ -11040,7 +10982,7 @@
         <v>93</v>
       </c>
       <c r="L239" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M239" s="22"/>
       <c r="N239" s="6"/>
@@ -11066,7 +11008,7 @@
       <c r="C240" s="24"/>
       <c r="D240" s="6"/>
       <c r="E240" s="6" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="F240" s="6"/>
       <c r="G240" s="22" t="s">
@@ -11084,7 +11026,7 @@
         <v>94</v>
       </c>
       <c r="L240" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M240" s="22"/>
       <c r="N240" s="6"/>
@@ -11110,7 +11052,7 @@
       <c r="C241" s="24"/>
       <c r="D241" s="6"/>
       <c r="E241" s="6" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="F241" s="6"/>
       <c r="G241" s="22" t="s">
@@ -11121,16 +11063,16 @@
         <v>0011101010</v>
       </c>
       <c r="I241" s="6" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="J241" s="6" t="s">
         <v>105</v>
       </c>
       <c r="K241" s="6" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="L241" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M241" s="22"/>
       <c r="N241" s="6"/>
@@ -11212,11 +11154,11 @@
         <v>237</v>
       </c>
       <c r="C244" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D244" s="6"/>
       <c r="E244" s="34" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="F244" s="34"/>
       <c r="G244" s="6" t="s">
@@ -11231,10 +11173,10 @@
       </c>
       <c r="J244" s="6"/>
       <c r="K244" s="6" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="L244" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M244" s="22"/>
       <c r="N244" s="6"/>
@@ -11252,11 +11194,11 @@
         <v>238</v>
       </c>
       <c r="C245" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D245" s="6"/>
       <c r="E245" s="6" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
       <c r="F245" s="6"/>
       <c r="G245" s="6" t="s">
@@ -11271,10 +11213,10 @@
       </c>
       <c r="J245" s="6"/>
       <c r="K245" s="6" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="L245" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M245" s="22"/>
       <c r="N245" s="6"/>
@@ -11324,7 +11266,7 @@
       <c r="C247" s="24"/>
       <c r="D247" s="22"/>
       <c r="E247" s="22" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="F247" s="22"/>
       <c r="G247" s="22" t="s">
@@ -11339,10 +11281,10 @@
       </c>
       <c r="J247" s="6"/>
       <c r="K247" s="6" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="L247" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M247" s="22"/>
       <c r="N247" s="6"/>
@@ -11362,7 +11304,7 @@
       <c r="C248" s="24"/>
       <c r="D248" s="22"/>
       <c r="E248" s="22" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="F248" s="22"/>
       <c r="G248" s="22" t="s">
@@ -11377,10 +11319,10 @@
       </c>
       <c r="J248" s="6"/>
       <c r="K248" s="6" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="L248" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M248" s="22"/>
       <c r="N248" s="6"/>
@@ -11398,11 +11340,11 @@
         <v>242</v>
       </c>
       <c r="C249" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D249" s="22"/>
       <c r="E249" s="22" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="F249" s="22"/>
       <c r="G249" s="22" t="s">
@@ -11417,10 +11359,10 @@
       </c>
       <c r="J249" s="6"/>
       <c r="K249" s="6" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="L249" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M249" s="22"/>
       <c r="N249" s="6"/>
@@ -11438,29 +11380,29 @@
         <v>243</v>
       </c>
       <c r="C250" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D250" s="22"/>
       <c r="E250" s="22" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="F250" s="22"/>
       <c r="G250" s="22" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="H250" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110011</v>
       </c>
       <c r="I250" s="6" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="J250" s="6"/>
       <c r="K250" s="6" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="L250" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M250" s="22"/>
       <c r="N250" s="6"/>
@@ -11478,29 +11420,29 @@
         <v>244</v>
       </c>
       <c r="C251" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D251" s="22"/>
       <c r="E251" s="22" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
       <c r="F251" s="22"/>
       <c r="G251" s="22" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="H251" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110100</v>
       </c>
       <c r="I251" s="6" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="J251" s="6"/>
       <c r="K251" s="6" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="L251" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M251" s="22"/>
       <c r="N251" s="6"/>
@@ -11518,29 +11460,29 @@
         <v>245</v>
       </c>
       <c r="C252" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D252" s="22"/>
       <c r="E252" s="22" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="F252" s="22"/>
       <c r="G252" s="22" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="H252" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110101</v>
       </c>
       <c r="I252" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J252" s="6"/>
       <c r="K252" s="6" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="L252" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M252" s="22"/>
       <c r="N252" s="6"/>
@@ -11558,29 +11500,29 @@
         <v>246</v>
       </c>
       <c r="C253" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D253" s="22"/>
       <c r="E253" s="22" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
       <c r="F253" s="22"/>
       <c r="G253" s="22" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="H253" s="6" t="str">
         <f t="shared" si="17"/>
         <v>0011110110</v>
       </c>
       <c r="I253" s="6" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="J253" s="6"/>
       <c r="K253" s="6" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="L253" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M253" s="22"/>
       <c r="N253" s="6"/>
@@ -11822,17 +11764,17 @@
         <v>255</v>
       </c>
       <c r="C262" s="31" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D262" s="10"/>
       <c r="E262" s="10" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="F262" s="10" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G262" s="10" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="H262" s="10" t="str">
         <f t="shared" si="17"/>
@@ -11840,13 +11782,13 @@
       </c>
       <c r="I262" s="10"/>
       <c r="J262" s="10" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="K262" s="6" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="L262" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M262" s="6"/>
       <c r="N262" s="6"/>
@@ -11864,13 +11806,13 @@
         <v>256</v>
       </c>
       <c r="C263" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D263" s="6" t="s">
         <v>24</v>
       </c>
       <c r="E263" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="F263" s="6"/>
       <c r="G263" s="6" t="s">
@@ -11885,10 +11827,10 @@
       </c>
       <c r="J263" s="6"/>
       <c r="K263" s="6" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="L263" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M263" s="6"/>
       <c r="N263" s="6"/>
@@ -11908,7 +11850,7 @@
       <c r="C264" s="24"/>
       <c r="D264" s="6"/>
       <c r="E264" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="F264" s="6"/>
       <c r="G264" s="6" t="s">
@@ -11923,15 +11865,15 @@
       </c>
       <c r="J264" s="6"/>
       <c r="K264" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="L264" s="22" t="s">
         <v>470</v>
-      </c>
-      <c r="L264" s="22" t="s">
-        <v>473</v>
       </c>
       <c r="M264" s="6"/>
       <c r="N264" s="6"/>
       <c r="O264" s="24" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="P264" s="24">
         <v>3</v>
@@ -11950,7 +11892,7 @@
         <v>258</v>
       </c>
       <c r="C265" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D265" s="6"/>
       <c r="E265" s="6" t="s">
@@ -11972,7 +11914,7 @@
         <v>95</v>
       </c>
       <c r="L265" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M265" s="35"/>
       <c r="N265" s="6"/>
@@ -11990,14 +11932,14 @@
         <v>259</v>
       </c>
       <c r="C266" s="24" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="D266" s="6"/>
       <c r="E266" s="6" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="F266" s="22" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="G266" s="22" t="s">
         <v>116</v>
@@ -12013,10 +11955,10 @@
         <v>117</v>
       </c>
       <c r="K266" s="6" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="L266" s="22" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="M266" s="6"/>
       <c r="N266" s="6"/>
@@ -12819,10 +12761,10 @@
       </c>
       <c r="C295" s="24"/>
       <c r="D295" s="6" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E295" s="6" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="F295" s="6"/>
       <c r="G295" s="6" t="s">
@@ -12839,8 +12781,8 @@
       <c r="K295" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="L295" s="35" t="s">
-        <v>195</v>
+      <c r="L295" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="M295" s="35"/>
       <c r="N295" s="6"/>
@@ -12860,7 +12802,7 @@
       <c r="C296" s="24"/>
       <c r="D296" s="6"/>
       <c r="E296" s="6" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="F296" s="6"/>
       <c r="G296" s="6" t="s">
@@ -12871,16 +12813,16 @@
         <v>0100100001</v>
       </c>
       <c r="I296" s="6" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="J296" s="6" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="K296" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="L296" s="35" t="s">
-        <v>195</v>
+        <v>272</v>
+      </c>
+      <c r="L296" s="22" t="s">
+        <v>470</v>
       </c>
       <c r="M296" s="35"/>
       <c r="N296" s="6"/>
@@ -12898,26 +12840,26 @@
         <v>290</v>
       </c>
       <c r="C297" s="24" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="D297" s="6"/>
       <c r="E297" s="27" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="F297" s="28"/>
       <c r="G297" s="28" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="H297" s="28" t="str">
         <f t="shared" si="20"/>
         <v>0100100010</v>
       </c>
       <c r="I297" s="28" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="J297" s="28"/>
       <c r="K297" s="28" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="L297" s="28" t="s">
         <v>195</v>
@@ -12925,14 +12867,14 @@
       <c r="M297" s="28"/>
       <c r="N297" s="28"/>
       <c r="O297" s="39" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="P297" s="39"/>
       <c r="Q297" s="39" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="R297" s="40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="S297" s="41"/>
     </row>
@@ -12947,11 +12889,11 @@
       <c r="C298" s="24"/>
       <c r="D298" s="6"/>
       <c r="E298" s="6" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="F298" s="6"/>
       <c r="G298" s="6" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="H298" s="6" t="str">
         <f t="shared" si="20"/>
@@ -12979,11 +12921,11 @@
       <c r="C299" s="24"/>
       <c r="D299" s="6"/>
       <c r="E299" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="F299" s="6"/>
       <c r="G299" s="6" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="H299" s="6" t="str">
         <f t="shared" si="20"/>
